--- a/code/100_value_stock_strategy.xlsx
+++ b/code/100_value_stock_strategy.xlsx
@@ -103,15 +103,15 @@
     <t>HCA</t>
   </si>
   <si>
+    <t>HFC</t>
+  </si>
+  <si>
     <t>UNM</t>
   </si>
   <si>
     <t>KSS</t>
   </si>
   <si>
-    <t>HFC</t>
-  </si>
-  <si>
     <t>APA</t>
   </si>
   <si>
@@ -130,10 +130,13 @@
     <t>MET</t>
   </si>
   <si>
+    <t>MHK</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
-    <t>MHK</t>
+    <t>NOV</t>
   </si>
   <si>
     <t>NUE</t>
@@ -142,31 +145,31 @@
     <t>ALL</t>
   </si>
   <si>
+    <t>PRU</t>
+  </si>
+  <si>
     <t>LB</t>
   </si>
   <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>PRU</t>
-  </si>
-  <si>
     <t>HOLX</t>
   </si>
   <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>CXO</t>
+  </si>
+  <si>
+    <t>IVZ</t>
+  </si>
+  <si>
+    <t>AIZ</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>IVZ</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>AIZ</t>
-  </si>
-  <si>
-    <t>CXO</t>
+    <t>CINF</t>
   </si>
   <si>
     <t>GM</t>
@@ -175,7 +178,10 @@
     <t>XRX</t>
   </si>
   <si>
-    <t>CINF</t>
+    <t>DISCA</t>
+  </si>
+  <si>
+    <t>PHM</t>
   </si>
   <si>
     <t>AFL</t>
@@ -184,28 +190,25 @@
     <t>AIG</t>
   </si>
   <si>
-    <t>DISCA</t>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>LYV</t>
   </si>
   <si>
     <t>PVH</t>
   </si>
   <si>
+    <t>DISH</t>
+  </si>
+  <si>
     <t>CVS</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>LYV</t>
-  </si>
-  <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>UHS</t>
+    <t>MOS</t>
   </si>
   <si>
     <t>RJF</t>
@@ -217,88 +220,94 @@
     <t>WDC</t>
   </si>
   <si>
-    <t>MOS</t>
+    <t>NRG</t>
   </si>
   <si>
     <t>UAL</t>
   </si>
   <si>
-    <t>NRG</t>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>LYB</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>OXY</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>LYB</t>
-  </si>
-  <si>
     <t>FTI</t>
   </si>
   <si>
     <t>RE</t>
   </si>
   <si>
+    <t>HRL</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
     <t>IP</t>
   </si>
   <si>
+    <t>LNC</t>
+  </si>
+  <si>
     <t>CB</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>LNC</t>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>MPC</t>
   </si>
   <si>
     <t>EOG</t>
   </si>
   <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>MPC</t>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>TRV</t>
   </si>
   <si>
     <t>SYF</t>
   </si>
   <si>
-    <t>HRL</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
     <t>VLO</t>
   </si>
   <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
     <t>SWKS</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>JCI</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
     <t>WBA</t>
   </si>
   <si>
-    <t>LH</t>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>CVX</t>
   </si>
   <si>
     <t>TEL</t>
@@ -307,31 +316,25 @@
     <t>WHR</t>
   </si>
   <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>CVX</t>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>ZION</t>
   </si>
   <si>
     <t>KHC</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>ZION</t>
+    <t>NWSA</t>
   </si>
   <si>
     <t>WFC</t>
   </si>
   <si>
-    <t>NWSA</t>
+    <t>RL</t>
   </si>
   <si>
     <t>DD</t>
@@ -340,34 +343,31 @@
     <t>SJM</t>
   </si>
   <si>
-    <t>RL</t>
+    <t>DE</t>
   </si>
   <si>
     <t>RF</t>
   </si>
   <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
     <t>PNW</t>
   </si>
   <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>NWL</t>
-  </si>
-  <si>
-    <t>PGR</t>
+    <t>DXC</t>
   </si>
   <si>
     <t>PXD</t>
-  </si>
-  <si>
-    <t>BDX</t>
   </si>
 </sst>
 </file>
@@ -824,55 +824,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>19.09</v>
+        <v>18.79</v>
       </c>
       <c r="C2" s="3">
-        <v>5238</v>
+        <v>5321</v>
       </c>
       <c r="D2" s="4">
-        <v>-0.05865942585485655</v>
+        <v>-0.05808210117834172</v>
       </c>
       <c r="E2" s="5">
         <v>0.2053388090349076</v>
       </c>
       <c r="F2" s="4">
-        <v>-9.501919590195872</v>
+        <v>-9.472192577345915</v>
       </c>
       <c r="G2" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="H2" s="4">
-        <v>-3.79</v>
+        <v>-3.77</v>
       </c>
       <c r="I2" s="5">
         <v>0.05338809034907597</v>
       </c>
       <c r="J2" s="4">
-        <v>-1.62</v>
+        <v>-1.59</v>
       </c>
       <c r="K2" s="5">
         <v>0.05544147843942505</v>
       </c>
       <c r="L2" s="4">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="5">
         <v>0.05338809034907597</v>
       </c>
       <c r="N2" s="4">
-        <v>-7.390757044874811</v>
+        <v>-7.17661071618206</v>
       </c>
       <c r="O2" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="P2" s="4">
-        <v>1.511643609331563</v>
+        <v>1.42084876060036</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="R2" s="5">
-        <v>0.07128190085068935</v>
+        <v>0.07069521853916104</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -880,55 +880,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>38.83</v>
+        <v>37.83</v>
       </c>
       <c r="C3" s="3">
-        <v>2575</v>
+        <v>2643</v>
       </c>
       <c r="D3" s="4">
-        <v>0.009691064211066224</v>
+        <v>0.00963674275372442</v>
       </c>
       <c r="E3" s="5">
         <v>0.2320328542094456</v>
       </c>
       <c r="F3" s="4">
-        <v>-24.5</v>
+        <v>-24.3</v>
       </c>
       <c r="G3" s="5">
         <v>0.02258726899383983</v>
       </c>
       <c r="H3" s="4">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="I3" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.07084188911704312</v>
       </c>
       <c r="J3" s="4">
-        <v>-12.92</v>
+        <v>-12.67</v>
       </c>
       <c r="K3" s="5">
         <v>0.03696098562628337</v>
       </c>
       <c r="L3" s="4">
-        <v>0.336</v>
+        <v>0.322</v>
       </c>
       <c r="M3" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="N3" s="4">
-        <v>4.115002555472805</v>
+        <v>4.076189581533074</v>
       </c>
       <c r="O3" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="P3" s="4">
-        <v>1.755325190266726</v>
+        <v>1.736934622247764</v>
       </c>
       <c r="Q3" s="5">
         <v>0.08829568788501026</v>
       </c>
       <c r="R3" s="5">
-        <v>0.0748019947198592</v>
+        <v>0.07436198298621297</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -936,49 +936,49 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>247.86</v>
+        <v>242.84</v>
       </c>
       <c r="C4" s="3">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D4" s="4">
-        <v>0.02321479050688015</v>
+        <v>0.02396210089639306</v>
       </c>
       <c r="E4" s="5">
         <v>0.2772073921971253</v>
       </c>
       <c r="F4" s="4">
-        <v>-114.4592017982766</v>
+        <v>-115.8141330931369</v>
       </c>
       <c r="G4" s="5">
         <v>0.004106776180698152</v>
       </c>
       <c r="H4" s="4">
-        <v>-7.92</v>
+        <v>-8.17</v>
       </c>
       <c r="I4" s="5">
         <v>0.04928131416837783</v>
       </c>
       <c r="J4" s="4">
-        <v>-66.69</v>
+        <v>-65.29000000000001</v>
       </c>
       <c r="K4" s="5">
         <v>0.02053388090349076</v>
       </c>
       <c r="L4" s="4">
-        <v>0.1508</v>
+        <v>0.1486</v>
       </c>
       <c r="M4" s="5">
         <v>0.008213552361396304</v>
       </c>
       <c r="N4" s="4">
-        <v>9.355299596391239</v>
+        <v>9.541842338982477</v>
       </c>
       <c r="O4" s="5">
         <v>0.2792607802874743</v>
       </c>
       <c r="P4" s="4">
-        <v>3.232811820605241</v>
+        <v>3.231205529993876</v>
       </c>
       <c r="Q4" s="5">
         <v>0.1868583162217659</v>
@@ -992,55 +992,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>105.23</v>
+        <v>108.68</v>
       </c>
       <c r="C5" s="3">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="D5" s="4">
-        <v>0.02910836722384732</v>
+        <v>0.0289414291570422</v>
       </c>
       <c r="E5" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="F5" s="4">
-        <v>1.62309198821686</v>
+        <v>1.671173684773901</v>
       </c>
       <c r="G5" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="H5" s="4">
         <v>4.8</v>
       </c>
       <c r="I5" s="5">
-        <v>0.07905544147843942</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="J5" s="4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.1406570841889117</v>
       </c>
       <c r="L5" s="4">
-        <v>0.6961000000000001</v>
+        <v>0.6895</v>
       </c>
       <c r="M5" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="N5" s="4">
-        <v>3.611461037702902</v>
+        <v>3.56414062517924</v>
       </c>
       <c r="O5" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="P5" s="4">
-        <v>2.464197883564909</v>
+        <v>2.475027709726389</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="R5" s="5">
-        <v>0.1242299794661191</v>
+        <v>0.125990026400704</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1048,55 +1048,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>205.52</v>
+        <v>210.48</v>
       </c>
       <c r="C6" s="3">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1709615346500312</v>
+        <v>0.1706521171519522</v>
       </c>
       <c r="E6" s="5">
         <v>0.4825462012320329</v>
       </c>
       <c r="F6" s="4">
-        <v>-10.5771402238236</v>
+        <v>-10.59365386746064</v>
       </c>
       <c r="G6" s="5">
         <v>0.03490759753593429</v>
       </c>
       <c r="H6" s="4">
-        <v>-14.75</v>
+        <v>-14.17</v>
       </c>
       <c r="I6" s="5">
         <v>0.0431211498973306</v>
       </c>
       <c r="J6" s="4">
-        <v>-8.32</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="K6" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="L6" s="4">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="M6" s="5">
-        <v>0.3326488706365503</v>
+        <v>0.3234086242299795</v>
       </c>
       <c r="N6" s="4">
-        <v>-32.62432970691657</v>
+        <v>-34.5839495552848</v>
       </c>
       <c r="O6" s="5">
         <v>0.006160164271047228</v>
       </c>
       <c r="P6" s="4">
-        <v>-1315.857667691744</v>
+        <v>-1379.958482506858</v>
       </c>
       <c r="Q6" s="5">
         <v>0.002053388090349076</v>
       </c>
       <c r="R6" s="5">
-        <v>0.135523613963039</v>
+        <v>0.1339102376063362</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1104,55 +1104,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>33.71</v>
+        <v>33.61</v>
       </c>
       <c r="C7" s="3">
-        <v>2966</v>
+        <v>2975</v>
       </c>
       <c r="D7" s="4">
-        <v>0.02001870246342168</v>
+        <v>0.0194327997525653</v>
       </c>
       <c r="E7" s="5">
         <v>0.2648870636550308</v>
       </c>
       <c r="F7" s="4">
-        <v>2.235066185173251</v>
+        <v>2.210842664657718</v>
       </c>
       <c r="G7" s="5">
-        <v>0.3490759753593429</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="H7" s="4">
-        <v>4.8</v>
+        <v>4.73</v>
       </c>
       <c r="I7" s="5">
-        <v>0.07905544147843942</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="J7" s="4">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="K7" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="L7" s="4">
-        <v>1.0007</v>
+        <v>1.03</v>
       </c>
       <c r="M7" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="N7" s="4">
-        <v>3.154152262962922</v>
+        <v>3.049569355874167</v>
       </c>
       <c r="O7" s="5">
         <v>0.03490759753593429</v>
       </c>
       <c r="P7" s="4">
-        <v>0.8263737407610589</v>
+        <v>0.8490425629804684</v>
       </c>
       <c r="Q7" s="5">
         <v>0.02053388090349076</v>
       </c>
       <c r="R7" s="5">
-        <v>0.1359636256966852</v>
+        <v>0.135523613963039</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1160,55 +1160,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>86.20999999999999</v>
+        <v>89.41</v>
       </c>
       <c r="C8" s="3">
-        <v>1159</v>
+        <v>1118</v>
       </c>
       <c r="D8" s="4">
-        <v>0.05540045490342494</v>
+        <v>0.05411900138998026</v>
       </c>
       <c r="E8" s="5">
-        <v>0.3490759753593429</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="F8" s="4">
-        <v>2.048926375761634</v>
+        <v>2.070904281202524</v>
       </c>
       <c r="G8" s="5">
-        <v>0.2689938398357289</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="H8" s="4">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I8" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="J8" s="4">
-        <v>0.879</v>
+        <v>0.893</v>
       </c>
       <c r="K8" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="L8" s="4">
-        <v>0.3318</v>
+        <v>0.3373</v>
       </c>
       <c r="M8" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="N8" s="4">
-        <v>4.068185502182118</v>
+        <v>4.018230023470682</v>
       </c>
       <c r="O8" s="5">
         <v>0.0513347022587269</v>
       </c>
       <c r="P8" s="4">
-        <v>3.446996304623137</v>
+        <v>3.357898180963147</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="R8" s="5">
-        <v>0.1528307421531241</v>
+        <v>0.1522440598415958</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1222,49 +1222,49 @@
         <v>6250</v>
       </c>
       <c r="D9" s="4">
-        <v>-3.263780701442173</v>
+        <v>-3.294698601140105</v>
       </c>
       <c r="E9" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="F9" s="4">
-        <v>1.630441708709692</v>
+        <v>1.651240413703678</v>
       </c>
       <c r="G9" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="H9" s="4">
-        <v>-322.9</v>
+        <v>-312.47</v>
       </c>
       <c r="I9" s="5">
         <v>0.004106776180698152</v>
       </c>
       <c r="J9" s="4">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K9" s="5">
-        <v>0.1242299794661191</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="L9" s="4">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="M9" s="5">
-        <v>0.446611909650924</v>
+        <v>0.4383983572895277</v>
       </c>
       <c r="N9" s="4">
-        <v>6.533644675218959</v>
+        <v>6.626868089605448</v>
       </c>
       <c r="O9" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="P9" s="4">
-        <v>3.833973509544518</v>
+        <v>3.756721127306523</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.2320328542094456</v>
       </c>
       <c r="R9" s="5">
-        <v>0.1598709298914638</v>
+        <v>0.1594309181578175</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1272,55 +1272,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>16.11</v>
+        <v>15.78</v>
       </c>
       <c r="C10" s="3">
-        <v>6207</v>
+        <v>6337</v>
       </c>
       <c r="D10" s="4">
-        <v>0.001358190142123261</v>
+        <v>0.001367201497484226</v>
       </c>
       <c r="E10" s="5">
         <v>0.2094455852156057</v>
       </c>
       <c r="F10" s="4">
-        <v>2.984840019622798</v>
+        <v>2.95528396216506</v>
       </c>
       <c r="G10" s="5">
-        <v>0.5215605749486653</v>
+        <v>0.5133470225872689</v>
       </c>
       <c r="H10" s="4">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="5">
         <v>0.06365503080082136</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5355</v>
+        <v>0.5145</v>
       </c>
       <c r="K10" s="5">
         <v>0.06160164271047228</v>
       </c>
       <c r="L10" s="4">
-        <v>0.3753</v>
+        <v>0.3675</v>
       </c>
       <c r="M10" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="N10" s="4">
-        <v>7.529541286289401</v>
+        <v>7.422202043796999</v>
       </c>
       <c r="O10" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="P10" s="4">
-        <v>2.083011582042002</v>
+        <v>2.036439555292837</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="R10" s="5">
-        <v>0.1680844822528601</v>
+        <v>0.1651510706952185</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1328,55 +1328,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
-        <v>2222</v>
+        <v>2272</v>
       </c>
       <c r="D11" s="4">
-        <v>0.01631817218617097</v>
+        <v>0.01631873119104538</v>
       </c>
       <c r="E11" s="5">
         <v>0.2525667351129364</v>
       </c>
       <c r="F11" s="4">
-        <v>2.617339588408027</v>
+        <v>2.541921739633919</v>
       </c>
       <c r="G11" s="5">
-        <v>0.4455852156057494</v>
+        <v>0.4250513347022587</v>
       </c>
       <c r="H11" s="4">
-        <v>7.2</v>
+        <v>6.96</v>
       </c>
       <c r="I11" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="J11" s="4">
-        <v>0.5065</v>
+        <v>0.5113</v>
       </c>
       <c r="K11" s="5">
         <v>0.0595482546201232</v>
       </c>
       <c r="L11" s="4">
-        <v>0.3128</v>
+        <v>0.3175</v>
       </c>
       <c r="M11" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="N11" s="4">
-        <v>4.71516380498769</v>
+        <v>4.900007556907132</v>
       </c>
       <c r="O11" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="P11" s="4">
-        <v>3.996485825098237</v>
+        <v>4.00366736407838</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.2505133470225873</v>
       </c>
       <c r="R11" s="5">
-        <v>0.1724845995893224</v>
+        <v>0.1689645057201525</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1384,55 +1384,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>255.95</v>
+        <v>253.01</v>
       </c>
       <c r="C12" s="3">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D12" s="4">
-        <v>0.1251800198779108</v>
+        <v>0.1249308572458771</v>
       </c>
       <c r="E12" s="5">
         <v>0.4373716632443532</v>
       </c>
       <c r="F12" s="4">
-        <v>-74.53213779888848</v>
+        <v>-72.3967009920292</v>
       </c>
       <c r="G12" s="5">
         <v>0.008213552361396304</v>
       </c>
       <c r="H12" s="4">
-        <v>13.3</v>
+        <v>13.52</v>
       </c>
       <c r="I12" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.2525667351129364</v>
       </c>
       <c r="J12" s="4">
-        <v>-118.4</v>
+        <v>-115.4</v>
       </c>
       <c r="K12" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="L12" s="4">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M12" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="N12" s="4">
-        <v>8.511482162927956</v>
+        <v>8.528171698540467</v>
       </c>
       <c r="O12" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="P12" s="4">
-        <v>1.841712776093145</v>
+        <v>1.868391359520935</v>
       </c>
       <c r="Q12" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="R12" s="5">
-        <v>0.1768847169257847</v>
+        <v>0.1780580815488413</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1440,55 +1440,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>24.66</v>
+        <v>33.36</v>
       </c>
       <c r="C13" s="3">
-        <v>4055</v>
+        <v>2997</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.389461800593608</v>
+        <v>0.05331411886885952</v>
       </c>
       <c r="E13" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="F13" s="4">
-        <v>6.36931392393297</v>
+        <v>2.26134254391191</v>
       </c>
       <c r="G13" s="5">
-        <v>0.837782340862423</v>
+        <v>0.3593429158110883</v>
       </c>
       <c r="H13" s="4">
-        <v>6.49</v>
+        <v>11.41</v>
       </c>
       <c r="I13" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.2094455852156057</v>
       </c>
       <c r="J13" s="4">
-        <v>0.46</v>
+        <v>0.9213</v>
       </c>
       <c r="K13" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="L13" s="4">
-        <v>0.3798</v>
+        <v>0.348</v>
       </c>
       <c r="M13" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="N13" s="4">
-        <v>3.044832173436757</v>
+        <v>5.337053607666472</v>
       </c>
       <c r="O13" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="P13" s="4">
-        <v>0.3851070350976337</v>
+        <v>2.241639207989868</v>
       </c>
       <c r="Q13" s="5">
-        <v>0.008213552361396304</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="R13" s="5">
-        <v>0.1783514227046054</v>
+        <v>0.1780580815488413</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1496,55 +1496,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>52.69</v>
+        <v>25.24</v>
       </c>
       <c r="C14" s="3">
-        <v>1897</v>
+        <v>3961</v>
       </c>
       <c r="D14" s="4">
-        <v>0.01428631424381304</v>
+        <v>-0.386839447934844</v>
       </c>
       <c r="E14" s="5">
-        <v>0.242299794661191</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="F14" s="4">
-        <v>3.295555969280354</v>
+        <v>6.45680743523744</v>
       </c>
       <c r="G14" s="5">
-        <v>0.5831622176591376</v>
+        <v>0.839835728952772</v>
       </c>
       <c r="H14" s="4">
-        <v>8.02</v>
+        <v>6.39</v>
       </c>
       <c r="I14" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="J14" s="4">
-        <v>1.44</v>
+        <v>0.46</v>
       </c>
       <c r="K14" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="L14" s="4">
-        <v>0.3705</v>
+        <v>0.3917</v>
       </c>
       <c r="M14" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="N14" s="4">
-        <v>3.746649262466213</v>
+        <v>3.022513087967006</v>
       </c>
       <c r="O14" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="P14" s="4">
-        <v>1.178740304117311</v>
+        <v>0.3648641344209061</v>
       </c>
       <c r="Q14" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="R14" s="5">
-        <v>0.1783514227046055</v>
+        <v>0.1786447638603696</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1552,55 +1552,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>32.93</v>
+        <v>51.56</v>
       </c>
       <c r="C15" s="3">
-        <v>3036</v>
+        <v>1939</v>
       </c>
       <c r="D15" s="4">
-        <v>0.0529396117589513</v>
+        <v>0.01436319390482675</v>
       </c>
       <c r="E15" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="F15" s="4">
-        <v>2.29732997358221</v>
+        <v>3.359180225397081</v>
       </c>
       <c r="G15" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.5913757700205339</v>
       </c>
       <c r="H15" s="4">
-        <v>11.26</v>
+        <v>7.93</v>
       </c>
       <c r="I15" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="J15" s="4">
-        <v>0.9543</v>
+        <v>1.47</v>
       </c>
       <c r="K15" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="L15" s="4">
-        <v>0.3436</v>
+        <v>0.3814</v>
       </c>
       <c r="M15" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="N15" s="4">
-        <v>5.445892385281422</v>
+        <v>3.813525072496465</v>
       </c>
       <c r="O15" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="P15" s="4">
-        <v>2.316207681914358</v>
+        <v>1.193106668126063</v>
       </c>
       <c r="Q15" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="R15" s="5">
-        <v>0.1792314461718979</v>
+        <v>0.1804048107949545</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1608,31 +1608,31 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>26.55</v>
+        <v>26.54</v>
       </c>
       <c r="C16" s="3">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1464245613188541</v>
+        <v>0.1497501392430129</v>
       </c>
       <c r="E16" s="5">
-        <v>0.4620123203285421</v>
+        <v>0.4640657084188912</v>
       </c>
       <c r="F16" s="4">
-        <v>-12.56326624642852</v>
+        <v>-12.42514648215236</v>
       </c>
       <c r="G16" s="5">
         <v>0.03080082135523614</v>
       </c>
       <c r="H16" s="4">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="I16" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.3285420944558521</v>
       </c>
       <c r="J16" s="4">
-        <v>-9.050000000000001</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="K16" s="5">
         <v>0.0431211498973306</v>
@@ -1644,19 +1644,19 @@
         <v>0.2238193018480493</v>
       </c>
       <c r="N16" s="4">
-        <v>4.685918309291639</v>
+        <v>4.804942958662584</v>
       </c>
       <c r="O16" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="P16" s="4">
-        <v>2.349513994268578</v>
+        <v>2.383199764179311</v>
       </c>
       <c r="Q16" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="R16" s="5">
-        <v>0.1809914931064828</v>
+        <v>0.1833382223525961</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1664,25 +1664,25 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>41.12</v>
+        <v>40.33</v>
       </c>
       <c r="C17" s="3">
-        <v>2431</v>
+        <v>2479</v>
       </c>
       <c r="D17" s="4">
-        <v>0.005714709480728352</v>
+        <v>0.005591265777780329</v>
       </c>
       <c r="E17" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="F17" s="4">
-        <v>2.210172410979731</v>
+        <v>2.168831474419883</v>
       </c>
       <c r="G17" s="5">
-        <v>0.3305954825462012</v>
+        <v>0.3264887063655031</v>
       </c>
       <c r="H17" s="4">
-        <v>-21.36</v>
+        <v>-21.06</v>
       </c>
       <c r="I17" s="5">
         <v>0.03490759753593429</v>
@@ -1694,25 +1694,25 @@
         <v>0.1067761806981519</v>
       </c>
       <c r="L17" s="4">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M17" s="5">
         <v>0.1765913757700205</v>
       </c>
       <c r="N17" s="4">
-        <v>7.026476580190646</v>
+        <v>7.094275332618515</v>
       </c>
       <c r="O17" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="P17" s="4">
-        <v>4.465066834302545</v>
+        <v>4.57679893627045</v>
       </c>
       <c r="Q17" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="R17" s="5">
-        <v>0.1880316808448225</v>
+        <v>0.1892050454678791</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1720,55 +1720,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>47.36</v>
+        <v>45.97</v>
       </c>
       <c r="C18" s="3">
-        <v>2111</v>
+        <v>2175</v>
       </c>
       <c r="D18" s="4">
-        <v>0.118991577952864</v>
+        <v>0.1210720064894668</v>
       </c>
       <c r="E18" s="5">
-        <v>0.431211498973306</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="F18" s="4">
-        <v>2.109822389507424</v>
+        <v>2.168370915811374</v>
       </c>
       <c r="G18" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.324435318275154</v>
       </c>
       <c r="H18" s="4">
-        <v>-22.93</v>
+        <v>-23.27</v>
       </c>
       <c r="I18" s="5">
         <v>0.03285420944558522</v>
       </c>
       <c r="J18" s="4">
-        <v>0.7281</v>
+        <v>0.718</v>
       </c>
       <c r="K18" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="L18" s="4">
-        <v>0.9466</v>
+        <v>0.948</v>
       </c>
       <c r="M18" s="5">
+        <v>0.1190965092402464</v>
+      </c>
+      <c r="N18" s="4">
+        <v>6.411392217596029</v>
+      </c>
+      <c r="O18" s="5">
         <v>0.1211498973305955</v>
       </c>
-      <c r="N18" s="4">
-        <v>6.562160085610252</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0.1314168377823409</v>
-      </c>
       <c r="P18" s="4">
-        <v>3.859369477773755</v>
+        <v>3.784695139609084</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.242299794661191</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="R18" s="5">
-        <v>0.1886183631563508</v>
+        <v>0.1912584335582282</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1776,55 +1776,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>2020.4</v>
+        <v>2113.2</v>
       </c>
       <c r="C19" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4">
-        <v>0.1524134570435475</v>
+        <v>0.1486693230962176</v>
       </c>
       <c r="E19" s="5">
-        <v>0.4661190965092403</v>
+        <v>0.4620123203285421</v>
       </c>
       <c r="F19" s="4">
-        <v>-8.37833715675527</v>
+        <v>-8.09075136375194</v>
       </c>
       <c r="G19" s="5">
         <v>0.04106776180698152</v>
       </c>
       <c r="H19" s="4">
-        <v>10.73</v>
+        <v>11.08</v>
       </c>
       <c r="I19" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.204312114989733</v>
       </c>
       <c r="J19" s="4">
-        <v>-11.83</v>
+        <v>-11.82</v>
       </c>
       <c r="K19" s="5">
         <v>0.04106776180698152</v>
       </c>
       <c r="L19" s="4">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M19" s="5">
-        <v>0.228952772073922</v>
+        <v>0.2268993839835729</v>
       </c>
       <c r="N19" s="4">
-        <v>7.263204858794602</v>
+        <v>7.568069848531219</v>
       </c>
       <c r="O19" s="5">
-        <v>0.1642710472279261</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="P19" s="4">
-        <v>3.236565247099798</v>
+        <v>3.244928883092933</v>
       </c>
       <c r="Q19" s="5">
-        <v>0.188911704312115</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="R19" s="5">
-        <v>0.1890583748899971</v>
+        <v>0.1921384570255207</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1832,55 +1832,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>31.41</v>
+        <v>31.96</v>
       </c>
       <c r="C20" s="3">
-        <v>3183</v>
+        <v>3128</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1045753136090082</v>
+        <v>0.1069367634879331</v>
       </c>
       <c r="E20" s="5">
-        <v>0.4106776180698152</v>
+        <v>0.4127310061601643</v>
       </c>
       <c r="F20" s="4">
-        <v>2.844339577446957</v>
+        <v>2.801300725204065</v>
       </c>
       <c r="G20" s="5">
-        <v>0.4887063655030801</v>
+        <v>0.4825462012320329</v>
       </c>
       <c r="H20" s="4">
-        <v>6.12</v>
+        <v>6.2</v>
       </c>
       <c r="I20" s="5">
         <v>0.09650924024640657</v>
       </c>
       <c r="J20" s="4">
-        <v>0.9807</v>
+        <v>0.9857</v>
       </c>
       <c r="K20" s="5">
         <v>0.09856262833675565</v>
       </c>
       <c r="L20" s="4">
-        <v>0.757</v>
+        <v>0.763</v>
       </c>
       <c r="M20" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.08932238193018481</v>
       </c>
       <c r="N20" s="4">
-        <v>6.572352529351682</v>
+        <v>6.653409711638534</v>
       </c>
       <c r="O20" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="P20" s="4">
-        <v>1.187631691459626</v>
+        <v>1.240882848997384</v>
       </c>
       <c r="Q20" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="R20" s="5">
-        <v>0.1950718685831622</v>
+        <v>0.1960985626283368</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1888,55 +1888,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>64.84</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="C21" s="3">
-        <v>1542</v>
+        <v>1555</v>
       </c>
       <c r="D21" s="4">
-        <v>-5.437851112452048</v>
+        <v>-5.494631578723622</v>
       </c>
       <c r="E21" s="5">
         <v>0.02669404517453798</v>
       </c>
       <c r="F21" s="4">
-        <v>11.19474988638624</v>
+        <v>11.18532269744894</v>
       </c>
       <c r="G21" s="5">
-        <v>0.919917864476386</v>
+        <v>0.9158110882956879</v>
       </c>
       <c r="H21" s="4">
-        <v>10.52</v>
+        <v>10.55</v>
       </c>
       <c r="I21" s="5">
         <v>0.1848049281314168</v>
       </c>
       <c r="J21" s="4">
-        <v>0.7704</v>
+        <v>0.7549</v>
       </c>
       <c r="K21" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="L21" s="4">
-        <v>0.7653</v>
+        <v>0.7776</v>
       </c>
       <c r="M21" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="N21" s="4">
-        <v>5.07831875932952</v>
+        <v>5.072804388466257</v>
       </c>
       <c r="O21" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="P21" s="4">
-        <v>0.7563486108247303</v>
+        <v>0.7513828380485792</v>
       </c>
       <c r="Q21" s="5">
         <v>0.01848049281314168</v>
       </c>
       <c r="R21" s="5">
-        <v>0.2009386916984453</v>
+        <v>0.1997653270753887</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1944,55 +1944,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>63.03</v>
+        <v>176.66</v>
       </c>
       <c r="C22" s="3">
-        <v>1586</v>
+        <v>566</v>
       </c>
       <c r="D22" s="4">
-        <v>0.1651238706881919</v>
+        <v>0.102030453495621</v>
       </c>
       <c r="E22" s="5">
-        <v>0.4784394250513347</v>
+        <v>0.406570841889117</v>
       </c>
       <c r="F22" s="4">
-        <v>2.108388608157625</v>
+        <v>1.679186879702132</v>
       </c>
       <c r="G22" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="H22" s="4">
-        <v>-44.6</v>
+        <v>11</v>
       </c>
       <c r="I22" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="J22" s="4">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="K22" s="5">
-        <v>0.217659137577002</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="L22" s="4">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="M22" s="5">
-        <v>0.162217659137577</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="N22" s="4">
-        <v>7.91147345981083</v>
+        <v>6.52225089840371</v>
       </c>
       <c r="O22" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="P22" s="4">
-        <v>1.320666469483528</v>
+        <v>3.86221386546132</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.24435318275154</v>
       </c>
       <c r="R22" s="5">
-        <v>0.2021120563215019</v>
+        <v>0.204165444411851</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2000,52 +2000,52 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>175.32</v>
+        <v>62.72</v>
       </c>
       <c r="C23" s="3">
-        <v>570</v>
+        <v>1594</v>
       </c>
       <c r="D23" s="4">
-        <v>0.101137535554303</v>
+        <v>0.1620384983904802</v>
       </c>
       <c r="E23" s="5">
-        <v>0.404517453798768</v>
+        <v>0.4763860369609856</v>
       </c>
       <c r="F23" s="4">
-        <v>1.695430759222503</v>
+        <v>2.117921076106194</v>
       </c>
       <c r="G23" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="H23" s="4">
-        <v>11.03</v>
+        <v>-44.99</v>
       </c>
       <c r="I23" s="5">
-        <v>0.2032854209445585</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="J23" s="4">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="K23" s="5">
-        <v>0.1529774127310062</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="L23" s="4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M23" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.1570841889117043</v>
       </c>
       <c r="N23" s="4">
-        <v>6.462036537666989</v>
+        <v>7.82130175635072</v>
       </c>
       <c r="O23" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="P23" s="4">
-        <v>3.959497415529585</v>
+        <v>1.296004937844479</v>
       </c>
       <c r="Q23" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="R23" s="5">
         <v>0.2043121149897331</v>
@@ -2056,55 +2056,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>114.4</v>
+        <v>14.16</v>
       </c>
       <c r="C24" s="3">
-        <v>874</v>
+        <v>7062</v>
       </c>
       <c r="D24" s="4">
-        <v>0.006343204245664972</v>
+        <v>-0.1222939546347047</v>
       </c>
       <c r="E24" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="F24" s="4">
-        <v>1.890458777433125</v>
+        <v>1.91385355175474</v>
       </c>
       <c r="G24" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="H24" s="4">
-        <v>6.9</v>
+        <v>-9.32</v>
       </c>
       <c r="I24" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="J24" s="4">
-        <v>2.52</v>
+        <v>1.05</v>
       </c>
       <c r="K24" s="5">
-        <v>0.3757700205338809</v>
+        <v>0.1098562628336756</v>
       </c>
       <c r="L24" s="4">
-        <v>1.07</v>
+        <v>1.0367</v>
       </c>
       <c r="M24" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="N24" s="4">
-        <v>4.849843404664195</v>
+        <v>-45.27823987588351</v>
       </c>
       <c r="O24" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="P24" s="4">
-        <v>4.432616201806526</v>
+        <v>10.98601369645332</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.7186858316221766</v>
       </c>
       <c r="R24" s="5">
-        <v>0.2044587855676152</v>
+        <v>0.2043121149897331</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2112,55 +2112,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>116.6</v>
+        <v>116.4</v>
       </c>
       <c r="C25" s="3">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D25" s="4">
-        <v>-0.4250192566064472</v>
+        <v>0.00614192611010207</v>
       </c>
       <c r="E25" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="F25" s="4">
-        <v>5.186986905488546</v>
+        <v>1.895641851075746</v>
       </c>
       <c r="G25" s="5">
-        <v>0.7987679671457906</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="H25" s="4">
-        <v>10.62</v>
+        <v>7.01</v>
       </c>
       <c r="I25" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="J25" s="4">
-        <v>1.36</v>
+        <v>2.55</v>
       </c>
       <c r="K25" s="5">
-        <v>0.1529774127310062</v>
+        <v>0.3819301848049281</v>
       </c>
       <c r="L25" s="4">
-        <v>0.6599</v>
+        <v>1.08</v>
       </c>
       <c r="M25" s="5">
+        <v>0.1498973305954825</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4.828198693503633</v>
+      </c>
+      <c r="O25" s="5">
         <v>0.07186858316221766</v>
       </c>
-      <c r="N25" s="4">
-        <v>2.339400950039464</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0.03080082135523614</v>
-      </c>
       <c r="P25" s="4">
-        <v>0.6537563795100035</v>
+        <v>4.531421751254974</v>
       </c>
       <c r="Q25" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.2915811088295688</v>
       </c>
       <c r="R25" s="5">
-        <v>0.2057788207685538</v>
+        <v>0.2056321501906717</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2168,55 +2168,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>80.55</v>
+        <v>116.2</v>
       </c>
       <c r="C26" s="3">
-        <v>1241</v>
+        <v>860</v>
       </c>
       <c r="D26" s="4">
-        <v>0.0545870801805187</v>
+        <v>-0.4233391251473479</v>
       </c>
       <c r="E26" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="F26" s="4">
-        <v>-20.59144392224398</v>
+        <v>5.224493774506557</v>
       </c>
       <c r="G26" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.8028747433264887</v>
       </c>
       <c r="H26" s="4">
-        <v>16.02</v>
+        <v>11.05</v>
       </c>
       <c r="I26" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="J26" s="4">
-        <v>-43.05</v>
+        <v>1.36</v>
       </c>
       <c r="K26" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="L26" s="4">
-        <v>1.71</v>
+        <v>0.6784</v>
       </c>
       <c r="M26" s="5">
-        <v>0.2885010266940451</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="N26" s="4">
-        <v>7.975051225848621</v>
+        <v>2.253580486775295</v>
       </c>
       <c r="O26" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="P26" s="4">
-        <v>4.14971840681164</v>
+        <v>0.6363053935264591</v>
       </c>
       <c r="Q26" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="R26" s="5">
-        <v>0.2072455265473746</v>
+        <v>0.2076855382810208</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2224,55 +2224,55 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>13.72</v>
+        <v>111.06</v>
       </c>
       <c r="C27" s="3">
-        <v>7288</v>
+        <v>900</v>
       </c>
       <c r="D27" s="4">
-        <v>-0.1227061526905988</v>
+        <v>0.0008510706109263829</v>
       </c>
       <c r="E27" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="F27" s="4">
-        <v>1.96281381500221</v>
+        <v>15.76239170030382</v>
       </c>
       <c r="G27" s="5">
-        <v>0.2320328542094456</v>
+        <v>0.9630390143737166</v>
       </c>
       <c r="H27" s="4">
-        <v>-9.43</v>
+        <v>6.16</v>
       </c>
       <c r="I27" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="J27" s="4">
-        <v>1.07</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="K27" s="5">
-        <v>0.108829568788501</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="L27" s="4">
-        <v>1.0365</v>
+        <v>0.5875</v>
       </c>
       <c r="M27" s="5">
-        <v>0.135523613963039</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="N27" s="4">
-        <v>-46.3450914473911</v>
+        <v>4.586924188781081</v>
       </c>
       <c r="O27" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="P27" s="4">
-        <v>11.11750870345459</v>
+        <v>0.5968946433938406</v>
       </c>
       <c r="Q27" s="5">
-        <v>0.7268993839835729</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="R27" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.2088589029040774</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2280,55 +2280,55 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>109.46</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>913</v>
+        <v>1238</v>
       </c>
       <c r="D28" s="4">
-        <v>0.0008478212778004824</v>
+        <v>0.0546426174076298</v>
       </c>
       <c r="E28" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.3490759753593429</v>
       </c>
       <c r="F28" s="4">
-        <v>15.29077993901425</v>
+        <v>-20.66575609458486</v>
       </c>
       <c r="G28" s="5">
-        <v>0.9630390143737166</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="H28" s="4">
-        <v>5.93</v>
+        <v>16.49</v>
       </c>
       <c r="I28" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="J28" s="4">
-        <v>0.6857</v>
+        <v>-42.51</v>
       </c>
       <c r="K28" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="L28" s="4">
-        <v>0.6077</v>
+        <v>1.69</v>
       </c>
       <c r="M28" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.2802874743326489</v>
       </c>
       <c r="N28" s="4">
-        <v>4.655752161340007</v>
+        <v>8.066713722931674</v>
       </c>
       <c r="O28" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="P28" s="4">
-        <v>0.5943982612765354</v>
+        <v>4.043530865253781</v>
       </c>
       <c r="Q28" s="5">
-        <v>0.01232032854209446</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="R28" s="5">
-        <v>0.2088589029040774</v>
+        <v>0.2092989146377237</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2336,55 +2336,55 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>78.47</v>
+        <v>77.25</v>
       </c>
       <c r="C29" s="3">
-        <v>1274</v>
+        <v>1294</v>
       </c>
       <c r="D29" s="4">
-        <v>0.0372093608880998</v>
+        <v>0.03663306551643767</v>
       </c>
       <c r="E29" s="5">
         <v>0.3121149897330595</v>
       </c>
       <c r="F29" s="4">
-        <v>2.19832105011608</v>
+        <v>2.141038077213703</v>
       </c>
       <c r="G29" s="5">
-        <v>0.3264887063655031</v>
+        <v>0.3100616016427105</v>
       </c>
       <c r="H29" s="4">
-        <v>5.29</v>
+        <v>5.37</v>
       </c>
       <c r="I29" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="J29" s="4">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="K29" s="5">
-        <v>0.3429158110882957</v>
+        <v>0.3305954825462012</v>
       </c>
       <c r="L29" s="4">
         <v>1.7</v>
       </c>
       <c r="M29" s="5">
-        <v>0.2823408624229979</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="N29" s="4">
-        <v>4.000367679786079</v>
+        <v>4.083344866925548</v>
       </c>
       <c r="O29" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="P29" s="4">
-        <v>2.751839240385459</v>
+        <v>2.721214485711591</v>
       </c>
       <c r="Q29" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.1437371663244353</v>
       </c>
       <c r="R29" s="5">
-        <v>0.2210325608682898</v>
+        <v>0.2176591375770021</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2392,55 +2392,55 @@
         <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>58.66</v>
+        <v>114.47</v>
       </c>
       <c r="C30" s="3">
-        <v>1704</v>
+        <v>873</v>
       </c>
       <c r="D30" s="4">
-        <v>0.03490784455836995</v>
+        <v>0.02325772123006414</v>
       </c>
       <c r="E30" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="F30" s="4">
-        <v>4.587643421657378</v>
+        <v>-6.098562106328346</v>
       </c>
       <c r="G30" s="5">
-        <v>0.7577002053388091</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="H30" s="4">
-        <v>9.44</v>
+        <v>15.98</v>
       </c>
       <c r="I30" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="J30" s="4">
-        <v>0.8352000000000001</v>
+        <v>-12.55</v>
       </c>
       <c r="K30" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="L30" s="4">
-        <v>1.0154</v>
+        <v>2.29</v>
       </c>
       <c r="M30" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.391170431211499</v>
       </c>
       <c r="N30" s="4">
-        <v>5.237185212983621</v>
+        <v>11.07578865179682</v>
       </c>
       <c r="O30" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.3572895277207392</v>
       </c>
       <c r="P30" s="4">
-        <v>0.9625856694145141</v>
+        <v>2.459726718337467</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="R30" s="5">
-        <v>0.2220592549134644</v>
+        <v>0.2201525374009974</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2448,55 +2448,55 @@
         <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>23.68</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C31" s="3">
-        <v>4222</v>
+        <v>1494</v>
       </c>
       <c r="D31" s="4">
-        <v>0.06925220226880803</v>
+        <v>0.001398079160738136</v>
       </c>
       <c r="E31" s="5">
-        <v>0.3675564681724846</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="F31" s="4">
-        <v>2.195034237932704</v>
+        <v>1.660926907638812</v>
       </c>
       <c r="G31" s="5">
-        <v>0.324435318275154</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="H31" s="4">
-        <v>9.6</v>
+        <v>-1.26</v>
       </c>
       <c r="I31" s="5">
-        <v>0.162217659137577</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="J31" s="4">
-        <v>0.7166</v>
+        <v>1.7</v>
       </c>
       <c r="K31" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.2392197125256673</v>
       </c>
       <c r="L31" s="4">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="M31" s="5">
-        <v>0.2659137577002053</v>
+        <v>0.5790554414784395</v>
       </c>
       <c r="N31" s="4">
-        <v>8.813791442881476</v>
+        <v>-11.17150790326823</v>
       </c>
       <c r="O31" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P31" s="4">
-        <v>2.366302631148806</v>
+        <v>4.57382395995243</v>
       </c>
       <c r="Q31" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="R31" s="5">
-        <v>0.2239659724259314</v>
+        <v>0.2204458785567615</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2504,55 +2504,55 @@
         <v>48</v>
       </c>
       <c r="B32" s="2">
-        <v>116.03</v>
+        <v>23.6</v>
       </c>
       <c r="C32" s="3">
-        <v>861</v>
+        <v>4237</v>
       </c>
       <c r="D32" s="4">
-        <v>0.02284502669924017</v>
+        <v>0.0713481071595706</v>
       </c>
       <c r="E32" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.3675564681724846</v>
       </c>
       <c r="F32" s="4">
-        <v>-6.168353145324194</v>
+        <v>2.189050183290355</v>
       </c>
       <c r="G32" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.3347022587268993</v>
       </c>
       <c r="H32" s="4">
-        <v>16.61</v>
+        <v>9.66</v>
       </c>
       <c r="I32" s="5">
-        <v>0.3264887063655031</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="J32" s="4">
-        <v>-12.62</v>
+        <v>0.7249</v>
       </c>
       <c r="K32" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="L32" s="4">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="M32" s="5">
-        <v>0.393223819301848</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="N32" s="4">
-        <v>11.38081720063151</v>
+        <v>8.652834291039317</v>
       </c>
       <c r="O32" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.24435318275154</v>
       </c>
       <c r="P32" s="4">
-        <v>2.530574682023162</v>
+        <v>2.384033738194531</v>
       </c>
       <c r="Q32" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="R32" s="5">
-        <v>0.2257260193605163</v>
+        <v>0.2235259606922851</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2560,55 +2560,55 @@
         <v>49</v>
       </c>
       <c r="B33" s="2">
-        <v>152.31</v>
+        <v>159.05</v>
       </c>
       <c r="C33" s="3">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="D33" s="4">
-        <v>0.02832542567096319</v>
+        <v>0.02771151113285928</v>
       </c>
       <c r="E33" s="5">
         <v>0.2833675564681725</v>
       </c>
       <c r="F33" s="4">
-        <v>6.136713433967004</v>
+        <v>5.992118546488792</v>
       </c>
       <c r="G33" s="5">
-        <v>0.8316221765913758</v>
+        <v>0.8254620123203286</v>
       </c>
       <c r="H33" s="4">
-        <v>6.92</v>
+        <v>7.17</v>
       </c>
       <c r="I33" s="5">
+        <v>0.1129363449691992</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.1868583162217659</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.8626</v>
+      </c>
+      <c r="M33" s="5">
         <v>0.108829568788501</v>
       </c>
-      <c r="J33" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.1971252566735113</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0.8838</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0.1129363449691992</v>
-      </c>
       <c r="N33" s="4">
-        <v>1.885449138412888</v>
+        <v>1.902906650445508</v>
       </c>
       <c r="O33" s="5">
         <v>0.02874743326488706</v>
       </c>
       <c r="P33" s="4">
-        <v>0.8514946667183592</v>
+        <v>0.8585969901940865</v>
       </c>
       <c r="Q33" s="5">
         <v>0.02258726899383983</v>
       </c>
       <c r="R33" s="5">
-        <v>0.2264593722499267</v>
+        <v>0.2241126430038134</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2616,55 +2616,55 @@
         <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>66.40000000000001</v>
+        <v>59.6</v>
       </c>
       <c r="C34" s="3">
-        <v>1506</v>
+        <v>1677</v>
       </c>
       <c r="D34" s="4">
-        <v>0.001360566624663109</v>
+        <v>0.03598021342886464</v>
       </c>
       <c r="E34" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.3100616016427105</v>
       </c>
       <c r="F34" s="4">
-        <v>1.672434658154206</v>
+        <v>4.688597556597188</v>
       </c>
       <c r="G34" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.7720739219712526</v>
       </c>
       <c r="H34" s="4">
-        <v>-1.26</v>
+        <v>9.27</v>
       </c>
       <c r="I34" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="J34" s="4">
-        <v>1.73</v>
+        <v>0.8428</v>
       </c>
       <c r="K34" s="5">
-        <v>0.2494866529774127</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="L34" s="4">
-        <v>3.9</v>
+        <v>0.9877</v>
       </c>
       <c r="M34" s="5">
-        <v>0.5841889117043121</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="N34" s="4">
-        <v>-11.00447051307174</v>
+        <v>5.44736808429071</v>
       </c>
       <c r="O34" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="P34" s="4">
-        <v>4.73303942202382</v>
+        <v>1.027272527060251</v>
       </c>
       <c r="Q34" s="5">
-        <v>0.3264887063655031</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="R34" s="5">
-        <v>0.227046054561455</v>
+        <v>0.2249926664711059</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2672,55 +2672,55 @@
         <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>58.8</v>
+        <v>114.34</v>
       </c>
       <c r="C35" s="3">
-        <v>1700</v>
+        <v>874</v>
       </c>
       <c r="D35" s="4">
-        <v>0.03207933497355988</v>
+        <v>0.03327801439870814</v>
       </c>
       <c r="E35" s="5">
-        <v>0.297741273100616</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="F35" s="4">
-        <v>4.448666820911131</v>
+        <v>2.554708333180893</v>
       </c>
       <c r="G35" s="5">
-        <v>0.7474332648870636</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="H35" s="4">
-        <v>7.85</v>
+        <v>7.6</v>
       </c>
       <c r="I35" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="J35" s="4">
         <v>1.57</v>
       </c>
       <c r="K35" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1981519507186858</v>
       </c>
       <c r="L35" s="4">
-        <v>0.641</v>
+        <v>2.1</v>
       </c>
       <c r="M35" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.3603696098562629</v>
       </c>
       <c r="N35" s="4">
-        <v>3.184495116818533</v>
+        <v>5.570230638755493</v>
       </c>
       <c r="O35" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="P35" s="4">
-        <v>2.6597736094111</v>
+        <v>1.985292920886557</v>
       </c>
       <c r="Q35" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="R35" s="5">
-        <v>0.230859489586389</v>
+        <v>0.2305661484306248</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2728,55 +2728,55 @@
         <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>23.16</v>
+        <v>57.81</v>
       </c>
       <c r="C36" s="3">
-        <v>4317</v>
+        <v>1729</v>
       </c>
       <c r="D36" s="4">
-        <v>-0.2196219722818823</v>
+        <v>0.03183412914091101</v>
       </c>
       <c r="E36" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.2956878850102669</v>
       </c>
       <c r="F36" s="4">
-        <v>2.613438888497889</v>
+        <v>4.539902426220416</v>
       </c>
       <c r="G36" s="5">
-        <v>0.4414784394250513</v>
+        <v>0.7515400410677618</v>
       </c>
       <c r="H36" s="4">
-        <v>16.24</v>
+        <v>7.88</v>
       </c>
       <c r="I36" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="J36" s="4">
-        <v>0.7679</v>
+        <v>1.59</v>
       </c>
       <c r="K36" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.2063655030800821</v>
       </c>
       <c r="L36" s="4">
-        <v>0.5711000000000001</v>
+        <v>0.653</v>
       </c>
       <c r="M36" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="N36" s="4">
-        <v>12.92673603365018</v>
+        <v>3.112591799595953</v>
       </c>
       <c r="O36" s="5">
-        <v>0.4373716632443532</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="P36" s="4">
-        <v>2.356444375635756</v>
+        <v>2.7490061747337</v>
       </c>
       <c r="Q36" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="R36" s="5">
-        <v>0.2337929011440305</v>
+        <v>0.2321795247873277</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2784,55 +2784,55 @@
         <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>114.53</v>
+        <v>22.48</v>
       </c>
       <c r="C37" s="3">
-        <v>873</v>
+        <v>4448</v>
       </c>
       <c r="D37" s="4">
-        <v>0.03337582047418581</v>
+        <v>-0.2165666344431724</v>
       </c>
       <c r="E37" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="F37" s="4">
-        <v>2.622208953958507</v>
+        <v>2.70235469591717</v>
       </c>
       <c r="G37" s="5">
-        <v>0.4476386036960986</v>
+        <v>0.4620123203285421</v>
       </c>
       <c r="H37" s="4">
-        <v>7.61</v>
+        <v>16.12</v>
       </c>
       <c r="I37" s="5">
+        <v>0.3100616016427105</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.7579</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.07802874743326488</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.5695</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.05544147843942505</v>
+      </c>
+      <c r="N37" s="4">
+        <v>12.87474506541619</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.4394250513347023</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2.335886292926641</v>
+      </c>
+      <c r="Q37" s="5">
         <v>0.1211498973305955</v>
       </c>
-      <c r="J37" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0.2104722792607803</v>
-      </c>
-      <c r="L37" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0.3542094455852156</v>
-      </c>
-      <c r="N37" s="4">
-        <v>5.677727028135132</v>
-      </c>
-      <c r="O37" s="5">
-        <v>0.09856262833675565</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1.980420697119548</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0.1026694045174538</v>
-      </c>
       <c r="R37" s="5">
-        <v>0.2337929011440305</v>
+        <v>0.236726312701672</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2840,55 +2840,55 @@
         <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>58.78</v>
+        <v>24.76</v>
       </c>
       <c r="C38" s="3">
-        <v>1701</v>
+        <v>4038</v>
       </c>
       <c r="D38" s="4">
-        <v>-3.017324279264076</v>
+        <v>-0.4402379613223118</v>
       </c>
       <c r="E38" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="F38" s="4">
-        <v>4.792364365793053</v>
+        <v>3.01957118660253</v>
       </c>
       <c r="G38" s="5">
-        <v>0.7802874743326488</v>
+        <v>0.5318275154004106</v>
       </c>
       <c r="H38" s="4">
-        <v>9.58</v>
+        <v>17.37</v>
       </c>
       <c r="I38" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.3480492813141683</v>
       </c>
       <c r="J38" s="4">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="K38" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.1098562628336756</v>
       </c>
       <c r="L38" s="4">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="M38" s="5">
-        <v>0.2761806981519507</v>
+        <v>0.1386036960985626</v>
       </c>
       <c r="N38" s="4">
-        <v>7.009130816480356</v>
+        <v>7.166565131834918</v>
       </c>
       <c r="O38" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="P38" s="4">
-        <v>2.035697953733559</v>
+        <v>3.35921600898034</v>
       </c>
       <c r="Q38" s="5">
-        <v>0.108829568788501</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="R38" s="5">
-        <v>0.2342329128776767</v>
+        <v>0.2371663244353183</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2896,55 +2896,55 @@
         <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>59.08</v>
+        <v>56.27</v>
       </c>
       <c r="C39" s="3">
-        <v>1692</v>
+        <v>1777</v>
       </c>
       <c r="D39" s="4">
-        <v>0.04004025984300384</v>
+        <v>0.23429452628844</v>
       </c>
       <c r="E39" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.5318275154004106</v>
       </c>
       <c r="F39" s="4">
-        <v>9.197259129920102</v>
+        <v>1.767850138719413</v>
       </c>
       <c r="G39" s="5">
-        <v>0.8891170431211499</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="H39" s="4">
-        <v>9.109999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="I39" s="5">
-        <v>0.1468172484599589</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="J39" s="4">
-        <v>0.7348</v>
+        <v>1.98</v>
       </c>
       <c r="K39" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="L39" s="4">
-        <v>1.0246</v>
+        <v>1.08</v>
       </c>
       <c r="M39" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="N39" s="4">
-        <v>4.301839502248786</v>
+        <v>6.35455361621612</v>
       </c>
       <c r="O39" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="P39" s="4">
-        <v>0.9953242897152714</v>
+        <v>4.3138705514549</v>
       </c>
       <c r="Q39" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="R39" s="5">
-        <v>0.2362863009680258</v>
+        <v>0.2373129950132003</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2952,55 +2952,55 @@
         <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>24.95</v>
+        <v>58.34</v>
       </c>
       <c r="C40" s="3">
-        <v>4008</v>
+        <v>1714</v>
       </c>
       <c r="D40" s="4">
-        <v>-0.4354224604225971</v>
+        <v>-3.014256565225351</v>
       </c>
       <c r="E40" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="F40" s="4">
-        <v>3.07462923397832</v>
+        <v>4.819395461768199</v>
       </c>
       <c r="G40" s="5">
-        <v>0.5400410677618069</v>
+        <v>0.7802874743326488</v>
       </c>
       <c r="H40" s="4">
-        <v>17.82</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="I40" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="J40" s="4">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="K40" s="5">
-        <v>0.1119096509240246</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="L40" s="4">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="M40" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="N40" s="4">
-        <v>7.076702386629258</v>
+        <v>7.138725024290436</v>
       </c>
       <c r="O40" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="P40" s="4">
-        <v>3.287280742761459</v>
+        <v>2.013011603650215</v>
       </c>
       <c r="Q40" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="R40" s="5">
-        <v>0.2383396890583749</v>
+        <v>0.2376063361689645</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3008,55 +3008,55 @@
         <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>102.09</v>
+        <v>59.13</v>
       </c>
       <c r="C41" s="3">
-        <v>979</v>
+        <v>1691</v>
       </c>
       <c r="D41" s="4">
-        <v>0.09787532739429834</v>
+        <v>0.04095728232907199</v>
       </c>
       <c r="E41" s="5">
-        <v>0.4004106776180698</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="F41" s="4">
-        <v>2.478682012886551</v>
+        <v>9.312506980804763</v>
       </c>
       <c r="G41" s="5">
-        <v>0.4106776180698152</v>
+        <v>0.893223819301848</v>
       </c>
       <c r="H41" s="4">
-        <v>14.99</v>
+        <v>9.15</v>
       </c>
       <c r="I41" s="5">
-        <v>0.2915811088295688</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="J41" s="4">
-        <v>1.4</v>
+        <v>0.7601</v>
       </c>
       <c r="K41" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="L41" s="4">
-        <v>0.8018</v>
+        <v>0.9895</v>
       </c>
       <c r="M41" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="N41" s="4">
-        <v>8.345816199127972</v>
+        <v>4.457873513909274</v>
       </c>
       <c r="O41" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="P41" s="4">
-        <v>1.660096808147023</v>
+        <v>0.9750002706834674</v>
       </c>
       <c r="Q41" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="R41" s="5">
-        <v>0.2396597242593136</v>
+        <v>0.2376063361689645</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3064,55 +3064,55 @@
         <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>104.13</v>
+        <v>130.25</v>
       </c>
       <c r="C42" s="3">
-        <v>960</v>
+        <v>767</v>
       </c>
       <c r="D42" s="4">
-        <v>-3.276688792884774</v>
+        <v>0.467752415432063</v>
       </c>
       <c r="E42" s="5">
+        <v>0.6262833675564682</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2.048453765153325</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.271047227926078</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10.72</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.1909650924024641</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.2618069815195072</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.8869</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.1129363449691992</v>
+      </c>
+      <c r="N42" s="4">
+        <v>7.244373006479513</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.1601642710472279</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1.121766712973288</v>
+      </c>
+      <c r="Q42" s="5">
         <v>0.04722792607802875</v>
       </c>
-      <c r="F42" s="4">
-        <v>3.28080408303105</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.5790554414784395</v>
-      </c>
-      <c r="H42" s="4">
-        <v>17.96</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0.364476386036961</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0.284394250513347</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0.4706</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0.04722792607802875</v>
-      </c>
-      <c r="N42" s="4">
-        <v>9.490925420134158</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0.2854209445585216</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1.57908622972056</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0.07392197125256673</v>
-      </c>
       <c r="R42" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.2386330302141391</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3120,55 +3120,55 @@
         <v>59</v>
       </c>
       <c r="B43" s="2">
-        <v>138.53</v>
+        <v>121.09</v>
       </c>
       <c r="C43" s="3">
-        <v>721</v>
+        <v>825</v>
       </c>
       <c r="D43" s="4">
-        <v>-4.929646034212985</v>
+        <v>-0.712031160622818</v>
       </c>
       <c r="E43" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="F43" s="4">
-        <v>2.529729240106002</v>
+        <v>-33.32610841179436</v>
       </c>
       <c r="G43" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="H43" s="4">
-        <v>19.55</v>
+        <v>-30.08</v>
       </c>
       <c r="I43" s="5">
-        <v>0.406570841889117</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="J43" s="4">
-        <v>1.5</v>
+        <v>-68.98</v>
       </c>
       <c r="K43" s="5">
-        <v>0.1858316221765914</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="L43" s="4">
-        <v>0.6562</v>
+        <v>7</v>
       </c>
       <c r="M43" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.7926078028747433</v>
       </c>
       <c r="N43" s="4">
-        <v>11.39642613402399</v>
+        <v>-111.4366189382041</v>
       </c>
       <c r="O43" s="5">
-        <v>0.3716632443531827</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="P43" s="4">
-        <v>3.48656187152937</v>
+        <v>10.04485384748027</v>
       </c>
       <c r="Q43" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.6714579055441479</v>
       </c>
       <c r="R43" s="5">
-        <v>0.2427398063948372</v>
+        <v>0.2393663831035494</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3176,55 +3176,55 @@
         <v>60</v>
       </c>
       <c r="B44" s="2">
-        <v>33.61</v>
+        <v>101.97</v>
       </c>
       <c r="C44" s="3">
-        <v>2975</v>
+        <v>980</v>
       </c>
       <c r="D44" s="4">
-        <v>0.09699649476296472</v>
+        <v>0.1011512421591831</v>
       </c>
       <c r="E44" s="5">
-        <v>0.3983572895277207</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="F44" s="4">
-        <v>2.775783234780029</v>
+        <v>2.583908481268989</v>
       </c>
       <c r="G44" s="5">
-        <v>0.4763860369609856</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="H44" s="4">
-        <v>8.17</v>
+        <v>14.5</v>
       </c>
       <c r="I44" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.2823408624229979</v>
       </c>
       <c r="J44" s="4">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="K44" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1652977412731006</v>
       </c>
       <c r="L44" s="4">
-        <v>0.991</v>
+        <v>0.8248</v>
       </c>
       <c r="M44" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="N44" s="4">
-        <v>6.616996843598476</v>
+        <v>8.165112549734669</v>
       </c>
       <c r="O44" s="5">
-        <v>0.135523613963039</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="P44" s="4">
-        <v>4.704185443071045</v>
+        <v>1.600591828712209</v>
       </c>
       <c r="Q44" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="R44" s="5">
-        <v>0.2434731592842476</v>
+        <v>0.2408330888823702</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3232,55 +3232,55 @@
         <v>61</v>
       </c>
       <c r="B45" s="2">
-        <v>120.25</v>
+        <v>33.9</v>
       </c>
       <c r="C45" s="3">
-        <v>831</v>
+        <v>2949</v>
       </c>
       <c r="D45" s="4">
-        <v>-0.7357325875035422</v>
+        <v>0.1007481747287113</v>
       </c>
       <c r="E45" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.4004106776180698</v>
       </c>
       <c r="F45" s="4">
-        <v>-33.27839664777589</v>
+        <v>2.799185247571619</v>
       </c>
       <c r="G45" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.4804928131416837</v>
       </c>
       <c r="H45" s="4">
-        <v>-29.98</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I45" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="J45" s="4">
-        <v>-66.18000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="K45" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="L45" s="4">
-        <v>7</v>
+        <v>0.984</v>
       </c>
       <c r="M45" s="5">
-        <v>0.7926078028747433</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="N45" s="4">
-        <v>-116.153865000362</v>
+        <v>6.528193599185791</v>
       </c>
       <c r="O45" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="P45" s="4">
-        <v>10.73546753856307</v>
+        <v>4.56957248499266</v>
       </c>
       <c r="Q45" s="5">
-        <v>0.702258726899384</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="R45" s="5">
-        <v>0.24435318275154</v>
+        <v>0.2408330888823702</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3288,55 +3288,55 @@
         <v>62</v>
       </c>
       <c r="B46" s="2">
-        <v>55.51</v>
+        <v>106.19</v>
       </c>
       <c r="C46" s="3">
-        <v>1801</v>
+        <v>941</v>
       </c>
       <c r="D46" s="4">
-        <v>0.2326428202976</v>
+        <v>-3.271425298633769</v>
       </c>
       <c r="E46" s="5">
-        <v>0.5297741273100616</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="F46" s="4">
-        <v>1.837862476877325</v>
+        <v>3.245599291921993</v>
       </c>
       <c r="G46" s="5">
-        <v>0.1950718685831622</v>
+        <v>0.5770020533880903</v>
       </c>
       <c r="H46" s="4">
-        <v>8.619999999999999</v>
+        <v>18.44</v>
       </c>
       <c r="I46" s="5">
-        <v>0.135523613963039</v>
+        <v>0.379876796714579</v>
       </c>
       <c r="J46" s="4">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="K46" s="5">
-        <v>0.2915811088295688</v>
+        <v>0.2648870636550308</v>
       </c>
       <c r="L46" s="4">
-        <v>1.12</v>
+        <v>0.4873</v>
       </c>
       <c r="M46" s="5">
-        <v>0.162217659137577</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="N46" s="4">
-        <v>6.471661438215245</v>
+        <v>9.715375842610134</v>
       </c>
       <c r="O46" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="P46" s="4">
-        <v>4.295316983739385</v>
+        <v>1.569775621037465</v>
       </c>
       <c r="Q46" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="R46" s="5">
-        <v>0.2446465239073042</v>
+        <v>0.2414197711938985</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3344,55 +3344,55 @@
         <v>63</v>
       </c>
       <c r="B47" s="2">
-        <v>129.9</v>
+        <v>144.03</v>
       </c>
       <c r="C47" s="3">
-        <v>769</v>
+        <v>694</v>
       </c>
       <c r="D47" s="4">
-        <v>0.47857164884815</v>
+        <v>-4.861242330772531</v>
       </c>
       <c r="E47" s="5">
-        <v>0.6344969199178645</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="F47" s="4">
-        <v>2.143154827033123</v>
+        <v>2.548698883766282</v>
       </c>
       <c r="G47" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.4271047227926077</v>
       </c>
       <c r="H47" s="4">
-        <v>10.56</v>
+        <v>18.94</v>
       </c>
       <c r="I47" s="5">
-        <v>0.1878850102669405</v>
+        <v>0.3901437371663244</v>
       </c>
       <c r="J47" s="4">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="K47" s="5">
-        <v>0.2679671457905544</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="L47" s="4">
-        <v>0.8971</v>
+        <v>0.6582</v>
       </c>
       <c r="M47" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="N47" s="4">
-        <v>7.148476852629784</v>
+        <v>11.66181850675722</v>
       </c>
       <c r="O47" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.379876796714579</v>
       </c>
       <c r="P47" s="4">
-        <v>1.161813187385114</v>
+        <v>3.53945485495668</v>
       </c>
       <c r="Q47" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="R47" s="5">
-        <v>0.2446465239073042</v>
+        <v>0.2417131123496626</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3400,55 +3400,55 @@
         <v>64</v>
       </c>
       <c r="B48" s="2">
-        <v>100.6</v>
+        <v>39.84</v>
       </c>
       <c r="C48" s="3">
-        <v>994</v>
+        <v>2510</v>
       </c>
       <c r="D48" s="4">
-        <v>0.05271588173915223</v>
+        <v>0.03225403532428467</v>
       </c>
       <c r="E48" s="5">
-        <v>0.3429158110882957</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="F48" s="4">
-        <v>7.678287213635855</v>
+        <v>2.098542824347339</v>
       </c>
       <c r="G48" s="5">
-        <v>0.8624229979466119</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="H48" s="4">
-        <v>7.74</v>
+        <v>8.57</v>
       </c>
       <c r="I48" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="J48" s="4">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="K48" s="5">
-        <v>0.1365503080082136</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="L48" s="4">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="M48" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="N48" s="4">
-        <v>5.005671600703014</v>
+        <v>6.283296044251525</v>
       </c>
       <c r="O48" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="P48" s="4">
-        <v>0.9998786762142878</v>
+        <v>7.182827053758349</v>
       </c>
       <c r="Q48" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.4969199178644764</v>
       </c>
       <c r="R48" s="5">
-        <v>0.2468465825755354</v>
+        <v>0.2466999119976533</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3456,55 +3456,55 @@
         <v>65</v>
       </c>
       <c r="B49" s="2">
-        <v>148.4</v>
+        <v>102.9</v>
       </c>
       <c r="C49" s="3">
-        <v>673</v>
+        <v>971</v>
       </c>
       <c r="D49" s="4">
-        <v>0.004258241297881397</v>
+        <v>0.05264803252419443</v>
       </c>
       <c r="E49" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="F49" s="4">
-        <v>6.9545769756317</v>
+        <v>7.841561396141494</v>
       </c>
       <c r="G49" s="5">
-        <v>0.8521560574948666</v>
+        <v>0.8644763860369609</v>
       </c>
       <c r="H49" s="4">
-        <v>5.68</v>
+        <v>7.77</v>
       </c>
       <c r="I49" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="J49" s="4">
-        <v>0.9908</v>
+        <v>1.29</v>
       </c>
       <c r="K49" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.1447638603696099</v>
       </c>
       <c r="L49" s="4">
-        <v>2.05</v>
+        <v>1.08</v>
       </c>
       <c r="M49" s="5">
-        <v>0.3490759753593429</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="N49" s="4">
-        <v>3.808365571129188</v>
+        <v>5.024653612446384</v>
       </c>
       <c r="O49" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="P49" s="4">
-        <v>1.810621425284729</v>
+        <v>1.054419855145822</v>
       </c>
       <c r="Q49" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="R49" s="5">
-        <v>0.2496333235552948</v>
+        <v>0.2488999706658844</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3512,55 +3512,55 @@
         <v>66</v>
       </c>
       <c r="B50" s="2">
-        <v>61.9</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3">
-        <v>1615</v>
+        <v>680</v>
       </c>
       <c r="D50" s="4">
-        <v>0.003040523394637032</v>
+        <v>0.004179179839495226</v>
       </c>
       <c r="E50" s="5">
-        <v>0.217659137577002</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="F50" s="4">
-        <v>2.348012206788033</v>
+        <v>6.886921498766996</v>
       </c>
       <c r="G50" s="5">
-        <v>0.37782340862423</v>
+        <v>0.8501026694045174</v>
       </c>
       <c r="H50" s="4">
-        <v>13</v>
+        <v>5.66</v>
       </c>
       <c r="I50" s="5">
-        <v>0.242299794661191</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="J50" s="4">
-        <v>1.71</v>
+        <v>1.0199</v>
       </c>
       <c r="K50" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="L50" s="4">
-        <v>1.06</v>
+        <v>2.03</v>
       </c>
       <c r="M50" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="N50" s="4">
-        <v>8.105671519210992</v>
+        <v>3.734968786156103</v>
       </c>
       <c r="O50" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="P50" s="4">
-        <v>4.69676608945164</v>
+        <v>1.800487993177116</v>
       </c>
       <c r="Q50" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="R50" s="5">
-        <v>0.249926664711059</v>
+        <v>0.2490466412437665</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3568,55 +3568,55 @@
         <v>67</v>
       </c>
       <c r="B51" s="2">
-        <v>40.46</v>
+        <v>63.5</v>
       </c>
       <c r="C51" s="3">
-        <v>2471</v>
+        <v>1574</v>
       </c>
       <c r="D51" s="4">
-        <v>0.03201533204235518</v>
+        <v>0.003102507235556496</v>
       </c>
       <c r="E51" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="F51" s="4">
-        <v>2.090454064706667</v>
+        <v>2.33082708513079</v>
       </c>
       <c r="G51" s="5">
-        <v>0.2813141683778234</v>
+        <v>0.3757700205338809</v>
       </c>
       <c r="H51" s="4">
-        <v>8.68</v>
+        <v>13</v>
       </c>
       <c r="I51" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="J51" s="4">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="K51" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.2494866529774127</v>
       </c>
       <c r="L51" s="4">
-        <v>1.39</v>
+        <v>1.08</v>
       </c>
       <c r="M51" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="N51" s="4">
-        <v>6.638906688164094</v>
+        <v>7.95739439205219</v>
       </c>
       <c r="O51" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="P51" s="4">
-        <v>7.460857685211272</v>
+        <v>4.589290178476058</v>
       </c>
       <c r="Q51" s="5">
-        <v>0.5133470225872689</v>
+        <v>0.3100616016427105</v>
       </c>
       <c r="R51" s="5">
-        <v>0.2505133470225873</v>
+        <v>0.250073335288941</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3624,55 +3624,55 @@
         <v>68</v>
       </c>
       <c r="B52" s="2">
-        <v>45.29</v>
+        <v>44.1</v>
       </c>
       <c r="C52" s="3">
-        <v>2207</v>
+        <v>2267</v>
       </c>
       <c r="D52" s="4">
-        <v>-0.115070197957743</v>
+        <v>-0.1120963813535966</v>
       </c>
       <c r="E52" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="F52" s="4">
-        <v>13.0907968022011</v>
+        <v>7.185225343966667</v>
       </c>
       <c r="G52" s="5">
-        <v>0.946611909650924</v>
+        <v>0.8562628336755647</v>
       </c>
       <c r="H52" s="4">
-        <v>-4.53</v>
+        <v>4.24</v>
       </c>
       <c r="I52" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="J52" s="4">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="K52" s="5">
-        <v>0.4004106776180698</v>
+        <v>0.393223819301848</v>
       </c>
       <c r="L52" s="4">
-        <v>0.7373</v>
+        <v>0.4725</v>
       </c>
       <c r="M52" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="N52" s="4">
-        <v>-7.341181487339505</v>
+        <v>3.643471125160647</v>
       </c>
       <c r="O52" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="P52" s="4">
-        <v>1.439934779040406</v>
+        <v>2.937930819261344</v>
       </c>
       <c r="Q52" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="R52" s="5">
-        <v>0.2528600762687005</v>
+        <v>0.253886770313875</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3680,55 +3680,55 @@
         <v>69</v>
       </c>
       <c r="B53" s="2">
-        <v>43.4</v>
+        <v>46.87</v>
       </c>
       <c r="C53" s="3">
-        <v>2304</v>
+        <v>2133</v>
       </c>
       <c r="D53" s="4">
-        <v>-0.108863547995189</v>
+        <v>-0.113492032138999</v>
       </c>
       <c r="E53" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="F53" s="4">
-        <v>7.170142692037675</v>
+        <v>13.32638451946524</v>
       </c>
       <c r="G53" s="5">
-        <v>0.8562628336755647</v>
+        <v>0.9507186858316221</v>
       </c>
       <c r="H53" s="4">
-        <v>4.25</v>
+        <v>-4.63</v>
       </c>
       <c r="I53" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="J53" s="4">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="K53" s="5">
-        <v>0.3901437371663244</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="L53" s="4">
-        <v>0.481</v>
+        <v>0.7356</v>
       </c>
       <c r="M53" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="N53" s="4">
-        <v>3.873357110437885</v>
+        <v>-7.699034076056176</v>
       </c>
       <c r="O53" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="P53" s="4">
-        <v>3.066852493962981</v>
+        <v>1.502423666040848</v>
       </c>
       <c r="Q53" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="R53" s="5">
-        <v>0.2560868289821062</v>
+        <v>0.2543267820475212</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3736,55 +3736,55 @@
         <v>70</v>
       </c>
       <c r="B54" s="2">
-        <v>30.01</v>
+        <v>112.61</v>
       </c>
       <c r="C54" s="3">
-        <v>3332</v>
+        <v>888</v>
       </c>
       <c r="D54" s="4">
-        <v>-0.2575815976165446</v>
+        <v>0.104850150758417</v>
       </c>
       <c r="E54" s="5">
+        <v>0.4086242299794661</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1.596556462842446</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.1149897330595483</v>
+      </c>
+      <c r="H54" s="4">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.1396303901437372</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.2340862422997947</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.1991786447638604</v>
+      </c>
+      <c r="N54" s="4">
+        <v>7.760712821332151</v>
+      </c>
+      <c r="O54" s="5">
         <v>0.1868583162217659</v>
       </c>
-      <c r="F54" s="4">
-        <v>4.061604818302213</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.7145790554414785</v>
-      </c>
-      <c r="H54" s="4">
-        <v>-24.3</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0.03080082135523614</v>
-      </c>
-      <c r="J54" s="4">
-        <v>3.09</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0.4589322381930184</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0.1735112936344969</v>
-      </c>
-      <c r="N54" s="4">
-        <v>5.071019705198826</v>
-      </c>
-      <c r="O54" s="5">
-        <v>0.08418891170431211</v>
-      </c>
       <c r="P54" s="4">
-        <v>2.833084343303231</v>
+        <v>7.434828480076789</v>
       </c>
       <c r="Q54" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.5112936344969199</v>
       </c>
       <c r="R54" s="5">
-        <v>0.2578468759166911</v>
+        <v>0.2563801701378703</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3792,55 +3792,55 @@
         <v>71</v>
       </c>
       <c r="B55" s="2">
-        <v>62.13</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="C55" s="3">
-        <v>1609</v>
+        <v>1067</v>
       </c>
       <c r="D55" s="4">
-        <v>0.05775221225264324</v>
+        <v>0.01380329271015413</v>
       </c>
       <c r="E55" s="5">
+        <v>0.2402464065708419</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3.286723559733077</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.5852156057494866</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5.36</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.08418891170431211</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.3860369609856263</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.08624229979466119</v>
+      </c>
+      <c r="N55" s="4">
+        <v>4.887358217261182</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.07392197125256673</v>
+      </c>
+      <c r="P55" s="4">
+        <v>5.243630826990724</v>
+      </c>
+      <c r="Q55" s="5">
         <v>0.3552361396303901</v>
       </c>
-      <c r="F55" s="4">
-        <v>11.94313567683291</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.9342915811088295</v>
-      </c>
-      <c r="H55" s="4">
-        <v>6.02</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0.09240246406570841</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0.6947</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0.06776180698151951</v>
-      </c>
-      <c r="L55" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0.2474332648870637</v>
-      </c>
-      <c r="N55" s="4">
-        <v>3.720802802968769</v>
-      </c>
-      <c r="O55" s="5">
-        <v>0.04106776180698152</v>
-      </c>
-      <c r="P55" s="4">
-        <v>1.505469580198114</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>0.06776180698151951</v>
-      </c>
       <c r="R55" s="5">
-        <v>0.2579935464945732</v>
+        <v>0.2587268993839836</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3848,55 +3848,55 @@
         <v>72</v>
       </c>
       <c r="B56" s="2">
-        <v>113.25</v>
+        <v>63.04</v>
       </c>
       <c r="C56" s="3">
-        <v>883</v>
+        <v>1586</v>
       </c>
       <c r="D56" s="4">
-        <v>0.1022202434691472</v>
+        <v>0.05631565590273429</v>
       </c>
       <c r="E56" s="5">
-        <v>0.406570841889117</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="F56" s="4">
-        <v>1.642481501422536</v>
+        <v>12.03846949910326</v>
       </c>
       <c r="G56" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.9363449691991786</v>
       </c>
       <c r="H56" s="4">
-        <v>8.75</v>
+        <v>5.93</v>
       </c>
       <c r="I56" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="J56" s="4">
-        <v>1.66</v>
+        <v>0.672</v>
       </c>
       <c r="K56" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="L56" s="4">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="M56" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.2535934291581109</v>
       </c>
       <c r="N56" s="4">
-        <v>7.912950470287026</v>
+        <v>3.831063368463296</v>
       </c>
       <c r="O56" s="5">
-        <v>0.1950718685831622</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="P56" s="4">
-        <v>7.543429294292343</v>
+        <v>1.467185411840373</v>
       </c>
       <c r="Q56" s="5">
-        <v>0.5154004106776181</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="R56" s="5">
-        <v>0.259606922851276</v>
+        <v>0.2591669111176298</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3904,55 +3904,55 @@
         <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>95</v>
+        <v>30.18</v>
       </c>
       <c r="C57" s="3">
-        <v>1052</v>
+        <v>3313</v>
       </c>
       <c r="D57" s="4">
-        <v>0.01353417786416515</v>
+        <v>-0.2649134906803667</v>
       </c>
       <c r="E57" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="F57" s="4">
-        <v>3.407642454471388</v>
+        <v>4.045959825985478</v>
       </c>
       <c r="G57" s="5">
-        <v>0.6057494866529773</v>
+        <v>0.7145790554414785</v>
       </c>
       <c r="H57" s="4">
-        <v>5.39</v>
+        <v>-24.12</v>
       </c>
       <c r="I57" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="J57" s="4">
-        <v>2.63</v>
+        <v>3.09</v>
       </c>
       <c r="K57" s="5">
-        <v>0.3942505133470226</v>
+        <v>0.459958932238193</v>
       </c>
       <c r="L57" s="4">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="M57" s="5">
+        <v>0.1724845995893224</v>
+      </c>
+      <c r="N57" s="4">
+        <v>5.203014766100789</v>
+      </c>
+      <c r="O57" s="5">
         <v>0.08829568788501026</v>
       </c>
-      <c r="N57" s="4">
-        <v>4.995637837459228</v>
-      </c>
-      <c r="O57" s="5">
-        <v>0.08008213552361397</v>
-      </c>
       <c r="P57" s="4">
-        <v>5.324561644966993</v>
+        <v>2.909401388508459</v>
       </c>
       <c r="Q57" s="5">
-        <v>0.3613963039014373</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="R57" s="5">
-        <v>0.2648870636550308</v>
+        <v>0.2593135816955119</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3960,55 +3960,55 @@
         <v>74</v>
       </c>
       <c r="B58" s="2">
-        <v>6.05</v>
+        <v>6.19</v>
       </c>
       <c r="C58" s="3">
-        <v>16528</v>
+        <v>16155</v>
       </c>
       <c r="D58" s="4">
-        <v>0.2056804769323139</v>
+        <v>0.2089000104642775</v>
       </c>
       <c r="E58" s="5">
-        <v>0.5071868583162218</v>
+        <v>0.5112936344969199</v>
       </c>
       <c r="F58" s="4">
-        <v>3.059673519294785</v>
+        <v>2.984237700870614</v>
       </c>
       <c r="G58" s="5">
-        <v>0.5379876796714579</v>
+        <v>0.5256673511293635</v>
       </c>
       <c r="H58" s="4">
-        <v>21.15</v>
+        <v>21.35</v>
       </c>
       <c r="I58" s="5">
-        <v>0.4229979466119096</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="J58" s="4">
-        <v>0.7919</v>
+        <v>0.7872</v>
       </c>
       <c r="K58" s="5">
         <v>0.08213552361396304</v>
       </c>
       <c r="L58" s="4">
-        <v>0.338</v>
+        <v>0.3356</v>
       </c>
       <c r="M58" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="N58" s="4">
-        <v>4.113027593349956</v>
+        <v>3.955000947368907</v>
       </c>
       <c r="O58" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="P58" s="4">
-        <v>3.817286901785276</v>
+        <v>3.605133859323484</v>
       </c>
       <c r="Q58" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.2217659137577002</v>
       </c>
       <c r="R58" s="5">
-        <v>0.2654737459665591</v>
+        <v>0.2628336755646817</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4016,49 +4016,49 @@
         <v>75</v>
       </c>
       <c r="B59" s="2">
-        <v>275.88</v>
+        <v>278.17</v>
       </c>
       <c r="C59" s="3">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D59" s="4">
-        <v>0.200614714670055</v>
+        <v>0.203994105868966</v>
       </c>
       <c r="E59" s="5">
         <v>0.5030800821355236</v>
       </c>
       <c r="F59" s="4">
-        <v>3.673066399199835</v>
+        <v>3.708225869501788</v>
       </c>
       <c r="G59" s="5">
         <v>0.6591375770020533</v>
       </c>
       <c r="H59" s="4">
-        <v>10.56</v>
+        <v>10.71</v>
       </c>
       <c r="I59" s="5">
-        <v>0.1878850102669405</v>
+        <v>0.188911704312115</v>
       </c>
       <c r="J59" s="4">
         <v>1.08</v>
       </c>
       <c r="K59" s="5">
-        <v>0.1119096509240246</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="L59" s="4">
-        <v>0.9278999999999999</v>
+        <v>0.9502</v>
       </c>
       <c r="M59" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="N59" s="4">
-        <v>9.25198815274784</v>
+        <v>9.215802827173389</v>
       </c>
       <c r="O59" s="5">
-        <v>0.271047227926078</v>
+        <v>0.2648870636550308</v>
       </c>
       <c r="P59" s="4">
-        <v>0.9276661014767313</v>
+        <v>0.9104688806504894</v>
       </c>
       <c r="Q59" s="5">
         <v>0.02874743326488706</v>
@@ -4072,55 +4072,55 @@
         <v>76</v>
       </c>
       <c r="B60" s="2">
-        <v>47.24</v>
+        <v>47.86</v>
       </c>
       <c r="C60" s="3">
-        <v>2116</v>
+        <v>2089</v>
       </c>
       <c r="D60" s="4">
-        <v>0.03802207014073501</v>
+        <v>-73.83446648317636</v>
       </c>
       <c r="E60" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="F60" s="4">
-        <v>3.109843119143759</v>
+        <v>1.8558572600426</v>
       </c>
       <c r="G60" s="5">
-        <v>0.5462012320328542</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="H60" s="4">
-        <v>10.87</v>
+        <v>14.79</v>
       </c>
       <c r="I60" s="5">
-        <v>0.1981519507186858</v>
+        <v>0.2905544147843943</v>
       </c>
       <c r="J60" s="4">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K60" s="5">
         <v>0.2751540041067762</v>
       </c>
       <c r="L60" s="4">
-        <v>0.8265</v>
+        <v>1.18</v>
       </c>
       <c r="M60" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="N60" s="4">
-        <v>7.993219565742176</v>
+        <v>11.41310465762862</v>
       </c>
       <c r="O60" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="P60" s="4">
-        <v>3.968018763109173</v>
+        <v>8.253081758095369</v>
       </c>
       <c r="Q60" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.5728952772073922</v>
       </c>
       <c r="R60" s="5">
-        <v>0.2688471692578469</v>
+        <v>0.269140510413611</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4128,55 +4128,55 @@
         <v>77</v>
       </c>
       <c r="B61" s="2">
-        <v>193.69</v>
+        <v>17.85</v>
       </c>
       <c r="C61" s="3">
-        <v>516</v>
+        <v>5602</v>
       </c>
       <c r="D61" s="4">
-        <v>0.03333371193936108</v>
+        <v>0.08881750058029217</v>
       </c>
       <c r="E61" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.3880903490759753</v>
       </c>
       <c r="F61" s="4">
-        <v>3.432717937951542</v>
+        <v>4.620035452310766</v>
       </c>
       <c r="G61" s="5">
-        <v>0.6119096509240246</v>
+        <v>0.759753593429158</v>
       </c>
       <c r="H61" s="4">
-        <v>10.1</v>
+        <v>13.59</v>
       </c>
       <c r="I61" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="J61" s="4">
-        <v>1.38</v>
+        <v>2.35</v>
       </c>
       <c r="K61" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="L61" s="4">
-        <v>2.08</v>
+        <v>0.3976</v>
       </c>
       <c r="M61" s="5">
-        <v>0.351129363449692</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="N61" s="4">
-        <v>7.604919584102793</v>
+        <v>4.76272672913436</v>
       </c>
       <c r="O61" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="P61" s="4">
-        <v>2.028697780548745</v>
+        <v>1.022191206381773</v>
       </c>
       <c r="Q61" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="R61" s="5">
-        <v>0.2689938398357289</v>
+        <v>0.2692871809914931</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4184,55 +4184,55 @@
         <v>78</v>
       </c>
       <c r="B62" s="2">
-        <v>17.47</v>
+        <v>48.1</v>
       </c>
       <c r="C62" s="3">
-        <v>5724</v>
+        <v>2079</v>
       </c>
       <c r="D62" s="4">
-        <v>0.08909481686048543</v>
+        <v>0.0388271751352658</v>
       </c>
       <c r="E62" s="5">
-        <v>0.3860369609856263</v>
+        <v>0.3203285420944559</v>
       </c>
       <c r="F62" s="4">
-        <v>4.655670369021883</v>
+        <v>3.139902108104724</v>
       </c>
       <c r="G62" s="5">
-        <v>0.7638603696098563</v>
+        <v>0.5503080082135523</v>
       </c>
       <c r="H62" s="4">
-        <v>13.5</v>
+        <v>10.83</v>
       </c>
       <c r="I62" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.1940451745379877</v>
       </c>
       <c r="J62" s="4">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K62" s="5">
-        <v>0.353182751540041</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="L62" s="4">
-        <v>0.4024</v>
+        <v>0.8381</v>
       </c>
       <c r="M62" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="N62" s="4">
-        <v>4.622429474479119</v>
+        <v>7.800988286048226</v>
       </c>
       <c r="O62" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.188911704312115</v>
       </c>
       <c r="P62" s="4">
-        <v>0.9976500418514199</v>
+        <v>4.150808872363074</v>
       </c>
       <c r="Q62" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="R62" s="5">
-        <v>0.2698738633030214</v>
+        <v>0.2711938985039601</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4240,55 +4240,55 @@
         <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>69.65000000000001</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C63" s="3">
-        <v>1435</v>
+        <v>1467</v>
       </c>
       <c r="D63" s="4">
-        <v>0.131137178317331</v>
+        <v>0.1317865916962611</v>
       </c>
       <c r="E63" s="5">
         <v>0.4496919917864476</v>
       </c>
       <c r="F63" s="4">
-        <v>18.32466227731902</v>
+        <v>17.97022011823628</v>
       </c>
       <c r="G63" s="5">
         <v>0.9712525667351128</v>
       </c>
       <c r="H63" s="4">
-        <v>10.29</v>
+        <v>10.18</v>
       </c>
       <c r="I63" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="J63" s="4">
-        <v>0.5931999999999999</v>
+        <v>0.5958</v>
       </c>
       <c r="K63" s="5">
         <v>0.06365503080082136</v>
       </c>
       <c r="L63" s="4">
-        <v>0.6395999999999999</v>
+        <v>0.6349</v>
       </c>
       <c r="M63" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="N63" s="4">
-        <v>7.238990748914555</v>
+        <v>7.373023612916586</v>
       </c>
       <c r="O63" s="5">
-        <v>0.162217659137577</v>
+        <v>0.1642710472279261</v>
       </c>
       <c r="P63" s="4">
-        <v>0.6102806869013619</v>
+        <v>0.6306505921412615</v>
       </c>
       <c r="Q63" s="5">
         <v>0.01437371663244353</v>
       </c>
       <c r="R63" s="5">
-        <v>0.2719272513933705</v>
+        <v>0.2713405690818422</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4296,55 +4296,55 @@
         <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>91.03</v>
+        <v>199.65</v>
       </c>
       <c r="C64" s="3">
-        <v>1098</v>
+        <v>500</v>
       </c>
       <c r="D64" s="4">
-        <v>0.0160085260891935</v>
+        <v>0.03347166649332631</v>
       </c>
       <c r="E64" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="F64" s="4">
-        <v>1.731554205865705</v>
+        <v>3.446513684639827</v>
       </c>
       <c r="G64" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.6057494866529773</v>
       </c>
       <c r="H64" s="4">
-        <v>17.51</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I64" s="5">
+        <v>0.1673511293634497</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.1652977412731006</v>
+      </c>
+      <c r="L64" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="M64" s="5">
         <v>0.351129363449692</v>
       </c>
-      <c r="J64" s="4">
-        <v>2.36</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0.3490759753593429</v>
-      </c>
-      <c r="L64" s="4">
-        <v>3.13</v>
-      </c>
-      <c r="M64" s="5">
-        <v>0.4917864476386037</v>
-      </c>
       <c r="N64" s="4">
-        <v>6.727098696596289</v>
+        <v>7.93780481504521</v>
       </c>
       <c r="O64" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="P64" s="4">
-        <v>3.15457261585794</v>
+        <v>2.05459168380507</v>
       </c>
       <c r="Q64" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="R64" s="5">
-        <v>0.2735406277500733</v>
+        <v>0.2722205925491346</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4352,55 +4352,55 @@
         <v>81</v>
       </c>
       <c r="B65" s="2">
-        <v>44.28</v>
+        <v>43.64</v>
       </c>
       <c r="C65" s="3">
-        <v>2258</v>
+        <v>2291</v>
       </c>
       <c r="D65" s="4">
-        <v>0.1665740859659717</v>
+        <v>0.1675569464737941</v>
       </c>
       <c r="E65" s="5">
-        <v>0.4804928131416837</v>
+        <v>0.4784394250513347</v>
       </c>
       <c r="F65" s="4">
-        <v>2.604111482049474</v>
+        <v>2.577025513335147</v>
       </c>
       <c r="G65" s="5">
-        <v>0.4394250513347023</v>
+        <v>0.433264887063655</v>
       </c>
       <c r="H65" s="4">
-        <v>13.71</v>
+        <v>13.85</v>
       </c>
       <c r="I65" s="5">
-        <v>0.2577002053388091</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="J65" s="4">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="K65" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.2063655030800821</v>
       </c>
       <c r="L65" s="4">
-        <v>0.7247</v>
+        <v>0.7157</v>
       </c>
       <c r="M65" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="N65" s="4">
-        <v>7.206614526334099</v>
+        <v>7.437826820340669</v>
       </c>
       <c r="O65" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="P65" s="4">
-        <v>4.409067092450503</v>
+        <v>4.339783708008111</v>
       </c>
       <c r="Q65" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="R65" s="5">
-        <v>0.2750073335288941</v>
+        <v>0.2726606042827809</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4408,52 +4408,52 @@
         <v>82</v>
       </c>
       <c r="B66" s="2">
-        <v>65.2</v>
+        <v>63.13</v>
       </c>
       <c r="C66" s="3">
-        <v>1533</v>
+        <v>1584</v>
       </c>
       <c r="D66" s="4">
-        <v>0.0216258050576578</v>
+        <v>0.0215465528571592</v>
       </c>
       <c r="E66" s="5">
         <v>0.2689938398357289</v>
       </c>
       <c r="F66" s="4">
-        <v>3.268288523120342</v>
+        <v>3.248592802802247</v>
       </c>
       <c r="G66" s="5">
-        <v>0.5770020533880903</v>
+        <v>0.5790554414784395</v>
       </c>
       <c r="H66" s="4">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="I66" s="5">
         <v>0.07597535934291581</v>
       </c>
       <c r="J66" s="4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K66" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="L66" s="4">
-        <v>0.4091</v>
+        <v>0.416</v>
       </c>
       <c r="M66" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="N66" s="4">
-        <v>9.439769468143705</v>
+        <v>9.673530322119417</v>
       </c>
       <c r="O66" s="5">
-        <v>0.2833675564681725</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="P66" s="4">
-        <v>7.686777877847057</v>
+        <v>7.625233359632092</v>
       </c>
       <c r="Q66" s="5">
-        <v>0.5256673511293635</v>
+        <v>0.5215605749486653</v>
       </c>
       <c r="R66" s="5">
         <v>0.2766207098855969</v>
@@ -4464,55 +4464,55 @@
         <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>47.58</v>
+        <v>90.11</v>
       </c>
       <c r="C67" s="3">
-        <v>2101</v>
+        <v>1109</v>
       </c>
       <c r="D67" s="4">
-        <v>0.02845740551754667</v>
+        <v>0.01561989579536567</v>
       </c>
       <c r="E67" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.2464065708418891</v>
       </c>
       <c r="F67" s="4">
-        <v>6.824350653309579</v>
+        <v>1.788574891915613</v>
       </c>
       <c r="G67" s="5">
-        <v>0.8459958932238193</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="H67" s="4">
-        <v>6.66</v>
+        <v>17.58</v>
       </c>
       <c r="I67" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.3552361396303901</v>
       </c>
       <c r="J67" s="4">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="K67" s="5">
-        <v>0.2987679671457906</v>
+        <v>0.3572895277207392</v>
       </c>
       <c r="L67" s="4">
-        <v>1.6</v>
+        <v>3.12</v>
       </c>
       <c r="M67" s="5">
-        <v>0.2659137577002053</v>
+        <v>0.4928131416837783</v>
       </c>
       <c r="N67" s="4">
-        <v>4.367804839011108</v>
+        <v>6.61473013627116</v>
       </c>
       <c r="O67" s="5">
-        <v>0.0595482546201232</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="P67" s="4">
-        <v>1.632848073992696</v>
+        <v>3.179457893598437</v>
       </c>
       <c r="Q67" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="R67" s="5">
-        <v>0.2769140510413611</v>
+        <v>0.2766207098855969</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4520,55 +4520,55 @@
         <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>49.63</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C68" s="3">
-        <v>2014</v>
+        <v>1335</v>
       </c>
       <c r="D68" s="4">
-        <v>-75.31602941445738</v>
+        <v>-0.7966191348443116</v>
       </c>
       <c r="E68" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="F68" s="4">
-        <v>1.84664964465183</v>
+        <v>3.233738166676992</v>
       </c>
       <c r="G68" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.5728952772073922</v>
       </c>
       <c r="H68" s="4">
-        <v>15.1</v>
+        <v>-62.89</v>
       </c>
       <c r="I68" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="J68" s="4">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K68" s="5">
-        <v>0.2946611909650924</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="L68" s="4">
-        <v>1.16</v>
+        <v>0.3413</v>
       </c>
       <c r="M68" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="N68" s="4">
-        <v>12.10317712088701</v>
+        <v>14.76812411019282</v>
       </c>
       <c r="O68" s="5">
-        <v>0.4024640657084189</v>
+        <v>0.5215605749486653</v>
       </c>
       <c r="P68" s="4">
-        <v>8.368663115623237</v>
+        <v>5.899591729821754</v>
       </c>
       <c r="Q68" s="5">
-        <v>0.5811088295687885</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="R68" s="5">
-        <v>0.2779407450865357</v>
+        <v>0.2769140510413611</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4576,55 +4576,55 @@
         <v>85</v>
       </c>
       <c r="B69" s="2">
-        <v>75.2</v>
+        <v>160.74</v>
       </c>
       <c r="C69" s="3">
-        <v>1329</v>
+        <v>622</v>
       </c>
       <c r="D69" s="4">
-        <v>-0.7898106917926775</v>
+        <v>0.176626000542696</v>
       </c>
       <c r="E69" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="F69" s="4">
-        <v>3.227074178153551</v>
+        <v>4.445618734825498</v>
       </c>
       <c r="G69" s="5">
-        <v>0.568788501026694</v>
+        <v>0.7453798767967146</v>
       </c>
       <c r="H69" s="4">
-        <v>-63.3</v>
+        <v>11.08</v>
       </c>
       <c r="I69" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.204312114989733</v>
       </c>
       <c r="J69" s="4">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="K69" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="L69" s="4">
-        <v>0.3397</v>
+        <v>1.16</v>
       </c>
       <c r="M69" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="N69" s="4">
-        <v>15.13486739146194</v>
+        <v>7.187874843735776</v>
       </c>
       <c r="O69" s="5">
-        <v>0.5215605749486653</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="P69" s="4">
-        <v>6.239954452252998</v>
+        <v>1.080486003043206</v>
       </c>
       <c r="Q69" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="R69" s="5">
-        <v>0.278674097975946</v>
+        <v>0.278527427398064</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4632,55 +4632,55 @@
         <v>86</v>
       </c>
       <c r="B70" s="2">
-        <v>158.32</v>
+        <v>47.8</v>
       </c>
       <c r="C70" s="3">
-        <v>631</v>
+        <v>2092</v>
       </c>
       <c r="D70" s="4">
-        <v>0.1745242535599152</v>
+        <v>0.02961280274087686</v>
       </c>
       <c r="E70" s="5">
-        <v>0.484599589322382</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="F70" s="4">
-        <v>4.255130209175086</v>
+        <v>6.728396195230916</v>
       </c>
       <c r="G70" s="5">
-        <v>0.7330595482546201</v>
+        <v>0.8480492813141685</v>
       </c>
       <c r="H70" s="4">
-        <v>11</v>
+        <v>6.83</v>
       </c>
       <c r="I70" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="J70" s="4">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K70" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="L70" s="4">
-        <v>1.14</v>
+        <v>1.61</v>
       </c>
       <c r="M70" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.2638603696098563</v>
       </c>
       <c r="N70" s="4">
-        <v>7.176086941291699</v>
+        <v>4.340997627234845</v>
       </c>
       <c r="O70" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.0595482546201232</v>
       </c>
       <c r="P70" s="4">
-        <v>1.140790116138781</v>
+        <v>1.658948330605498</v>
       </c>
       <c r="Q70" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="R70" s="5">
-        <v>0.2789674391317102</v>
+        <v>0.2788207685538281</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4688,55 +4688,55 @@
         <v>87</v>
       </c>
       <c r="B71" s="2">
-        <v>72.48</v>
+        <v>74.09</v>
       </c>
       <c r="C71" s="3">
-        <v>1379</v>
+        <v>1349</v>
       </c>
       <c r="D71" s="4">
-        <v>0.0177605957749692</v>
+        <v>0.01781394958157157</v>
       </c>
       <c r="E71" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="F71" s="4">
-        <v>3.26648290647849</v>
+        <v>3.21542062873148</v>
       </c>
       <c r="G71" s="5">
-        <v>0.5749486652977412</v>
+        <v>0.5646817248459959</v>
       </c>
       <c r="H71" s="4">
-        <v>-67.03</v>
+        <v>-66.44</v>
       </c>
       <c r="I71" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="J71" s="4">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K71" s="5">
-        <v>0.2412731006160165</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="L71" s="4">
-        <v>0.3147</v>
+        <v>0.321</v>
       </c>
       <c r="M71" s="5">
         <v>0.01437371663244353</v>
       </c>
       <c r="N71" s="4">
-        <v>15.94878258789561</v>
+        <v>15.73852534727184</v>
       </c>
       <c r="O71" s="5">
-        <v>0.5544147843942505</v>
+        <v>0.5482546201232033</v>
       </c>
       <c r="P71" s="4">
-        <v>4.540686733670496</v>
+        <v>4.579476027062093</v>
       </c>
       <c r="Q71" s="5">
-        <v>0.297741273100616</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="R71" s="5">
-        <v>0.2794074508653564</v>
+        <v>0.2810208272220592</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4744,55 +4744,55 @@
         <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>160.4</v>
+        <v>81.55</v>
       </c>
       <c r="C72" s="3">
-        <v>623</v>
+        <v>1226</v>
       </c>
       <c r="D72" s="4">
-        <v>0.05096180452033947</v>
+        <v>0.05091676307493595</v>
       </c>
       <c r="E72" s="5">
         <v>0.3388090349075976</v>
       </c>
       <c r="F72" s="4">
-        <v>1.67193253126943</v>
+        <v>2.445987998634103</v>
       </c>
       <c r="G72" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.406570841889117</v>
       </c>
       <c r="H72" s="4">
-        <v>8.699999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="I72" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="J72" s="4">
-        <v>2.4</v>
+        <v>1.59</v>
       </c>
       <c r="K72" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.2063655030800821</v>
       </c>
       <c r="L72" s="4">
-        <v>2.57</v>
+        <v>1.19</v>
       </c>
       <c r="M72" s="5">
-        <v>0.4229979466119096</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="N72" s="4">
-        <v>8.344452215310705</v>
+        <v>8.695563233936493</v>
       </c>
       <c r="O72" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.2484599589322382</v>
       </c>
       <c r="P72" s="4">
-        <v>5.614137335815531</v>
+        <v>4.294476176950022</v>
       </c>
       <c r="Q72" s="5">
-        <v>0.3819301848049281</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="R72" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.2835142270460546</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4800,55 +4800,55 @@
         <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>402.01</v>
+        <v>69.06</v>
       </c>
       <c r="C73" s="3">
-        <v>248</v>
+        <v>1448</v>
       </c>
       <c r="D73" s="4">
-        <v>0.02460527662697787</v>
+        <v>0.4227420110041823</v>
       </c>
       <c r="E73" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.6139630390143737</v>
       </c>
       <c r="F73" s="4">
-        <v>14.14493326351979</v>
+        <v>4.416500823916826</v>
       </c>
       <c r="G73" s="5">
-        <v>0.9548254620123202</v>
+        <v>0.7412731006160165</v>
       </c>
       <c r="H73" s="4">
-        <v>6.56</v>
+        <v>11.8</v>
       </c>
       <c r="I73" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.2207392197125257</v>
       </c>
       <c r="J73" s="4">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="K73" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="L73" s="4">
-        <v>2</v>
+        <v>1.07</v>
       </c>
       <c r="M73" s="5">
-        <v>0.337782340862423</v>
+        <v>0.1427104722792608</v>
       </c>
       <c r="N73" s="4">
-        <v>4.503060149188165</v>
+        <v>5.307440931826679</v>
       </c>
       <c r="O73" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="P73" s="4">
-        <v>2.068714241421626</v>
+        <v>1.044361480856024</v>
       </c>
       <c r="Q73" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="R73" s="5">
-        <v>0.2860076268700498</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4856,55 +4856,55 @@
         <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>79.68000000000001</v>
+        <v>399.58</v>
       </c>
       <c r="C74" s="3">
-        <v>1255</v>
+        <v>250</v>
       </c>
       <c r="D74" s="4">
-        <v>0.04995743494332697</v>
+        <v>0.02502891739359761</v>
       </c>
       <c r="E74" s="5">
-        <v>0.3367556468172485</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="F74" s="4">
-        <v>2.495628377029663</v>
+        <v>14.07998840325839</v>
       </c>
       <c r="G74" s="5">
-        <v>0.4209445585215606</v>
+        <v>0.9548254620123202</v>
       </c>
       <c r="H74" s="4">
-        <v>17.7</v>
+        <v>6.55</v>
       </c>
       <c r="I74" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="J74" s="4">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="K74" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.1694045174537988</v>
       </c>
       <c r="L74" s="4">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="M74" s="5">
-        <v>0.1704312114989733</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="N74" s="4">
-        <v>8.697249030441796</v>
+        <v>4.286066937328665</v>
       </c>
       <c r="O74" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="P74" s="4">
-        <v>4.08118947818827</v>
+        <v>2.012172490901151</v>
       </c>
       <c r="Q74" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="R74" s="5">
-        <v>0.2860076268700499</v>
+        <v>0.2867409797594602</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4912,55 +4912,55 @@
         <v>91</v>
       </c>
       <c r="B75" s="2">
-        <v>234.71</v>
+        <v>228.93</v>
       </c>
       <c r="C75" s="3">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D75" s="4">
-        <v>0.1341849368724617</v>
+        <v>0.1298523107948519</v>
       </c>
       <c r="E75" s="5">
-        <v>0.4517453798767967</v>
+        <v>0.4455852156057494</v>
       </c>
       <c r="F75" s="4">
-        <v>3.30738312953425</v>
+        <v>3.301596719606541</v>
       </c>
       <c r="G75" s="5">
         <v>0.5893223819301848</v>
       </c>
       <c r="H75" s="4">
-        <v>9.460000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="I75" s="5">
         <v>0.1560574948665298</v>
       </c>
       <c r="J75" s="4">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="K75" s="5">
-        <v>0.217659137577002</v>
+        <v>0.2217659137577002</v>
       </c>
       <c r="L75" s="4">
-        <v>0.4577</v>
+        <v>0.4601</v>
       </c>
       <c r="M75" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.04209445585215606</v>
       </c>
       <c r="N75" s="4">
-        <v>10.97481890611843</v>
+        <v>11.26485189122539</v>
       </c>
       <c r="O75" s="5">
-        <v>0.351129363449692</v>
+        <v>0.3634496919917864</v>
       </c>
       <c r="P75" s="4">
-        <v>3.371771124631394</v>
+        <v>3.316972542971052</v>
       </c>
       <c r="Q75" s="5">
-        <v>0.2053388090349076</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="R75" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.2879143443825168</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4968,55 +4968,55 @@
         <v>92</v>
       </c>
       <c r="B76" s="2">
-        <v>70.89</v>
+        <v>57.26</v>
       </c>
       <c r="C76" s="3">
-        <v>1410</v>
+        <v>1746</v>
       </c>
       <c r="D76" s="4">
-        <v>0.4350355833752519</v>
+        <v>0.02069477877690183</v>
       </c>
       <c r="E76" s="5">
-        <v>0.6180698151950719</v>
+        <v>0.2669404517453799</v>
       </c>
       <c r="F76" s="4">
-        <v>4.392160662159084</v>
+        <v>3.94377837055938</v>
       </c>
       <c r="G76" s="5">
-        <v>0.7453798767967146</v>
+        <v>0.6940451745379878</v>
       </c>
       <c r="H76" s="4">
-        <v>11.82</v>
+        <v>7.32</v>
       </c>
       <c r="I76" s="5">
-        <v>0.217659137577002</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="J76" s="4">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="K76" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.3860369609856263</v>
       </c>
       <c r="L76" s="4">
-        <v>1.1</v>
+        <v>0.8101</v>
       </c>
       <c r="M76" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="N76" s="4">
-        <v>5.18773148800576</v>
+        <v>6.364491816572261</v>
       </c>
       <c r="O76" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="P76" s="4">
-        <v>1.037122093014249</v>
+        <v>5.262055537524063</v>
       </c>
       <c r="Q76" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.3593429158110883</v>
       </c>
       <c r="R76" s="5">
-        <v>0.2877676738046348</v>
+        <v>0.2909944265180405</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5024,55 +5024,55 @@
         <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>50.7</v>
+        <v>308.53</v>
       </c>
       <c r="C77" s="3">
-        <v>1972</v>
+        <v>324</v>
       </c>
       <c r="D77" s="4">
-        <v>0.03829412185535424</v>
+        <v>0.04702723769617245</v>
       </c>
       <c r="E77" s="5">
-        <v>0.3162217659137577</v>
+        <v>0.3285420944558521</v>
       </c>
       <c r="F77" s="4">
-        <v>3.595341852255217</v>
+        <v>2.078066445314323</v>
       </c>
       <c r="G77" s="5">
-        <v>0.6427104722792607</v>
+        <v>0.2772073921971253</v>
       </c>
       <c r="H77" s="4">
-        <v>17.27</v>
+        <v>10.83</v>
       </c>
       <c r="I77" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.1940451745379877</v>
       </c>
       <c r="J77" s="4">
-        <v>1.9</v>
+        <v>2.81</v>
       </c>
       <c r="K77" s="5">
-        <v>0.284394250513347</v>
+        <v>0.4168377823408624</v>
       </c>
       <c r="L77" s="4">
-        <v>0.345</v>
+        <v>1.76</v>
       </c>
       <c r="M77" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="N77" s="4">
-        <v>10.08900410713617</v>
+        <v>7.419749135547034</v>
       </c>
       <c r="O77" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="P77" s="4">
-        <v>1.845188020870045</v>
+        <v>5.270384096523262</v>
       </c>
       <c r="Q77" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.3613963039014373</v>
       </c>
       <c r="R77" s="5">
-        <v>0.2890877090055735</v>
+        <v>0.2911410970959226</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5080,55 +5080,55 @@
         <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>313.32</v>
+        <v>158.01</v>
       </c>
       <c r="C78" s="3">
-        <v>319</v>
+        <v>632</v>
       </c>
       <c r="D78" s="4">
-        <v>0.04703238138306107</v>
+        <v>0.05075389020801917</v>
       </c>
       <c r="E78" s="5">
-        <v>0.3285420944558521</v>
+        <v>0.3367556468172485</v>
       </c>
       <c r="F78" s="4">
-        <v>2.002266511330273</v>
+        <v>1.688740692755143</v>
       </c>
       <c r="G78" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="H78" s="4">
-        <v>11.17</v>
+        <v>8.76</v>
       </c>
       <c r="I78" s="5">
-        <v>0.2053388090349076</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="J78" s="4">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="K78" s="5">
-        <v>0.4117043121149897</v>
+        <v>0.3726899383983573</v>
       </c>
       <c r="L78" s="4">
-        <v>1.82</v>
+        <v>2.53</v>
       </c>
       <c r="M78" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.4209445585215606</v>
       </c>
       <c r="N78" s="4">
-        <v>7.539048443469971</v>
+        <v>8.629819442406395</v>
       </c>
       <c r="O78" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="P78" s="4">
-        <v>5.098713316647532</v>
+        <v>5.659165753101639</v>
       </c>
       <c r="Q78" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.3819301848049281</v>
       </c>
       <c r="R78" s="5">
-        <v>0.2890877090055735</v>
+        <v>0.2911410970959226</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5136,55 +5136,55 @@
         <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>163.12</v>
+        <v>52.53</v>
       </c>
       <c r="C79" s="3">
-        <v>613</v>
+        <v>1903</v>
       </c>
       <c r="D79" s="4">
-        <v>0.005598264035800321</v>
+        <v>0.03771686216212466</v>
       </c>
       <c r="E79" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="F79" s="4">
-        <v>2.09516907262692</v>
+        <v>3.553885844155017</v>
       </c>
       <c r="G79" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.6365503080082136</v>
       </c>
       <c r="H79" s="4">
-        <v>11.95</v>
+        <v>17.65</v>
       </c>
       <c r="I79" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.3593429158110883</v>
       </c>
       <c r="J79" s="4">
-        <v>2.44</v>
+        <v>1.9</v>
       </c>
       <c r="K79" s="5">
-        <v>0.364476386036961</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="L79" s="4">
-        <v>1.79</v>
+        <v>0.344</v>
       </c>
       <c r="M79" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="N79" s="4">
-        <v>8.482952806639522</v>
+        <v>10.39331231647287</v>
       </c>
       <c r="O79" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="P79" s="4">
-        <v>5.795623408729846</v>
+        <v>1.8009756557973</v>
       </c>
       <c r="Q79" s="5">
-        <v>0.3963039014373717</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="R79" s="5">
-        <v>0.2893810501613376</v>
+        <v>0.2912877676738047</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5192,55 +5192,55 @@
         <v>96</v>
       </c>
       <c r="B80" s="2">
-        <v>230.25</v>
+        <v>40.7</v>
       </c>
       <c r="C80" s="3">
-        <v>434</v>
+        <v>2457</v>
       </c>
       <c r="D80" s="4">
-        <v>0.0570768457012359</v>
+        <v>-3.769756451891446</v>
       </c>
       <c r="E80" s="5">
-        <v>0.351129363449692</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="F80" s="4">
-        <v>4.193625104848175</v>
+        <v>28.97564507183718</v>
       </c>
       <c r="G80" s="5">
-        <v>0.7248459958932238</v>
+        <v>0.9856262833675565</v>
       </c>
       <c r="H80" s="4">
-        <v>7.53</v>
+        <v>-379.46</v>
       </c>
       <c r="I80" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="J80" s="4">
-        <v>2.88</v>
+        <v>9.84</v>
       </c>
       <c r="K80" s="5">
-        <v>0.4291581108829569</v>
+        <v>0.7946611909650925</v>
       </c>
       <c r="L80" s="4">
-        <v>0.659</v>
+        <v>1.04</v>
       </c>
       <c r="M80" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="N80" s="4">
-        <v>6.314511164490204</v>
+        <v>-14.32146397774083</v>
       </c>
       <c r="O80" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="P80" s="4">
-        <v>3.546508320121546</v>
+        <v>1.627412346209203</v>
       </c>
       <c r="Q80" s="5">
-        <v>0.217659137577002</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="R80" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.2930478146083896</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5248,55 +5248,55 @@
         <v>97</v>
       </c>
       <c r="B81" s="2">
-        <v>57.63</v>
+        <v>118.93</v>
       </c>
       <c r="C81" s="3">
-        <v>1735</v>
+        <v>840</v>
       </c>
       <c r="D81" s="4">
-        <v>0.02048097421240178</v>
+        <v>0.1257092457346448</v>
       </c>
       <c r="E81" s="5">
-        <v>0.2669404517453799</v>
+        <v>0.4394250513347023</v>
       </c>
       <c r="F81" s="4">
-        <v>3.759088316970155</v>
+        <v>1.804945781506127</v>
       </c>
       <c r="G81" s="5">
-        <v>0.6714579055441479</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="H81" s="4">
-        <v>7.44</v>
+        <v>23.1</v>
       </c>
       <c r="I81" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.4681724845995893</v>
       </c>
       <c r="J81" s="4">
-        <v>2.53</v>
+        <v>1.66</v>
       </c>
       <c r="K81" s="5">
-        <v>0.37782340862423</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="L81" s="4">
-        <v>0.8310999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="M81" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.2802874743326489</v>
       </c>
       <c r="N81" s="4">
-        <v>6.520661508425791</v>
+        <v>7.816288849159009</v>
       </c>
       <c r="O81" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="P81" s="4">
-        <v>5.405479374875769</v>
+        <v>4.335599009561561</v>
       </c>
       <c r="Q81" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.2772073921971253</v>
       </c>
       <c r="R81" s="5">
-        <v>0.2904077442065122</v>
+        <v>0.2940745086535641</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5304,55 +5304,55 @@
         <v>98</v>
       </c>
       <c r="B82" s="2">
-        <v>39.8</v>
+        <v>166.1</v>
       </c>
       <c r="C82" s="3">
-        <v>2512</v>
+        <v>602</v>
       </c>
       <c r="D82" s="4">
-        <v>-3.871494587769426</v>
+        <v>0.00566855486958223</v>
       </c>
       <c r="E82" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="F82" s="4">
-        <v>29.05622981619215</v>
+        <v>2.11128011423001</v>
       </c>
       <c r="G82" s="5">
-        <v>0.9856262833675565</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="H82" s="4">
-        <v>-387.35</v>
+        <v>12.14</v>
       </c>
       <c r="I82" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.2299794661190965</v>
       </c>
       <c r="J82" s="4">
-        <v>9.93</v>
+        <v>2.43</v>
       </c>
       <c r="K82" s="5">
-        <v>0.8018480492813141</v>
+        <v>0.3593429158110883</v>
       </c>
       <c r="L82" s="4">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="M82" s="5">
-        <v>0.1386036960985626</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="N82" s="4">
-        <v>-14.41207982117612</v>
+        <v>8.336758218749061</v>
       </c>
       <c r="O82" s="5">
-        <v>0.008213552361396304</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="P82" s="4">
-        <v>1.652011475445795</v>
+        <v>6.113348692019459</v>
       </c>
       <c r="Q82" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.4271047227926077</v>
       </c>
       <c r="R82" s="5">
-        <v>0.293927838075682</v>
+        <v>0.2945145203872103</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5360,55 +5360,55 @@
         <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>121.94</v>
+        <v>232.34</v>
       </c>
       <c r="C83" s="3">
-        <v>820</v>
+        <v>430</v>
       </c>
       <c r="D83" s="4">
-        <v>0.1274916416322275</v>
+        <v>0.0584447061120064</v>
       </c>
       <c r="E83" s="5">
-        <v>0.4414784394250513</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="F83" s="4">
-        <v>1.797427005991507</v>
+        <v>4.297119561276975</v>
       </c>
       <c r="G83" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.7310061601642711</v>
       </c>
       <c r="H83" s="4">
-        <v>22.85</v>
+        <v>7.3</v>
       </c>
       <c r="I83" s="5">
-        <v>0.459958932238193</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="J83" s="4">
-        <v>1.67</v>
+        <v>2.96</v>
       </c>
       <c r="K83" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.4435318275154004</v>
       </c>
       <c r="L83" s="4">
-        <v>1.7</v>
+        <v>0.6705</v>
       </c>
       <c r="M83" s="5">
-        <v>0.2823408624229979</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="N83" s="4">
-        <v>7.779801625602798</v>
+        <v>6.427488652820728</v>
       </c>
       <c r="O83" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="P83" s="4">
-        <v>4.348752925134542</v>
+        <v>3.643802848007426</v>
       </c>
       <c r="Q83" s="5">
-        <v>0.2813141683778234</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="R83" s="5">
-        <v>0.2940745086535641</v>
+        <v>0.2945145203872103</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5416,55 +5416,55 @@
         <v>100</v>
       </c>
       <c r="B84" s="2">
-        <v>35.56</v>
+        <v>256.18</v>
       </c>
       <c r="C84" s="3">
-        <v>2812</v>
+        <v>390</v>
       </c>
       <c r="D84" s="4">
-        <v>0.0334683571528786</v>
+        <v>0.146177347025583</v>
       </c>
       <c r="E84" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.459958932238193</v>
       </c>
       <c r="F84" s="4">
-        <v>1.926018235992619</v>
+        <v>3.476179347873753</v>
       </c>
       <c r="G84" s="5">
-        <v>0.217659137577002</v>
+        <v>0.6160164271047228</v>
       </c>
       <c r="H84" s="4">
-        <v>19.37</v>
+        <v>14.16</v>
       </c>
       <c r="I84" s="5">
-        <v>0.3983572895277207</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="J84" s="4">
-        <v>0.884</v>
+        <v>2.8</v>
       </c>
       <c r="K84" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.4117043121149897</v>
       </c>
       <c r="L84" s="4">
-        <v>1.7</v>
+        <v>0.763</v>
       </c>
       <c r="M84" s="5">
-        <v>0.2823408624229979</v>
+        <v>0.08932238193018481</v>
       </c>
       <c r="N84" s="4">
-        <v>10.19139369406961</v>
+        <v>7.995332358740471</v>
       </c>
       <c r="O84" s="5">
-        <v>0.3162217659137577</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="P84" s="4">
-        <v>6.908855138767473</v>
+        <v>0.8843483006176457</v>
       </c>
       <c r="Q84" s="5">
-        <v>0.4722792607802874</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="R84" s="5">
-        <v>0.2975946025227339</v>
+        <v>0.297741273100616</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5472,55 +5472,55 @@
         <v>101</v>
       </c>
       <c r="B85" s="2">
-        <v>262.42</v>
+        <v>69</v>
       </c>
       <c r="C85" s="3">
-        <v>381</v>
+        <v>1449</v>
       </c>
       <c r="D85" s="4">
-        <v>0.1445399090834199</v>
+        <v>-0.5576084615669943</v>
       </c>
       <c r="E85" s="5">
-        <v>0.459958932238193</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="F85" s="4">
-        <v>3.382687680629503</v>
+        <v>-44.66384322034951</v>
       </c>
       <c r="G85" s="5">
-        <v>0.595482546201232</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="H85" s="4">
-        <v>14.43</v>
+        <v>38.1</v>
       </c>
       <c r="I85" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.7371663244353183</v>
       </c>
       <c r="J85" s="4">
-        <v>2.8</v>
+        <v>-137.05</v>
       </c>
       <c r="K85" s="5">
-        <v>0.4147843942505133</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="L85" s="4">
-        <v>0.773</v>
+        <v>2.03</v>
       </c>
       <c r="M85" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="N85" s="4">
-        <v>8.345994784515533</v>
+        <v>12.11165193923248</v>
       </c>
       <c r="O85" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.3963039014373717</v>
       </c>
       <c r="P85" s="4">
-        <v>0.9250103850448467</v>
+        <v>6.260299195736406</v>
       </c>
       <c r="Q85" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.433264887063655</v>
       </c>
       <c r="R85" s="5">
-        <v>0.2995013200352009</v>
+        <v>0.3000880023467292</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5528,55 +5528,55 @@
         <v>102</v>
       </c>
       <c r="B86" s="2">
-        <v>69</v>
+        <v>63.82</v>
       </c>
       <c r="C86" s="3">
-        <v>1449</v>
+        <v>1566</v>
       </c>
       <c r="D86" s="4">
-        <v>-0.5397831303871196</v>
+        <v>0.01685598922957155</v>
       </c>
       <c r="E86" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="F86" s="4">
-        <v>-45.95458173594702</v>
+        <v>11.55098685436616</v>
       </c>
       <c r="G86" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.9301848049281314</v>
       </c>
       <c r="H86" s="4">
-        <v>37.75</v>
+        <v>6.07</v>
       </c>
       <c r="I86" s="5">
-        <v>0.7351129363449692</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="J86" s="4">
-        <v>-137.35</v>
+        <v>1.37</v>
       </c>
       <c r="K86" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="L86" s="4">
-        <v>2.03</v>
+        <v>2.9</v>
       </c>
       <c r="M86" s="5">
-        <v>0.3459958932238193</v>
+        <v>0.4661190965092403</v>
       </c>
       <c r="N86" s="4">
-        <v>12.2435036551379</v>
+        <v>4.682331442405609</v>
       </c>
       <c r="O86" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="P86" s="4">
-        <v>6.329190795207935</v>
+        <v>2.543037399694749</v>
       </c>
       <c r="Q86" s="5">
-        <v>0.431211498973306</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="R86" s="5">
-        <v>0.3014080375476679</v>
+        <v>0.3003813435024934</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5584,55 +5584,55 @@
         <v>103</v>
       </c>
       <c r="B87" s="2">
-        <v>63.73</v>
+        <v>35.57</v>
       </c>
       <c r="C87" s="3">
-        <v>1569</v>
+        <v>2811</v>
       </c>
       <c r="D87" s="4">
-        <v>0.01690782544130365</v>
+        <v>0.0339599067546572</v>
       </c>
       <c r="E87" s="5">
-        <v>0.2587268993839836</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="F87" s="4">
-        <v>11.38018790691012</v>
+        <v>1.905308465933622</v>
       </c>
       <c r="G87" s="5">
-        <v>0.9301848049281314</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="H87" s="4">
-        <v>6.05</v>
+        <v>19.71</v>
       </c>
       <c r="I87" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="J87" s="4">
-        <v>1.37</v>
+        <v>0.8951</v>
       </c>
       <c r="K87" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="L87" s="4">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="M87" s="5">
-        <v>0.4702258726899384</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="N87" s="4">
-        <v>4.697276039872928</v>
+        <v>10.31975769894132</v>
       </c>
       <c r="O87" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="P87" s="4">
-        <v>2.4909424777799</v>
+        <v>7.404721486829623</v>
       </c>
       <c r="Q87" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.5051334702258727</v>
       </c>
       <c r="R87" s="5">
-        <v>0.3014080375476679</v>
+        <v>0.3012613669697858</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5640,55 +5640,55 @@
         <v>104</v>
       </c>
       <c r="B88" s="2">
-        <v>49.69</v>
+        <v>22.61</v>
       </c>
       <c r="C88" s="3">
-        <v>2012</v>
+        <v>4422</v>
       </c>
       <c r="D88" s="4">
-        <v>0.0117919435342706</v>
+        <v>0.1875177528524953</v>
       </c>
       <c r="E88" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="F88" s="4">
-        <v>10.41331988959538</v>
+        <v>2.023762934925622</v>
       </c>
       <c r="G88" s="5">
-        <v>0.9055441478439425</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="H88" s="4">
-        <v>11.93</v>
+        <v>28.03</v>
       </c>
       <c r="I88" s="5">
+        <v>0.5893223819301848</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="K88" s="5">
         <v>0.2217659137577002</v>
       </c>
-      <c r="J88" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="K88" s="5">
-        <v>0.1314168377823409</v>
-      </c>
       <c r="L88" s="4">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="M88" s="5">
-        <v>0.4147843942505133</v>
+        <v>0.204312114989733</v>
       </c>
       <c r="N88" s="4">
-        <v>5.902480931224279</v>
+        <v>10.06292028162616</v>
       </c>
       <c r="O88" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="P88" s="4">
-        <v>2.344007435791189</v>
+        <v>1.390464819519879</v>
       </c>
       <c r="Q88" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="R88" s="5">
-        <v>0.3047814608389557</v>
+        <v>0.3040481079495453</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5696,55 +5696,55 @@
         <v>105</v>
       </c>
       <c r="B89" s="2">
-        <v>22.77</v>
+        <v>49.77</v>
       </c>
       <c r="C89" s="3">
-        <v>4391</v>
+        <v>2009</v>
       </c>
       <c r="D89" s="4">
-        <v>0.1846565485707666</v>
+        <v>0.01154199232801708</v>
       </c>
       <c r="E89" s="5">
-        <v>0.4907597535934291</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="F89" s="4">
-        <v>2.077687001126606</v>
+        <v>10.7521975942642</v>
       </c>
       <c r="G89" s="5">
-        <v>0.2772073921971253</v>
+        <v>0.9075975359342915</v>
       </c>
       <c r="H89" s="4">
-        <v>27.07</v>
+        <v>11.57</v>
       </c>
       <c r="I89" s="5">
-        <v>0.5739219712525667</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="J89" s="4">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="K89" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="L89" s="4">
-        <v>1.39</v>
+        <v>2.5</v>
       </c>
       <c r="M89" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.4188911704312115</v>
       </c>
       <c r="N89" s="4">
-        <v>9.965738698928863</v>
+        <v>5.906411397673235</v>
       </c>
       <c r="O89" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="P89" s="4">
-        <v>1.332611843800444</v>
+        <v>2.314107403985124</v>
       </c>
       <c r="Q89" s="5">
-        <v>0.0595482546201232</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="R89" s="5">
-        <v>0.3066881783514227</v>
+        <v>0.3047814608389557</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5752,55 +5752,55 @@
         <v>106</v>
       </c>
       <c r="B90" s="2">
-        <v>82.42</v>
+        <v>113.52</v>
       </c>
       <c r="C90" s="3">
-        <v>1213</v>
+        <v>880</v>
       </c>
       <c r="D90" s="4">
-        <v>0.01690326910787355</v>
+        <v>0.0353329500387058</v>
       </c>
       <c r="E90" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="F90" s="4">
-        <v>1.751274223046385</v>
+        <v>2.856522169267574</v>
       </c>
       <c r="G90" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="H90" s="4">
-        <v>7.42</v>
+        <v>20.82</v>
       </c>
       <c r="I90" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.4229979466119096</v>
       </c>
       <c r="J90" s="4">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="K90" s="5">
-        <v>0.2104722792607803</v>
+        <v>0.4517453798767967</v>
       </c>
       <c r="L90" s="4">
-        <v>2.43</v>
+        <v>1.52</v>
       </c>
       <c r="M90" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.2381930184804928</v>
       </c>
       <c r="N90" s="4">
-        <v>13.35164563382005</v>
+        <v>7.268038074295181</v>
       </c>
       <c r="O90" s="5">
-        <v>0.4558521560574949</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="P90" s="4">
-        <v>8.096604649097873</v>
+        <v>1.860573879832465</v>
       </c>
       <c r="Q90" s="5">
-        <v>0.5605749486652978</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="R90" s="5">
-        <v>0.3090349075975359</v>
+        <v>0.3097682604869463</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5808,55 +5808,55 @@
         <v>107</v>
       </c>
       <c r="B91" s="2">
-        <v>135.21</v>
+        <v>81.72</v>
       </c>
       <c r="C91" s="3">
-        <v>739</v>
+        <v>1223</v>
       </c>
       <c r="D91" s="4">
-        <v>-2.083379202058619</v>
+        <v>0.01671901579993589</v>
       </c>
       <c r="E91" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="F91" s="4">
-        <v>2.005817439210373</v>
+        <v>1.771294440383332</v>
       </c>
       <c r="G91" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="H91" s="4">
-        <v>19.05</v>
+        <v>7.5</v>
       </c>
       <c r="I91" s="5">
-        <v>0.3942505133470226</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="J91" s="4">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="K91" s="5">
-        <v>0.2587268993839836</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="L91" s="4">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="M91" s="5">
-        <v>0.3203285420944559</v>
+        <v>0.3983572895277207</v>
       </c>
       <c r="N91" s="4">
-        <v>12.98175159174366</v>
+        <v>13.70566154035078</v>
       </c>
       <c r="O91" s="5">
-        <v>0.4476386036960986</v>
+        <v>0.4681724845995893</v>
       </c>
       <c r="P91" s="4">
-        <v>6.34252758908164</v>
+        <v>8.188739844180146</v>
       </c>
       <c r="Q91" s="5">
-        <v>0.433264887063655</v>
+        <v>0.568788501026694</v>
       </c>
       <c r="R91" s="5">
-        <v>0.3135816955118803</v>
+        <v>0.3103549427984746</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5864,55 +5864,55 @@
         <v>108</v>
       </c>
       <c r="B92" s="2">
-        <v>114.84</v>
+        <v>138.05</v>
       </c>
       <c r="C92" s="3">
-        <v>870</v>
+        <v>724</v>
       </c>
       <c r="D92" s="4">
-        <v>0.0346942216911811</v>
+        <v>-2.044356077341543</v>
       </c>
       <c r="E92" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="F92" s="4">
-        <v>2.967483755801878</v>
+        <v>1.966390463731451</v>
       </c>
       <c r="G92" s="5">
-        <v>0.5092402464065708</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="H92" s="4">
-        <v>21.62</v>
+        <v>19.87</v>
       </c>
       <c r="I92" s="5">
-        <v>0.433264887063655</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="J92" s="4">
-        <v>2.87</v>
+        <v>1.74</v>
       </c>
       <c r="K92" s="5">
-        <v>0.4260780287474333</v>
+        <v>0.2494866529774127</v>
       </c>
       <c r="L92" s="4">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="M92" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.3121149897330595</v>
       </c>
       <c r="N92" s="4">
-        <v>7.682268590446785</v>
+        <v>12.67538924806489</v>
       </c>
       <c r="O92" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="P92" s="4">
-        <v>2.026609630551425</v>
+        <v>6.569506511851636</v>
       </c>
       <c r="Q92" s="5">
-        <v>0.1047227926078029</v>
+        <v>0.4537987679671457</v>
       </c>
       <c r="R92" s="5">
-        <v>0.3146083895570548</v>
+        <v>0.3113816368436492</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5920,55 +5920,55 @@
         <v>109</v>
       </c>
       <c r="B93" s="2">
-        <v>22.42</v>
+        <v>349.5</v>
       </c>
       <c r="C93" s="3">
-        <v>4460</v>
+        <v>286</v>
       </c>
       <c r="D93" s="4">
-        <v>0.03532030518184039</v>
+        <v>0.03826454544202879</v>
       </c>
       <c r="E93" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.3162217659137577</v>
       </c>
       <c r="F93" s="4">
-        <v>8.505596087915142</v>
+        <v>4.599306151861308</v>
       </c>
       <c r="G93" s="5">
-        <v>0.8829568788501027</v>
+        <v>0.7556468172484599</v>
       </c>
       <c r="H93" s="4">
-        <v>8.220000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="I93" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="J93" s="4">
-        <v>1.22</v>
+        <v>2.92</v>
       </c>
       <c r="K93" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="L93" s="4">
-        <v>3.21</v>
+        <v>1.25</v>
       </c>
       <c r="M93" s="5">
-        <v>0.5092402464065708</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="N93" s="4">
-        <v>5.539105686215041</v>
+        <v>6.401493435170507</v>
       </c>
       <c r="O93" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="P93" s="4">
-        <v>2.846035827652642</v>
+        <v>3.895542075197101</v>
       </c>
       <c r="Q93" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.2464065708418891</v>
       </c>
       <c r="R93" s="5">
-        <v>0.316808448225286</v>
+        <v>0.3150484012907011</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5976,55 +5976,55 @@
         <v>110</v>
       </c>
       <c r="B94" s="2">
-        <v>70.78</v>
+        <v>22.4</v>
       </c>
       <c r="C94" s="3">
-        <v>1412</v>
+        <v>4464</v>
       </c>
       <c r="D94" s="4">
-        <v>-1.361573605376538</v>
+        <v>0.03561162936742621</v>
       </c>
       <c r="E94" s="5">
-        <v>0.108829568788501</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="F94" s="4">
-        <v>3.555170575885995</v>
+        <v>8.791268380167852</v>
       </c>
       <c r="G94" s="5">
-        <v>0.6324435318275153</v>
+        <v>0.8870636550308008</v>
       </c>
       <c r="H94" s="4">
-        <v>13.71</v>
+        <v>8.1</v>
       </c>
       <c r="I94" s="5">
-        <v>0.2577002053388091</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="J94" s="4">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="K94" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="L94" s="4">
-        <v>2.17</v>
+        <v>3.2</v>
       </c>
       <c r="M94" s="5">
-        <v>0.3624229979466119</v>
+        <v>0.5061601642710473</v>
       </c>
       <c r="N94" s="4">
-        <v>10.46468568789407</v>
+        <v>5.305544292600834</v>
       </c>
       <c r="O94" s="5">
-        <v>0.3285420944558521</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="P94" s="4">
-        <v>5.761566317409063</v>
+        <v>2.779133493646346</v>
       </c>
       <c r="Q94" s="5">
-        <v>0.3880903490759753</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="R94" s="5">
-        <v>0.3176884716925785</v>
+        <v>0.3154884130243473</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6032,55 +6032,55 @@
         <v>111</v>
       </c>
       <c r="B95" s="2">
-        <v>73.52</v>
+        <v>104.41</v>
       </c>
       <c r="C95" s="3">
-        <v>1360</v>
+        <v>957</v>
       </c>
       <c r="D95" s="4">
-        <v>0.04811880313972292</v>
+        <v>-0.7409182034094239</v>
       </c>
       <c r="E95" s="5">
-        <v>0.3305954825462012</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="F95" s="4">
-        <v>2.005200294945602</v>
+        <v>4.044646244964145</v>
       </c>
       <c r="G95" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.7125256673511293</v>
       </c>
       <c r="H95" s="4">
-        <v>19.51</v>
+        <v>14.76</v>
       </c>
       <c r="I95" s="5">
-        <v>0.404517453798768</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="J95" s="4">
-        <v>2.17</v>
+        <v>3.33</v>
       </c>
       <c r="K95" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.4897330595482546</v>
       </c>
       <c r="L95" s="4">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="M95" s="5">
-        <v>0.4342915811088296</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="N95" s="4">
-        <v>7.515772328237641</v>
+        <v>10.68179588000902</v>
       </c>
       <c r="O95" s="5">
-        <v>0.1724845995893224</v>
+        <v>0.3408624229979466</v>
       </c>
       <c r="P95" s="4">
-        <v>4.648230465174541</v>
+        <v>1.269997012819554</v>
       </c>
       <c r="Q95" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="R95" s="5">
-        <v>0.3178351422704606</v>
+        <v>0.3175418011146964</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6088,55 +6088,55 @@
         <v>112</v>
       </c>
       <c r="B96" s="2">
-        <v>48.1</v>
+        <v>47.03</v>
       </c>
       <c r="C96" s="3">
-        <v>2079</v>
+        <v>2126</v>
       </c>
       <c r="D96" s="4">
-        <v>0.0756781135392212</v>
+        <v>0.07499746000432185</v>
       </c>
       <c r="E96" s="5">
         <v>0.3737166324435318</v>
       </c>
       <c r="F96" s="4">
-        <v>8.233978504947094</v>
+        <v>8.249769276340221</v>
       </c>
       <c r="G96" s="5">
-        <v>0.8767967145790554</v>
+        <v>0.8747433264887065</v>
       </c>
       <c r="H96" s="4">
-        <v>9.369999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="I96" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="J96" s="4">
-        <v>0.9483</v>
+        <v>0.9405</v>
       </c>
       <c r="K96" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="L96" s="4">
         <v>2.92</v>
       </c>
       <c r="M96" s="5">
-        <v>0.4743326488706366</v>
+        <v>0.4681724845995893</v>
       </c>
       <c r="N96" s="4">
-        <v>5.706810267114047</v>
+        <v>5.700112898239052</v>
       </c>
       <c r="O96" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="P96" s="4">
-        <v>2.792142364133131</v>
+        <v>2.772196391006474</v>
       </c>
       <c r="Q96" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="R96" s="5">
-        <v>0.3179818128483426</v>
+        <v>0.3176884716925785</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6144,55 +6144,55 @@
         <v>113</v>
       </c>
       <c r="B97" s="2">
-        <v>355.27</v>
+        <v>418.69</v>
       </c>
       <c r="C97" s="3">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D97" s="4">
-        <v>0.0389526056091673</v>
+        <v>0.001685372293283045</v>
       </c>
       <c r="E97" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="F97" s="4">
-        <v>4.688786110062998</v>
+        <v>1.389295132004689</v>
       </c>
       <c r="G97" s="5">
-        <v>0.7679671457905545</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="H97" s="4">
-        <v>9.529999999999999</v>
+        <v>3.62</v>
       </c>
       <c r="I97" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="J97" s="4">
-        <v>3.01</v>
+        <v>1.65</v>
       </c>
       <c r="K97" s="5">
-        <v>0.4517453798767967</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="L97" s="4">
-        <v>1.26</v>
+        <v>3.85</v>
       </c>
       <c r="M97" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.5831622176591376</v>
       </c>
       <c r="N97" s="4">
-        <v>6.360524181038138</v>
+        <v>18.2167748684234</v>
       </c>
       <c r="O97" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.6303901437371663</v>
       </c>
       <c r="P97" s="4">
-        <v>3.74504188558034</v>
+        <v>6.085956772852685</v>
       </c>
       <c r="Q97" s="5">
-        <v>0.2320328542094456</v>
+        <v>0.4229979466119096</v>
       </c>
       <c r="R97" s="5">
-        <v>0.3179818128483426</v>
+        <v>0.3176884716925785</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6200,55 +6200,55 @@
         <v>114</v>
       </c>
       <c r="B98" s="2">
-        <v>22.35</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="C98" s="3">
-        <v>4474</v>
+        <v>1393</v>
       </c>
       <c r="D98" s="4">
-        <v>0.02240370025310824</v>
+        <v>0.04766960819118113</v>
       </c>
       <c r="E98" s="5">
-        <v>0.271047227926078</v>
+        <v>0.3326488706365503</v>
       </c>
       <c r="F98" s="4">
-        <v>3.644670319152877</v>
+        <v>1.99892921384927</v>
       </c>
       <c r="G98" s="5">
-        <v>0.6550308008213552</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="H98" s="4">
-        <v>15.73</v>
+        <v>19.32</v>
       </c>
       <c r="I98" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.3983572895277207</v>
       </c>
       <c r="J98" s="4">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="K98" s="5">
-        <v>0.3357289527720739</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="L98" s="4">
-        <v>0.8708</v>
+        <v>2.6</v>
       </c>
       <c r="M98" s="5">
-        <v>0.108829568788501</v>
+        <v>0.4250513347022587</v>
       </c>
       <c r="N98" s="4">
-        <v>9.875069944771818</v>
+        <v>7.573792215870675</v>
       </c>
       <c r="O98" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="P98" s="4">
-        <v>4.141227776560004</v>
+        <v>4.649284427126187</v>
       </c>
       <c r="Q98" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.3162217659137577</v>
       </c>
       <c r="R98" s="5">
-        <v>0.3184218245819889</v>
+        <v>0.3182751540041068</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6256,55 +6256,55 @@
         <v>115</v>
       </c>
       <c r="B99" s="2">
-        <v>102.68</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="C99" s="3">
-        <v>973</v>
+        <v>1383</v>
       </c>
       <c r="D99" s="4">
-        <v>-0.7434638823317058</v>
+        <v>-1.395828631922082</v>
       </c>
       <c r="E99" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="F99" s="4">
-        <v>4.004311898933142</v>
+        <v>3.712758215003577</v>
       </c>
       <c r="G99" s="5">
-        <v>0.7043121149897331</v>
+        <v>0.6611909650924025</v>
       </c>
       <c r="H99" s="4">
-        <v>14.94</v>
+        <v>13.98</v>
       </c>
       <c r="I99" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.2648870636550308</v>
       </c>
       <c r="J99" s="4">
-        <v>3.33</v>
+        <v>1.29</v>
       </c>
       <c r="K99" s="5">
-        <v>0.4897330595482546</v>
+        <v>0.1447638603696099</v>
       </c>
       <c r="L99" s="4">
-        <v>1.31</v>
+        <v>2.17</v>
       </c>
       <c r="M99" s="5">
-        <v>0.1878850102669405</v>
+        <v>0.3655030800821356</v>
       </c>
       <c r="N99" s="4">
-        <v>11.00719813270507</v>
+        <v>10.21046743387251</v>
       </c>
       <c r="O99" s="5">
-        <v>0.353182751540041</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="P99" s="4">
-        <v>1.2801851070555</v>
+        <v>5.587895105433476</v>
       </c>
       <c r="Q99" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.37782340862423</v>
       </c>
       <c r="R99" s="5">
-        <v>0.3188618363156351</v>
+        <v>0.318715165737753</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6312,55 +6312,55 @@
         <v>116</v>
       </c>
       <c r="B100" s="2">
-        <v>188.85</v>
+        <v>33.26</v>
       </c>
       <c r="C100" s="3">
-        <v>529</v>
+        <v>3006</v>
       </c>
       <c r="D100" s="4">
-        <v>0.0700865924480802</v>
+        <v>0.1967419943287822</v>
       </c>
       <c r="E100" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.4969199178644764</v>
       </c>
       <c r="F100" s="4">
-        <v>1.628128530059332</v>
+        <v>4.363170619550298</v>
       </c>
       <c r="G100" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.7392197125256673</v>
       </c>
       <c r="H100" s="4">
-        <v>30.51</v>
+        <v>21.63</v>
       </c>
       <c r="I100" s="5">
-        <v>0.6283367556468172</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="J100" s="4">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K100" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="L100" s="4">
-        <v>3.13</v>
+        <v>0.4995</v>
       </c>
       <c r="M100" s="5">
-        <v>0.4917864476386037</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="N100" s="4">
-        <v>7.364145872999664</v>
+        <v>5.582625139398533</v>
       </c>
       <c r="O100" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="P100" s="4">
-        <v>2.897841579694123</v>
+        <v>2.94006482632314</v>
       </c>
       <c r="Q100" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="R100" s="5">
-        <v>0.3213552361396304</v>
+        <v>0.3212085655617483</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6368,55 +6368,55 @@
         <v>117</v>
       </c>
       <c r="B101" s="2">
-        <v>252.4</v>
+        <v>184.57</v>
       </c>
       <c r="C101" s="3">
-        <v>396</v>
+        <v>541</v>
       </c>
       <c r="D101" s="4">
-        <v>0.0603630433635937</v>
+        <v>0.0725612058551553</v>
       </c>
       <c r="E101" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.3696098562628337</v>
       </c>
       <c r="F101" s="4">
-        <v>2.366335355037206</v>
+        <v>1.635226911578303</v>
       </c>
       <c r="G101" s="5">
-        <v>0.3819301848049281</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="H101" s="4">
-        <v>18.4</v>
+        <v>30.04</v>
       </c>
       <c r="I101" s="5">
-        <v>0.3819301848049281</v>
+        <v>0.6180698151950719</v>
       </c>
       <c r="J101" s="4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K101" s="5">
-        <v>0.1858316221765914</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="L101" s="4">
-        <v>1.77</v>
+        <v>3.13</v>
       </c>
       <c r="M101" s="5">
-        <v>0.2967145790554415</v>
+        <v>0.4948665297741273</v>
       </c>
       <c r="N101" s="4">
-        <v>9.672251109384844</v>
+        <v>7.75289159039143</v>
       </c>
       <c r="O101" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="P101" s="4">
-        <v>5.27102694353373</v>
+        <v>3.050422940962412</v>
       </c>
       <c r="Q101" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="R101" s="5">
-        <v>0.3215019067175124</v>
+        <v>0.3220885890290408</v>
       </c>
     </row>
   </sheetData>

--- a/code/100_value_stock_strategy.xlsx
+++ b/code/100_value_stock_strategy.xlsx
@@ -88,63 +88,63 @@
     <t>BEN</t>
   </si>
   <si>
+    <t>MRO</t>
+  </si>
+  <si>
     <t>TSN</t>
   </si>
   <si>
-    <t>MRO</t>
-  </si>
-  <si>
     <t>HPE</t>
   </si>
   <si>
     <t>WRK</t>
   </si>
   <si>
+    <t>UNM</t>
+  </si>
+  <si>
+    <t>HFC</t>
+  </si>
+  <si>
+    <t>KSS</t>
+  </si>
+  <si>
     <t>HCA</t>
   </si>
   <si>
-    <t>HFC</t>
-  </si>
-  <si>
-    <t>UNM</t>
-  </si>
-  <si>
-    <t>KSS</t>
+    <t>PRGO</t>
   </si>
   <si>
     <t>APA</t>
   </si>
   <si>
-    <t>PRGO</t>
+    <t>AZO</t>
   </si>
   <si>
     <t>TAP</t>
   </si>
   <si>
-    <t>AZO</t>
-  </si>
-  <si>
     <t>VIAC</t>
   </si>
   <si>
     <t>MET</t>
   </si>
   <si>
+    <t>XOM</t>
+  </si>
+  <si>
     <t>MHK</t>
   </si>
   <si>
-    <t>XOM</t>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
   <si>
     <t>NOV</t>
   </si>
   <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
@@ -154,93 +154,93 @@
     <t>HOLX</t>
   </si>
   <si>
+    <t>CXO</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
-    <t>CXO</t>
+    <t>AIZ</t>
   </si>
   <si>
     <t>IVZ</t>
   </si>
   <si>
-    <t>AIZ</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>CINF</t>
   </si>
   <si>
+    <t>AFL</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>XRX</t>
   </si>
   <si>
+    <t>PVH</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
     <t>DISCA</t>
   </si>
   <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>AIG</t>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>DISH</t>
+  </si>
+  <si>
+    <t>LYV</t>
   </si>
   <si>
     <t>UHS</t>
   </si>
   <si>
-    <t>LYV</t>
-  </si>
-  <si>
-    <t>PVH</t>
-  </si>
-  <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>J</t>
+    <t>RJF</t>
   </si>
   <si>
     <t>MOS</t>
   </si>
   <si>
-    <t>RJF</t>
+    <t>WDC</t>
   </si>
   <si>
     <t>COF</t>
   </si>
   <si>
-    <t>WDC</t>
+    <t>UAL</t>
   </si>
   <si>
     <t>NRG</t>
   </si>
   <si>
-    <t>UAL</t>
+    <t>C</t>
   </si>
   <si>
     <t>LEN</t>
   </si>
   <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>FTI</t>
+  </si>
+  <si>
     <t>LYB</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>FTI</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
@@ -250,105 +250,108 @@
     <t>GPS</t>
   </si>
   <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>LNC</t>
+  </si>
+  <si>
     <t>IP</t>
   </si>
   <si>
-    <t>LNC</t>
+    <t>EOG</t>
   </si>
   <si>
     <t>CB</t>
   </si>
   <si>
+    <t>SYF</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
+    <t>TRV</t>
+  </si>
+  <si>
     <t>MPC</t>
   </si>
   <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>SYF</t>
-  </si>
-  <si>
     <t>VLO</t>
   </si>
   <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+  <si>
     <t>JCI</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
     <t>HIG</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>DOW</t>
   </si>
   <si>
+    <t>WHR</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>LH</t>
   </si>
   <si>
-    <t>SWKS</t>
-  </si>
-  <si>
     <t>WBA</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
     <t>CVX</t>
   </si>
   <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>WHR</t>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>KHC</t>
   </si>
   <si>
     <t>FDX</t>
   </si>
   <si>
-    <t>MAS</t>
-  </si>
-  <si>
     <t>ZION</t>
   </si>
   <si>
-    <t>KHC</t>
+    <t>WFC</t>
   </si>
   <si>
     <t>NWSA</t>
   </si>
   <si>
-    <t>WFC</t>
+    <t>DD</t>
   </si>
   <si>
     <t>RL</t>
   </si>
   <si>
-    <t>DD</t>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
   <si>
     <t>SJM</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>PGR</t>
   </si>
   <si>
@@ -358,16 +361,13 @@
     <t>COO</t>
   </si>
   <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>PNW</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PXD</t>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>NWL</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -824,55 +824,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>18.79</v>
+        <v>18.35</v>
       </c>
       <c r="C2" s="3">
-        <v>5321</v>
+        <v>5449</v>
       </c>
       <c r="D2" s="4">
-        <v>-0.05808210117834172</v>
+        <v>-0.05926829294287248</v>
       </c>
       <c r="E2" s="5">
         <v>0.2053388090349076</v>
       </c>
       <c r="F2" s="4">
-        <v>-9.472192577345915</v>
+        <v>-9.234975444667503</v>
       </c>
       <c r="G2" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="H2" s="4">
-        <v>-3.77</v>
+        <v>-3.66</v>
       </c>
       <c r="I2" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="J2" s="4">
-        <v>-1.59</v>
+        <v>-1.67</v>
       </c>
       <c r="K2" s="5">
         <v>0.05544147843942505</v>
       </c>
       <c r="L2" s="4">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="M2" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="N2" s="4">
-        <v>-7.17661071618206</v>
+        <v>-7.37422876036582</v>
       </c>
       <c r="O2" s="5">
         <v>0.02464065708418891</v>
       </c>
       <c r="P2" s="4">
-        <v>1.42084876060036</v>
+        <v>1.449033306493644</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="R2" s="5">
-        <v>0.07069521853916104</v>
+        <v>0.07098855969492519</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -880,55 +880,55 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>37.83</v>
+        <v>38.66</v>
       </c>
       <c r="C3" s="3">
-        <v>2643</v>
+        <v>2586</v>
       </c>
       <c r="D3" s="4">
-        <v>0.00963674275372442</v>
+        <v>0.009523869355529461</v>
       </c>
       <c r="E3" s="5">
         <v>0.2320328542094456</v>
       </c>
       <c r="F3" s="4">
-        <v>-24.3</v>
+        <v>-23.5</v>
       </c>
       <c r="G3" s="5">
         <v>0.02258726899383983</v>
       </c>
       <c r="H3" s="4">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="I3" s="5">
-        <v>0.07084188911704312</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="J3" s="4">
-        <v>-12.67</v>
+        <v>-12.9</v>
       </c>
       <c r="K3" s="5">
         <v>0.03696098562628337</v>
       </c>
       <c r="L3" s="4">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="M3" s="5">
         <v>0.01642710472279261</v>
       </c>
       <c r="N3" s="4">
-        <v>4.076189581533074</v>
+        <v>4.134192881039335</v>
       </c>
       <c r="O3" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="P3" s="4">
-        <v>1.736934622247764</v>
+        <v>1.790204798379462</v>
       </c>
       <c r="Q3" s="5">
         <v>0.08829568788501026</v>
       </c>
       <c r="R3" s="5">
-        <v>0.07436198298621297</v>
+        <v>0.07450865356409504</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -936,34 +936,34 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>242.84</v>
+        <v>252.58</v>
       </c>
       <c r="C4" s="3">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D4" s="4">
-        <v>0.02396210089639306</v>
+        <v>0.02385506769209406</v>
       </c>
       <c r="E4" s="5">
         <v>0.2772073921971253</v>
       </c>
       <c r="F4" s="4">
-        <v>-115.8141330931369</v>
+        <v>-113.3110959196654</v>
       </c>
       <c r="G4" s="5">
         <v>0.004106776180698152</v>
       </c>
       <c r="H4" s="4">
-        <v>-8.17</v>
+        <v>-7.95</v>
       </c>
       <c r="I4" s="5">
         <v>0.04928131416837783</v>
       </c>
       <c r="J4" s="4">
-        <v>-65.29000000000001</v>
+        <v>-66.93000000000001</v>
       </c>
       <c r="K4" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="L4" s="4">
         <v>0.1486</v>
@@ -972,19 +972,19 @@
         <v>0.008213552361396304</v>
       </c>
       <c r="N4" s="4">
-        <v>9.541842338982477</v>
+        <v>9.6986789803361</v>
       </c>
       <c r="O4" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="P4" s="4">
-        <v>3.231205529993876</v>
+        <v>3.14940784113973</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="R4" s="5">
-        <v>0.1179231446171898</v>
+        <v>0.1185098269287181</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -992,55 +992,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>108.68</v>
+        <v>107.2</v>
       </c>
       <c r="C5" s="3">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="D5" s="4">
-        <v>0.0289414291570422</v>
+        <v>0.02914821997431812</v>
       </c>
       <c r="E5" s="5">
         <v>0.2854209445585216</v>
       </c>
       <c r="F5" s="4">
-        <v>1.671173684773901</v>
+        <v>1.687878924449505</v>
       </c>
       <c r="G5" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="H5" s="4">
         <v>4.8</v>
       </c>
       <c r="I5" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="J5" s="4">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="K5" s="5">
         <v>0.1406570841889117</v>
       </c>
       <c r="L5" s="4">
-        <v>0.6895</v>
+        <v>0.702</v>
       </c>
       <c r="M5" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="N5" s="4">
-        <v>3.56414062517924</v>
+        <v>3.726465677499887</v>
       </c>
       <c r="O5" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="P5" s="4">
-        <v>2.475027709726389</v>
+        <v>2.533648128894654</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="R5" s="5">
-        <v>0.125990026400704</v>
+        <v>0.1274567321795248</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1048,31 +1048,31 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>210.48</v>
+        <v>214.27</v>
       </c>
       <c r="C6" s="3">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1706521171519522</v>
+        <v>0.1751714476989311</v>
       </c>
       <c r="E6" s="5">
-        <v>0.4825462012320329</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="F6" s="4">
-        <v>-10.59365386746064</v>
+        <v>-10.37063748768103</v>
       </c>
       <c r="G6" s="5">
         <v>0.03490759753593429</v>
       </c>
       <c r="H6" s="4">
-        <v>-14.17</v>
+        <v>-14.21</v>
       </c>
       <c r="I6" s="5">
         <v>0.0431211498973306</v>
       </c>
       <c r="J6" s="4">
-        <v>-8.609999999999999</v>
+        <v>-8.49</v>
       </c>
       <c r="K6" s="5">
         <v>0.04517453798767967</v>
@@ -1081,22 +1081,22 @@
         <v>1.93</v>
       </c>
       <c r="M6" s="5">
-        <v>0.3234086242299795</v>
+        <v>0.3275154004106776</v>
       </c>
       <c r="N6" s="4">
-        <v>-34.5839495552848</v>
+        <v>-32.44973806129984</v>
       </c>
       <c r="O6" s="5">
         <v>0.006160164271047228</v>
       </c>
       <c r="P6" s="4">
-        <v>-1379.958482506858</v>
+        <v>-1316.61930964626</v>
       </c>
       <c r="Q6" s="5">
         <v>0.002053388090349076</v>
       </c>
       <c r="R6" s="5">
-        <v>0.1339102376063362</v>
+        <v>0.1347902610736286</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1104,55 +1104,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>33.61</v>
+        <v>34.13</v>
       </c>
       <c r="C7" s="3">
-        <v>2975</v>
+        <v>2929</v>
       </c>
       <c r="D7" s="4">
-        <v>0.0194327997525653</v>
+        <v>0.02015449310064734</v>
       </c>
       <c r="E7" s="5">
         <v>0.2648870636550308</v>
       </c>
       <c r="F7" s="4">
-        <v>2.210842664657718</v>
+        <v>2.207543235484474</v>
       </c>
       <c r="G7" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.3347022587268993</v>
       </c>
       <c r="H7" s="4">
-        <v>4.73</v>
+        <v>4.88</v>
       </c>
       <c r="I7" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="J7" s="4">
-        <v>0.753</v>
+        <v>0.7832</v>
       </c>
       <c r="K7" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="L7" s="4">
-        <v>1.03</v>
+        <v>1.0223</v>
       </c>
       <c r="M7" s="5">
         <v>0.1314168377823409</v>
       </c>
       <c r="N7" s="4">
-        <v>3.049569355874167</v>
+        <v>3.129684198266455</v>
       </c>
       <c r="O7" s="5">
         <v>0.03490759753593429</v>
       </c>
       <c r="P7" s="4">
-        <v>0.8490425629804684</v>
+        <v>0.8505939113188766</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="R7" s="5">
-        <v>0.135523613963039</v>
+        <v>0.1358169551188032</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1160,55 +1160,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>89.41</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>1118</v>
+        <v>6250</v>
       </c>
       <c r="D8" s="4">
-        <v>0.05411900138998026</v>
+        <v>-3.265826188466581</v>
       </c>
       <c r="E8" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="F8" s="4">
-        <v>2.070904281202524</v>
+        <v>1.617472420337333</v>
       </c>
       <c r="G8" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="H8" s="4">
-        <v>5.1</v>
+        <v>-312.58</v>
       </c>
       <c r="I8" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="J8" s="4">
-        <v>0.893</v>
+        <v>1.18</v>
       </c>
       <c r="K8" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.12217659137577</v>
       </c>
       <c r="L8" s="4">
-        <v>0.3373</v>
+        <v>2.68</v>
       </c>
       <c r="M8" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.433264887063655</v>
       </c>
       <c r="N8" s="4">
-        <v>4.018230023470682</v>
+        <v>6.439161756301918</v>
       </c>
       <c r="O8" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="P8" s="4">
-        <v>3.357898180963147</v>
+        <v>3.843191509315211</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="R8" s="5">
-        <v>0.1522440598415958</v>
+        <v>0.1556174831328835</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1216,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>16</v>
+        <v>87.78</v>
       </c>
       <c r="C9" s="3">
-        <v>6250</v>
+        <v>1139</v>
       </c>
       <c r="D9" s="4">
-        <v>-3.294698601140105</v>
+        <v>0.05432227003454065</v>
       </c>
       <c r="E9" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="F9" s="4">
-        <v>1.651240413703678</v>
+        <v>2.114693615249466</v>
       </c>
       <c r="G9" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="H9" s="4">
-        <v>-312.47</v>
+        <v>5.2</v>
       </c>
       <c r="I9" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="J9" s="4">
-        <v>1.2</v>
+        <v>0.8848</v>
       </c>
       <c r="K9" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="L9" s="4">
-        <v>2.7</v>
+        <v>0.3315</v>
       </c>
       <c r="M9" s="5">
-        <v>0.4383983572895277</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="N9" s="4">
-        <v>6.626868089605448</v>
+        <v>3.951701851332007</v>
       </c>
       <c r="O9" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="P9" s="4">
-        <v>3.756721127306523</v>
+        <v>3.450463211882415</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.2320328542094456</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="R9" s="5">
-        <v>0.1594309181578175</v>
+        <v>0.1563508360222939</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1272,55 +1272,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>15.78</v>
+        <v>16.08</v>
       </c>
       <c r="C10" s="3">
-        <v>6337</v>
+        <v>6218</v>
       </c>
       <c r="D10" s="4">
-        <v>0.001367201497484226</v>
+        <v>0.001351018868814331</v>
       </c>
       <c r="E10" s="5">
         <v>0.2094455852156057</v>
       </c>
       <c r="F10" s="4">
-        <v>2.95528396216506</v>
+        <v>2.906192507161473</v>
       </c>
       <c r="G10" s="5">
-        <v>0.5133470225872689</v>
+        <v>0.5071868583162218</v>
       </c>
       <c r="H10" s="4">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="I10" s="5">
         <v>0.06365503080082136</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5145</v>
+        <v>0.5324</v>
       </c>
       <c r="K10" s="5">
         <v>0.06160164271047228</v>
       </c>
       <c r="L10" s="4">
-        <v>0.3675</v>
+        <v>0.3827</v>
       </c>
       <c r="M10" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="N10" s="4">
-        <v>7.422202043796999</v>
+        <v>7.437069761788679</v>
       </c>
       <c r="O10" s="5">
         <v>0.1683778234086242</v>
       </c>
       <c r="P10" s="4">
-        <v>2.036439555292837</v>
+        <v>2.083828628395686</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="R10" s="5">
-        <v>0.1651510706952185</v>
+        <v>0.1648577295394544</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1328,55 +1328,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
-        <v>2272</v>
+        <v>2222</v>
       </c>
       <c r="D11" s="4">
-        <v>0.01631873119104538</v>
+        <v>0.01629466968024953</v>
       </c>
       <c r="E11" s="5">
         <v>0.2525667351129364</v>
       </c>
       <c r="F11" s="4">
-        <v>2.541921739633919</v>
+        <v>2.597808418933888</v>
       </c>
       <c r="G11" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.4414784394250513</v>
       </c>
       <c r="H11" s="4">
-        <v>6.96</v>
+        <v>7.14</v>
       </c>
       <c r="I11" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="J11" s="4">
-        <v>0.5113</v>
+        <v>0.4942</v>
       </c>
       <c r="K11" s="5">
         <v>0.0595482546201232</v>
       </c>
       <c r="L11" s="4">
-        <v>0.3175</v>
+        <v>0.3173</v>
       </c>
       <c r="M11" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="N11" s="4">
-        <v>4.900007556907132</v>
+        <v>4.8176425862226</v>
       </c>
       <c r="O11" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="P11" s="4">
-        <v>4.00366736407838</v>
+        <v>4.117604352435202</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.2505133470225873</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="R11" s="5">
-        <v>0.1689645057201525</v>
+        <v>0.1721912584335582</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1384,55 +1384,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>253.01</v>
+        <v>25.01</v>
       </c>
       <c r="C12" s="3">
-        <v>395</v>
+        <v>3998</v>
       </c>
       <c r="D12" s="4">
-        <v>0.1249308572458771</v>
+        <v>-0.3906190410697388</v>
       </c>
       <c r="E12" s="5">
-        <v>0.4373716632443532</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="F12" s="4">
-        <v>-72.3967009920292</v>
+        <v>6.45582536388518</v>
       </c>
       <c r="G12" s="5">
+        <v>0.839835728952772</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.09856262833675565</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.05749486652977413</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.391</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.03285420944558522</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3.032503241385915</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.03285420944558522</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.3780673204824052</v>
+      </c>
+      <c r="Q12" s="5">
         <v>0.008213552361396304</v>
       </c>
-      <c r="H12" s="4">
-        <v>13.52</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.2525667351129364</v>
-      </c>
-      <c r="J12" s="4">
-        <v>-115.4</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.01232032854209446</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.1991786447638604</v>
-      </c>
-      <c r="N12" s="4">
-        <v>8.528171698540467</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0.2361396303901437</v>
-      </c>
-      <c r="P12" s="4">
-        <v>1.868391359520935</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0.1006160164271047</v>
-      </c>
       <c r="R12" s="5">
-        <v>0.1780580815488413</v>
+        <v>0.1786447638603696</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1440,55 +1440,55 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>33.36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3">
-        <v>2997</v>
+        <v>3030</v>
       </c>
       <c r="D13" s="4">
-        <v>0.05331411886885952</v>
+        <v>0.05516202829785672</v>
       </c>
       <c r="E13" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.3490759753593429</v>
       </c>
       <c r="F13" s="4">
-        <v>2.26134254391191</v>
+        <v>2.279004395278</v>
       </c>
       <c r="G13" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.3613963039014373</v>
       </c>
       <c r="H13" s="4">
-        <v>11.41</v>
+        <v>11.24</v>
       </c>
       <c r="I13" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="J13" s="4">
-        <v>0.9213</v>
+        <v>0.9384</v>
       </c>
       <c r="K13" s="5">
         <v>0.09445585215605749</v>
       </c>
       <c r="L13" s="4">
-        <v>0.348</v>
+        <v>0.3407</v>
       </c>
       <c r="M13" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="N13" s="4">
-        <v>5.337053607666472</v>
+        <v>5.567509275963196</v>
       </c>
       <c r="O13" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="P13" s="4">
-        <v>2.241639207989868</v>
+        <v>2.35731232555661</v>
       </c>
       <c r="Q13" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="R13" s="5">
-        <v>0.1780580815488413</v>
+        <v>0.1792314461718979</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1496,55 +1496,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>25.24</v>
+        <v>50.96</v>
       </c>
       <c r="C14" s="3">
-        <v>3961</v>
+        <v>1962</v>
       </c>
       <c r="D14" s="4">
-        <v>-0.386839447934844</v>
+        <v>0.01442294559626473</v>
       </c>
       <c r="E14" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="F14" s="4">
-        <v>6.45680743523744</v>
+        <v>3.365643021625606</v>
       </c>
       <c r="G14" s="5">
-        <v>0.839835728952772</v>
+        <v>0.5934291581108829</v>
       </c>
       <c r="H14" s="4">
-        <v>6.39</v>
+        <v>7.87</v>
       </c>
       <c r="I14" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="J14" s="4">
-        <v>0.46</v>
+        <v>1.47</v>
       </c>
       <c r="K14" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="L14" s="4">
-        <v>0.3917</v>
+        <v>0.3743</v>
       </c>
       <c r="M14" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="N14" s="4">
-        <v>3.022513087967006</v>
+        <v>3.903252656731771</v>
       </c>
       <c r="O14" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="P14" s="4">
-        <v>0.3648641344209061</v>
+        <v>1.165469315085685</v>
       </c>
       <c r="Q14" s="5">
-        <v>0.008213552361396304</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="R14" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.1798181284834262</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1552,55 +1552,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>51.56</v>
+        <v>261.1</v>
       </c>
       <c r="C15" s="3">
-        <v>1939</v>
+        <v>382</v>
       </c>
       <c r="D15" s="4">
-        <v>0.01436319390482675</v>
+        <v>0.1263141527200498</v>
       </c>
       <c r="E15" s="5">
-        <v>0.242299794661191</v>
+        <v>0.4435318275154004</v>
       </c>
       <c r="F15" s="4">
-        <v>3.359180225397081</v>
+        <v>-73.00353802890612</v>
       </c>
       <c r="G15" s="5">
-        <v>0.5913757700205339</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="H15" s="4">
-        <v>7.93</v>
+        <v>12.93</v>
       </c>
       <c r="I15" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.2381930184804928</v>
       </c>
       <c r="J15" s="4">
-        <v>1.47</v>
+        <v>-113.7</v>
       </c>
       <c r="K15" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="L15" s="4">
-        <v>0.3814</v>
+        <v>1.38</v>
       </c>
       <c r="M15" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.2094455852156057</v>
       </c>
       <c r="N15" s="4">
-        <v>3.813525072496465</v>
+        <v>9.077190023931784</v>
       </c>
       <c r="O15" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="P15" s="4">
-        <v>1.193106668126063</v>
+        <v>1.888440480936</v>
       </c>
       <c r="Q15" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="R15" s="5">
-        <v>0.1804048107949545</v>
+        <v>0.1821648577295394</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1608,55 +1608,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>26.54</v>
+        <v>39.81</v>
       </c>
       <c r="C16" s="3">
-        <v>3767</v>
+        <v>2511</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1497501392430129</v>
+        <v>0.005477776532745685</v>
       </c>
       <c r="E16" s="5">
-        <v>0.4640657084188912</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="F16" s="4">
-        <v>-12.42514648215236</v>
+        <v>2.160205682658393</v>
       </c>
       <c r="G16" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="H16" s="4">
-        <v>16.8</v>
+        <v>-21.7</v>
       </c>
       <c r="I16" s="5">
-        <v>0.3285420944558521</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="J16" s="4">
-        <v>-9.029999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="K16" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="L16" s="4">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="M16" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="N16" s="4">
-        <v>4.804942958662584</v>
+        <v>6.725532645021203</v>
       </c>
       <c r="O16" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="P16" s="4">
-        <v>2.383199764179311</v>
+        <v>4.234712322319719</v>
       </c>
       <c r="Q16" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="R16" s="5">
-        <v>0.1833382223525961</v>
+        <v>0.1827515400410678</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1664,55 +1664,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>40.33</v>
+        <v>26.66</v>
       </c>
       <c r="C17" s="3">
-        <v>2479</v>
+        <v>3750</v>
       </c>
       <c r="D17" s="4">
-        <v>0.005591265777780329</v>
+        <v>0.1531041758108889</v>
       </c>
       <c r="E17" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.4661190965092403</v>
       </c>
       <c r="F17" s="4">
-        <v>2.168831474419883</v>
+        <v>-12.22011317558044</v>
       </c>
       <c r="G17" s="5">
+        <v>0.03080082135523614</v>
+      </c>
+      <c r="H17" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="I17" s="5">
         <v>0.3264887063655031</v>
       </c>
-      <c r="H17" s="4">
-        <v>-21.06</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.03490759753593429</v>
-      </c>
       <c r="J17" s="4">
-        <v>1.04</v>
+        <v>-8.93</v>
       </c>
       <c r="K17" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="L17" s="4">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="M17" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.2227926078028747</v>
       </c>
       <c r="N17" s="4">
-        <v>7.094275332618515</v>
+        <v>4.774751965385835</v>
       </c>
       <c r="O17" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="P17" s="4">
-        <v>4.57679893627045</v>
+        <v>2.367163802944407</v>
       </c>
       <c r="Q17" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="R17" s="5">
-        <v>0.1892050454678791</v>
+        <v>0.183191551774714</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1720,55 +1720,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>45.97</v>
+        <v>2025.4</v>
       </c>
       <c r="C18" s="3">
-        <v>2175</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4">
-        <v>0.1210720064894668</v>
+        <v>0.1481121608354944</v>
       </c>
       <c r="E18" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.4640657084188912</v>
       </c>
       <c r="F18" s="4">
-        <v>2.168370915811374</v>
+        <v>-8.26809400626164</v>
       </c>
       <c r="G18" s="5">
-        <v>0.324435318275154</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="H18" s="4">
-        <v>-23.27</v>
+        <v>10.62</v>
       </c>
       <c r="I18" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.188911704312115</v>
       </c>
       <c r="J18" s="4">
-        <v>0.718</v>
+        <v>-11.57</v>
       </c>
       <c r="K18" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="L18" s="4">
-        <v>0.948</v>
+        <v>1.47</v>
       </c>
       <c r="M18" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.2299794661190965</v>
       </c>
       <c r="N18" s="4">
-        <v>6.411392217596029</v>
+        <v>7.356297726494936</v>
       </c>
       <c r="O18" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="P18" s="4">
-        <v>3.784695139609084</v>
+        <v>3.249130694523949</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.2361396303901437</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="R18" s="5">
-        <v>0.1912584335582282</v>
+        <v>0.1883250220005867</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1776,55 +1776,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>2113.2</v>
+        <v>47.18</v>
       </c>
       <c r="C19" s="3">
-        <v>47</v>
+        <v>2119</v>
       </c>
       <c r="D19" s="4">
-        <v>0.1486693230962176</v>
+        <v>0.1218097352667591</v>
       </c>
       <c r="E19" s="5">
-        <v>0.4620123203285421</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="F19" s="4">
-        <v>-8.09075136375194</v>
+        <v>2.135704860963277</v>
       </c>
       <c r="G19" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="H19" s="4">
-        <v>11.08</v>
+        <v>-23.08</v>
       </c>
       <c r="I19" s="5">
-        <v>0.204312114989733</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="J19" s="4">
-        <v>-11.82</v>
+        <v>0.7089</v>
       </c>
       <c r="K19" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="L19" s="4">
-        <v>1.45</v>
+        <v>0.9407</v>
       </c>
       <c r="M19" s="5">
-        <v>0.2268993839835729</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="N19" s="4">
-        <v>7.568069848531219</v>
+        <v>6.939163909014351</v>
       </c>
       <c r="O19" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="P19" s="4">
-        <v>3.244928883092933</v>
+        <v>4.017880370918904</v>
       </c>
       <c r="Q19" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.2484599589322382</v>
       </c>
       <c r="R19" s="5">
-        <v>0.1921384570255207</v>
+        <v>0.1941918451158697</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1832,22 +1832,22 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>31.96</v>
+        <v>31.61</v>
       </c>
       <c r="C20" s="3">
-        <v>3128</v>
+        <v>3163</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1069367634879331</v>
+        <v>0.1062585937373051</v>
       </c>
       <c r="E20" s="5">
         <v>0.4127310061601643</v>
       </c>
       <c r="F20" s="4">
-        <v>2.801300725204065</v>
+        <v>2.757690665160169</v>
       </c>
       <c r="G20" s="5">
-        <v>0.4825462012320329</v>
+        <v>0.4743326488706366</v>
       </c>
       <c r="H20" s="4">
         <v>6.2</v>
@@ -1856,31 +1856,31 @@
         <v>0.09650924024640657</v>
       </c>
       <c r="J20" s="4">
-        <v>0.9857</v>
+        <v>1.0067</v>
       </c>
       <c r="K20" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="L20" s="4">
-        <v>0.763</v>
+        <v>0.746</v>
       </c>
       <c r="M20" s="5">
-        <v>0.08932238193018481</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="N20" s="4">
-        <v>6.653409711638534</v>
+        <v>6.585683741681858</v>
       </c>
       <c r="O20" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="P20" s="4">
-        <v>1.240882848997384</v>
+        <v>1.210596436718975</v>
       </c>
       <c r="Q20" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="R20" s="5">
-        <v>0.1960985626283368</v>
+        <v>0.1941918451158698</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1888,55 +1888,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>64.29000000000001</v>
+        <v>61.87</v>
       </c>
       <c r="C21" s="3">
-        <v>1555</v>
+        <v>1616</v>
       </c>
       <c r="D21" s="4">
-        <v>-5.494631578723622</v>
+        <v>-5.405625878287716</v>
       </c>
       <c r="E21" s="5">
         <v>0.02669404517453798</v>
       </c>
       <c r="F21" s="4">
-        <v>11.18532269744894</v>
+        <v>11.13835630532254</v>
       </c>
       <c r="G21" s="5">
         <v>0.9158110882956879</v>
       </c>
       <c r="H21" s="4">
-        <v>10.55</v>
+        <v>10.31</v>
       </c>
       <c r="I21" s="5">
         <v>0.1848049281314168</v>
       </c>
       <c r="J21" s="4">
-        <v>0.7549</v>
+        <v>0.7608</v>
       </c>
       <c r="K21" s="5">
         <v>0.07597535934291581</v>
       </c>
       <c r="L21" s="4">
-        <v>0.7776</v>
+        <v>0.7759</v>
       </c>
       <c r="M21" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="N21" s="4">
-        <v>5.072804388466257</v>
+        <v>5.028395097432806</v>
       </c>
       <c r="O21" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="P21" s="4">
-        <v>0.7513828380485792</v>
+        <v>0.7409024760879428</v>
       </c>
       <c r="Q21" s="5">
         <v>0.01848049281314168</v>
       </c>
       <c r="R21" s="5">
-        <v>0.1997653270753887</v>
+        <v>0.1988853036080962</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1944,55 +1944,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>176.66</v>
+        <v>61.67</v>
       </c>
       <c r="C22" s="3">
-        <v>566</v>
+        <v>1621</v>
       </c>
       <c r="D22" s="4">
-        <v>0.102030453495621</v>
+        <v>0.1603940855574846</v>
       </c>
       <c r="E22" s="5">
-        <v>0.406570841889117</v>
+        <v>0.4743326488706366</v>
       </c>
       <c r="F22" s="4">
-        <v>1.679186879702132</v>
+        <v>2.13533158664191</v>
       </c>
       <c r="G22" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="H22" s="4">
-        <v>11</v>
+        <v>-45.29</v>
       </c>
       <c r="I22" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="J22" s="4">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="K22" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="L22" s="4">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="M22" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.1570841889117043</v>
       </c>
       <c r="N22" s="4">
-        <v>6.52225089840371</v>
+        <v>7.64123027917616</v>
       </c>
       <c r="O22" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="P22" s="4">
-        <v>3.86221386546132</v>
+        <v>1.234825325153784</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.24435318275154</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="R22" s="5">
-        <v>0.204165444411851</v>
+        <v>0.2019653857436198</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2000,34 +2000,34 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>62.72</v>
+        <v>178.39</v>
       </c>
       <c r="C23" s="3">
-        <v>1594</v>
+        <v>560</v>
       </c>
       <c r="D23" s="4">
-        <v>0.1620384983904802</v>
+        <v>0.098298663189318</v>
       </c>
       <c r="E23" s="5">
-        <v>0.4763860369609856</v>
+        <v>0.4024640657084189</v>
       </c>
       <c r="F23" s="4">
-        <v>2.117921076106194</v>
+        <v>1.720008524825844</v>
       </c>
       <c r="G23" s="5">
-        <v>0.2936344969199178</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="H23" s="4">
-        <v>-44.99</v>
+        <v>11.45</v>
       </c>
       <c r="I23" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.2094455852156057</v>
       </c>
       <c r="J23" s="4">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="K23" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="L23" s="4">
         <v>1.09</v>
@@ -2036,19 +2036,19 @@
         <v>0.1570841889117043</v>
       </c>
       <c r="N23" s="4">
-        <v>7.82130175635072</v>
+        <v>6.259313764141805</v>
       </c>
       <c r="O23" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="P23" s="4">
-        <v>1.296004937844479</v>
+        <v>3.799034611626072</v>
       </c>
       <c r="Q23" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="R23" s="5">
-        <v>0.2043121149897331</v>
+        <v>0.202258726899384</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2056,55 +2056,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>14.16</v>
+        <v>116.1</v>
       </c>
       <c r="C24" s="3">
-        <v>7062</v>
+        <v>861</v>
       </c>
       <c r="D24" s="4">
-        <v>-0.1222939546347047</v>
+        <v>0.006298683921265032</v>
       </c>
       <c r="E24" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="F24" s="4">
-        <v>1.91385355175474</v>
+        <v>1.947695322544258</v>
       </c>
       <c r="G24" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="H24" s="4">
-        <v>-9.32</v>
+        <v>7.19</v>
       </c>
       <c r="I24" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="J24" s="4">
-        <v>1.05</v>
+        <v>2.53</v>
       </c>
       <c r="K24" s="5">
-        <v>0.1098562628336756</v>
+        <v>0.379876796714579</v>
       </c>
       <c r="L24" s="4">
-        <v>1.0367</v>
+        <v>1.07</v>
       </c>
       <c r="M24" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="N24" s="4">
-        <v>-45.27823987588351</v>
+        <v>4.704991763526817</v>
       </c>
       <c r="O24" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="P24" s="4">
-        <v>10.98601369645332</v>
+        <v>4.356077897814894</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.7186858316221766</v>
+        <v>0.2833675564681725</v>
       </c>
       <c r="R24" s="5">
-        <v>0.2043121149897331</v>
+        <v>0.2062188325022001</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2112,55 +2112,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>116.4</v>
+        <v>115.12</v>
       </c>
       <c r="C25" s="3">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="D25" s="4">
-        <v>0.00614192611010207</v>
+        <v>-0.4122385490271562</v>
       </c>
       <c r="E25" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="F25" s="4">
-        <v>1.895641851075746</v>
+        <v>5.124783852651419</v>
       </c>
       <c r="G25" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.7967145790554414</v>
       </c>
       <c r="H25" s="4">
-        <v>7.01</v>
+        <v>10.67</v>
       </c>
       <c r="I25" s="5">
-        <v>0.108829568788501</v>
+        <v>0.1919917864476386</v>
       </c>
       <c r="J25" s="4">
-        <v>2.55</v>
+        <v>1.38</v>
       </c>
       <c r="K25" s="5">
-        <v>0.3819301848049281</v>
+        <v>0.1570841889117043</v>
       </c>
       <c r="L25" s="4">
-        <v>1.08</v>
+        <v>0.6854</v>
       </c>
       <c r="M25" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="N25" s="4">
-        <v>4.828198693503633</v>
+        <v>2.274815388821948</v>
       </c>
       <c r="O25" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="P25" s="4">
-        <v>4.531421751254974</v>
+        <v>0.6618119667801636</v>
       </c>
       <c r="Q25" s="5">
-        <v>0.2915811088295688</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="R25" s="5">
-        <v>0.2056321501906717</v>
+        <v>0.2062188325022001</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2168,55 +2168,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>116.2</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3">
-        <v>860</v>
+        <v>7142</v>
       </c>
       <c r="D26" s="4">
-        <v>-0.4233391251473479</v>
+        <v>-0.1223602916045852</v>
       </c>
       <c r="E26" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="F26" s="4">
-        <v>5.224493774506557</v>
+        <v>1.997049341938763</v>
       </c>
       <c r="G26" s="5">
-        <v>0.8028747433264887</v>
+        <v>0.24435318275154</v>
       </c>
       <c r="H26" s="4">
-        <v>11.05</v>
+        <v>-9.58</v>
       </c>
       <c r="I26" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="J26" s="4">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="K26" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="L26" s="4">
-        <v>0.6784</v>
+        <v>0.9949</v>
       </c>
       <c r="M26" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="N26" s="4">
-        <v>2.253580486775295</v>
+        <v>-46.21404934680692</v>
       </c>
       <c r="O26" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="P26" s="4">
-        <v>0.6363053935264591</v>
+        <v>11.05394687199127</v>
       </c>
       <c r="Q26" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.7186858316221766</v>
       </c>
       <c r="R26" s="5">
-        <v>0.2076855382810208</v>
+        <v>0.2068055148137284</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2224,55 +2224,55 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>111.06</v>
+        <v>110.8</v>
       </c>
       <c r="C27" s="3">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D27" s="4">
-        <v>0.0008510706109263829</v>
+        <v>0.00081443131229011</v>
       </c>
       <c r="E27" s="5">
         <v>0.2073921971252567</v>
       </c>
       <c r="F27" s="4">
-        <v>15.76239170030382</v>
+        <v>15.28984748618063</v>
       </c>
       <c r="G27" s="5">
         <v>0.9630390143737166</v>
       </c>
       <c r="H27" s="4">
-        <v>6.16</v>
+        <v>5.89</v>
       </c>
       <c r="I27" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="J27" s="4">
-        <v>0.6709000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="K27" s="5">
         <v>0.06570841889117043</v>
       </c>
       <c r="L27" s="4">
-        <v>0.5875</v>
+        <v>0.5819</v>
       </c>
       <c r="M27" s="5">
         <v>0.05749486652977413</v>
       </c>
       <c r="N27" s="4">
-        <v>4.586924188781081</v>
+        <v>4.40532823263899</v>
       </c>
       <c r="O27" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="P27" s="4">
-        <v>0.5968946433938406</v>
+        <v>0.5635335507686502</v>
       </c>
       <c r="Q27" s="5">
         <v>0.01026694045174538</v>
       </c>
       <c r="R27" s="5">
-        <v>0.2088589029040774</v>
+        <v>0.207978879436785</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2280,55 +2280,55 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>80.76000000000001</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="C28" s="3">
-        <v>1238</v>
+        <v>1194</v>
       </c>
       <c r="D28" s="4">
-        <v>0.0546426174076298</v>
+        <v>0.0539173736339029</v>
       </c>
       <c r="E28" s="5">
-        <v>0.3490759753593429</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="F28" s="4">
-        <v>-20.66575609458486</v>
+        <v>-20.43217860711113</v>
       </c>
       <c r="G28" s="5">
         <v>0.02464065708418891</v>
       </c>
       <c r="H28" s="4">
-        <v>16.49</v>
+        <v>16.62</v>
       </c>
       <c r="I28" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="J28" s="4">
-        <v>-42.51</v>
+        <v>-41.8</v>
       </c>
       <c r="K28" s="5">
         <v>0.02464065708418891</v>
       </c>
       <c r="L28" s="4">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M28" s="5">
-        <v>0.2802874743326489</v>
+        <v>0.2864476386036961</v>
       </c>
       <c r="N28" s="4">
-        <v>8.066713722931674</v>
+        <v>8.414162303819209</v>
       </c>
       <c r="O28" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="P28" s="4">
-        <v>4.043530865253781</v>
+        <v>4.342604324903429</v>
       </c>
       <c r="Q28" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="R28" s="5">
-        <v>0.2092989146377237</v>
+        <v>0.215752420064535</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2336,55 +2336,55 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>77.25</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="C29" s="3">
-        <v>1294</v>
+        <v>1260</v>
       </c>
       <c r="D29" s="4">
-        <v>0.03663306551643767</v>
+        <v>0.03728016729591236</v>
       </c>
       <c r="E29" s="5">
         <v>0.3121149897330595</v>
       </c>
       <c r="F29" s="4">
-        <v>2.141038077213703</v>
+        <v>2.146536873080014</v>
       </c>
       <c r="G29" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="H29" s="4">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="I29" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="J29" s="4">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="K29" s="5">
-        <v>0.3305954825462012</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="L29" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="M29" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.2956878850102669</v>
       </c>
       <c r="N29" s="4">
-        <v>4.083344866925548</v>
+        <v>4.098515063641915</v>
       </c>
       <c r="O29" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="P29" s="4">
-        <v>2.721214485711591</v>
+        <v>2.829669446420892</v>
       </c>
       <c r="Q29" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="R29" s="5">
-        <v>0.2176591375770021</v>
+        <v>0.2220592549134643</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2392,55 +2392,55 @@
         <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>114.47</v>
+        <v>67.7</v>
       </c>
       <c r="C30" s="3">
-        <v>873</v>
+        <v>1477</v>
       </c>
       <c r="D30" s="4">
-        <v>0.02325772123006414</v>
+        <v>0.001362140720437284</v>
       </c>
       <c r="E30" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="F30" s="4">
-        <v>-6.098562106328346</v>
+        <v>1.648084065711409</v>
       </c>
       <c r="G30" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="H30" s="4">
-        <v>15.98</v>
+        <v>-1.28</v>
       </c>
       <c r="I30" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="J30" s="4">
-        <v>-12.55</v>
+        <v>1.7</v>
       </c>
       <c r="K30" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="L30" s="4">
-        <v>2.29</v>
+        <v>3.8</v>
       </c>
       <c r="M30" s="5">
-        <v>0.391170431211499</v>
+        <v>0.580082135523614</v>
       </c>
       <c r="N30" s="4">
-        <v>11.07578865179682</v>
+        <v>-11.09898609116338</v>
       </c>
       <c r="O30" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P30" s="4">
-        <v>2.459726718337467</v>
+        <v>4.802033222874559</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.324435318275154</v>
       </c>
       <c r="R30" s="5">
-        <v>0.2201525374009974</v>
+        <v>0.2224992666471106</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2448,55 +2448,55 @@
         <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>66.90000000000001</v>
+        <v>113.17</v>
       </c>
       <c r="C31" s="3">
-        <v>1494</v>
+        <v>883</v>
       </c>
       <c r="D31" s="4">
-        <v>0.001398079160738136</v>
+        <v>0.02338213960140649</v>
       </c>
       <c r="E31" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="F31" s="4">
-        <v>1.660926907638812</v>
+        <v>-6.110682592256062</v>
       </c>
       <c r="G31" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="H31" s="4">
-        <v>-1.26</v>
+        <v>16.63</v>
       </c>
       <c r="I31" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.324435318275154</v>
       </c>
       <c r="J31" s="4">
-        <v>1.7</v>
+        <v>-12.55</v>
       </c>
       <c r="K31" s="5">
-        <v>0.2392197125256673</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="L31" s="4">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="M31" s="5">
-        <v>0.5790554414784395</v>
+        <v>0.3850102669404517</v>
       </c>
       <c r="N31" s="4">
-        <v>-11.17150790326823</v>
+        <v>11.30305530528715</v>
       </c>
       <c r="O31" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.3634496919917864</v>
       </c>
       <c r="P31" s="4">
-        <v>4.57382395995243</v>
+        <v>2.506498703223448</v>
       </c>
       <c r="Q31" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="R31" s="5">
-        <v>0.2204458785567615</v>
+        <v>0.2227926078028747</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2504,55 +2504,55 @@
         <v>48</v>
       </c>
       <c r="B32" s="2">
-        <v>23.6</v>
+        <v>153.67</v>
       </c>
       <c r="C32" s="3">
-        <v>4237</v>
+        <v>650</v>
       </c>
       <c r="D32" s="4">
-        <v>0.0713481071595706</v>
+        <v>0.02882742546266567</v>
       </c>
       <c r="E32" s="5">
-        <v>0.3675564681724846</v>
+        <v>0.2833675564681725</v>
       </c>
       <c r="F32" s="4">
-        <v>2.189050183290355</v>
+        <v>5.887335686149338</v>
       </c>
       <c r="G32" s="5">
-        <v>0.3347022587268993</v>
+        <v>0.8254620123203286</v>
       </c>
       <c r="H32" s="4">
-        <v>9.66</v>
+        <v>6.9</v>
       </c>
       <c r="I32" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="J32" s="4">
-        <v>0.7249</v>
+        <v>1.52</v>
       </c>
       <c r="K32" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="L32" s="4">
-        <v>1.6</v>
+        <v>0.8804999999999999</v>
       </c>
       <c r="M32" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="N32" s="4">
-        <v>8.652834291039317</v>
+        <v>1.86316051962569</v>
       </c>
       <c r="O32" s="5">
-        <v>0.24435318275154</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="P32" s="4">
-        <v>2.384033738194531</v>
+        <v>0.8433331864653945</v>
       </c>
       <c r="Q32" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="R32" s="5">
-        <v>0.2235259606922851</v>
+        <v>0.2244059841595776</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2560,55 +2560,55 @@
         <v>49</v>
       </c>
       <c r="B33" s="2">
-        <v>159.05</v>
+        <v>23.58</v>
       </c>
       <c r="C33" s="3">
-        <v>628</v>
+        <v>4240</v>
       </c>
       <c r="D33" s="4">
-        <v>0.02771151113285928</v>
+        <v>0.06987438672904479</v>
       </c>
       <c r="E33" s="5">
-        <v>0.2833675564681725</v>
+        <v>0.3696098562628337</v>
       </c>
       <c r="F33" s="4">
-        <v>5.992118546488792</v>
+        <v>2.22638333558429</v>
       </c>
       <c r="G33" s="5">
-        <v>0.8254620123203286</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="H33" s="4">
-        <v>7.17</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I33" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="J33" s="4">
-        <v>1.51</v>
+        <v>0.7252</v>
       </c>
       <c r="K33" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="L33" s="4">
-        <v>0.8626</v>
+        <v>1.6</v>
       </c>
       <c r="M33" s="5">
-        <v>0.108829568788501</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="N33" s="4">
-        <v>1.902906650445508</v>
+        <v>8.526038356239523</v>
       </c>
       <c r="O33" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="P33" s="4">
-        <v>0.8585969901940865</v>
+        <v>2.302536620018799</v>
       </c>
       <c r="Q33" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="R33" s="5">
-        <v>0.2241126430038134</v>
+        <v>0.2246993253153417</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2616,55 +2616,55 @@
         <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>59.6</v>
+        <v>57.88</v>
       </c>
       <c r="C34" s="3">
-        <v>1677</v>
+        <v>1727</v>
       </c>
       <c r="D34" s="4">
-        <v>0.03598021342886464</v>
+        <v>0.03589325842765462</v>
       </c>
       <c r="E34" s="5">
         <v>0.3100616016427105</v>
       </c>
       <c r="F34" s="4">
-        <v>4.688597556597188</v>
+        <v>4.81126912874157</v>
       </c>
       <c r="G34" s="5">
-        <v>0.7720739219712526</v>
+        <v>0.7823408624229979</v>
       </c>
       <c r="H34" s="4">
-        <v>9.27</v>
+        <v>9.68</v>
       </c>
       <c r="I34" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="J34" s="4">
-        <v>0.8428</v>
+        <v>0.8298</v>
       </c>
       <c r="K34" s="5">
         <v>0.08418891170431211</v>
       </c>
       <c r="L34" s="4">
-        <v>0.9877</v>
+        <v>0.9982</v>
       </c>
       <c r="M34" s="5">
         <v>0.1252566735112936</v>
       </c>
       <c r="N34" s="4">
-        <v>5.44736808429071</v>
+        <v>5.273306906723958</v>
       </c>
       <c r="O34" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="P34" s="4">
-        <v>1.027272527060251</v>
+        <v>0.9508272956302216</v>
       </c>
       <c r="Q34" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="R34" s="5">
-        <v>0.2249926664711059</v>
+        <v>0.2261660310941625</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2672,55 +2672,55 @@
         <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>114.34</v>
+        <v>116.58</v>
       </c>
       <c r="C35" s="3">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="D35" s="4">
-        <v>0.03327801439870814</v>
+        <v>0.03443996658295996</v>
       </c>
       <c r="E35" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="F35" s="4">
-        <v>2.554708333180893</v>
+        <v>2.580224173695047</v>
       </c>
       <c r="G35" s="5">
         <v>0.431211498973306</v>
       </c>
       <c r="H35" s="4">
-        <v>7.6</v>
+        <v>7.44</v>
       </c>
       <c r="I35" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="J35" s="4">
         <v>1.57</v>
       </c>
       <c r="K35" s="5">
-        <v>0.1981519507186858</v>
+        <v>0.2002053388090349</v>
       </c>
       <c r="L35" s="4">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M35" s="5">
-        <v>0.3603696098562629</v>
+        <v>0.3480492813141683</v>
       </c>
       <c r="N35" s="4">
-        <v>5.570230638755493</v>
+        <v>5.576801851479789</v>
       </c>
       <c r="O35" s="5">
         <v>0.09856262833675565</v>
       </c>
       <c r="P35" s="4">
-        <v>1.985292920886557</v>
+        <v>2.003753840436182</v>
       </c>
       <c r="Q35" s="5">
-        <v>0.1047227926078029</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="R35" s="5">
-        <v>0.2305661484306248</v>
+        <v>0.2302728072748607</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2728,55 +2728,55 @@
         <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>57.81</v>
+        <v>58.27</v>
       </c>
       <c r="C36" s="3">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="D36" s="4">
-        <v>0.03183412914091101</v>
+        <v>-3.020110484322318</v>
       </c>
       <c r="E36" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="F36" s="4">
-        <v>4.539902426220416</v>
+        <v>4.946884156371379</v>
       </c>
       <c r="G36" s="5">
-        <v>0.7515400410677618</v>
+        <v>0.7905544147843941</v>
       </c>
       <c r="H36" s="4">
-        <v>7.88</v>
+        <v>9.5</v>
       </c>
       <c r="I36" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="J36" s="4">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="K36" s="5">
-        <v>0.2063655030800821</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="L36" s="4">
-        <v>0.653</v>
+        <v>1.66</v>
       </c>
       <c r="M36" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.271047227926078</v>
       </c>
       <c r="N36" s="4">
-        <v>3.112591799595953</v>
+        <v>6.794795271615841</v>
       </c>
       <c r="O36" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.1437371663244353</v>
       </c>
       <c r="P36" s="4">
-        <v>2.7490061747337</v>
+        <v>1.937659599303691</v>
       </c>
       <c r="Q36" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="R36" s="5">
-        <v>0.2321795247873277</v>
+        <v>0.2337929011440305</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2784,55 +2784,55 @@
         <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>22.48</v>
+        <v>59.59</v>
       </c>
       <c r="C37" s="3">
-        <v>4448</v>
+        <v>1678</v>
       </c>
       <c r="D37" s="4">
-        <v>-0.2165666344431724</v>
+        <v>0.03123885025489434</v>
       </c>
       <c r="E37" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="F37" s="4">
-        <v>2.70235469591717</v>
+        <v>4.446781390878797</v>
       </c>
       <c r="G37" s="5">
-        <v>0.4620123203285421</v>
+        <v>0.7494866529774127</v>
       </c>
       <c r="H37" s="4">
-        <v>16.12</v>
+        <v>7.97</v>
       </c>
       <c r="I37" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="J37" s="4">
-        <v>0.7579</v>
+        <v>1.6</v>
       </c>
       <c r="K37" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.2084188911704312</v>
       </c>
       <c r="L37" s="4">
-        <v>0.5695</v>
+        <v>0.655</v>
       </c>
       <c r="M37" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="N37" s="4">
-        <v>12.87474506541619</v>
+        <v>3.170670138224588</v>
       </c>
       <c r="O37" s="5">
-        <v>0.4394250513347023</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="P37" s="4">
-        <v>2.335886292926641</v>
+        <v>2.84339994668366</v>
       </c>
       <c r="Q37" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="R37" s="5">
-        <v>0.236726312701672</v>
+        <v>0.2342329128776767</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2840,55 +2840,55 @@
         <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>24.76</v>
+        <v>58.62</v>
       </c>
       <c r="C38" s="3">
-        <v>4038</v>
+        <v>1705</v>
       </c>
       <c r="D38" s="4">
-        <v>-0.4402379613223118</v>
+        <v>0.04048540026725672</v>
       </c>
       <c r="E38" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="F38" s="4">
-        <v>3.01957118660253</v>
+        <v>9.395548053847737</v>
       </c>
       <c r="G38" s="5">
-        <v>0.5318275154004106</v>
+        <v>0.8911704312114989</v>
       </c>
       <c r="H38" s="4">
-        <v>17.37</v>
+        <v>8.84</v>
       </c>
       <c r="I38" s="5">
-        <v>0.3480492813141683</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="J38" s="4">
-        <v>1.05</v>
+        <v>0.7498</v>
       </c>
       <c r="K38" s="5">
-        <v>0.1098562628336756</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="L38" s="4">
-        <v>1.06</v>
+        <v>1.0307</v>
       </c>
       <c r="M38" s="5">
-        <v>0.1386036960985626</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="N38" s="4">
-        <v>7.166565131834918</v>
+        <v>4.492568800130269</v>
       </c>
       <c r="O38" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="P38" s="4">
-        <v>3.35921600898034</v>
+        <v>0.9938338299153219</v>
       </c>
       <c r="Q38" s="5">
-        <v>0.2032854209445585</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="R38" s="5">
-        <v>0.2371663244353183</v>
+        <v>0.2373129950132003</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2896,52 +2896,52 @@
         <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>56.27</v>
+        <v>22.99</v>
       </c>
       <c r="C39" s="3">
-        <v>1777</v>
+        <v>4349</v>
       </c>
       <c r="D39" s="4">
-        <v>0.23429452628844</v>
+        <v>-0.2189451925789097</v>
       </c>
       <c r="E39" s="5">
-        <v>0.5318275154004106</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="F39" s="4">
-        <v>1.767850138719413</v>
+        <v>2.697518370528402</v>
       </c>
       <c r="G39" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.4620123203285421</v>
       </c>
       <c r="H39" s="4">
-        <v>8.49</v>
+        <v>15.6</v>
       </c>
       <c r="I39" s="5">
-        <v>0.135523613963039</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="J39" s="4">
-        <v>1.98</v>
+        <v>0.7651</v>
       </c>
       <c r="K39" s="5">
-        <v>0.297741273100616</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="L39" s="4">
-        <v>1.08</v>
+        <v>0.5715</v>
       </c>
       <c r="M39" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="N39" s="4">
-        <v>6.35455361621612</v>
+        <v>13.29321815754552</v>
       </c>
       <c r="O39" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.4517453798767967</v>
       </c>
       <c r="P39" s="4">
-        <v>4.3138705514549</v>
+        <v>2.35616153321563</v>
       </c>
       <c r="Q39" s="5">
-        <v>0.2731006160164271</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="R39" s="5">
         <v>0.2373129950132003</v>
@@ -2952,55 +2952,55 @@
         <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>58.34</v>
+        <v>104.66</v>
       </c>
       <c r="C40" s="3">
-        <v>1714</v>
+        <v>955</v>
       </c>
       <c r="D40" s="4">
-        <v>-3.014256565225351</v>
+        <v>0.09828359274345115</v>
       </c>
       <c r="E40" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.4004106776180698</v>
       </c>
       <c r="F40" s="4">
-        <v>4.819395461768199</v>
+        <v>2.506124998161273</v>
       </c>
       <c r="G40" s="5">
-        <v>0.7802874743326488</v>
+        <v>0.4168377823408624</v>
       </c>
       <c r="H40" s="4">
-        <v>9.710000000000001</v>
+        <v>14.85</v>
       </c>
       <c r="I40" s="5">
-        <v>0.162217659137577</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="J40" s="4">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="K40" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="L40" s="4">
-        <v>1.7</v>
+        <v>0.8166</v>
       </c>
       <c r="M40" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="N40" s="4">
-        <v>7.138725024290436</v>
+        <v>8.2542869879648</v>
       </c>
       <c r="O40" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="P40" s="4">
-        <v>2.013011603650215</v>
+        <v>1.641335549711528</v>
       </c>
       <c r="Q40" s="5">
-        <v>0.108829568788501</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="R40" s="5">
-        <v>0.2376063361689645</v>
+        <v>0.2381930184804928</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3008,55 +3008,55 @@
         <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>59.13</v>
+        <v>57.36</v>
       </c>
       <c r="C41" s="3">
-        <v>1691</v>
+        <v>1743</v>
       </c>
       <c r="D41" s="4">
-        <v>0.04095728232907199</v>
+        <v>0.23354545963989</v>
       </c>
       <c r="E41" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.5318275154004106</v>
       </c>
       <c r="F41" s="4">
-        <v>9.312506980804763</v>
+        <v>1.772496995734804</v>
       </c>
       <c r="G41" s="5">
-        <v>0.893223819301848</v>
+        <v>0.1724845995893224</v>
       </c>
       <c r="H41" s="4">
-        <v>9.15</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I41" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="J41" s="4">
-        <v>0.7601</v>
+        <v>2.01</v>
       </c>
       <c r="K41" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="L41" s="4">
-        <v>0.9895</v>
+        <v>1.09</v>
       </c>
       <c r="M41" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1570841889117043</v>
       </c>
       <c r="N41" s="4">
-        <v>4.457873513909274</v>
+        <v>6.098366310187515</v>
       </c>
       <c r="O41" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="P41" s="4">
-        <v>0.9750002706834674</v>
+        <v>4.172197485407848</v>
       </c>
       <c r="Q41" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="R41" s="5">
-        <v>0.2376063361689645</v>
+        <v>0.2383396890583749</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3064,55 +3064,55 @@
         <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>130.25</v>
+        <v>24.75</v>
       </c>
       <c r="C42" s="3">
-        <v>767</v>
+        <v>4040</v>
       </c>
       <c r="D42" s="4">
-        <v>0.467752415432063</v>
+        <v>-0.4349666352736564</v>
       </c>
       <c r="E42" s="5">
-        <v>0.6262833675564682</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="F42" s="4">
-        <v>2.048453765153325</v>
+        <v>2.99069946867954</v>
       </c>
       <c r="G42" s="5">
-        <v>0.271047227926078</v>
+        <v>0.5236139630390144</v>
       </c>
       <c r="H42" s="4">
-        <v>10.72</v>
+        <v>17.68</v>
       </c>
       <c r="I42" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.3613963039014373</v>
       </c>
       <c r="J42" s="4">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="K42" s="5">
-        <v>0.2618069815195072</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="L42" s="4">
-        <v>0.8869</v>
+        <v>1.06</v>
       </c>
       <c r="M42" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1427104722792608</v>
       </c>
       <c r="N42" s="4">
-        <v>7.244373006479513</v>
+        <v>6.928678696096565</v>
       </c>
       <c r="O42" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="P42" s="4">
-        <v>1.121766712973288</v>
+        <v>3.409057250465292</v>
       </c>
       <c r="Q42" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.2094455852156057</v>
       </c>
       <c r="R42" s="5">
-        <v>0.2386330302141391</v>
+        <v>0.238633030214139</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3120,55 +3120,55 @@
         <v>59</v>
       </c>
       <c r="B43" s="2">
-        <v>121.09</v>
+        <v>105.08</v>
       </c>
       <c r="C43" s="3">
-        <v>825</v>
+        <v>951</v>
       </c>
       <c r="D43" s="4">
-        <v>-0.712031160622818</v>
+        <v>-3.243413702656551</v>
       </c>
       <c r="E43" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="F43" s="4">
-        <v>-33.32610841179436</v>
+        <v>3.295524152340169</v>
       </c>
       <c r="G43" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.5831622176591376</v>
       </c>
       <c r="H43" s="4">
-        <v>-30.08</v>
+        <v>18.52</v>
       </c>
       <c r="I43" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.3839835728952772</v>
       </c>
       <c r="J43" s="4">
-        <v>-68.98</v>
+        <v>1.8</v>
       </c>
       <c r="K43" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.2669404517453799</v>
       </c>
       <c r="L43" s="4">
-        <v>7</v>
+        <v>0.4699</v>
       </c>
       <c r="M43" s="5">
-        <v>0.7926078028747433</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="N43" s="4">
-        <v>-111.4366189382041</v>
+        <v>9.423852950855027</v>
       </c>
       <c r="O43" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.2772073921971253</v>
       </c>
       <c r="P43" s="4">
-        <v>10.04485384748027</v>
+        <v>1.547853264968097</v>
       </c>
       <c r="Q43" s="5">
-        <v>0.6714579055441479</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="R43" s="5">
-        <v>0.2393663831035494</v>
+        <v>0.2399530654150777</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3176,55 +3176,55 @@
         <v>60</v>
       </c>
       <c r="B44" s="2">
-        <v>101.97</v>
+        <v>139.69</v>
       </c>
       <c r="C44" s="3">
-        <v>980</v>
+        <v>715</v>
       </c>
       <c r="D44" s="4">
-        <v>0.1011512421591831</v>
+        <v>-5.031180533740869</v>
       </c>
       <c r="E44" s="5">
-        <v>0.404517453798768</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="F44" s="4">
-        <v>2.583908481268989</v>
+        <v>2.58124973097012</v>
       </c>
       <c r="G44" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.433264887063655</v>
       </c>
       <c r="H44" s="4">
-        <v>14.5</v>
+        <v>18.92</v>
       </c>
       <c r="I44" s="5">
-        <v>0.2823408624229979</v>
+        <v>0.3880903490759753</v>
       </c>
       <c r="J44" s="4">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="K44" s="5">
-        <v>0.1652977412731006</v>
+        <v>0.1837782340862423</v>
       </c>
       <c r="L44" s="4">
-        <v>0.8248</v>
+        <v>0.6511</v>
       </c>
       <c r="M44" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="N44" s="4">
-        <v>8.165112549734669</v>
+        <v>11.32114349143092</v>
       </c>
       <c r="O44" s="5">
-        <v>0.217659137577002</v>
+        <v>0.3675564681724846</v>
       </c>
       <c r="P44" s="4">
-        <v>1.600591828712209</v>
+        <v>3.465719323358247</v>
       </c>
       <c r="Q44" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="R44" s="5">
-        <v>0.2408330888823702</v>
+        <v>0.240393077148724</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3232,25 +3232,25 @@
         <v>61</v>
       </c>
       <c r="B45" s="2">
-        <v>33.9</v>
+        <v>33.77</v>
       </c>
       <c r="C45" s="3">
-        <v>2949</v>
+        <v>2961</v>
       </c>
       <c r="D45" s="4">
-        <v>0.1007481747287113</v>
+        <v>0.1007231222230379</v>
       </c>
       <c r="E45" s="5">
-        <v>0.4004106776180698</v>
+        <v>0.406570841889117</v>
       </c>
       <c r="F45" s="4">
-        <v>2.799185247571619</v>
+        <v>2.766807242433893</v>
       </c>
       <c r="G45" s="5">
-        <v>0.4804928131416837</v>
+        <v>0.4784394250513347</v>
       </c>
       <c r="H45" s="4">
-        <v>8.039999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="I45" s="5">
         <v>0.1293634496919918</v>
@@ -3259,28 +3259,28 @@
         <v>1.18</v>
       </c>
       <c r="K45" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.12217659137577</v>
       </c>
       <c r="L45" s="4">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="N45" s="4">
-        <v>6.528193599185791</v>
+        <v>6.599338156258794</v>
       </c>
       <c r="O45" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="P45" s="4">
-        <v>4.56957248499266</v>
+        <v>4.475505439445165</v>
       </c>
       <c r="Q45" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.2956878850102669</v>
       </c>
       <c r="R45" s="5">
-        <v>0.2408330888823702</v>
+        <v>0.242446465239073</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3288,55 +3288,55 @@
         <v>62</v>
       </c>
       <c r="B46" s="2">
-        <v>106.19</v>
+        <v>122.59</v>
       </c>
       <c r="C46" s="3">
-        <v>941</v>
+        <v>815</v>
       </c>
       <c r="D46" s="4">
-        <v>-3.271425298633769</v>
+        <v>-0.7185287859160473</v>
       </c>
       <c r="E46" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="F46" s="4">
-        <v>3.245599291921993</v>
+        <v>-33.94953830834557</v>
       </c>
       <c r="G46" s="5">
-        <v>0.5770020533880903</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="H46" s="4">
-        <v>18.44</v>
+        <v>-29.2</v>
       </c>
       <c r="I46" s="5">
-        <v>0.379876796714579</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="J46" s="4">
-        <v>1.8</v>
+        <v>-66.15000000000001</v>
       </c>
       <c r="K46" s="5">
-        <v>0.2648870636550308</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="L46" s="4">
-        <v>0.4873</v>
+        <v>7</v>
       </c>
       <c r="M46" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.7936344969199179</v>
       </c>
       <c r="N46" s="4">
-        <v>9.715375842610134</v>
+        <v>-118.0904437106894</v>
       </c>
       <c r="O46" s="5">
-        <v>0.2936344969199178</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="P46" s="4">
-        <v>1.569775621037465</v>
+        <v>10.81370216647791</v>
       </c>
       <c r="Q46" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.7063655030800821</v>
       </c>
       <c r="R46" s="5">
-        <v>0.2414197711938985</v>
+        <v>0.2450865356409504</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3344,55 +3344,55 @@
         <v>63</v>
       </c>
       <c r="B47" s="2">
-        <v>144.03</v>
+        <v>132.38</v>
       </c>
       <c r="C47" s="3">
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="D47" s="4">
-        <v>-4.861242330772531</v>
+        <v>0.469721750395166</v>
       </c>
       <c r="E47" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.6283367556468172</v>
       </c>
       <c r="F47" s="4">
-        <v>2.548698883766282</v>
+        <v>2.140656358358048</v>
       </c>
       <c r="G47" s="5">
-        <v>0.4271047227926077</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="H47" s="4">
-        <v>18.94</v>
+        <v>10.33</v>
       </c>
       <c r="I47" s="5">
-        <v>0.3901437371663244</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="J47" s="4">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="K47" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.2741273100616016</v>
       </c>
       <c r="L47" s="4">
-        <v>0.6582</v>
+        <v>0.9022</v>
       </c>
       <c r="M47" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="N47" s="4">
-        <v>11.66181850675722</v>
+        <v>7.330484090357365</v>
       </c>
       <c r="O47" s="5">
-        <v>0.379876796714579</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="P47" s="4">
-        <v>3.53945485495668</v>
+        <v>1.180789105207916</v>
       </c>
       <c r="Q47" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="R47" s="5">
-        <v>0.2417131123496626</v>
+        <v>0.2456732179524787</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3400,52 +3400,52 @@
         <v>64</v>
       </c>
       <c r="B48" s="2">
-        <v>39.84</v>
+        <v>102.7</v>
       </c>
       <c r="C48" s="3">
-        <v>2510</v>
+        <v>973</v>
       </c>
       <c r="D48" s="4">
-        <v>0.03225403532428467</v>
+        <v>0.05194076245100068</v>
       </c>
       <c r="E48" s="5">
-        <v>0.297741273100616</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="F48" s="4">
-        <v>2.098542824347339</v>
+        <v>7.652273341815603</v>
       </c>
       <c r="G48" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.8624229979466119</v>
       </c>
       <c r="H48" s="4">
-        <v>8.57</v>
+        <v>7.74</v>
       </c>
       <c r="I48" s="5">
+        <v>0.1232032854209446</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="K48" s="5">
         <v>0.1375770020533881</v>
       </c>
-      <c r="J48" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0.1765913757700205</v>
-      </c>
       <c r="L48" s="4">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="M48" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="N48" s="4">
-        <v>6.283296044251525</v>
+        <v>5.09824211208215</v>
       </c>
       <c r="O48" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="P48" s="4">
-        <v>7.182827053758349</v>
+        <v>1.026181764379092</v>
       </c>
       <c r="Q48" s="5">
-        <v>0.4969199178644764</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="R48" s="5">
         <v>0.2466999119976533</v>
@@ -3456,55 +3456,55 @@
         <v>65</v>
       </c>
       <c r="B49" s="2">
-        <v>102.9</v>
+        <v>40.03</v>
       </c>
       <c r="C49" s="3">
-        <v>971</v>
+        <v>2498</v>
       </c>
       <c r="D49" s="4">
-        <v>0.05264803252419443</v>
+        <v>0.03292041918159513</v>
       </c>
       <c r="E49" s="5">
-        <v>0.3429158110882957</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="F49" s="4">
-        <v>7.841561396141494</v>
+        <v>2.112199423094278</v>
       </c>
       <c r="G49" s="5">
-        <v>0.8644763860369609</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="H49" s="4">
-        <v>7.77</v>
+        <v>8.73</v>
       </c>
       <c r="I49" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="J49" s="4">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="K49" s="5">
-        <v>0.1447638603696099</v>
+        <v>0.1714579055441478</v>
       </c>
       <c r="L49" s="4">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="M49" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="N49" s="4">
-        <v>5.024653612446384</v>
+        <v>6.500127845840537</v>
       </c>
       <c r="O49" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="P49" s="4">
-        <v>1.054419855145822</v>
+        <v>7.14509120693874</v>
       </c>
       <c r="Q49" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="R49" s="5">
-        <v>0.2488999706658844</v>
+        <v>0.2474332648870636</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3512,52 +3512,52 @@
         <v>66</v>
       </c>
       <c r="B50" s="2">
-        <v>147</v>
+        <v>62.9</v>
       </c>
       <c r="C50" s="3">
-        <v>680</v>
+        <v>1589</v>
       </c>
       <c r="D50" s="4">
-        <v>0.004179179839495226</v>
+        <v>0.003008470390235968</v>
       </c>
       <c r="E50" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="F50" s="4">
-        <v>6.886921498766996</v>
+        <v>2.402823219549465</v>
       </c>
       <c r="G50" s="5">
-        <v>0.8501026694045174</v>
+        <v>0.3963039014373717</v>
       </c>
       <c r="H50" s="4">
-        <v>5.66</v>
+        <v>12.9</v>
       </c>
       <c r="I50" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="J50" s="4">
-        <v>1.0199</v>
+        <v>1.69</v>
       </c>
       <c r="K50" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.2320328542094456</v>
       </c>
       <c r="L50" s="4">
-        <v>2.03</v>
+        <v>1.07</v>
       </c>
       <c r="M50" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="N50" s="4">
-        <v>3.734968786156103</v>
+        <v>8.167051713878122</v>
       </c>
       <c r="O50" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="P50" s="4">
-        <v>1.800487993177116</v>
+        <v>4.571217731126196</v>
       </c>
       <c r="Q50" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="R50" s="5">
         <v>0.2490466412437665</v>
@@ -3568,55 +3568,55 @@
         <v>67</v>
       </c>
       <c r="B51" s="2">
-        <v>63.5</v>
+        <v>149.3</v>
       </c>
       <c r="C51" s="3">
-        <v>1574</v>
+        <v>669</v>
       </c>
       <c r="D51" s="4">
-        <v>0.003102507235556496</v>
+        <v>0.004248126967660865</v>
       </c>
       <c r="E51" s="5">
-        <v>0.217659137577002</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="F51" s="4">
-        <v>2.33082708513079</v>
+        <v>6.860519609230357</v>
       </c>
       <c r="G51" s="5">
-        <v>0.3757700205338809</v>
+        <v>0.8480492813141685</v>
       </c>
       <c r="H51" s="4">
-        <v>13</v>
+        <v>5.53</v>
       </c>
       <c r="I51" s="5">
-        <v>0.242299794661191</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="J51" s="4">
-        <v>1.74</v>
+        <v>1.0087</v>
       </c>
       <c r="K51" s="5">
+        <v>0.1026694045174538</v>
+      </c>
+      <c r="L51" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.3439425051334702</v>
+      </c>
+      <c r="N51" s="4">
+        <v>3.99808901840979</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.0513347022587269</v>
+      </c>
+      <c r="P51" s="4">
+        <v>1.82982659737485</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.09240246406570841</v>
+      </c>
+      <c r="R51" s="5">
         <v>0.2494866529774127</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="M51" s="5">
-        <v>0.1498973305954825</v>
-      </c>
-      <c r="N51" s="4">
-        <v>7.95739439205219</v>
-      </c>
-      <c r="O51" s="5">
-        <v>0.2053388090349076</v>
-      </c>
-      <c r="P51" s="4">
-        <v>4.589290178476058</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>0.3100616016427105</v>
-      </c>
-      <c r="R51" s="5">
-        <v>0.250073335288941</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3624,55 +3624,55 @@
         <v>68</v>
       </c>
       <c r="B52" s="2">
-        <v>44.1</v>
+        <v>46.24</v>
       </c>
       <c r="C52" s="3">
-        <v>2267</v>
+        <v>2162</v>
       </c>
       <c r="D52" s="4">
-        <v>-0.1120963813535966</v>
+        <v>-0.11625629405839</v>
       </c>
       <c r="E52" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="F52" s="4">
-        <v>7.185225343966667</v>
+        <v>12.76027081910845</v>
       </c>
       <c r="G52" s="5">
-        <v>0.8562628336755647</v>
+        <v>0.946611909650924</v>
       </c>
       <c r="H52" s="4">
-        <v>4.24</v>
+        <v>-4.5</v>
       </c>
       <c r="I52" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="J52" s="4">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="K52" s="5">
-        <v>0.393223819301848</v>
+        <v>0.4004106776180698</v>
       </c>
       <c r="L52" s="4">
-        <v>0.4725</v>
+        <v>0.742</v>
       </c>
       <c r="M52" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="N52" s="4">
-        <v>3.643471125160647</v>
+        <v>-7.637991343419519</v>
       </c>
       <c r="O52" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="P52" s="4">
-        <v>2.937930819261344</v>
+        <v>1.511501689068888</v>
       </c>
       <c r="Q52" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="R52" s="5">
-        <v>0.253886770313875</v>
+        <v>0.2534467585802288</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3680,55 +3680,55 @@
         <v>69</v>
       </c>
       <c r="B53" s="2">
-        <v>46.87</v>
+        <v>44.3</v>
       </c>
       <c r="C53" s="3">
-        <v>2133</v>
+        <v>2257</v>
       </c>
       <c r="D53" s="4">
-        <v>-0.113492032138999</v>
+        <v>-0.1085163556821896</v>
       </c>
       <c r="E53" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="F53" s="4">
-        <v>13.32638451946524</v>
+        <v>6.983027863875069</v>
       </c>
       <c r="G53" s="5">
-        <v>0.9507186858316221</v>
+        <v>0.8521560574948666</v>
       </c>
       <c r="H53" s="4">
-        <v>-4.63</v>
+        <v>4.27</v>
       </c>
       <c r="I53" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="J53" s="4">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="K53" s="5">
-        <v>0.404517453798768</v>
+        <v>0.3880903490759753</v>
       </c>
       <c r="L53" s="4">
-        <v>0.7356</v>
+        <v>0.4758</v>
       </c>
       <c r="M53" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="N53" s="4">
-        <v>-7.699034076056176</v>
+        <v>3.915662185270028</v>
       </c>
       <c r="O53" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="P53" s="4">
-        <v>1.502423666040848</v>
+        <v>3.146383600479243</v>
       </c>
       <c r="Q53" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="R53" s="5">
-        <v>0.2543267820475212</v>
+        <v>0.255793487826342</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3736,55 +3736,55 @@
         <v>70</v>
       </c>
       <c r="B54" s="2">
-        <v>112.61</v>
+        <v>62.21</v>
       </c>
       <c r="C54" s="3">
-        <v>888</v>
+        <v>1607</v>
       </c>
       <c r="D54" s="4">
-        <v>0.104850150758417</v>
+        <v>0.05810177881725993</v>
       </c>
       <c r="E54" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="F54" s="4">
-        <v>1.596556462842446</v>
+        <v>12.07255984750702</v>
       </c>
       <c r="G54" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.9363449691991786</v>
       </c>
       <c r="H54" s="4">
-        <v>8.640000000000001</v>
+        <v>6.05</v>
       </c>
       <c r="I54" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="J54" s="4">
-        <v>1.68</v>
+        <v>0.6988</v>
       </c>
       <c r="K54" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="L54" s="4">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="M54" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.2484599589322382</v>
       </c>
       <c r="N54" s="4">
-        <v>7.760712821332151</v>
+        <v>3.741711962254092</v>
       </c>
       <c r="O54" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="P54" s="4">
-        <v>7.434828480076789</v>
+        <v>1.524443186675922</v>
       </c>
       <c r="Q54" s="5">
-        <v>0.5112936344969199</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="R54" s="5">
-        <v>0.2563801701378703</v>
+        <v>0.2584335582282194</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3792,55 +3792,55 @@
         <v>71</v>
       </c>
       <c r="B55" s="2">
-        <v>93.65000000000001</v>
+        <v>115.45</v>
       </c>
       <c r="C55" s="3">
-        <v>1067</v>
+        <v>866</v>
       </c>
       <c r="D55" s="4">
-        <v>0.01380329271015413</v>
+        <v>0.1055462878319939</v>
       </c>
       <c r="E55" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="F55" s="4">
-        <v>3.286723559733077</v>
+        <v>1.637650020568154</v>
       </c>
       <c r="G55" s="5">
-        <v>0.5852156057494866</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="H55" s="4">
-        <v>5.36</v>
+        <v>8.9</v>
       </c>
       <c r="I55" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.1437371663244353</v>
       </c>
       <c r="J55" s="4">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="K55" s="5">
-        <v>0.3860369609856263</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="L55" s="4">
-        <v>0.74</v>
+        <v>1.34</v>
       </c>
       <c r="M55" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.1919917864476386</v>
       </c>
       <c r="N55" s="4">
-        <v>4.887358217261182</v>
+        <v>7.761152485263089</v>
       </c>
       <c r="O55" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.188911704312115</v>
       </c>
       <c r="P55" s="4">
-        <v>5.243630826990724</v>
+        <v>7.545421393915247</v>
       </c>
       <c r="Q55" s="5">
-        <v>0.3552361396303901</v>
+        <v>0.5195071868583162</v>
       </c>
       <c r="R55" s="5">
-        <v>0.2587268993839836</v>
+        <v>0.2588735699618656</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3848,55 +3848,55 @@
         <v>72</v>
       </c>
       <c r="B56" s="2">
-        <v>63.04</v>
+        <v>29.43</v>
       </c>
       <c r="C56" s="3">
-        <v>1586</v>
+        <v>3397</v>
       </c>
       <c r="D56" s="4">
-        <v>0.05631565590273429</v>
+        <v>-0.2588175707091733</v>
       </c>
       <c r="E56" s="5">
-        <v>0.351129363449692</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="F56" s="4">
-        <v>12.03846949910326</v>
+        <v>4.213187237628508</v>
       </c>
       <c r="G56" s="5">
-        <v>0.9363449691991786</v>
+        <v>0.7248459958932238</v>
       </c>
       <c r="H56" s="4">
-        <v>5.93</v>
+        <v>-24.64</v>
       </c>
       <c r="I56" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="J56" s="4">
-        <v>0.672</v>
+        <v>3</v>
       </c>
       <c r="K56" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.4548254620123203</v>
       </c>
       <c r="L56" s="4">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="M56" s="5">
-        <v>0.2535934291581109</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="N56" s="4">
-        <v>3.831063368463296</v>
+        <v>5.084125097374921</v>
       </c>
       <c r="O56" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="P56" s="4">
-        <v>1.467185411840373</v>
+        <v>2.923592269382497</v>
       </c>
       <c r="Q56" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="R56" s="5">
-        <v>0.2591669111176298</v>
+        <v>0.259460252273394</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3904,55 +3904,55 @@
         <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>30.18</v>
+        <v>6.33</v>
       </c>
       <c r="C57" s="3">
-        <v>3313</v>
+        <v>15797</v>
       </c>
       <c r="D57" s="4">
-        <v>-0.2649134906803667</v>
+        <v>0.2146690940563682</v>
       </c>
       <c r="E57" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.5154004106776181</v>
       </c>
       <c r="F57" s="4">
-        <v>4.045959825985478</v>
+        <v>2.946439251931221</v>
       </c>
       <c r="G57" s="5">
-        <v>0.7145790554414785</v>
+        <v>0.5133470225872689</v>
       </c>
       <c r="H57" s="4">
-        <v>-24.12</v>
+        <v>20.97</v>
       </c>
       <c r="I57" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.4229979466119096</v>
       </c>
       <c r="J57" s="4">
-        <v>3.09</v>
+        <v>0.7788</v>
       </c>
       <c r="K57" s="5">
-        <v>0.459958932238193</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="L57" s="4">
-        <v>1.2</v>
+        <v>0.3306</v>
       </c>
       <c r="M57" s="5">
-        <v>0.1724845995893224</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="N57" s="4">
-        <v>5.203014766100789</v>
+        <v>3.950402379133218</v>
       </c>
       <c r="O57" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="P57" s="4">
-        <v>2.909401388508459</v>
+        <v>3.669860341301704</v>
       </c>
       <c r="Q57" s="5">
-        <v>0.162217659137577</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="R57" s="5">
-        <v>0.2593135816955119</v>
+        <v>0.2601936051628043</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3960,55 +3960,55 @@
         <v>74</v>
       </c>
       <c r="B58" s="2">
-        <v>6.19</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C58" s="3">
-        <v>16155</v>
+        <v>1090</v>
       </c>
       <c r="D58" s="4">
-        <v>0.2089000104642775</v>
+        <v>0.0140352168824058</v>
       </c>
       <c r="E58" s="5">
-        <v>0.5112936344969199</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="F58" s="4">
-        <v>2.984237700870614</v>
+        <v>3.364582454401398</v>
       </c>
       <c r="G58" s="5">
-        <v>0.5256673511293635</v>
+        <v>0.5913757700205339</v>
       </c>
       <c r="H58" s="4">
-        <v>21.35</v>
+        <v>5.36</v>
       </c>
       <c r="I58" s="5">
-        <v>0.431211498973306</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="J58" s="4">
-        <v>0.7872</v>
+        <v>2.66</v>
       </c>
       <c r="K58" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.3963039014373717</v>
       </c>
       <c r="L58" s="4">
-        <v>0.3356</v>
+        <v>0.74</v>
       </c>
       <c r="M58" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="N58" s="4">
-        <v>3.955000947368907</v>
+        <v>4.895476228823894</v>
       </c>
       <c r="O58" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="P58" s="4">
-        <v>3.605133859323484</v>
+        <v>5.176322427070418</v>
       </c>
       <c r="Q58" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="R58" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.2610736286300968</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4016,55 +4016,55 @@
         <v>75</v>
       </c>
       <c r="B59" s="2">
-        <v>278.17</v>
+        <v>267.55</v>
       </c>
       <c r="C59" s="3">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="D59" s="4">
-        <v>0.203994105868966</v>
+        <v>0.195465609691168</v>
       </c>
       <c r="E59" s="5">
         <v>0.5030800821355236</v>
       </c>
       <c r="F59" s="4">
-        <v>3.708225869501788</v>
+        <v>3.687327516541544</v>
       </c>
       <c r="G59" s="5">
-        <v>0.6591375770020533</v>
+        <v>0.6611909650924025</v>
       </c>
       <c r="H59" s="4">
-        <v>10.71</v>
+        <v>10.67</v>
       </c>
       <c r="I59" s="5">
-        <v>0.188911704312115</v>
+        <v>0.1919917864476386</v>
       </c>
       <c r="J59" s="4">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K59" s="5">
         <v>0.1129363449691992</v>
       </c>
       <c r="L59" s="4">
-        <v>0.9502</v>
+        <v>0.9368</v>
       </c>
       <c r="M59" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="N59" s="4">
-        <v>9.215802827173389</v>
+        <v>9.058218784743834</v>
       </c>
       <c r="O59" s="5">
-        <v>0.2648870636550308</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="P59" s="4">
-        <v>0.9104688806504894</v>
+        <v>0.9249496099054907</v>
       </c>
       <c r="Q59" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="R59" s="5">
-        <v>0.2684071575242006</v>
+        <v>0.2676738046347902</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4072,55 +4072,55 @@
         <v>76</v>
       </c>
       <c r="B60" s="2">
-        <v>47.86</v>
+        <v>49.78</v>
       </c>
       <c r="C60" s="3">
-        <v>2089</v>
+        <v>2008</v>
       </c>
       <c r="D60" s="4">
-        <v>-73.83446648317636</v>
+        <v>-73.59004549831388</v>
       </c>
       <c r="E60" s="5">
         <v>0.004106776180698152</v>
       </c>
       <c r="F60" s="4">
-        <v>1.8558572600426</v>
+        <v>1.8735943878607</v>
       </c>
       <c r="G60" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="H60" s="4">
-        <v>14.79</v>
+        <v>14.72</v>
       </c>
       <c r="I60" s="5">
-        <v>0.2905544147843943</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="J60" s="4">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="K60" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="L60" s="4">
         <v>1.18</v>
       </c>
       <c r="M60" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.1714579055441478</v>
       </c>
       <c r="N60" s="4">
-        <v>11.41310465762862</v>
+        <v>11.21997245213012</v>
       </c>
       <c r="O60" s="5">
-        <v>0.3716632443531827</v>
+        <v>0.3593429158110883</v>
       </c>
       <c r="P60" s="4">
-        <v>8.253081758095369</v>
+        <v>8.177471585970936</v>
       </c>
       <c r="Q60" s="5">
         <v>0.5728952772073922</v>
       </c>
       <c r="R60" s="5">
-        <v>0.269140510413611</v>
+        <v>0.2685538281020827</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4128,55 +4128,55 @@
         <v>77</v>
       </c>
       <c r="B61" s="2">
-        <v>17.85</v>
+        <v>17.33</v>
       </c>
       <c r="C61" s="3">
-        <v>5602</v>
+        <v>5770</v>
       </c>
       <c r="D61" s="4">
-        <v>0.08881750058029217</v>
+        <v>0.09100482434755378</v>
       </c>
       <c r="E61" s="5">
         <v>0.3880903490759753</v>
       </c>
       <c r="F61" s="4">
-        <v>4.620035452310766</v>
+        <v>4.795176136621413</v>
       </c>
       <c r="G61" s="5">
-        <v>0.759753593429158</v>
+        <v>0.7782340862422998</v>
       </c>
       <c r="H61" s="4">
-        <v>13.59</v>
+        <v>13</v>
       </c>
       <c r="I61" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="J61" s="4">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="K61" s="5">
         <v>0.3470225872689939</v>
       </c>
       <c r="L61" s="4">
-        <v>0.3976</v>
+        <v>0.3928</v>
       </c>
       <c r="M61" s="5">
         <v>0.03490759753593429</v>
       </c>
       <c r="N61" s="4">
-        <v>4.76272672913436</v>
+        <v>4.83192642501691</v>
       </c>
       <c r="O61" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="P61" s="4">
-        <v>1.022191206381773</v>
+        <v>0.9790411340650567</v>
       </c>
       <c r="Q61" s="5">
         <v>0.03285420944558522</v>
       </c>
       <c r="R61" s="5">
-        <v>0.2692871809914931</v>
+        <v>0.2704605456145497</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4184,52 +4184,52 @@
         <v>78</v>
       </c>
       <c r="B62" s="2">
-        <v>48.1</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C62" s="3">
-        <v>2079</v>
+        <v>1386</v>
       </c>
       <c r="D62" s="4">
-        <v>0.0388271751352658</v>
+        <v>-0.7744783893836803</v>
       </c>
       <c r="E62" s="5">
-        <v>0.3203285420944559</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="F62" s="4">
-        <v>3.139902108104724</v>
+        <v>3.199591823208991</v>
       </c>
       <c r="G62" s="5">
-        <v>0.5503080082135523</v>
+        <v>0.5585215605749486</v>
       </c>
       <c r="H62" s="4">
-        <v>10.83</v>
+        <v>-63.63</v>
       </c>
       <c r="I62" s="5">
-        <v>0.1940451745379877</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="J62" s="4">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="K62" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.2577002053388091</v>
       </c>
       <c r="L62" s="4">
-        <v>0.8381</v>
+        <v>0.3435</v>
       </c>
       <c r="M62" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="N62" s="4">
-        <v>7.800988286048226</v>
+        <v>14.01004207609526</v>
       </c>
       <c r="O62" s="5">
-        <v>0.188911704312115</v>
+        <v>0.486652977412731</v>
       </c>
       <c r="P62" s="4">
-        <v>4.150808872363074</v>
+        <v>5.969283163181752</v>
       </c>
       <c r="Q62" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="R62" s="5">
         <v>0.2711938985039601</v>
@@ -4240,55 +4240,55 @@
         <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>68.15000000000001</v>
+        <v>68.06</v>
       </c>
       <c r="C63" s="3">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D63" s="4">
-        <v>0.1317865916962611</v>
+        <v>0.1288006361383673</v>
       </c>
       <c r="E63" s="5">
-        <v>0.4496919917864476</v>
+        <v>0.4476386036960986</v>
       </c>
       <c r="F63" s="4">
-        <v>17.97022011823628</v>
+        <v>17.97261987894409</v>
       </c>
       <c r="G63" s="5">
         <v>0.9712525667351128</v>
       </c>
       <c r="H63" s="4">
-        <v>10.18</v>
+        <v>9.9</v>
       </c>
       <c r="I63" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.1673511293634497</v>
       </c>
       <c r="J63" s="4">
-        <v>0.5958</v>
+        <v>0.591</v>
       </c>
       <c r="K63" s="5">
         <v>0.06365503080082136</v>
       </c>
       <c r="L63" s="4">
-        <v>0.6349</v>
+        <v>0.648</v>
       </c>
       <c r="M63" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="N63" s="4">
-        <v>7.373023612916586</v>
+        <v>7.519585835502118</v>
       </c>
       <c r="O63" s="5">
-        <v>0.1642710472279261</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="P63" s="4">
-        <v>0.6306505921412615</v>
+        <v>0.6349564799387929</v>
       </c>
       <c r="Q63" s="5">
         <v>0.01437371663244353</v>
       </c>
       <c r="R63" s="5">
-        <v>0.2713405690818422</v>
+        <v>0.2717805808154884</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4296,55 +4296,55 @@
         <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>199.65</v>
+        <v>47.92</v>
       </c>
       <c r="C64" s="3">
-        <v>500</v>
+        <v>2086</v>
       </c>
       <c r="D64" s="4">
-        <v>0.03347166649332631</v>
+        <v>0.03871048231450482</v>
       </c>
       <c r="E64" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.3203285420944559</v>
       </c>
       <c r="F64" s="4">
-        <v>3.446513684639827</v>
+        <v>3.210718216319238</v>
       </c>
       <c r="G64" s="5">
-        <v>0.6057494866529773</v>
+        <v>0.5605749486652978</v>
       </c>
       <c r="H64" s="4">
-        <v>9.800000000000001</v>
+        <v>11.04</v>
       </c>
       <c r="I64" s="5">
-        <v>0.1673511293634497</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="J64" s="4">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="K64" s="5">
-        <v>0.1652977412731006</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="L64" s="4">
-        <v>2.05</v>
+        <v>0.8228</v>
       </c>
       <c r="M64" s="5">
-        <v>0.351129363449692</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="N64" s="4">
-        <v>7.93780481504521</v>
+        <v>7.816614400036432</v>
       </c>
       <c r="O64" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="P64" s="4">
-        <v>2.05459168380507</v>
+        <v>3.908119654770542</v>
       </c>
       <c r="Q64" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.24435318275154</v>
       </c>
       <c r="R64" s="5">
-        <v>0.2722205925491346</v>
+        <v>0.2719272513933705</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4352,52 +4352,52 @@
         <v>81</v>
       </c>
       <c r="B65" s="2">
-        <v>43.64</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="C65" s="3">
-        <v>2291</v>
+        <v>1128</v>
       </c>
       <c r="D65" s="4">
-        <v>0.1675569464737941</v>
+        <v>0.01569010589099274</v>
       </c>
       <c r="E65" s="5">
-        <v>0.4784394250513347</v>
+        <v>0.2484599589322382</v>
       </c>
       <c r="F65" s="4">
-        <v>2.577025513335147</v>
+        <v>1.750023053435432</v>
       </c>
       <c r="G65" s="5">
-        <v>0.433264887063655</v>
+        <v>0.1642710472279261</v>
       </c>
       <c r="H65" s="4">
-        <v>13.85</v>
+        <v>17.45</v>
       </c>
       <c r="I65" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.3480492813141683</v>
       </c>
       <c r="J65" s="4">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="K65" s="5">
-        <v>0.2063655030800821</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="L65" s="4">
-        <v>0.7157</v>
+        <v>3.11</v>
       </c>
       <c r="M65" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="N65" s="4">
-        <v>7.437826820340669</v>
+        <v>6.396881946811863</v>
       </c>
       <c r="O65" s="5">
-        <v>0.1704312114989733</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="P65" s="4">
-        <v>4.339783708008111</v>
+        <v>3.157801991813877</v>
       </c>
       <c r="Q65" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="R65" s="5">
         <v>0.2726606042827809</v>
@@ -4408,55 +4408,55 @@
         <v>82</v>
       </c>
       <c r="B66" s="2">
-        <v>63.13</v>
+        <v>194.92</v>
       </c>
       <c r="C66" s="3">
-        <v>1584</v>
+        <v>513</v>
       </c>
       <c r="D66" s="4">
-        <v>0.0215465528571592</v>
+        <v>0.03298143441167627</v>
       </c>
       <c r="E66" s="5">
-        <v>0.2689938398357289</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="F66" s="4">
-        <v>3.248592802802247</v>
+        <v>3.511914503092519</v>
       </c>
       <c r="G66" s="5">
-        <v>0.5790554414784395</v>
+        <v>0.62217659137577</v>
       </c>
       <c r="H66" s="4">
-        <v>4.46</v>
+        <v>10</v>
       </c>
       <c r="I66" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="J66" s="4">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="K66" s="5">
-        <v>0.162217659137577</v>
+        <v>0.1714579055441478</v>
       </c>
       <c r="L66" s="4">
-        <v>0.416</v>
+        <v>2.06</v>
       </c>
       <c r="M66" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="N66" s="4">
-        <v>9.673530322119417</v>
+        <v>7.693424393493269</v>
       </c>
       <c r="O66" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="P66" s="4">
-        <v>7.625233359632092</v>
+        <v>2.065627491999479</v>
       </c>
       <c r="Q66" s="5">
-        <v>0.5215605749486653</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="R66" s="5">
-        <v>0.2766207098855969</v>
+        <v>0.272953945438545</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4464,55 +4464,55 @@
         <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>90.11</v>
+        <v>47.16</v>
       </c>
       <c r="C67" s="3">
-        <v>1109</v>
+        <v>2120</v>
       </c>
       <c r="D67" s="4">
-        <v>0.01561989579536567</v>
+        <v>0.02917320363212325</v>
       </c>
       <c r="E67" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="F67" s="4">
-        <v>1.788574891915613</v>
+        <v>6.816020086233075</v>
       </c>
       <c r="G67" s="5">
-        <v>0.1704312114989733</v>
+        <v>0.8459958932238193</v>
       </c>
       <c r="H67" s="4">
-        <v>17.58</v>
+        <v>6.6</v>
       </c>
       <c r="I67" s="5">
-        <v>0.3552361396303901</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="J67" s="4">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="K67" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="L67" s="4">
-        <v>3.12</v>
+        <v>1.56</v>
       </c>
       <c r="M67" s="5">
-        <v>0.4928131416837783</v>
+        <v>0.2556468172484599</v>
       </c>
       <c r="N67" s="4">
-        <v>6.61473013627116</v>
+        <v>4.215060287046117</v>
       </c>
       <c r="O67" s="5">
-        <v>0.135523613963039</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="P67" s="4">
-        <v>3.179457893598437</v>
+        <v>1.652587393666124</v>
       </c>
       <c r="Q67" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="R67" s="5">
-        <v>0.2766207098855969</v>
+        <v>0.2758873569961866</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4520,55 +4520,55 @@
         <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>74.90000000000001</v>
+        <v>45.72</v>
       </c>
       <c r="C68" s="3">
-        <v>1335</v>
+        <v>2187</v>
       </c>
       <c r="D68" s="4">
-        <v>-0.7966191348443116</v>
+        <v>0.1670791573715566</v>
       </c>
       <c r="E68" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.4804928131416837</v>
       </c>
       <c r="F68" s="4">
-        <v>3.233738166676992</v>
+        <v>2.54629529140782</v>
       </c>
       <c r="G68" s="5">
-        <v>0.5728952772073922</v>
+        <v>0.4250513347022587</v>
       </c>
       <c r="H68" s="4">
-        <v>-62.89</v>
+        <v>14.21</v>
       </c>
       <c r="I68" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.271047227926078</v>
       </c>
       <c r="J68" s="4">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="K68" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.2145790554414785</v>
       </c>
       <c r="L68" s="4">
-        <v>0.3413</v>
+        <v>0.713</v>
       </c>
       <c r="M68" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="N68" s="4">
-        <v>14.76812411019282</v>
+        <v>7.672744109932702</v>
       </c>
       <c r="O68" s="5">
-        <v>0.5215605749486653</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="P68" s="4">
-        <v>5.899591729821754</v>
+        <v>4.431512627570195</v>
       </c>
       <c r="Q68" s="5">
-        <v>0.404517453798768</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="R68" s="5">
-        <v>0.2769140510413611</v>
+        <v>0.2770607216192432</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4576,55 +4576,55 @@
         <v>85</v>
       </c>
       <c r="B69" s="2">
-        <v>160.74</v>
+        <v>159.5</v>
       </c>
       <c r="C69" s="3">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D69" s="4">
-        <v>0.176626000542696</v>
+        <v>0.1723444663426762</v>
       </c>
       <c r="E69" s="5">
-        <v>0.484599589322382</v>
+        <v>0.4825462012320329</v>
       </c>
       <c r="F69" s="4">
-        <v>4.445618734825498</v>
+        <v>4.352013506983726</v>
       </c>
       <c r="G69" s="5">
-        <v>0.7453798767967146</v>
+        <v>0.7412731006160165</v>
       </c>
       <c r="H69" s="4">
-        <v>11.08</v>
+        <v>11.38</v>
       </c>
       <c r="I69" s="5">
-        <v>0.204312114989733</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="J69" s="4">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K69" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.1652977412731006</v>
       </c>
       <c r="L69" s="4">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="M69" s="5">
         <v>0.1663244353182751</v>
       </c>
       <c r="N69" s="4">
-        <v>7.187874843735776</v>
+        <v>7.017369265302943</v>
       </c>
       <c r="O69" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="P69" s="4">
-        <v>1.080486003043206</v>
+        <v>1.086266652177717</v>
       </c>
       <c r="Q69" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="R69" s="5">
-        <v>0.278527427398064</v>
+        <v>0.2794074508653564</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4632,55 +4632,55 @@
         <v>86</v>
       </c>
       <c r="B70" s="2">
-        <v>47.8</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="C70" s="3">
-        <v>2092</v>
+        <v>1542</v>
       </c>
       <c r="D70" s="4">
-        <v>0.02961280274087686</v>
+        <v>0.0218863124368299</v>
       </c>
       <c r="E70" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="F70" s="4">
-        <v>6.728396195230916</v>
+        <v>3.242847284903086</v>
       </c>
       <c r="G70" s="5">
-        <v>0.8480492813141685</v>
+        <v>0.5708418891170431</v>
       </c>
       <c r="H70" s="4">
-        <v>6.83</v>
+        <v>4.51</v>
       </c>
       <c r="I70" s="5">
-        <v>0.1047227926078029</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="J70" s="4">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="K70" s="5">
+        <v>0.1683778234086242</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.4067</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0.03696098562628337</v>
+      </c>
+      <c r="N70" s="4">
+        <v>9.990026826287561</v>
+      </c>
+      <c r="O70" s="5">
         <v>0.3018480492813141</v>
       </c>
-      <c r="L70" s="4">
-        <v>1.61</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0.2638603696098563</v>
-      </c>
-      <c r="N70" s="4">
-        <v>4.340997627234845</v>
-      </c>
-      <c r="O70" s="5">
-        <v>0.0595482546201232</v>
-      </c>
       <c r="P70" s="4">
-        <v>1.658948330605498</v>
+        <v>7.815431034418677</v>
       </c>
       <c r="Q70" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.5338809034907598</v>
       </c>
       <c r="R70" s="5">
-        <v>0.2788207685538281</v>
+        <v>0.2795541214432385</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4688,55 +4688,55 @@
         <v>87</v>
       </c>
       <c r="B71" s="2">
-        <v>74.09</v>
+        <v>73.86</v>
       </c>
       <c r="C71" s="3">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="D71" s="4">
-        <v>0.01781394958157157</v>
+        <v>0.01702705647972622</v>
       </c>
       <c r="E71" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="F71" s="4">
-        <v>3.21542062873148</v>
+        <v>3.23311791029083</v>
       </c>
       <c r="G71" s="5">
-        <v>0.5646817248459959</v>
+        <v>0.568788501026694</v>
       </c>
       <c r="H71" s="4">
-        <v>-66.44</v>
+        <v>-67.23</v>
       </c>
       <c r="I71" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="J71" s="4">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K71" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="L71" s="4">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="M71" s="5">
         <v>0.01437371663244353</v>
       </c>
       <c r="N71" s="4">
-        <v>15.73852534727184</v>
+        <v>16.35467644068499</v>
       </c>
       <c r="O71" s="5">
-        <v>0.5482546201232033</v>
+        <v>0.568788501026694</v>
       </c>
       <c r="P71" s="4">
-        <v>4.579476027062093</v>
+        <v>4.510529338638844</v>
       </c>
       <c r="Q71" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="R71" s="5">
-        <v>0.2810208272220592</v>
+        <v>0.2798474625990026</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4744,55 +4744,55 @@
         <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>81.55</v>
+        <v>161.53</v>
       </c>
       <c r="C72" s="3">
-        <v>1226</v>
+        <v>619</v>
       </c>
       <c r="D72" s="4">
-        <v>0.05091676307493595</v>
+        <v>0.005704229701843141</v>
       </c>
       <c r="E72" s="5">
-        <v>0.3388090349075976</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="F72" s="4">
-        <v>2.445987998634103</v>
+        <v>2.05922051604372</v>
       </c>
       <c r="G72" s="5">
-        <v>0.406570841889117</v>
+        <v>0.271047227926078</v>
       </c>
       <c r="H72" s="4">
-        <v>17.3</v>
+        <v>11.86</v>
       </c>
       <c r="I72" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.2217659137577002</v>
       </c>
       <c r="J72" s="4">
-        <v>1.59</v>
+        <v>2.45</v>
       </c>
       <c r="K72" s="5">
-        <v>0.2063655030800821</v>
+        <v>0.3655030800821356</v>
       </c>
       <c r="L72" s="4">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
       <c r="M72" s="5">
-        <v>0.1704312114989733</v>
+        <v>0.2926078028747433</v>
       </c>
       <c r="N72" s="4">
-        <v>8.695563233936493</v>
+        <v>8.06333558713702</v>
       </c>
       <c r="O72" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="P72" s="4">
-        <v>4.294476176950022</v>
+        <v>5.894744730430738</v>
       </c>
       <c r="Q72" s="5">
-        <v>0.2689938398357289</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="R72" s="5">
-        <v>0.2835142270460546</v>
+        <v>0.2841009093575829</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4800,55 +4800,55 @@
         <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>69.06</v>
+        <v>156.32</v>
       </c>
       <c r="C73" s="3">
-        <v>1448</v>
+        <v>639</v>
       </c>
       <c r="D73" s="4">
-        <v>0.4227420110041823</v>
+        <v>0.04980677842563986</v>
       </c>
       <c r="E73" s="5">
-        <v>0.6139630390143737</v>
+        <v>0.3347022587268993</v>
       </c>
       <c r="F73" s="4">
-        <v>4.416500823916826</v>
+        <v>1.673685343965514</v>
       </c>
       <c r="G73" s="5">
-        <v>0.7412731006160165</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="H73" s="4">
-        <v>11.8</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I73" s="5">
-        <v>0.2207392197125257</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="J73" s="4">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="K73" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.3572895277207392</v>
       </c>
       <c r="L73" s="4">
-        <v>1.07</v>
+        <v>2.51</v>
       </c>
       <c r="M73" s="5">
-        <v>0.1427104722792608</v>
+        <v>0.417864476386037</v>
       </c>
       <c r="N73" s="4">
-        <v>5.307440931826679</v>
+        <v>8.464279240792115</v>
       </c>
       <c r="O73" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.2299794661190965</v>
       </c>
       <c r="P73" s="4">
-        <v>1.044361480856024</v>
+        <v>5.490539570331892</v>
       </c>
       <c r="Q73" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.37782340862423</v>
       </c>
       <c r="R73" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.2846875916691112</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4856,55 +4856,55 @@
         <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>399.58</v>
+        <v>81.42</v>
       </c>
       <c r="C74" s="3">
-        <v>250</v>
+        <v>1228</v>
       </c>
       <c r="D74" s="4">
-        <v>0.02502891739359761</v>
+        <v>0.04993400437388096</v>
       </c>
       <c r="E74" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.3367556468172485</v>
       </c>
       <c r="F74" s="4">
-        <v>14.07998840325839</v>
+        <v>2.44250891724707</v>
       </c>
       <c r="G74" s="5">
-        <v>0.9548254620123202</v>
+        <v>0.4024640657084189</v>
       </c>
       <c r="H74" s="4">
-        <v>6.55</v>
+        <v>17.9</v>
       </c>
       <c r="I74" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="J74" s="4">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="K74" s="5">
-        <v>0.1694045174537988</v>
+        <v>0.2207392197125257</v>
       </c>
       <c r="L74" s="4">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="M74" s="5">
-        <v>0.3388090349075976</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="N74" s="4">
-        <v>4.286066937328665</v>
+        <v>8.502414242638606</v>
       </c>
       <c r="O74" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="P74" s="4">
-        <v>2.012172490901151</v>
+        <v>4.173527436316715</v>
       </c>
       <c r="Q74" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="R74" s="5">
-        <v>0.2867409797594602</v>
+        <v>0.2852742739806395</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4912,55 +4912,55 @@
         <v>91</v>
       </c>
       <c r="B75" s="2">
-        <v>228.93</v>
+        <v>233.23</v>
       </c>
       <c r="C75" s="3">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D75" s="4">
-        <v>0.1298523107948519</v>
+        <v>0.1298698497493478</v>
       </c>
       <c r="E75" s="5">
-        <v>0.4455852156057494</v>
+        <v>0.4496919917864476</v>
       </c>
       <c r="F75" s="4">
-        <v>3.301596719606541</v>
+        <v>3.339221332747929</v>
       </c>
       <c r="G75" s="5">
-        <v>0.5893223819301848</v>
+        <v>0.5852156057494866</v>
       </c>
       <c r="H75" s="4">
-        <v>9.49</v>
+        <v>9.44</v>
       </c>
       <c r="I75" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="J75" s="4">
         <v>1.64</v>
       </c>
       <c r="K75" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.2207392197125257</v>
       </c>
       <c r="L75" s="4">
-        <v>0.4601</v>
+        <v>0.4412</v>
       </c>
       <c r="M75" s="5">
-        <v>0.04209445585215606</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="N75" s="4">
-        <v>11.26485189122539</v>
+        <v>10.96751195416906</v>
       </c>
       <c r="O75" s="5">
-        <v>0.3634496919917864</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="P75" s="4">
-        <v>3.316972542971052</v>
+        <v>3.282597929127153</v>
       </c>
       <c r="Q75" s="5">
         <v>0.1971252566735113</v>
       </c>
       <c r="R75" s="5">
-        <v>0.2879143443825168</v>
+        <v>0.2858609562921678</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4968,55 +4968,55 @@
         <v>92</v>
       </c>
       <c r="B76" s="2">
-        <v>57.26</v>
+        <v>403.32</v>
       </c>
       <c r="C76" s="3">
-        <v>1746</v>
+        <v>247</v>
       </c>
       <c r="D76" s="4">
-        <v>0.02069477877690183</v>
+        <v>0.02398137381651383</v>
       </c>
       <c r="E76" s="5">
-        <v>0.2669404517453799</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="F76" s="4">
-        <v>3.94377837055938</v>
+        <v>14.02105976006815</v>
       </c>
       <c r="G76" s="5">
-        <v>0.6940451745379878</v>
+        <v>0.9548254620123202</v>
       </c>
       <c r="H76" s="4">
-        <v>7.32</v>
+        <v>6.67</v>
       </c>
       <c r="I76" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="J76" s="4">
-        <v>2.6</v>
+        <v>1.39</v>
       </c>
       <c r="K76" s="5">
-        <v>0.3860369609856263</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="L76" s="4">
-        <v>0.8101</v>
+        <v>2</v>
       </c>
       <c r="M76" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="N76" s="4">
-        <v>6.364491816572261</v>
+        <v>4.314733557556113</v>
       </c>
       <c r="O76" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.0595482546201232</v>
       </c>
       <c r="P76" s="4">
-        <v>5.262055537524063</v>
+        <v>1.947810650568989</v>
       </c>
       <c r="Q76" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="R76" s="5">
-        <v>0.2909944265180405</v>
+        <v>0.286300968025814</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5024,55 +5024,55 @@
         <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>308.53</v>
+        <v>71.13</v>
       </c>
       <c r="C77" s="3">
-        <v>324</v>
+        <v>1405</v>
       </c>
       <c r="D77" s="4">
-        <v>0.04702723769617245</v>
+        <v>0.4310500549652754</v>
       </c>
       <c r="E77" s="5">
-        <v>0.3285420944558521</v>
+        <v>0.6160164271047228</v>
       </c>
       <c r="F77" s="4">
-        <v>2.078066445314323</v>
+        <v>4.353606879810933</v>
       </c>
       <c r="G77" s="5">
-        <v>0.2772073921971253</v>
+        <v>0.7433264887063654</v>
       </c>
       <c r="H77" s="4">
-        <v>10.83</v>
+        <v>11.6</v>
       </c>
       <c r="I77" s="5">
-        <v>0.1940451745379877</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="J77" s="4">
-        <v>2.81</v>
+        <v>1.38</v>
       </c>
       <c r="K77" s="5">
-        <v>0.4168377823408624</v>
+        <v>0.1570841889117043</v>
       </c>
       <c r="L77" s="4">
-        <v>1.76</v>
+        <v>1.07</v>
       </c>
       <c r="M77" s="5">
-        <v>0.2936344969199178</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="N77" s="4">
-        <v>7.419749135547034</v>
+        <v>5.406269004191951</v>
       </c>
       <c r="O77" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="P77" s="4">
-        <v>5.270384096523262</v>
+        <v>1.094834732000873</v>
       </c>
       <c r="Q77" s="5">
-        <v>0.3613963039014373</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="R77" s="5">
-        <v>0.2911410970959226</v>
+        <v>0.2870343209152244</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5080,52 +5080,52 @@
         <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>158.01</v>
+        <v>57.59</v>
       </c>
       <c r="C78" s="3">
-        <v>632</v>
+        <v>1736</v>
       </c>
       <c r="D78" s="4">
-        <v>0.05075389020801917</v>
+        <v>0.02049403905451165</v>
       </c>
       <c r="E78" s="5">
-        <v>0.3367556468172485</v>
+        <v>0.2669404517453799</v>
       </c>
       <c r="F78" s="4">
-        <v>1.688740692755143</v>
+        <v>3.803408854804674</v>
       </c>
       <c r="G78" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.6776180698151951</v>
       </c>
       <c r="H78" s="4">
-        <v>8.76</v>
+        <v>7.12</v>
       </c>
       <c r="I78" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="J78" s="4">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="K78" s="5">
-        <v>0.3726899383983573</v>
+        <v>0.3850102669404517</v>
       </c>
       <c r="L78" s="4">
-        <v>2.53</v>
+        <v>0.8085</v>
       </c>
       <c r="M78" s="5">
-        <v>0.4209445585215606</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="N78" s="4">
-        <v>8.629819442406395</v>
+        <v>6.524969556836194</v>
       </c>
       <c r="O78" s="5">
-        <v>0.242299794661191</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="P78" s="4">
-        <v>5.659165753101639</v>
+        <v>5.340466663461061</v>
       </c>
       <c r="Q78" s="5">
-        <v>0.3819301848049281</v>
+        <v>0.3675564681724846</v>
       </c>
       <c r="R78" s="5">
         <v>0.2911410970959226</v>
@@ -5136,55 +5136,55 @@
         <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>52.53</v>
+        <v>228.42</v>
       </c>
       <c r="C79" s="3">
-        <v>1903</v>
+        <v>437</v>
       </c>
       <c r="D79" s="4">
-        <v>0.03771686216212466</v>
+        <v>0.0569393140258022</v>
       </c>
       <c r="E79" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="F79" s="4">
-        <v>3.553885844155017</v>
+        <v>4.236059823249002</v>
       </c>
       <c r="G79" s="5">
-        <v>0.6365503080082136</v>
+        <v>0.728952772073922</v>
       </c>
       <c r="H79" s="4">
-        <v>17.65</v>
+        <v>7.35</v>
       </c>
       <c r="I79" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="J79" s="4">
-        <v>1.9</v>
+        <v>3.01</v>
       </c>
       <c r="K79" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.457905544147844</v>
       </c>
       <c r="L79" s="4">
-        <v>0.344</v>
+        <v>0.6692</v>
       </c>
       <c r="M79" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="N79" s="4">
-        <v>10.39331231647287</v>
+        <v>6.193986247064255</v>
       </c>
       <c r="O79" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="P79" s="4">
-        <v>1.8009756557973</v>
+        <v>3.444466798667173</v>
       </c>
       <c r="Q79" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="R79" s="5">
-        <v>0.2912877676738047</v>
+        <v>0.2927544734526254</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5192,31 +5192,31 @@
         <v>96</v>
       </c>
       <c r="B80" s="2">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="C80" s="3">
-        <v>2457</v>
+        <v>2427</v>
       </c>
       <c r="D80" s="4">
-        <v>-3.769756451891446</v>
+        <v>-3.752021420117636</v>
       </c>
       <c r="E80" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="F80" s="4">
-        <v>28.97564507183718</v>
+        <v>28.61854871980354</v>
       </c>
       <c r="G80" s="5">
         <v>0.9856262833675565</v>
       </c>
       <c r="H80" s="4">
-        <v>-379.46</v>
+        <v>-375.31</v>
       </c>
       <c r="I80" s="5">
         <v>0.002053388090349076</v>
       </c>
       <c r="J80" s="4">
-        <v>9.84</v>
+        <v>9.65</v>
       </c>
       <c r="K80" s="5">
         <v>0.7946611909650925</v>
@@ -5225,22 +5225,22 @@
         <v>1.04</v>
       </c>
       <c r="M80" s="5">
-        <v>0.135523613963039</v>
+        <v>0.1365503080082136</v>
       </c>
       <c r="N80" s="4">
-        <v>-14.32146397774083</v>
+        <v>-14.65002765338065</v>
       </c>
       <c r="O80" s="5">
         <v>0.01026694045174538</v>
       </c>
       <c r="P80" s="4">
-        <v>1.627412346209203</v>
+        <v>1.638050096907423</v>
       </c>
       <c r="Q80" s="5">
         <v>0.08213552361396304</v>
       </c>
       <c r="R80" s="5">
-        <v>0.2930478146083896</v>
+        <v>0.2929011440305075</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5248,55 +5248,55 @@
         <v>97</v>
       </c>
       <c r="B81" s="2">
-        <v>118.93</v>
+        <v>305.56</v>
       </c>
       <c r="C81" s="3">
-        <v>840</v>
+        <v>327</v>
       </c>
       <c r="D81" s="4">
-        <v>0.1257092457346448</v>
+        <v>0.04693038950049416</v>
       </c>
       <c r="E81" s="5">
-        <v>0.4394250513347023</v>
+        <v>0.3285420944558521</v>
       </c>
       <c r="F81" s="4">
-        <v>1.804945781506127</v>
+        <v>2.023102752866879</v>
       </c>
       <c r="G81" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="H81" s="4">
-        <v>23.1</v>
+        <v>11.06</v>
       </c>
       <c r="I81" s="5">
-        <v>0.4681724845995893</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="J81" s="4">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="K81" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.419917864476386</v>
       </c>
       <c r="L81" s="4">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="M81" s="5">
-        <v>0.2802874743326489</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="N81" s="4">
-        <v>7.816288849159009</v>
+        <v>7.757114014539663</v>
       </c>
       <c r="O81" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="P81" s="4">
-        <v>4.335599009561561</v>
+        <v>5.227996612442122</v>
       </c>
       <c r="Q81" s="5">
-        <v>0.2772073921971253</v>
+        <v>0.3572895277207392</v>
       </c>
       <c r="R81" s="5">
-        <v>0.2940745086535641</v>
+        <v>0.2934878263420358</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5304,55 +5304,55 @@
         <v>98</v>
       </c>
       <c r="B82" s="2">
-        <v>166.1</v>
+        <v>51.82</v>
       </c>
       <c r="C82" s="3">
-        <v>602</v>
+        <v>1929</v>
       </c>
       <c r="D82" s="4">
-        <v>0.00566855486958223</v>
+        <v>0.03842146343051172</v>
       </c>
       <c r="E82" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.3162217659137577</v>
       </c>
       <c r="F82" s="4">
-        <v>2.11128011423001</v>
+        <v>3.541607567901</v>
       </c>
       <c r="G82" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.6406570841889118</v>
       </c>
       <c r="H82" s="4">
-        <v>12.14</v>
+        <v>17.84</v>
       </c>
       <c r="I82" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.3675564681724846</v>
       </c>
       <c r="J82" s="4">
-        <v>2.43</v>
+        <v>1.96</v>
       </c>
       <c r="K82" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.2956878850102669</v>
       </c>
       <c r="L82" s="4">
-        <v>1.81</v>
+        <v>0.3399</v>
       </c>
       <c r="M82" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="N82" s="4">
-        <v>8.336758218749061</v>
+        <v>10.71794508053085</v>
       </c>
       <c r="O82" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="P82" s="4">
-        <v>6.113348692019459</v>
+        <v>1.877793182621413</v>
       </c>
       <c r="Q82" s="5">
-        <v>0.4271047227926077</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="R82" s="5">
-        <v>0.2945145203872103</v>
+        <v>0.297741273100616</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5360,55 +5360,55 @@
         <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>232.34</v>
+        <v>117.8</v>
       </c>
       <c r="C83" s="3">
-        <v>430</v>
+        <v>848</v>
       </c>
       <c r="D83" s="4">
-        <v>0.0584447061120064</v>
+        <v>0.1282786470579151</v>
       </c>
       <c r="E83" s="5">
-        <v>0.353182751540041</v>
+        <v>0.4455852156057494</v>
       </c>
       <c r="F83" s="4">
-        <v>4.297119561276975</v>
+        <v>1.810118895564451</v>
       </c>
       <c r="G83" s="5">
-        <v>0.7310061601642711</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="H83" s="4">
-        <v>7.3</v>
+        <v>23.41</v>
       </c>
       <c r="I83" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.4702258726899384</v>
       </c>
       <c r="J83" s="4">
-        <v>2.96</v>
+        <v>1.73</v>
       </c>
       <c r="K83" s="5">
-        <v>0.4435318275154004</v>
+        <v>0.2464065708418891</v>
       </c>
       <c r="L83" s="4">
-        <v>0.6705</v>
+        <v>1.72</v>
       </c>
       <c r="M83" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.2833675564681725</v>
       </c>
       <c r="N83" s="4">
-        <v>6.427488652820728</v>
+        <v>7.601640621986631</v>
       </c>
       <c r="O83" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="P83" s="4">
-        <v>3.643802848007426</v>
+        <v>4.284902112487058</v>
       </c>
       <c r="Q83" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="R83" s="5">
-        <v>0.2945145203872103</v>
+        <v>0.2980346142563802</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5416,55 +5416,55 @@
         <v>100</v>
       </c>
       <c r="B84" s="2">
-        <v>256.18</v>
+        <v>71</v>
       </c>
       <c r="C84" s="3">
-        <v>390</v>
+        <v>1408</v>
       </c>
       <c r="D84" s="4">
-        <v>0.146177347025583</v>
+        <v>-0.5555029772282151</v>
       </c>
       <c r="E84" s="5">
-        <v>0.459958932238193</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="F84" s="4">
-        <v>3.476179347873753</v>
+        <v>-46.47189775481826</v>
       </c>
       <c r="G84" s="5">
-        <v>0.6160164271047228</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="H84" s="4">
-        <v>14.16</v>
+        <v>37.63</v>
       </c>
       <c r="I84" s="5">
-        <v>0.2731006160164271</v>
+        <v>0.7268993839835729</v>
       </c>
       <c r="J84" s="4">
-        <v>2.8</v>
+        <v>-134.61</v>
       </c>
       <c r="K84" s="5">
-        <v>0.4117043121149897</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="L84" s="4">
-        <v>0.763</v>
+        <v>2.07</v>
       </c>
       <c r="M84" s="5">
-        <v>0.08932238193018481</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="N84" s="4">
-        <v>7.995332358740471</v>
+        <v>11.91994346425478</v>
       </c>
       <c r="O84" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.3921971252566736</v>
       </c>
       <c r="P84" s="4">
-        <v>0.8843483006176457</v>
+        <v>6.29204515650489</v>
       </c>
       <c r="Q84" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="R84" s="5">
-        <v>0.297741273100616</v>
+        <v>0.2986212965679085</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5472,55 +5472,55 @@
         <v>101</v>
       </c>
       <c r="B85" s="2">
-        <v>69</v>
+        <v>35.87</v>
       </c>
       <c r="C85" s="3">
-        <v>1449</v>
+        <v>2787</v>
       </c>
       <c r="D85" s="4">
-        <v>-0.5576084615669943</v>
+        <v>0.0348414865218037</v>
       </c>
       <c r="E85" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="F85" s="4">
-        <v>-44.66384322034951</v>
+        <v>1.973426784803696</v>
       </c>
       <c r="G85" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.2381930184804928</v>
       </c>
       <c r="H85" s="4">
-        <v>38.1</v>
+        <v>19.71</v>
       </c>
       <c r="I85" s="5">
-        <v>0.7371663244353183</v>
+        <v>0.4055441478439425</v>
       </c>
       <c r="J85" s="4">
-        <v>-137.05</v>
+        <v>0.879</v>
       </c>
       <c r="K85" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="L85" s="4">
-        <v>2.03</v>
+        <v>1.69</v>
       </c>
       <c r="M85" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.2782340862422998</v>
       </c>
       <c r="N85" s="4">
-        <v>12.11165193923248</v>
+        <v>10.02052496037323</v>
       </c>
       <c r="O85" s="5">
-        <v>0.3963039014373717</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="P85" s="4">
-        <v>6.260299195736406</v>
+        <v>6.978781716242873</v>
       </c>
       <c r="Q85" s="5">
-        <v>0.433264887063655</v>
+        <v>0.4784394250513347</v>
       </c>
       <c r="R85" s="5">
-        <v>0.3000880023467292</v>
+        <v>0.3003813435024934</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5528,55 +5528,55 @@
         <v>102</v>
       </c>
       <c r="B86" s="2">
-        <v>63.82</v>
+        <v>262.34</v>
       </c>
       <c r="C86" s="3">
-        <v>1566</v>
+        <v>381</v>
       </c>
       <c r="D86" s="4">
-        <v>0.01685598922957155</v>
+        <v>0.1459397714871483</v>
       </c>
       <c r="E86" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.459958932238193</v>
       </c>
       <c r="F86" s="4">
-        <v>11.55098685436616</v>
+        <v>3.462086578629822</v>
       </c>
       <c r="G86" s="5">
-        <v>0.9301848049281314</v>
+        <v>0.6098562628336756</v>
       </c>
       <c r="H86" s="4">
-        <v>6.07</v>
+        <v>14.28</v>
       </c>
       <c r="I86" s="5">
+        <v>0.2751540041067762</v>
+      </c>
+      <c r="J86" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.4127310061601643</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0.785</v>
+      </c>
+      <c r="M86" s="5">
         <v>0.09240246406570841</v>
       </c>
-      <c r="J86" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="K86" s="5">
-        <v>0.1581108829568788</v>
-      </c>
-      <c r="L86" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0.4661190965092403</v>
-      </c>
       <c r="N86" s="4">
-        <v>4.682331442405609</v>
+        <v>8.502904877735977</v>
       </c>
       <c r="O86" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="P86" s="4">
-        <v>2.543037399694749</v>
+        <v>0.9253679791619971</v>
       </c>
       <c r="Q86" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="R86" s="5">
-        <v>0.3003813435024934</v>
+        <v>0.3021413904370783</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5584,55 +5584,55 @@
         <v>103</v>
       </c>
       <c r="B87" s="2">
-        <v>35.57</v>
+        <v>64.38</v>
       </c>
       <c r="C87" s="3">
-        <v>2811</v>
+        <v>1553</v>
       </c>
       <c r="D87" s="4">
-        <v>0.0339599067546572</v>
+        <v>0.01694935288639801</v>
       </c>
       <c r="E87" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="F87" s="4">
-        <v>1.905308465933622</v>
+        <v>11.58302828705969</v>
       </c>
       <c r="G87" s="5">
-        <v>0.215605749486653</v>
+        <v>0.9301848049281314</v>
       </c>
       <c r="H87" s="4">
-        <v>19.71</v>
+        <v>6.11</v>
       </c>
       <c r="I87" s="5">
-        <v>0.404517453798768</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="J87" s="4">
-        <v>0.8951</v>
+        <v>1.4</v>
       </c>
       <c r="K87" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.1652977412731006</v>
       </c>
       <c r="L87" s="4">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="M87" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.471252566735113</v>
       </c>
       <c r="N87" s="4">
-        <v>10.31975769894132</v>
+        <v>4.851771303855321</v>
       </c>
       <c r="O87" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="P87" s="4">
-        <v>7.404721486829623</v>
+        <v>2.636568938708246</v>
       </c>
       <c r="Q87" s="5">
-        <v>0.5051334702258727</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="R87" s="5">
-        <v>0.3012613669697858</v>
+        <v>0.3044881196831916</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5640,55 +5640,55 @@
         <v>104</v>
       </c>
       <c r="B88" s="2">
-        <v>22.61</v>
+        <v>50.12</v>
       </c>
       <c r="C88" s="3">
-        <v>4422</v>
+        <v>1995</v>
       </c>
       <c r="D88" s="4">
-        <v>0.1875177528524953</v>
+        <v>0.01172163831875989</v>
       </c>
       <c r="E88" s="5">
-        <v>0.4887063655030801</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="F88" s="4">
-        <v>2.023762934925622</v>
+        <v>10.82306685904581</v>
       </c>
       <c r="G88" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.9096509240246407</v>
       </c>
       <c r="H88" s="4">
-        <v>28.03</v>
+        <v>11.79</v>
       </c>
       <c r="I88" s="5">
-        <v>0.5893223819301848</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="J88" s="4">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="K88" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.1262833675564682</v>
       </c>
       <c r="L88" s="4">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="M88" s="5">
-        <v>0.204312114989733</v>
+        <v>0.4250513347022587</v>
       </c>
       <c r="N88" s="4">
-        <v>10.06292028162616</v>
+        <v>6.024466010984698</v>
       </c>
       <c r="O88" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="P88" s="4">
-        <v>1.390464819519879</v>
+        <v>2.305427570287126</v>
       </c>
       <c r="Q88" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="R88" s="5">
-        <v>0.3040481079495453</v>
+        <v>0.3061014960398944</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5696,55 +5696,55 @@
         <v>105</v>
       </c>
       <c r="B89" s="2">
-        <v>49.77</v>
+        <v>23.24</v>
       </c>
       <c r="C89" s="3">
-        <v>2009</v>
+        <v>4302</v>
       </c>
       <c r="D89" s="4">
-        <v>0.01154199232801708</v>
+        <v>0.1894892140538796</v>
       </c>
       <c r="E89" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.4928131416837783</v>
       </c>
       <c r="F89" s="4">
-        <v>10.7521975942642</v>
+        <v>2.027873525915828</v>
       </c>
       <c r="G89" s="5">
-        <v>0.9075975359342915</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="H89" s="4">
-        <v>11.57</v>
+        <v>28.13</v>
       </c>
       <c r="I89" s="5">
-        <v>0.215605749486653</v>
+        <v>0.5913757700205339</v>
       </c>
       <c r="J89" s="4">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="K89" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.2299794661190965</v>
       </c>
       <c r="L89" s="4">
-        <v>2.5</v>
+        <v>1.36</v>
       </c>
       <c r="M89" s="5">
-        <v>0.4188911704312115</v>
+        <v>0.2002053388090349</v>
       </c>
       <c r="N89" s="4">
-        <v>5.906411397673235</v>
+        <v>10.30712215799136</v>
       </c>
       <c r="O89" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="P89" s="4">
-        <v>2.314107403985124</v>
+        <v>1.378281578556388</v>
       </c>
       <c r="Q89" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.0595482546201232</v>
       </c>
       <c r="R89" s="5">
-        <v>0.3047814608389557</v>
+        <v>0.3066881783514227</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5752,55 +5752,55 @@
         <v>106</v>
       </c>
       <c r="B90" s="2">
-        <v>113.52</v>
+        <v>82.42</v>
       </c>
       <c r="C90" s="3">
-        <v>880</v>
+        <v>1213</v>
       </c>
       <c r="D90" s="4">
-        <v>0.0353329500387058</v>
+        <v>0.01637034050912627</v>
       </c>
       <c r="E90" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="F90" s="4">
-        <v>2.856522169267574</v>
+        <v>1.735531687174417</v>
       </c>
       <c r="G90" s="5">
-        <v>0.4887063655030801</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="H90" s="4">
-        <v>20.82</v>
+        <v>7.5</v>
       </c>
       <c r="I90" s="5">
-        <v>0.4229979466119096</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="J90" s="4">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="K90" s="5">
-        <v>0.4517453798767967</v>
+        <v>0.2084188911704312</v>
       </c>
       <c r="L90" s="4">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="M90" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.3983572895277207</v>
       </c>
       <c r="N90" s="4">
-        <v>7.268038074295181</v>
+        <v>13.88092880556364</v>
       </c>
       <c r="O90" s="5">
-        <v>0.162217659137577</v>
+        <v>0.4784394250513347</v>
       </c>
       <c r="P90" s="4">
-        <v>1.860573879832465</v>
+        <v>8.062533828196758</v>
       </c>
       <c r="Q90" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.5564681724845996</v>
       </c>
       <c r="R90" s="5">
-        <v>0.3097682604869463</v>
+        <v>0.3105016133763567</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5808,55 +5808,55 @@
         <v>107</v>
       </c>
       <c r="B91" s="2">
-        <v>81.72</v>
+        <v>115.57</v>
       </c>
       <c r="C91" s="3">
-        <v>1223</v>
+        <v>865</v>
       </c>
       <c r="D91" s="4">
-        <v>0.01671901579993589</v>
+        <v>0.0342686861605064</v>
       </c>
       <c r="E91" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="F91" s="4">
-        <v>1.771294440383332</v>
+        <v>2.974317630780591</v>
       </c>
       <c r="G91" s="5">
-        <v>0.162217659137577</v>
+        <v>0.5195071868583162</v>
       </c>
       <c r="H91" s="4">
-        <v>7.5</v>
+        <v>21.42</v>
       </c>
       <c r="I91" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="J91" s="4">
-        <v>1.58</v>
+        <v>2.89</v>
       </c>
       <c r="K91" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.4322381930184804</v>
       </c>
       <c r="L91" s="4">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="M91" s="5">
-        <v>0.3983572895277207</v>
+        <v>0.2381930184804928</v>
       </c>
       <c r="N91" s="4">
-        <v>13.70566154035078</v>
+        <v>7.4181071954441</v>
       </c>
       <c r="O91" s="5">
-        <v>0.4681724845995893</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="P91" s="4">
-        <v>8.188739844180146</v>
+        <v>1.940615689823618</v>
       </c>
       <c r="Q91" s="5">
-        <v>0.568788501026694</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="R91" s="5">
-        <v>0.3103549427984746</v>
+        <v>0.3143150484012907</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5864,55 +5864,55 @@
         <v>108</v>
       </c>
       <c r="B92" s="2">
-        <v>138.05</v>
+        <v>22.53</v>
       </c>
       <c r="C92" s="3">
-        <v>724</v>
+        <v>4438</v>
       </c>
       <c r="D92" s="4">
-        <v>-2.044356077341543</v>
+        <v>0.03423452304299105</v>
       </c>
       <c r="E92" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="F92" s="4">
-        <v>1.966390463731451</v>
+        <v>8.417100401694373</v>
       </c>
       <c r="G92" s="5">
-        <v>0.242299794661191</v>
+        <v>0.8809034907597535</v>
       </c>
       <c r="H92" s="4">
-        <v>19.87</v>
+        <v>8.09</v>
       </c>
       <c r="I92" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="J92" s="4">
-        <v>1.74</v>
+        <v>1.24</v>
       </c>
       <c r="K92" s="5">
-        <v>0.2494866529774127</v>
+        <v>0.1344969199178645</v>
       </c>
       <c r="L92" s="4">
-        <v>1.89</v>
+        <v>3.22</v>
       </c>
       <c r="M92" s="5">
-        <v>0.3121149897330595</v>
+        <v>0.5082135523613963</v>
       </c>
       <c r="N92" s="4">
-        <v>12.67538924806489</v>
+        <v>5.566861586718622</v>
       </c>
       <c r="O92" s="5">
-        <v>0.431211498973306</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="P92" s="4">
-        <v>6.569506511851636</v>
+        <v>2.877366559161463</v>
       </c>
       <c r="Q92" s="5">
-        <v>0.4537987679671457</v>
+        <v>0.1581108829568788</v>
       </c>
       <c r="R92" s="5">
-        <v>0.3113816368436492</v>
+        <v>0.3156350836022294</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5920,55 +5920,55 @@
         <v>109</v>
       </c>
       <c r="B93" s="2">
-        <v>349.5</v>
+        <v>74.31</v>
       </c>
       <c r="C93" s="3">
-        <v>286</v>
+        <v>1345</v>
       </c>
       <c r="D93" s="4">
-        <v>0.03826454544202879</v>
+        <v>0.04793312454340579</v>
       </c>
       <c r="E93" s="5">
-        <v>0.3162217659137577</v>
+        <v>0.3326488706365503</v>
       </c>
       <c r="F93" s="4">
-        <v>4.599306151861308</v>
+        <v>1.983806741215352</v>
       </c>
       <c r="G93" s="5">
-        <v>0.7556468172484599</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="H93" s="4">
-        <v>9.44</v>
+        <v>19.71</v>
       </c>
       <c r="I93" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.4055441478439425</v>
       </c>
       <c r="J93" s="4">
-        <v>2.92</v>
+        <v>2.19</v>
       </c>
       <c r="K93" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="L93" s="4">
-        <v>1.25</v>
+        <v>2.71</v>
       </c>
       <c r="M93" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.4394250513347023</v>
       </c>
       <c r="N93" s="4">
-        <v>6.401493435170507</v>
+        <v>7.392717763869758</v>
       </c>
       <c r="O93" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.1642710472279261</v>
       </c>
       <c r="P93" s="4">
-        <v>3.895542075197101</v>
+        <v>4.598643878631327</v>
       </c>
       <c r="Q93" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="R93" s="5">
-        <v>0.3150484012907011</v>
+        <v>0.3157817541801115</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5976,55 +5976,55 @@
         <v>110</v>
       </c>
       <c r="B94" s="2">
-        <v>22.4</v>
+        <v>360.01</v>
       </c>
       <c r="C94" s="3">
-        <v>4464</v>
+        <v>277</v>
       </c>
       <c r="D94" s="4">
-        <v>0.03561162936742621</v>
+        <v>0.0385570759950359</v>
       </c>
       <c r="E94" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="F94" s="4">
-        <v>8.791268380167852</v>
+        <v>4.654500486257829</v>
       </c>
       <c r="G94" s="5">
-        <v>0.8870636550308008</v>
+        <v>0.7659137577002053</v>
       </c>
       <c r="H94" s="4">
-        <v>8.1</v>
+        <v>9.43</v>
       </c>
       <c r="I94" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="J94" s="4">
-        <v>1.22</v>
+        <v>2.99</v>
       </c>
       <c r="K94" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.4507186858316222</v>
       </c>
       <c r="L94" s="4">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="M94" s="5">
-        <v>0.5061601642710473</v>
+        <v>0.1776180698151951</v>
       </c>
       <c r="N94" s="4">
-        <v>5.305544292600834</v>
+        <v>6.480923950099568</v>
       </c>
       <c r="O94" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="P94" s="4">
-        <v>2.779133493646346</v>
+        <v>3.717436102022454</v>
       </c>
       <c r="Q94" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.2299794661190965</v>
       </c>
       <c r="R94" s="5">
-        <v>0.3154884130243473</v>
+        <v>0.3171017893810502</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6032,55 +6032,55 @@
         <v>111</v>
       </c>
       <c r="B95" s="2">
-        <v>104.41</v>
+        <v>134.07</v>
       </c>
       <c r="C95" s="3">
-        <v>957</v>
+        <v>745</v>
       </c>
       <c r="D95" s="4">
-        <v>-0.7409182034094239</v>
+        <v>-2.103269769724519</v>
       </c>
       <c r="E95" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="F95" s="4">
-        <v>4.044646244964145</v>
+        <v>2.036145226463028</v>
       </c>
       <c r="G95" s="5">
-        <v>0.7125256673511293</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="H95" s="4">
-        <v>14.76</v>
+        <v>19.76</v>
       </c>
       <c r="I95" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="J95" s="4">
-        <v>3.33</v>
+        <v>1.74</v>
       </c>
       <c r="K95" s="5">
-        <v>0.4897330595482546</v>
+        <v>0.2505133470225873</v>
       </c>
       <c r="L95" s="4">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="M95" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.3090349075975359</v>
       </c>
       <c r="N95" s="4">
-        <v>10.68179588000902</v>
+        <v>13.06569624111522</v>
       </c>
       <c r="O95" s="5">
-        <v>0.3408624229979466</v>
+        <v>0.4496919917864476</v>
       </c>
       <c r="P95" s="4">
-        <v>1.269997012819554</v>
+        <v>6.689088900998698</v>
       </c>
       <c r="Q95" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.457905544147844</v>
       </c>
       <c r="R95" s="5">
-        <v>0.3175418011146964</v>
+        <v>0.3172484599589322</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6088,55 +6088,55 @@
         <v>112</v>
       </c>
       <c r="B96" s="2">
-        <v>47.03</v>
+        <v>104.85</v>
       </c>
       <c r="C96" s="3">
-        <v>2126</v>
+        <v>953</v>
       </c>
       <c r="D96" s="4">
-        <v>0.07499746000432185</v>
+        <v>-0.7411955839143264</v>
       </c>
       <c r="E96" s="5">
-        <v>0.3737166324435318</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="F96" s="4">
-        <v>8.249769276340221</v>
+        <v>4.033310467659462</v>
       </c>
       <c r="G96" s="5">
-        <v>0.8747433264887065</v>
+        <v>0.7063655030800821</v>
       </c>
       <c r="H96" s="4">
-        <v>9.5</v>
+        <v>14.68</v>
       </c>
       <c r="I96" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.2833675564681725</v>
       </c>
       <c r="J96" s="4">
-        <v>0.9405</v>
+        <v>3.31</v>
       </c>
       <c r="K96" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.4907597535934291</v>
       </c>
       <c r="L96" s="4">
-        <v>2.92</v>
+        <v>1.33</v>
       </c>
       <c r="M96" s="5">
-        <v>0.4681724845995893</v>
+        <v>0.188911704312115</v>
       </c>
       <c r="N96" s="4">
-        <v>5.700112898239052</v>
+        <v>10.71408692669334</v>
       </c>
       <c r="O96" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="P96" s="4">
-        <v>2.772196391006474</v>
+        <v>1.272164313877107</v>
       </c>
       <c r="Q96" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="R96" s="5">
-        <v>0.3176884716925785</v>
+        <v>0.3173951305368143</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6144,55 +6144,55 @@
         <v>113</v>
       </c>
       <c r="B97" s="2">
-        <v>418.69</v>
+        <v>47.51</v>
       </c>
       <c r="C97" s="3">
-        <v>238</v>
+        <v>2104</v>
       </c>
       <c r="D97" s="4">
-        <v>0.001685372293283045</v>
+        <v>0.07777035081020393</v>
       </c>
       <c r="E97" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.37782340862423</v>
       </c>
       <c r="F97" s="4">
-        <v>1.389295132004689</v>
+        <v>8.013639306979035</v>
       </c>
       <c r="G97" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.8706365503080081</v>
       </c>
       <c r="H97" s="4">
-        <v>3.62</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I97" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="J97" s="4">
-        <v>1.65</v>
+        <v>0.9506</v>
       </c>
       <c r="K97" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="L97" s="4">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="M97" s="5">
-        <v>0.5831622176591376</v>
+        <v>0.4784394250513347</v>
       </c>
       <c r="N97" s="4">
-        <v>18.2167748684234</v>
+        <v>5.805352489640859</v>
       </c>
       <c r="O97" s="5">
-        <v>0.6303901437371663</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="P97" s="4">
-        <v>6.085956772852685</v>
+        <v>2.726044923285928</v>
       </c>
       <c r="Q97" s="5">
-        <v>0.4229979466119096</v>
+        <v>0.1437371663244353</v>
       </c>
       <c r="R97" s="5">
-        <v>0.3176884716925785</v>
+        <v>0.3182751540041068</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6200,55 +6200,55 @@
         <v>114</v>
       </c>
       <c r="B98" s="2">
-        <v>71.73999999999999</v>
+        <v>413.43</v>
       </c>
       <c r="C98" s="3">
-        <v>1393</v>
+        <v>241</v>
       </c>
       <c r="D98" s="4">
-        <v>0.04766960819118113</v>
+        <v>0.001684187803935791</v>
       </c>
       <c r="E98" s="5">
-        <v>0.3326488706365503</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="F98" s="4">
-        <v>1.99892921384927</v>
+        <v>1.429528966188033</v>
       </c>
       <c r="G98" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="H98" s="4">
-        <v>19.32</v>
+        <v>3.49</v>
       </c>
       <c r="I98" s="5">
-        <v>0.3983572895277207</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="J98" s="4">
-        <v>2.21</v>
+        <v>1.6</v>
       </c>
       <c r="K98" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.2084188911704312</v>
       </c>
       <c r="L98" s="4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.5698151950718686</v>
       </c>
       <c r="N98" s="4">
-        <v>7.573792215870675</v>
+        <v>18.84929336292458</v>
       </c>
       <c r="O98" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.648870636550308</v>
       </c>
       <c r="P98" s="4">
-        <v>4.649284427126187</v>
+        <v>6.410711767407661</v>
       </c>
       <c r="Q98" s="5">
-        <v>0.3162217659137577</v>
+        <v>0.4394250513347023</v>
       </c>
       <c r="R98" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.3194485186271634</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6256,55 +6256,55 @@
         <v>115</v>
       </c>
       <c r="B99" s="2">
-        <v>72.26000000000001</v>
+        <v>252.41</v>
       </c>
       <c r="C99" s="3">
-        <v>1383</v>
+        <v>396</v>
       </c>
       <c r="D99" s="4">
-        <v>-1.395828631922082</v>
+        <v>0.06117456098495229</v>
       </c>
       <c r="E99" s="5">
-        <v>0.108829568788501</v>
+        <v>0.3572895277207392</v>
       </c>
       <c r="F99" s="4">
-        <v>3.712758215003577</v>
+        <v>2.296411350404695</v>
       </c>
       <c r="G99" s="5">
-        <v>0.6611909650924025</v>
+        <v>0.3634496919917864</v>
       </c>
       <c r="H99" s="4">
-        <v>13.98</v>
+        <v>18.96</v>
       </c>
       <c r="I99" s="5">
-        <v>0.2648870636550308</v>
+        <v>0.3921971252566736</v>
       </c>
       <c r="J99" s="4">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="K99" s="5">
-        <v>0.1447638603696099</v>
+        <v>0.1837782340862423</v>
       </c>
       <c r="L99" s="4">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="M99" s="5">
-        <v>0.3655030800821356</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="N99" s="4">
-        <v>10.21046743387251</v>
+        <v>9.697105435990398</v>
       </c>
       <c r="O99" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="P99" s="4">
-        <v>5.587895105433476</v>
+        <v>5.404945211716093</v>
       </c>
       <c r="Q99" s="5">
-        <v>0.37782340862423</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="R99" s="5">
-        <v>0.318715165737753</v>
+        <v>0.3207685538281021</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6312,55 +6312,55 @@
         <v>116</v>
       </c>
       <c r="B100" s="2">
-        <v>33.26</v>
+        <v>22.42</v>
       </c>
       <c r="C100" s="3">
-        <v>3006</v>
+        <v>4460</v>
       </c>
       <c r="D100" s="4">
-        <v>0.1967419943287822</v>
+        <v>0.02272225818885599</v>
       </c>
       <c r="E100" s="5">
-        <v>0.4969199178644764</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="F100" s="4">
-        <v>4.363170619550298</v>
+        <v>3.688071688648573</v>
       </c>
       <c r="G100" s="5">
-        <v>0.7392197125256673</v>
+        <v>0.6632443531827515</v>
       </c>
       <c r="H100" s="4">
-        <v>21.63</v>
+        <v>15.67</v>
       </c>
       <c r="I100" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="J100" s="4">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="K100" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.3347022587268993</v>
       </c>
       <c r="L100" s="4">
-        <v>0.4995</v>
+        <v>0.8799</v>
       </c>
       <c r="M100" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="N100" s="4">
-        <v>5.582625139398533</v>
+        <v>10.05269616414555</v>
       </c>
       <c r="O100" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="P100" s="4">
-        <v>2.94006482632314</v>
+        <v>4.054799744925088</v>
       </c>
       <c r="Q100" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="R100" s="5">
-        <v>0.3212085655617483</v>
+        <v>0.3209152244059841</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6368,55 +6368,55 @@
         <v>117</v>
       </c>
       <c r="B101" s="2">
-        <v>184.57</v>
+        <v>26.11</v>
       </c>
       <c r="C101" s="3">
-        <v>541</v>
+        <v>3829</v>
       </c>
       <c r="D101" s="4">
-        <v>0.0725612058551553</v>
+        <v>-2.161812905767581</v>
       </c>
       <c r="E101" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="F101" s="4">
-        <v>1.635226911578303</v>
+        <v>3.34634120547567</v>
       </c>
       <c r="G101" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.5893223819301848</v>
       </c>
       <c r="H101" s="4">
-        <v>30.04</v>
+        <v>194.95</v>
       </c>
       <c r="I101" s="5">
-        <v>0.6180698151950719</v>
+        <v>0.9835728952772074</v>
       </c>
       <c r="J101" s="4">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="K101" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="L101" s="4">
-        <v>3.13</v>
+        <v>1.04</v>
       </c>
       <c r="M101" s="5">
-        <v>0.4948665297741273</v>
+        <v>0.1365503080082136</v>
       </c>
       <c r="N101" s="4">
-        <v>7.75289159039143</v>
+        <v>6.299103114941387</v>
       </c>
       <c r="O101" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="P101" s="4">
-        <v>3.050422940962412</v>
+        <v>3.67537847804907</v>
       </c>
       <c r="Q101" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="R101" s="5">
-        <v>0.3220885890290408</v>
+        <v>0.3210618949838662</v>
       </c>
     </row>
   </sheetData>

--- a/code/100_value_stock_strategy.xlsx
+++ b/code/100_value_stock_strategy.xlsx
@@ -82,222 +82,225 @@
     <t>DHI</t>
   </si>
   <si>
+    <t>BEN</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
-    <t>BEN</t>
+    <t>TSN</t>
   </si>
   <si>
     <t>MRO</t>
   </si>
   <si>
-    <t>TSN</t>
-  </si>
-  <si>
     <t>HPE</t>
   </si>
   <si>
     <t>WRK</t>
   </si>
   <si>
+    <t>KSS</t>
+  </si>
+  <si>
     <t>UNM</t>
   </si>
   <si>
     <t>HFC</t>
   </si>
   <si>
-    <t>KSS</t>
-  </si>
-  <si>
     <t>HCA</t>
   </si>
   <si>
+    <t>APA</t>
+  </si>
+  <si>
     <t>PRGO</t>
   </si>
   <si>
-    <t>APA</t>
+    <t>TAP</t>
   </si>
   <si>
     <t>AZO</t>
   </si>
   <si>
-    <t>TAP</t>
-  </si>
-  <si>
     <t>VIAC</t>
   </si>
   <si>
     <t>MET</t>
   </si>
   <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>MHK</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
-    <t>MHK</t>
-  </si>
-  <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
     <t>PRU</t>
   </si>
   <si>
-    <t>LB</t>
+    <t>CXO</t>
   </si>
   <si>
     <t>HOLX</t>
   </si>
   <si>
-    <t>CXO</t>
-  </si>
-  <si>
     <t>SBUX</t>
   </si>
   <si>
     <t>AIZ</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>IVZ</t>
   </si>
   <si>
-    <t>L</t>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>DISCA</t>
   </si>
   <si>
     <t>CINF</t>
   </si>
   <si>
+    <t>XRX</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
     <t>AFL</t>
   </si>
   <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>AIG</t>
-  </si>
-  <si>
-    <t>XRX</t>
+    <t>J</t>
   </si>
   <si>
     <t>PVH</t>
   </si>
   <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>LYV</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>DISH</t>
+  </si>
+  <si>
+    <t>RJF</t>
+  </si>
+  <si>
     <t>PHM</t>
   </si>
   <si>
-    <t>DISCA</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>LYV</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>RJF</t>
-  </si>
-  <si>
-    <t>MOS</t>
+    <t>COF</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>NRG</t>
   </si>
   <si>
     <t>WDC</t>
   </si>
   <si>
-    <t>COF</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>NRG</t>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>LEN</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>OXY</t>
+    <t>LYB</t>
   </si>
   <si>
     <t>FTI</t>
   </si>
   <si>
-    <t>LYB</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
     <t>HRL</t>
   </si>
   <si>
     <t>GPS</t>
   </si>
   <si>
+    <t>LNC</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>SYF</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
     <t>PSX</t>
   </si>
   <si>
-    <t>LNC</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>SYF</t>
-  </si>
-  <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>TRV</t>
-  </si>
-  <si>
-    <t>MPC</t>
-  </si>
-  <si>
     <t>VLO</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+  <si>
     <t>TEL</t>
   </si>
   <si>
-    <t>SWKS</t>
-  </si>
-  <si>
-    <t>JCI</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
     <t>HIG</t>
   </si>
   <si>
+    <t>LH</t>
+  </si>
+  <si>
     <t>DOW</t>
   </si>
   <si>
@@ -307,24 +310,21 @@
     <t>DAL</t>
   </si>
   <si>
-    <t>LH</t>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>FDX</t>
   </si>
   <si>
     <t>WBA</t>
   </si>
   <si>
-    <t>CVX</t>
-  </si>
-  <si>
     <t>MAS</t>
   </si>
   <si>
     <t>KHC</t>
   </si>
   <si>
-    <t>FDX</t>
-  </si>
-  <si>
     <t>ZION</t>
   </si>
   <si>
@@ -334,40 +334,40 @@
     <t>NWSA</t>
   </si>
   <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
     <t>DD</t>
   </si>
   <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>SJM</t>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>PNW</t>
   </si>
   <si>
     <t>PGR</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>COO</t>
   </si>
   <si>
-    <t>BDX</t>
+    <t>LOW</t>
   </si>
   <si>
     <t>NWL</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
@@ -824,28 +824,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <v>18.35</v>
+        <v>18.45</v>
       </c>
       <c r="C2" s="3">
-        <v>5449</v>
+        <v>5420</v>
       </c>
       <c r="D2" s="4">
-        <v>-0.05926829294287248</v>
+        <v>-0.05759272658251256</v>
       </c>
       <c r="E2" s="5">
         <v>0.2053388090349076</v>
       </c>
       <c r="F2" s="4">
-        <v>-9.234975444667503</v>
+        <v>-9.516004185161625</v>
       </c>
       <c r="G2" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="H2" s="4">
-        <v>-3.66</v>
+        <v>-3.75</v>
       </c>
       <c r="I2" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="J2" s="4">
         <v>-1.67</v>
@@ -854,22 +854,22 @@
         <v>0.05544147843942505</v>
       </c>
       <c r="L2" s="4">
-        <v>0.484</v>
+        <v>0.497</v>
       </c>
       <c r="M2" s="5">
         <v>0.0513347022587269</v>
       </c>
       <c r="N2" s="4">
-        <v>-7.37422876036582</v>
+        <v>-7.421145210701617</v>
       </c>
       <c r="O2" s="5">
         <v>0.02464065708418891</v>
       </c>
       <c r="P2" s="4">
-        <v>1.449033306493644</v>
+        <v>1.490412200959108</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="R2" s="5">
         <v>0.07098855969492519</v>
@@ -886,49 +886,49 @@
         <v>2586</v>
       </c>
       <c r="D3" s="4">
-        <v>0.009523869355529461</v>
+        <v>0.009866795700733991</v>
       </c>
       <c r="E3" s="5">
         <v>0.2320328542094456</v>
       </c>
       <c r="F3" s="4">
-        <v>-23.5</v>
+        <v>-23.7</v>
       </c>
       <c r="G3" s="5">
         <v>0.02258726899383983</v>
       </c>
       <c r="H3" s="4">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="I3" s="5">
         <v>0.06981519507186858</v>
       </c>
       <c r="J3" s="4">
-        <v>-12.9</v>
+        <v>-12.87</v>
       </c>
       <c r="K3" s="5">
         <v>0.03696098562628337</v>
       </c>
       <c r="L3" s="4">
-        <v>0.321</v>
+        <v>0.33</v>
       </c>
       <c r="M3" s="5">
         <v>0.01642710472279261</v>
       </c>
       <c r="N3" s="4">
-        <v>4.134192881039335</v>
+        <v>3.951240386994526</v>
       </c>
       <c r="O3" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="P3" s="4">
-        <v>1.790204798379462</v>
+        <v>1.700988113156028</v>
       </c>
       <c r="Q3" s="5">
         <v>0.08829568788501026</v>
       </c>
       <c r="R3" s="5">
-        <v>0.07450865356409504</v>
+        <v>0.07392197125256673</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -936,55 +936,55 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>252.58</v>
+        <v>247.07</v>
       </c>
       <c r="C4" s="3">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D4" s="4">
-        <v>0.02385506769209406</v>
+        <v>0.02322491798835932</v>
       </c>
       <c r="E4" s="5">
         <v>0.2772073921971253</v>
       </c>
       <c r="F4" s="4">
-        <v>-113.3110959196654</v>
+        <v>-111.659126867468</v>
       </c>
       <c r="G4" s="5">
         <v>0.004106776180698152</v>
       </c>
       <c r="H4" s="4">
-        <v>-7.95</v>
+        <v>-8.09</v>
       </c>
       <c r="I4" s="5">
         <v>0.04928131416837783</v>
       </c>
       <c r="J4" s="4">
-        <v>-66.93000000000001</v>
+        <v>-64.95</v>
       </c>
       <c r="K4" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="L4" s="4">
-        <v>0.1486</v>
+        <v>0.1488</v>
       </c>
       <c r="M4" s="5">
         <v>0.008213552361396304</v>
       </c>
       <c r="N4" s="4">
-        <v>9.6986789803361</v>
+        <v>9.023808960926642</v>
       </c>
       <c r="O4" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="P4" s="4">
-        <v>3.14940784113973</v>
+        <v>3.143164103116285</v>
       </c>
       <c r="Q4" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="R4" s="5">
-        <v>0.1185098269287181</v>
+        <v>0.1149897330595483</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -992,55 +992,55 @@
         <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>107.2</v>
+        <v>105.72</v>
       </c>
       <c r="C5" s="3">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="D5" s="4">
-        <v>0.02914821997431812</v>
+        <v>0.0299595786684906</v>
       </c>
       <c r="E5" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="F5" s="4">
-        <v>1.687878924449505</v>
+        <v>1.666324356899616</v>
       </c>
       <c r="G5" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="H5" s="4">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I5" s="5">
         <v>0.07802874743326488</v>
       </c>
       <c r="J5" s="4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="5">
         <v>0.1406570841889117</v>
       </c>
       <c r="L5" s="4">
-        <v>0.702</v>
+        <v>0.6913</v>
       </c>
       <c r="M5" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="N5" s="4">
-        <v>3.726465677499887</v>
+        <v>3.60919413855934</v>
       </c>
       <c r="O5" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="P5" s="4">
-        <v>2.533648128894654</v>
+        <v>2.419649572506837</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="R5" s="5">
-        <v>0.1274567321795248</v>
+        <v>0.1262833675564682</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1048,55 +1048,55 @@
         <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>214.27</v>
+        <v>34.67</v>
       </c>
       <c r="C6" s="3">
-        <v>466</v>
+        <v>2884</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1751714476989311</v>
+        <v>0.0195695448547776</v>
       </c>
       <c r="E6" s="5">
-        <v>0.484599589322382</v>
+        <v>0.2648870636550308</v>
       </c>
       <c r="F6" s="4">
-        <v>-10.37063748768103</v>
+        <v>2.170303446294291</v>
       </c>
       <c r="G6" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="H6" s="4">
-        <v>-14.21</v>
+        <v>4.83</v>
       </c>
       <c r="I6" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="J6" s="4">
-        <v>-8.49</v>
+        <v>0.7817</v>
       </c>
       <c r="K6" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="L6" s="4">
-        <v>1.93</v>
+        <v>1.0427</v>
       </c>
       <c r="M6" s="5">
-        <v>0.3275154004106776</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="N6" s="4">
-        <v>-32.44973806129984</v>
+        <v>3.04697898947946</v>
       </c>
       <c r="O6" s="5">
-        <v>0.006160164271047228</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="P6" s="4">
-        <v>-1316.61930964626</v>
+        <v>0.8409038040622343</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="R6" s="5">
-        <v>0.1347902610736286</v>
+        <v>0.1337635670284541</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1104,55 +1104,55 @@
         <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>34.13</v>
+        <v>207.89</v>
       </c>
       <c r="C7" s="3">
-        <v>2929</v>
+        <v>481</v>
       </c>
       <c r="D7" s="4">
-        <v>0.02015449310064734</v>
+        <v>0.173017426092557</v>
       </c>
       <c r="E7" s="5">
-        <v>0.2648870636550308</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="F7" s="4">
-        <v>2.207543235484474</v>
+        <v>-10.37071368105544</v>
       </c>
       <c r="G7" s="5">
+        <v>0.03490759753593429</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-14.36</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.0431211498973306</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-8.42</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.04722792607802875</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="M7" s="5">
         <v>0.3347022587268993</v>
       </c>
-      <c r="H7" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.08008213552361397</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.7832</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.08213552361396304</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1.0223</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.1314168377823409</v>
-      </c>
       <c r="N7" s="4">
-        <v>3.129684198266455</v>
+        <v>-32.59173872321388</v>
       </c>
       <c r="O7" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.006160164271047228</v>
       </c>
       <c r="P7" s="4">
-        <v>0.8505939113188766</v>
+        <v>-1345.076442569735</v>
       </c>
       <c r="Q7" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="R7" s="5">
-        <v>0.1358169551188032</v>
+        <v>0.1361102962745673</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1160,55 +1160,55 @@
         <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>89.13</v>
       </c>
       <c r="C8" s="3">
-        <v>6250</v>
+        <v>1121</v>
       </c>
       <c r="D8" s="4">
-        <v>-3.265826188466581</v>
+        <v>0.05574877922960222</v>
       </c>
       <c r="E8" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.3490759753593429</v>
       </c>
       <c r="F8" s="4">
-        <v>1.617472420337333</v>
+        <v>2.089576943517693</v>
       </c>
       <c r="G8" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="H8" s="4">
-        <v>-312.58</v>
+        <v>5.2</v>
       </c>
       <c r="I8" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="J8" s="4">
-        <v>1.18</v>
+        <v>0.8788</v>
       </c>
       <c r="K8" s="5">
-        <v>0.12217659137577</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="L8" s="4">
-        <v>2.68</v>
+        <v>0.3423</v>
       </c>
       <c r="M8" s="5">
-        <v>0.433264887063655</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="N8" s="4">
-        <v>6.439161756301918</v>
+        <v>4.08436540454774</v>
       </c>
       <c r="O8" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="P8" s="4">
-        <v>3.843191509315211</v>
+        <v>3.52188983749368</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="R8" s="5">
-        <v>0.1556174831328835</v>
+        <v>0.1569375183338222</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1216,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>87.78</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>1139</v>
+        <v>6250</v>
       </c>
       <c r="D9" s="4">
-        <v>0.05432227003454065</v>
+        <v>-3.293661877318915</v>
       </c>
       <c r="E9" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="F9" s="4">
-        <v>2.114693615249466</v>
+        <v>1.646711774352851</v>
       </c>
       <c r="G9" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="H9" s="4">
-        <v>5.2</v>
+        <v>-308.38</v>
       </c>
       <c r="I9" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="J9" s="4">
-        <v>0.8848</v>
+        <v>1.19</v>
       </c>
       <c r="K9" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.12217659137577</v>
       </c>
       <c r="L9" s="4">
-        <v>0.3315</v>
+        <v>2.73</v>
       </c>
       <c r="M9" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.4425051334702259</v>
       </c>
       <c r="N9" s="4">
-        <v>3.951701851332007</v>
+        <v>6.487322014805905</v>
       </c>
       <c r="O9" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="P9" s="4">
-        <v>3.450463211882415</v>
+        <v>3.874873256508681</v>
       </c>
       <c r="Q9" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="R9" s="5">
-        <v>0.1563508360222939</v>
+        <v>0.1586975652684072</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1272,55 +1272,55 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>16.08</v>
+        <v>16.46</v>
       </c>
       <c r="C10" s="3">
-        <v>6218</v>
+        <v>6075</v>
       </c>
       <c r="D10" s="4">
-        <v>0.001351018868814331</v>
+        <v>0.001323800988170094</v>
       </c>
       <c r="E10" s="5">
         <v>0.2094455852156057</v>
       </c>
       <c r="F10" s="4">
-        <v>2.906192507161473</v>
+        <v>2.917660075718465</v>
       </c>
       <c r="G10" s="5">
-        <v>0.5071868583162218</v>
+        <v>0.5092402464065708</v>
       </c>
       <c r="H10" s="4">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="5">
         <v>0.06365503080082136</v>
       </c>
       <c r="J10" s="4">
-        <v>0.5324</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="K10" s="5">
         <v>0.06160164271047228</v>
       </c>
       <c r="L10" s="4">
-        <v>0.3827</v>
+        <v>0.3734</v>
       </c>
       <c r="M10" s="5">
         <v>0.03080082135523614</v>
       </c>
       <c r="N10" s="4">
-        <v>7.437069761788679</v>
+        <v>7.438317526640496</v>
       </c>
       <c r="O10" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.1642710472279261</v>
       </c>
       <c r="P10" s="4">
-        <v>2.083828628395686</v>
+        <v>2.067632275994379</v>
       </c>
       <c r="Q10" s="5">
         <v>0.1129363449691992</v>
       </c>
       <c r="R10" s="5">
-        <v>0.1648577295394544</v>
+        <v>0.1645643883836902</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1328,55 +1328,55 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
-        <v>2222</v>
+        <v>2272</v>
       </c>
       <c r="D11" s="4">
-        <v>0.01629466968024953</v>
+        <v>0.01610306182254593</v>
       </c>
       <c r="E11" s="5">
-        <v>0.2525667351129364</v>
+        <v>0.2505133470225873</v>
       </c>
       <c r="F11" s="4">
-        <v>2.597808418933888</v>
+        <v>2.613284408973181</v>
       </c>
       <c r="G11" s="5">
-        <v>0.4414784394250513</v>
+        <v>0.4435318275154004</v>
       </c>
       <c r="H11" s="4">
-        <v>7.14</v>
+        <v>7.15</v>
       </c>
       <c r="I11" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="J11" s="4">
-        <v>0.4942</v>
+        <v>0.5021</v>
       </c>
       <c r="K11" s="5">
         <v>0.0595482546201232</v>
       </c>
       <c r="L11" s="4">
-        <v>0.3173</v>
+        <v>0.3163</v>
       </c>
       <c r="M11" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="N11" s="4">
-        <v>4.8176425862226</v>
+        <v>4.872950647744581</v>
       </c>
       <c r="O11" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="P11" s="4">
-        <v>4.117604352435202</v>
+        <v>3.99093413755772</v>
       </c>
       <c r="Q11" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.2505133470225873</v>
       </c>
       <c r="R11" s="5">
-        <v>0.1721912584335582</v>
+        <v>0.1713112349662658</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1384,55 +1384,55 @@
         <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>25.01</v>
+        <v>51.95</v>
       </c>
       <c r="C12" s="3">
-        <v>3998</v>
+        <v>1924</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.3906190410697388</v>
+        <v>0.01456467801383216</v>
       </c>
       <c r="E12" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="F12" s="4">
-        <v>6.45582536388518</v>
+        <v>3.282526402318987</v>
       </c>
       <c r="G12" s="5">
-        <v>0.839835728952772</v>
+        <v>0.5811088295687885</v>
       </c>
       <c r="H12" s="4">
-        <v>6.55</v>
+        <v>7.93</v>
       </c>
       <c r="I12" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="J12" s="4">
-        <v>0.47</v>
+        <v>1.43</v>
       </c>
       <c r="K12" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.1714579055441478</v>
       </c>
       <c r="L12" s="4">
-        <v>0.391</v>
+        <v>0.3681</v>
       </c>
       <c r="M12" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="N12" s="4">
-        <v>3.032503241385915</v>
+        <v>3.705441661679901</v>
       </c>
       <c r="O12" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="P12" s="4">
-        <v>0.3780673204824052</v>
+        <v>1.176590335459609</v>
       </c>
       <c r="Q12" s="5">
-        <v>0.008213552361396304</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="R12" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.1773247286594309</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1440,52 +1440,52 @@
         <v>29</v>
       </c>
       <c r="B13" s="2">
-        <v>33</v>
+        <v>25.27</v>
       </c>
       <c r="C13" s="3">
-        <v>3030</v>
+        <v>3957</v>
       </c>
       <c r="D13" s="4">
-        <v>0.05516202829785672</v>
+        <v>-0.3863516511736463</v>
       </c>
       <c r="E13" s="5">
-        <v>0.3490759753593429</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="F13" s="4">
-        <v>2.279004395278</v>
+        <v>6.62569013336157</v>
       </c>
       <c r="G13" s="5">
-        <v>0.3613963039014373</v>
+        <v>0.839835728952772</v>
       </c>
       <c r="H13" s="4">
-        <v>11.24</v>
+        <v>6.44</v>
       </c>
       <c r="I13" s="5">
-        <v>0.2053388090349076</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="J13" s="4">
-        <v>0.9384</v>
+        <v>0.46</v>
       </c>
       <c r="K13" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="L13" s="4">
-        <v>0.3407</v>
+        <v>0.3898</v>
       </c>
       <c r="M13" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="N13" s="4">
-        <v>5.567509275963196</v>
+        <v>3.106950496931177</v>
       </c>
       <c r="O13" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="P13" s="4">
-        <v>2.35731232555661</v>
+        <v>0.3744333742981651</v>
       </c>
       <c r="Q13" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="R13" s="5">
         <v>0.1792314461718979</v>
@@ -1496,55 +1496,55 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>50.96</v>
+        <v>32.18</v>
       </c>
       <c r="C14" s="3">
-        <v>1962</v>
+        <v>3107</v>
       </c>
       <c r="D14" s="4">
-        <v>0.01442294559626473</v>
+        <v>0.05347895483844822</v>
       </c>
       <c r="E14" s="5">
-        <v>0.242299794661191</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="F14" s="4">
-        <v>3.365643021625606</v>
+        <v>2.33023298466611</v>
       </c>
       <c r="G14" s="5">
-        <v>0.5934291581108829</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="H14" s="4">
-        <v>7.87</v>
+        <v>11.35</v>
       </c>
       <c r="I14" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="J14" s="4">
-        <v>1.47</v>
+        <v>0.9282</v>
       </c>
       <c r="K14" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="L14" s="4">
-        <v>0.3743</v>
+        <v>0.3436</v>
       </c>
       <c r="M14" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="N14" s="4">
-        <v>3.903252656731771</v>
+        <v>5.331246839639017</v>
       </c>
       <c r="O14" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="P14" s="4">
-        <v>1.165469315085685</v>
+        <v>2.328814191965961</v>
       </c>
       <c r="Q14" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="R14" s="5">
-        <v>0.1798181284834262</v>
+        <v>0.1804048107949545</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1552,55 +1552,55 @@
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>261.1</v>
+        <v>252.7</v>
       </c>
       <c r="C15" s="3">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D15" s="4">
-        <v>0.1263141527200498</v>
+        <v>0.1281660834938629</v>
       </c>
       <c r="E15" s="5">
         <v>0.4435318275154004</v>
       </c>
       <c r="F15" s="4">
-        <v>-73.00353802890612</v>
+        <v>-72.5214653418038</v>
       </c>
       <c r="G15" s="5">
         <v>0.008213552361396304</v>
       </c>
       <c r="H15" s="4">
-        <v>12.93</v>
+        <v>13.11</v>
       </c>
       <c r="I15" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.2453798767967146</v>
       </c>
       <c r="J15" s="4">
-        <v>-113.7</v>
+        <v>-113.2</v>
       </c>
       <c r="K15" s="5">
         <v>0.01232032854209446</v>
       </c>
       <c r="L15" s="4">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M15" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="N15" s="4">
-        <v>9.077190023931784</v>
+        <v>8.722145910283738</v>
       </c>
       <c r="O15" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="P15" s="4">
-        <v>1.888440480936</v>
+        <v>1.899436615872478</v>
       </c>
       <c r="Q15" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="R15" s="5">
-        <v>0.1821648577295394</v>
+        <v>0.1808448225286008</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1608,55 +1608,55 @@
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>39.81</v>
+        <v>26.39</v>
       </c>
       <c r="C16" s="3">
-        <v>2511</v>
+        <v>3789</v>
       </c>
       <c r="D16" s="4">
-        <v>0.005477776532745685</v>
+        <v>0.1533801454326765</v>
       </c>
       <c r="E16" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.4640657084188912</v>
       </c>
       <c r="F16" s="4">
-        <v>2.160205682658393</v>
+        <v>-12.68331645393697</v>
       </c>
       <c r="G16" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="H16" s="4">
-        <v>-21.7</v>
+        <v>16.9</v>
       </c>
       <c r="I16" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.3367556468172485</v>
       </c>
       <c r="J16" s="4">
-        <v>1.04</v>
+        <v>-8.82</v>
       </c>
       <c r="K16" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="L16" s="4">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M16" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="N16" s="4">
-        <v>6.725532645021203</v>
+        <v>4.684792551804942</v>
       </c>
       <c r="O16" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="P16" s="4">
-        <v>4.234712322319719</v>
+        <v>2.3629451655371</v>
       </c>
       <c r="Q16" s="5">
-        <v>0.2731006160164271</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="R16" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.1815781754180112</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1664,55 +1664,55 @@
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>26.66</v>
+        <v>39.73</v>
       </c>
       <c r="C17" s="3">
-        <v>3750</v>
+        <v>2516</v>
       </c>
       <c r="D17" s="4">
-        <v>0.1531041758108889</v>
+        <v>0.005471414329092089</v>
       </c>
       <c r="E17" s="5">
-        <v>0.4661190965092403</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="F17" s="4">
-        <v>-12.22011317558044</v>
+        <v>2.125097271527781</v>
       </c>
       <c r="G17" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="H17" s="4">
-        <v>16.8</v>
+        <v>-21.43</v>
       </c>
       <c r="I17" s="5">
-        <v>0.3264887063655031</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="J17" s="4">
-        <v>-8.93</v>
+        <v>1.06</v>
       </c>
       <c r="K17" s="5">
-        <v>0.0431211498973306</v>
+        <v>0.1078028747433265</v>
       </c>
       <c r="L17" s="4">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="M17" s="5">
-        <v>0.2227926078028747</v>
+        <v>0.175564681724846</v>
       </c>
       <c r="N17" s="4">
-        <v>4.774751965385835</v>
+        <v>6.901198969481669</v>
       </c>
       <c r="O17" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="P17" s="4">
-        <v>2.367163802944407</v>
+        <v>4.37358931135566</v>
       </c>
       <c r="Q17" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="R17" s="5">
-        <v>0.183191551774714</v>
+        <v>0.1830448811968319</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1720,55 +1720,55 @@
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>2025.4</v>
+        <v>45.86</v>
       </c>
       <c r="C18" s="3">
-        <v>49</v>
+        <v>2180</v>
       </c>
       <c r="D18" s="4">
-        <v>0.1481121608354944</v>
+        <v>0.1220768218156137</v>
       </c>
       <c r="E18" s="5">
-        <v>0.4640657084188912</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="F18" s="4">
-        <v>-8.26809400626164</v>
+        <v>2.094407569583172</v>
       </c>
       <c r="G18" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="H18" s="4">
-        <v>10.62</v>
+        <v>-22.91</v>
       </c>
       <c r="I18" s="5">
-        <v>0.188911704312115</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="J18" s="4">
-        <v>-11.57</v>
+        <v>0.7248</v>
       </c>
       <c r="K18" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="L18" s="4">
-        <v>1.47</v>
+        <v>0.9713000000000001</v>
       </c>
       <c r="M18" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="N18" s="4">
-        <v>7.356297726494936</v>
+        <v>6.801490822697545</v>
       </c>
       <c r="O18" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="P18" s="4">
-        <v>3.249130694523949</v>
+        <v>4.006883172261252</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.2525667351129364</v>
       </c>
       <c r="R18" s="5">
-        <v>0.1883250220005867</v>
+        <v>0.1912584335582282</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1776,55 +1776,55 @@
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>47.18</v>
+        <v>2057.5</v>
       </c>
       <c r="C19" s="3">
-        <v>2119</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4">
-        <v>0.1218097352667591</v>
+        <v>0.1536072526225547</v>
       </c>
       <c r="E19" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.4661190965092403</v>
       </c>
       <c r="F19" s="4">
-        <v>2.135704860963277</v>
+        <v>-8.0841952021953</v>
       </c>
       <c r="G19" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="H19" s="4">
-        <v>-23.08</v>
+        <v>10.91</v>
       </c>
       <c r="I19" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.1950718685831622</v>
       </c>
       <c r="J19" s="4">
-        <v>0.7089</v>
+        <v>-12.12</v>
       </c>
       <c r="K19" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="L19" s="4">
-        <v>0.9407</v>
+        <v>1.44</v>
       </c>
       <c r="M19" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="N19" s="4">
-        <v>6.939163909014351</v>
+        <v>7.494162263690655</v>
       </c>
       <c r="O19" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="P19" s="4">
-        <v>4.017880370918904</v>
+        <v>3.316232516966105</v>
       </c>
       <c r="Q19" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="R19" s="5">
-        <v>0.1941918451158697</v>
+        <v>0.1921384570255207</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1832,55 +1832,55 @@
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>31.61</v>
+        <v>31.88</v>
       </c>
       <c r="C20" s="3">
-        <v>3163</v>
+        <v>3136</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1062585937373051</v>
+        <v>0.1072343903461338</v>
       </c>
       <c r="E20" s="5">
         <v>0.4127310061601643</v>
       </c>
       <c r="F20" s="4">
-        <v>2.757690665160169</v>
+        <v>2.781135819282445</v>
       </c>
       <c r="G20" s="5">
-        <v>0.4743326488706366</v>
+        <v>0.4825462012320329</v>
       </c>
       <c r="H20" s="4">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="I20" s="5">
         <v>0.09650924024640657</v>
       </c>
       <c r="J20" s="4">
-        <v>1.0067</v>
+        <v>0.9931</v>
       </c>
       <c r="K20" s="5">
         <v>0.1006160164271047</v>
       </c>
       <c r="L20" s="4">
-        <v>0.746</v>
+        <v>0.772</v>
       </c>
       <c r="M20" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="N20" s="4">
-        <v>6.585683741681858</v>
+        <v>6.726093948365122</v>
       </c>
       <c r="O20" s="5">
         <v>0.135523613963039</v>
       </c>
       <c r="P20" s="4">
-        <v>1.210596436718975</v>
+        <v>1.23065040863385</v>
       </c>
       <c r="Q20" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="R20" s="5">
-        <v>0.1941918451158698</v>
+        <v>0.1962452332062188</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1888,55 +1888,55 @@
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>61.87</v>
+        <v>62.37</v>
       </c>
       <c r="C21" s="3">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="D21" s="4">
-        <v>-5.405625878287716</v>
+        <v>-5.468766198309768</v>
       </c>
       <c r="E21" s="5">
         <v>0.02669404517453798</v>
       </c>
       <c r="F21" s="4">
-        <v>11.13835630532254</v>
+        <v>11.15666739844153</v>
       </c>
       <c r="G21" s="5">
-        <v>0.9158110882956879</v>
+        <v>0.9178644763860369</v>
       </c>
       <c r="H21" s="4">
-        <v>10.31</v>
+        <v>10.69</v>
       </c>
       <c r="I21" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="J21" s="4">
-        <v>0.7608</v>
+        <v>0.7753</v>
       </c>
       <c r="K21" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="L21" s="4">
-        <v>0.7759</v>
+        <v>0.7441</v>
       </c>
       <c r="M21" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="N21" s="4">
-        <v>5.028395097432806</v>
+        <v>5.197164298574596</v>
       </c>
       <c r="O21" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="P21" s="4">
-        <v>0.7409024760879428</v>
+        <v>0.746069670774655</v>
       </c>
       <c r="Q21" s="5">
         <v>0.01848049281314168</v>
       </c>
       <c r="R21" s="5">
-        <v>0.1988853036080962</v>
+        <v>0.2000586682311528</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1944,55 +1944,55 @@
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>61.67</v>
+        <v>118.2</v>
       </c>
       <c r="C22" s="3">
-        <v>1621</v>
+        <v>846</v>
       </c>
       <c r="D22" s="4">
-        <v>0.1603940855574846</v>
+        <v>0.006191934074590649</v>
       </c>
       <c r="E22" s="5">
-        <v>0.4743326488706366</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="F22" s="4">
-        <v>2.13533158664191</v>
+        <v>1.922367024097614</v>
       </c>
       <c r="G22" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="H22" s="4">
-        <v>-45.29</v>
+        <v>7.16</v>
       </c>
       <c r="I22" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="J22" s="4">
-        <v>1.66</v>
+        <v>2.49</v>
       </c>
       <c r="K22" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="L22" s="4">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="M22" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.1427104722792608</v>
       </c>
       <c r="N22" s="4">
-        <v>7.64123027917616</v>
+        <v>4.716319090138168</v>
       </c>
       <c r="O22" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="P22" s="4">
-        <v>1.234825325153784</v>
+        <v>4.291479120140757</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="R22" s="5">
-        <v>0.2019653857436198</v>
+        <v>0.2025520680551481</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2000,55 +2000,55 @@
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>178.39</v>
+        <v>13.56</v>
       </c>
       <c r="C23" s="3">
-        <v>560</v>
+        <v>7374</v>
       </c>
       <c r="D23" s="4">
-        <v>0.098298663189318</v>
+        <v>-0.1262201494704234</v>
       </c>
       <c r="E23" s="5">
-        <v>0.4024640657084189</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="F23" s="4">
-        <v>1.720008524825844</v>
+        <v>1.92143316896883</v>
       </c>
       <c r="G23" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="H23" s="4">
-        <v>11.45</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="I23" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="J23" s="4">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="K23" s="5">
-        <v>0.1498973305954825</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="L23" s="4">
-        <v>1.09</v>
+        <v>1.0022</v>
       </c>
       <c r="M23" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="N23" s="4">
-        <v>6.259313764141805</v>
+        <v>-47.23964212644465</v>
       </c>
       <c r="O23" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="P23" s="4">
-        <v>3.799034611626072</v>
+        <v>11.0217458895911</v>
       </c>
       <c r="Q23" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.7207392197125257</v>
       </c>
       <c r="R23" s="5">
-        <v>0.202258726899384</v>
+        <v>0.2029920797887944</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2056,55 +2056,55 @@
         <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>116.1</v>
+        <v>178.14</v>
       </c>
       <c r="C24" s="3">
-        <v>861</v>
+        <v>561</v>
       </c>
       <c r="D24" s="4">
-        <v>0.006298683921265032</v>
+        <v>0.10068993077452</v>
       </c>
       <c r="E24" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.406570841889117</v>
       </c>
       <c r="F24" s="4">
-        <v>1.947695322544258</v>
+        <v>1.696619918629589</v>
       </c>
       <c r="G24" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="H24" s="4">
-        <v>7.19</v>
+        <v>11.27</v>
       </c>
       <c r="I24" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.204312114989733</v>
       </c>
       <c r="J24" s="4">
-        <v>2.53</v>
+        <v>1.38</v>
       </c>
       <c r="K24" s="5">
-        <v>0.379876796714579</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="L24" s="4">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="M24" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.148870636550308</v>
       </c>
       <c r="N24" s="4">
-        <v>4.704991763526817</v>
+        <v>6.511172007595025</v>
       </c>
       <c r="O24" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.1273100616016427</v>
       </c>
       <c r="P24" s="4">
-        <v>4.356077897814894</v>
+        <v>3.854748024025231</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.2833675564681725</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="R24" s="5">
-        <v>0.2062188325022001</v>
+        <v>0.2047521267233793</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2112,55 +2112,55 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>115.12</v>
+        <v>115.05</v>
       </c>
       <c r="C25" s="3">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D25" s="4">
-        <v>-0.4122385490271562</v>
+        <v>-0.4221593506269856</v>
       </c>
       <c r="E25" s="5">
         <v>0.1786447638603696</v>
       </c>
       <c r="F25" s="4">
-        <v>5.124783852651419</v>
+        <v>5.198568808326237</v>
       </c>
       <c r="G25" s="5">
-        <v>0.7967145790554414</v>
+        <v>0.7987679671457906</v>
       </c>
       <c r="H25" s="4">
-        <v>10.67</v>
+        <v>10.77</v>
       </c>
       <c r="I25" s="5">
-        <v>0.1919917864476386</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="J25" s="4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="K25" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="L25" s="4">
-        <v>0.6854</v>
+        <v>0.6874</v>
       </c>
       <c r="M25" s="5">
         <v>0.07186858316221766</v>
       </c>
       <c r="N25" s="4">
-        <v>2.274815388821948</v>
+        <v>2.304159262069555</v>
       </c>
       <c r="O25" s="5">
         <v>0.03080082135523614</v>
       </c>
       <c r="P25" s="4">
-        <v>0.6618119667801636</v>
+        <v>0.6579193856338715</v>
       </c>
       <c r="Q25" s="5">
         <v>0.01642710472279261</v>
       </c>
       <c r="R25" s="5">
-        <v>0.2062188325022001</v>
+        <v>0.2050454678791434</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2168,55 +2168,55 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>14</v>
+        <v>83.73</v>
       </c>
       <c r="C26" s="3">
-        <v>7142</v>
+        <v>1194</v>
       </c>
       <c r="D26" s="4">
-        <v>-0.1223602916045852</v>
+        <v>0.0540698102410517</v>
       </c>
       <c r="E26" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="F26" s="4">
-        <v>1.997049341938763</v>
+        <v>-20.28386180509633</v>
       </c>
       <c r="G26" s="5">
-        <v>0.24435318275154</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="H26" s="4">
-        <v>-9.58</v>
+        <v>16.03</v>
       </c>
       <c r="I26" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.3121149897330595</v>
       </c>
       <c r="J26" s="4">
-        <v>1.1</v>
+        <v>-42.86</v>
       </c>
       <c r="K26" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.02464065708418891</v>
       </c>
       <c r="L26" s="4">
-        <v>0.9949</v>
+        <v>1.67</v>
       </c>
       <c r="M26" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.2761806981519507</v>
       </c>
       <c r="N26" s="4">
-        <v>-46.21404934680692</v>
+        <v>8.115165590749413</v>
       </c>
       <c r="O26" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="P26" s="4">
-        <v>11.05394687199127</v>
+        <v>4.176820400128592</v>
       </c>
       <c r="Q26" s="5">
-        <v>0.7186858316221766</v>
+        <v>0.2607802874743326</v>
       </c>
       <c r="R26" s="5">
-        <v>0.2068055148137284</v>
+        <v>0.2072455265473746</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2224,55 +2224,55 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>110.8</v>
+        <v>63.23</v>
       </c>
       <c r="C27" s="3">
-        <v>902</v>
+        <v>1581</v>
       </c>
       <c r="D27" s="4">
-        <v>0.00081443131229011</v>
+        <v>0.1635407733518121</v>
       </c>
       <c r="E27" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.4763860369609856</v>
       </c>
       <c r="F27" s="4">
-        <v>15.28984748618063</v>
+        <v>2.196497587274363</v>
       </c>
       <c r="G27" s="5">
-        <v>0.9630390143737166</v>
+        <v>0.3264887063655031</v>
       </c>
       <c r="H27" s="4">
-        <v>5.89</v>
+        <v>-44.91</v>
       </c>
       <c r="I27" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="J27" s="4">
-        <v>0.6830000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="K27" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.2320328542094456</v>
       </c>
       <c r="L27" s="4">
-        <v>0.5819</v>
+        <v>1.1</v>
       </c>
       <c r="M27" s="5">
+        <v>0.1550308008213552</v>
+      </c>
+      <c r="N27" s="4">
+        <v>7.689592255848583</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.1868583162217659</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.247928720182031</v>
+      </c>
+      <c r="Q27" s="5">
         <v>0.05749486652977413</v>
       </c>
-      <c r="N27" s="4">
-        <v>4.40532823263899</v>
-      </c>
-      <c r="O27" s="5">
-        <v>0.06160164271047228</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0.5635335507686502</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>0.01026694045174538</v>
-      </c>
       <c r="R27" s="5">
-        <v>0.207978879436785</v>
+        <v>0.2075388677031388</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2280,55 +2280,55 @@
         <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>83.70999999999999</v>
+        <v>110.9</v>
       </c>
       <c r="C28" s="3">
-        <v>1194</v>
+        <v>901</v>
       </c>
       <c r="D28" s="4">
-        <v>0.0539173736339029</v>
+        <v>0.0008443141726320448</v>
       </c>
       <c r="E28" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="F28" s="4">
-        <v>-20.43217860711113</v>
+        <v>15.1650056044764</v>
       </c>
       <c r="G28" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.9630390143737166</v>
       </c>
       <c r="H28" s="4">
-        <v>16.62</v>
+        <v>5.89</v>
       </c>
       <c r="I28" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="J28" s="4">
-        <v>-41.8</v>
+        <v>0.677</v>
       </c>
       <c r="K28" s="5">
-        <v>0.02464065708418891</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="L28" s="4">
-        <v>1.73</v>
+        <v>0.608</v>
       </c>
       <c r="M28" s="5">
-        <v>0.2864476386036961</v>
+        <v>0.0595482546201232</v>
       </c>
       <c r="N28" s="4">
-        <v>8.414162303819209</v>
+        <v>4.532200457190675</v>
       </c>
       <c r="O28" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="P28" s="4">
-        <v>4.342604324903429</v>
+        <v>0.5948916563175312</v>
       </c>
       <c r="Q28" s="5">
-        <v>0.2813141683778234</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="R28" s="5">
-        <v>0.215752420064535</v>
+        <v>0.2085655617483133</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2336,55 +2336,55 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>79.34999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>1260</v>
+        <v>1461</v>
       </c>
       <c r="D29" s="4">
-        <v>0.03728016729591236</v>
+        <v>0.001413430347594477</v>
       </c>
       <c r="E29" s="5">
-        <v>0.3121149897330595</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="F29" s="4">
-        <v>2.146536873080014</v>
+        <v>1.61394961908532</v>
       </c>
       <c r="G29" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="H29" s="4">
-        <v>5.34</v>
+        <v>-1.3</v>
       </c>
       <c r="I29" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="J29" s="4">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="K29" s="5">
-        <v>0.3429158110882957</v>
+        <v>0.2279260780287475</v>
       </c>
       <c r="L29" s="4">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="M29" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.5739219712525667</v>
       </c>
       <c r="N29" s="4">
-        <v>4.098515063641915</v>
+        <v>-10.97971801678892</v>
       </c>
       <c r="O29" s="5">
-        <v>0.05338809034907597</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="P29" s="4">
-        <v>2.829669446420892</v>
+        <v>4.715025717283259</v>
       </c>
       <c r="Q29" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="R29" s="5">
-        <v>0.2220592549134643</v>
+        <v>0.2183924904664124</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2392,55 +2392,55 @@
         <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>67.7</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>1477</v>
+        <v>1261</v>
       </c>
       <c r="D30" s="4">
-        <v>0.001362140720437284</v>
+        <v>0.03709908242772635</v>
       </c>
       <c r="E30" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.3121149897330595</v>
       </c>
       <c r="F30" s="4">
-        <v>1.648084065711409</v>
+        <v>2.213461002602227</v>
       </c>
       <c r="G30" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.3347022587268993</v>
       </c>
       <c r="H30" s="4">
-        <v>-1.28</v>
+        <v>5.53</v>
       </c>
       <c r="I30" s="5">
-        <v>0.06160164271047228</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="J30" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.3480492813141683</v>
+      </c>
+      <c r="L30" s="4">
         <v>1.7</v>
       </c>
-      <c r="K30" s="5">
-        <v>0.2361396303901437</v>
-      </c>
-      <c r="L30" s="4">
-        <v>3.8</v>
-      </c>
       <c r="M30" s="5">
-        <v>0.580082135523614</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="N30" s="4">
-        <v>-11.09898609116338</v>
+        <v>3.946489304805021</v>
       </c>
       <c r="O30" s="5">
-        <v>0.01642710472279261</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="P30" s="4">
-        <v>4.802033222874559</v>
+        <v>2.740632834629808</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.324435318275154</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="R30" s="5">
-        <v>0.2224992666471106</v>
+        <v>0.2230859489586389</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2448,55 +2448,55 @@
         <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>113.17</v>
+        <v>114.54</v>
       </c>
       <c r="C31" s="3">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="D31" s="4">
-        <v>0.02338213960140649</v>
+        <v>0.02245347101167651</v>
       </c>
       <c r="E31" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.271047227926078</v>
       </c>
       <c r="F31" s="4">
-        <v>-6.110682592256062</v>
+        <v>-5.908909505398552</v>
       </c>
       <c r="G31" s="5">
         <v>0.04517453798767967</v>
       </c>
       <c r="H31" s="4">
-        <v>16.63</v>
+        <v>16.54</v>
       </c>
       <c r="I31" s="5">
-        <v>0.324435318275154</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="J31" s="4">
-        <v>-12.55</v>
+        <v>-12.5</v>
       </c>
       <c r="K31" s="5">
         <v>0.03901437371663244</v>
       </c>
       <c r="L31" s="4">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="M31" s="5">
-        <v>0.3850102669404517</v>
+        <v>0.3942505133470226</v>
       </c>
       <c r="N31" s="4">
-        <v>11.30305530528715</v>
+        <v>11.14293031906473</v>
       </c>
       <c r="O31" s="5">
-        <v>0.3634496919917864</v>
+        <v>0.3613963039014373</v>
       </c>
       <c r="P31" s="4">
-        <v>2.506498703223448</v>
+        <v>2.55009145479675</v>
       </c>
       <c r="Q31" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="R31" s="5">
-        <v>0.2227926078028747</v>
+        <v>0.2235259606922851</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2504,55 +2504,55 @@
         <v>48</v>
       </c>
       <c r="B32" s="2">
-        <v>153.67</v>
+        <v>156.45</v>
       </c>
       <c r="C32" s="3">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D32" s="4">
-        <v>0.02882742546266567</v>
+        <v>0.02855973243990641</v>
       </c>
       <c r="E32" s="5">
         <v>0.2833675564681725</v>
       </c>
       <c r="F32" s="4">
-        <v>5.887335686149338</v>
+        <v>6.090628689524473</v>
       </c>
       <c r="G32" s="5">
-        <v>0.8254620123203286</v>
+        <v>0.8316221765913758</v>
       </c>
       <c r="H32" s="4">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
       <c r="I32" s="5">
         <v>0.1067761806981519</v>
       </c>
       <c r="J32" s="4">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="K32" s="5">
-        <v>0.1930184804928131</v>
+        <v>0.1919917864476386</v>
       </c>
       <c r="L32" s="4">
-        <v>0.8804999999999999</v>
+        <v>0.8708</v>
       </c>
       <c r="M32" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="N32" s="4">
-        <v>1.86316051962569</v>
+        <v>1.877412405522138</v>
       </c>
       <c r="O32" s="5">
         <v>0.02874743326488706</v>
       </c>
       <c r="P32" s="4">
-        <v>0.8433331864653945</v>
+        <v>0.8420466116739158</v>
       </c>
       <c r="Q32" s="5">
-        <v>0.02053388090349076</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="R32" s="5">
-        <v>0.2244059841595776</v>
+        <v>0.2248459958932238</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2560,55 +2560,55 @@
         <v>49</v>
       </c>
       <c r="B33" s="2">
-        <v>23.58</v>
+        <v>57.04</v>
       </c>
       <c r="C33" s="3">
-        <v>4240</v>
+        <v>1753</v>
       </c>
       <c r="D33" s="4">
-        <v>0.06987438672904479</v>
+        <v>0.03446748998606571</v>
       </c>
       <c r="E33" s="5">
-        <v>0.3696098562628337</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="F33" s="4">
-        <v>2.22638333558429</v>
+        <v>4.800333494443533</v>
       </c>
       <c r="G33" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.7802874743326488</v>
       </c>
       <c r="H33" s="4">
-        <v>9.449999999999999</v>
+        <v>9.48</v>
       </c>
       <c r="I33" s="5">
         <v>0.1560574948665298</v>
       </c>
       <c r="J33" s="4">
-        <v>0.7252</v>
+        <v>0.8237</v>
       </c>
       <c r="K33" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="L33" s="4">
-        <v>1.6</v>
+        <v>1.0335</v>
       </c>
       <c r="M33" s="5">
-        <v>0.2689938398357289</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="N33" s="4">
-        <v>8.526038356239523</v>
+        <v>5.312403000653052</v>
       </c>
       <c r="O33" s="5">
-        <v>0.242299794661191</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="P33" s="4">
-        <v>2.302536620018799</v>
+        <v>0.9671702056073552</v>
       </c>
       <c r="Q33" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="R33" s="5">
-        <v>0.2246993253153417</v>
+        <v>0.2267527134056908</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2616,55 +2616,55 @@
         <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>57.88</v>
+        <v>23.38</v>
       </c>
       <c r="C34" s="3">
-        <v>1727</v>
+        <v>4277</v>
       </c>
       <c r="D34" s="4">
-        <v>0.03589325842765462</v>
+        <v>0.07045353727320482</v>
       </c>
       <c r="E34" s="5">
-        <v>0.3100616016427105</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="F34" s="4">
-        <v>4.81126912874157</v>
+        <v>2.246576059938574</v>
       </c>
       <c r="G34" s="5">
-        <v>0.7823408624229979</v>
+        <v>0.3490759753593429</v>
       </c>
       <c r="H34" s="4">
-        <v>9.68</v>
+        <v>9.69</v>
       </c>
       <c r="I34" s="5">
         <v>0.162217659137577</v>
       </c>
       <c r="J34" s="4">
-        <v>0.8298</v>
+        <v>0.7379</v>
       </c>
       <c r="K34" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="L34" s="4">
-        <v>0.9982</v>
+        <v>1.59</v>
       </c>
       <c r="M34" s="5">
+        <v>0.2628336755646817</v>
+      </c>
+      <c r="N34" s="4">
+        <v>8.691105194899489</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.2505133470225873</v>
+      </c>
+      <c r="P34" s="4">
+        <v>2.413599145386311</v>
+      </c>
+      <c r="Q34" s="5">
         <v>0.1252566735112936</v>
       </c>
-      <c r="N34" s="4">
-        <v>5.273306906723958</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0.08829568788501026</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0.9508272956302216</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0.03080082135523614</v>
-      </c>
       <c r="R34" s="5">
-        <v>0.2261660310941625</v>
+        <v>0.2276327368729833</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2672,55 +2672,55 @@
         <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>116.58</v>
+        <v>57.6</v>
       </c>
       <c r="C35" s="3">
-        <v>857</v>
+        <v>1736</v>
       </c>
       <c r="D35" s="4">
-        <v>0.03443996658295996</v>
+        <v>0.03120100848798039</v>
       </c>
       <c r="E35" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="F35" s="4">
-        <v>2.580224173695047</v>
+        <v>4.581727124702398</v>
       </c>
       <c r="G35" s="5">
-        <v>0.431211498973306</v>
+        <v>0.7577002053388091</v>
       </c>
       <c r="H35" s="4">
-        <v>7.44</v>
+        <v>7.77</v>
       </c>
       <c r="I35" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="J35" s="4">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="K35" s="5">
-        <v>0.2002053388090349</v>
+        <v>0.2053388090349076</v>
       </c>
       <c r="L35" s="4">
-        <v>2.05</v>
+        <v>0.639</v>
       </c>
       <c r="M35" s="5">
-        <v>0.3480492813141683</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="N35" s="4">
-        <v>5.576801851479789</v>
+        <v>3.109837484521385</v>
       </c>
       <c r="O35" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="P35" s="4">
-        <v>2.003753840436182</v>
+        <v>2.67648304540192</v>
       </c>
       <c r="Q35" s="5">
-        <v>0.108829568788501</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="R35" s="5">
-        <v>0.2302728072748607</v>
+        <v>0.230859489586389</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2728,55 +2728,55 @@
         <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>58.27</v>
+        <v>24.79</v>
       </c>
       <c r="C36" s="3">
-        <v>1716</v>
+        <v>4033</v>
       </c>
       <c r="D36" s="4">
-        <v>-3.020110484322318</v>
+        <v>-0.450113521011567</v>
       </c>
       <c r="E36" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="F36" s="4">
-        <v>4.946884156371379</v>
+        <v>2.9986336267512</v>
       </c>
       <c r="G36" s="5">
-        <v>0.7905544147843941</v>
+        <v>0.5277207392197125</v>
       </c>
       <c r="H36" s="4">
-        <v>9.5</v>
+        <v>17.22</v>
       </c>
       <c r="I36" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.3408624229979466</v>
       </c>
       <c r="J36" s="4">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="K36" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.1078028747433265</v>
       </c>
       <c r="L36" s="4">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="M36" s="5">
-        <v>0.271047227926078</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="N36" s="4">
-        <v>6.794795271615841</v>
+        <v>6.822489610581503</v>
       </c>
       <c r="O36" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.1396303901437372</v>
       </c>
       <c r="P36" s="4">
-        <v>1.937659599303691</v>
+        <v>3.309473294799758</v>
       </c>
       <c r="Q36" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="R36" s="5">
-        <v>0.2337929011440305</v>
+        <v>0.2321795247873277</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2784,55 +2784,55 @@
         <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>59.59</v>
+        <v>115.53</v>
       </c>
       <c r="C37" s="3">
-        <v>1678</v>
+        <v>865</v>
       </c>
       <c r="D37" s="4">
-        <v>0.03123885025489434</v>
+        <v>0.03380064780839708</v>
       </c>
       <c r="E37" s="5">
-        <v>0.2936344969199178</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="F37" s="4">
-        <v>4.446781390878797</v>
+        <v>2.649559355393176</v>
       </c>
       <c r="G37" s="5">
-        <v>0.7494866529774127</v>
+        <v>0.4537987679671457</v>
       </c>
       <c r="H37" s="4">
-        <v>7.97</v>
+        <v>7.45</v>
       </c>
       <c r="I37" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="J37" s="4">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="K37" s="5">
-        <v>0.2084188911704312</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="L37" s="4">
-        <v>0.655</v>
+        <v>2.09</v>
       </c>
       <c r="M37" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.353182751540041</v>
       </c>
       <c r="N37" s="4">
-        <v>3.170670138224588</v>
+        <v>5.686201157932293</v>
       </c>
       <c r="O37" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="P37" s="4">
-        <v>2.84339994668366</v>
+        <v>2.023945310792606</v>
       </c>
       <c r="Q37" s="5">
-        <v>0.1560574948665298</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="R37" s="5">
-        <v>0.2342329128776767</v>
+        <v>0.2326195365209739</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2840,55 +2840,55 @@
         <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>58.62</v>
+        <v>23.37</v>
       </c>
       <c r="C38" s="3">
-        <v>1705</v>
+        <v>4278</v>
       </c>
       <c r="D38" s="4">
-        <v>0.04048540026725672</v>
+        <v>-0.2204525611478825</v>
       </c>
       <c r="E38" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="F38" s="4">
-        <v>9.395548053847737</v>
+        <v>2.656885004960127</v>
       </c>
       <c r="G38" s="5">
-        <v>0.8911704312114989</v>
+        <v>0.4558521560574949</v>
       </c>
       <c r="H38" s="4">
-        <v>8.84</v>
+        <v>15.5</v>
       </c>
       <c r="I38" s="5">
-        <v>0.1416837782340862</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="J38" s="4">
-        <v>0.7498</v>
+        <v>0.7724</v>
       </c>
       <c r="K38" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="L38" s="4">
-        <v>1.0307</v>
+        <v>0.5594</v>
       </c>
       <c r="M38" s="5">
-        <v>0.1334702258726899</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="N38" s="4">
-        <v>4.492568800130269</v>
+        <v>12.63426911842786</v>
       </c>
       <c r="O38" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="P38" s="4">
-        <v>0.9938338299153219</v>
+        <v>2.304588293350264</v>
       </c>
       <c r="Q38" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="R38" s="5">
-        <v>0.2373129950132003</v>
+        <v>0.2326195365209739</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2896,55 +2896,55 @@
         <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>22.99</v>
+        <v>58.02</v>
       </c>
       <c r="C39" s="3">
-        <v>4349</v>
+        <v>1723</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.2189451925789097</v>
+        <v>0.04039901706412307</v>
       </c>
       <c r="E39" s="5">
-        <v>0.1909650924024641</v>
+        <v>0.3223819301848049</v>
       </c>
       <c r="F39" s="4">
-        <v>2.697518370528402</v>
+        <v>9.321478402906465</v>
       </c>
       <c r="G39" s="5">
-        <v>0.4620123203285421</v>
+        <v>0.893223819301848</v>
       </c>
       <c r="H39" s="4">
-        <v>15.6</v>
+        <v>9.17</v>
       </c>
       <c r="I39" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.1457905544147844</v>
       </c>
       <c r="J39" s="4">
-        <v>0.7651</v>
+        <v>0.7454</v>
       </c>
       <c r="K39" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="L39" s="4">
-        <v>0.5715</v>
+        <v>1.0255</v>
       </c>
       <c r="M39" s="5">
-        <v>0.05544147843942505</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="N39" s="4">
-        <v>13.29321815754552</v>
+        <v>4.585205507814618</v>
       </c>
       <c r="O39" s="5">
-        <v>0.4517453798767967</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="P39" s="4">
-        <v>2.35616153321563</v>
+        <v>0.9935174162485303</v>
       </c>
       <c r="Q39" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.03285420944558522</v>
       </c>
       <c r="R39" s="5">
-        <v>0.2373129950132003</v>
+        <v>0.2373129950132004</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2952,55 +2952,55 @@
         <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>104.66</v>
+        <v>59.13</v>
       </c>
       <c r="C40" s="3">
-        <v>955</v>
+        <v>1691</v>
       </c>
       <c r="D40" s="4">
-        <v>0.09828359274345115</v>
+        <v>-3.039139766699364</v>
       </c>
       <c r="E40" s="5">
-        <v>0.4004106776180698</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="F40" s="4">
-        <v>2.506124998161273</v>
+        <v>4.973716421603794</v>
       </c>
       <c r="G40" s="5">
-        <v>0.4168377823408624</v>
+        <v>0.7885010266940452</v>
       </c>
       <c r="H40" s="4">
-        <v>14.85</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="I40" s="5">
-        <v>0.2936344969199178</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="J40" s="4">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="K40" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.12217659137577</v>
       </c>
       <c r="L40" s="4">
-        <v>0.8166</v>
+        <v>1.73</v>
       </c>
       <c r="M40" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.2864476386036961</v>
       </c>
       <c r="N40" s="4">
-        <v>8.2542869879648</v>
+        <v>7.187962732590838</v>
       </c>
       <c r="O40" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="P40" s="4">
-        <v>1.641335549711528</v>
+        <v>2.029511706116572</v>
       </c>
       <c r="Q40" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="R40" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.2376063361689645</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3008,55 +3008,55 @@
         <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>57.36</v>
+        <v>142.75</v>
       </c>
       <c r="C41" s="3">
-        <v>1743</v>
+        <v>700</v>
       </c>
       <c r="D41" s="4">
-        <v>0.23354545963989</v>
+        <v>-4.973122457613208</v>
       </c>
       <c r="E41" s="5">
-        <v>0.5318275154004106</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="F41" s="4">
-        <v>1.772496995734804</v>
+        <v>2.484683915037349</v>
       </c>
       <c r="G41" s="5">
-        <v>0.1724845995893224</v>
+        <v>0.4147843942505133</v>
       </c>
       <c r="H41" s="4">
-        <v>8.539999999999999</v>
+        <v>19.67</v>
       </c>
       <c r="I41" s="5">
-        <v>0.135523613963039</v>
+        <v>0.404517453798768</v>
       </c>
       <c r="J41" s="4">
-        <v>2.01</v>
+        <v>1.5</v>
       </c>
       <c r="K41" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="L41" s="4">
-        <v>1.09</v>
+        <v>0.6433</v>
       </c>
       <c r="M41" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="N41" s="4">
-        <v>6.098366310187515</v>
+        <v>11.2834265632989</v>
       </c>
       <c r="O41" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.3675564681724846</v>
       </c>
       <c r="P41" s="4">
-        <v>4.172197485407848</v>
+        <v>3.465730609350135</v>
       </c>
       <c r="Q41" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="R41" s="5">
-        <v>0.2383396890583749</v>
+        <v>0.2393663831035494</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3064,55 +3064,55 @@
         <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>24.75</v>
+        <v>101.1</v>
       </c>
       <c r="C42" s="3">
-        <v>4040</v>
+        <v>989</v>
       </c>
       <c r="D42" s="4">
-        <v>-0.4349666352736564</v>
+        <v>0.09788365827800899</v>
       </c>
       <c r="E42" s="5">
-        <v>0.1765913757700205</v>
+        <v>0.4004106776180698</v>
       </c>
       <c r="F42" s="4">
-        <v>2.99069946867954</v>
+        <v>2.57532205149624</v>
       </c>
       <c r="G42" s="5">
-        <v>0.5236139630390144</v>
+        <v>0.4373716632443532</v>
       </c>
       <c r="H42" s="4">
-        <v>17.68</v>
+        <v>14.42</v>
       </c>
       <c r="I42" s="5">
-        <v>0.3613963039014373</v>
+        <v>0.2823408624229979</v>
       </c>
       <c r="J42" s="4">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="K42" s="5">
-        <v>0.108829568788501</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="L42" s="4">
-        <v>1.06</v>
+        <v>0.8023</v>
       </c>
       <c r="M42" s="5">
-        <v>0.1427104722792608</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="N42" s="4">
-        <v>6.928678696096565</v>
+        <v>8.175297414181959</v>
       </c>
       <c r="O42" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.2114989733059548</v>
       </c>
       <c r="P42" s="4">
-        <v>3.409057250465292</v>
+        <v>1.643371307289638</v>
       </c>
       <c r="Q42" s="5">
-        <v>0.2094455852156057</v>
+        <v>0.08008213552361397</v>
       </c>
       <c r="R42" s="5">
-        <v>0.238633030214139</v>
+        <v>0.2395130536814315</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3120,55 +3120,55 @@
         <v>59</v>
       </c>
       <c r="B43" s="2">
-        <v>105.08</v>
+        <v>130.61</v>
       </c>
       <c r="C43" s="3">
-        <v>951</v>
+        <v>765</v>
       </c>
       <c r="D43" s="4">
-        <v>-3.243413702656551</v>
+        <v>0.488757098166999</v>
       </c>
       <c r="E43" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.6365503080082136</v>
       </c>
       <c r="F43" s="4">
-        <v>3.295524152340169</v>
+        <v>2.092926785484966</v>
       </c>
       <c r="G43" s="5">
-        <v>0.5831622176591376</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="H43" s="4">
-        <v>18.52</v>
+        <v>10.53</v>
       </c>
       <c r="I43" s="5">
-        <v>0.3839835728952772</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="J43" s="4">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K43" s="5">
-        <v>0.2669404517453799</v>
+        <v>0.2556468172484599</v>
       </c>
       <c r="L43" s="4">
-        <v>0.4699</v>
+        <v>0.8918</v>
       </c>
       <c r="M43" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.1129363449691992</v>
       </c>
       <c r="N43" s="4">
-        <v>9.423852950855027</v>
+        <v>7.393895683428744</v>
       </c>
       <c r="O43" s="5">
-        <v>0.2772073921971253</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="P43" s="4">
-        <v>1.547853264968097</v>
+        <v>1.141688459334715</v>
       </c>
       <c r="Q43" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="R43" s="5">
-        <v>0.2399530654150777</v>
+        <v>0.240393077148724</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3176,55 +3176,55 @@
         <v>60</v>
       </c>
       <c r="B44" s="2">
-        <v>139.69</v>
+        <v>102.95</v>
       </c>
       <c r="C44" s="3">
-        <v>715</v>
+        <v>971</v>
       </c>
       <c r="D44" s="4">
-        <v>-5.031180533740869</v>
+        <v>-3.246864076904871</v>
       </c>
       <c r="E44" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="F44" s="4">
-        <v>2.58124973097012</v>
+        <v>3.218388885300001</v>
       </c>
       <c r="G44" s="5">
-        <v>0.433264887063655</v>
+        <v>0.5728952772073922</v>
       </c>
       <c r="H44" s="4">
-        <v>18.92</v>
+        <v>18.49</v>
       </c>
       <c r="I44" s="5">
-        <v>0.3880903490759753</v>
+        <v>0.3819301848049281</v>
       </c>
       <c r="J44" s="4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K44" s="5">
-        <v>0.1837782340862423</v>
+        <v>0.2833675564681725</v>
       </c>
       <c r="L44" s="4">
-        <v>0.6511</v>
+        <v>0.4816</v>
       </c>
       <c r="M44" s="5">
-        <v>0.06570841889117043</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="N44" s="4">
-        <v>11.32114349143092</v>
+        <v>9.395143518049446</v>
       </c>
       <c r="O44" s="5">
-        <v>0.3675564681724846</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="P44" s="4">
-        <v>3.465719323358247</v>
+        <v>1.542684206524178</v>
       </c>
       <c r="Q44" s="5">
-        <v>0.215605749486653</v>
+        <v>0.07186858316221766</v>
       </c>
       <c r="R44" s="5">
-        <v>0.240393077148724</v>
+        <v>0.2408330888823702</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3232,55 +3232,55 @@
         <v>61</v>
       </c>
       <c r="B45" s="2">
-        <v>33.77</v>
+        <v>119.96</v>
       </c>
       <c r="C45" s="3">
-        <v>2961</v>
+        <v>833</v>
       </c>
       <c r="D45" s="4">
-        <v>0.1007231222230379</v>
+        <v>-0.7090597506030506</v>
       </c>
       <c r="E45" s="5">
-        <v>0.406570841889117</v>
+        <v>0.1560574948665298</v>
       </c>
       <c r="F45" s="4">
-        <v>2.766807242433893</v>
+        <v>-33.6768672906957</v>
       </c>
       <c r="G45" s="5">
-        <v>0.4784394250513347</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="H45" s="4">
-        <v>7.99</v>
+        <v>-29.67</v>
       </c>
       <c r="I45" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="J45" s="4">
-        <v>1.18</v>
+        <v>-67.3</v>
       </c>
       <c r="K45" s="5">
-        <v>0.12217659137577</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="L45" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M45" s="5">
-        <v>0.1273100616016427</v>
+        <v>0.7874743326488707</v>
       </c>
       <c r="N45" s="4">
-        <v>6.599338156258794</v>
+        <v>-114.7229423196293</v>
       </c>
       <c r="O45" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="P45" s="4">
-        <v>4.475505439445165</v>
+        <v>10.62268903496278</v>
       </c>
       <c r="Q45" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.702258726899384</v>
       </c>
       <c r="R45" s="5">
-        <v>0.242446465239073</v>
+        <v>0.2433264887063655</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3288,55 +3288,55 @@
         <v>62</v>
       </c>
       <c r="B46" s="2">
-        <v>122.59</v>
+        <v>40.68</v>
       </c>
       <c r="C46" s="3">
-        <v>815</v>
+        <v>2458</v>
       </c>
       <c r="D46" s="4">
-        <v>-0.7185287859160473</v>
+        <v>0.03237353692830669</v>
       </c>
       <c r="E46" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.297741273100616</v>
       </c>
       <c r="F46" s="4">
-        <v>-33.94953830834557</v>
+        <v>2.108217604661788</v>
       </c>
       <c r="G46" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="H46" s="4">
-        <v>-29.2</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I46" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.135523613963039</v>
       </c>
       <c r="J46" s="4">
-        <v>-66.15000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="K46" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="L46" s="4">
-        <v>7</v>
+        <v>1.35</v>
       </c>
       <c r="M46" s="5">
-        <v>0.7936344969199179</v>
+        <v>0.1960985626283368</v>
       </c>
       <c r="N46" s="4">
-        <v>-118.0904437106894</v>
+        <v>6.339777276665937</v>
       </c>
       <c r="O46" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="P46" s="4">
-        <v>10.81370216647791</v>
+        <v>7.046616404580561</v>
       </c>
       <c r="Q46" s="5">
-        <v>0.7063655030800821</v>
+        <v>0.484599589322382</v>
       </c>
       <c r="R46" s="5">
-        <v>0.2450865356409504</v>
+        <v>0.2433264887063655</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3344,55 +3344,55 @@
         <v>63</v>
       </c>
       <c r="B47" s="2">
-        <v>132.38</v>
+        <v>33.53</v>
       </c>
       <c r="C47" s="3">
-        <v>755</v>
+        <v>2982</v>
       </c>
       <c r="D47" s="4">
-        <v>0.469721750395166</v>
+        <v>0.09765569507415847</v>
       </c>
       <c r="E47" s="5">
-        <v>0.6283367556468172</v>
+        <v>0.3983572895277207</v>
       </c>
       <c r="F47" s="4">
-        <v>2.140656358358048</v>
+        <v>2.758340817212181</v>
       </c>
       <c r="G47" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.4763860369609856</v>
       </c>
       <c r="H47" s="4">
-        <v>10.33</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I47" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="J47" s="4">
-        <v>1.81</v>
+        <v>1.16</v>
       </c>
       <c r="K47" s="5">
-        <v>0.2741273100616016</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="L47" s="4">
-        <v>0.9022</v>
+        <v>0.994</v>
       </c>
       <c r="M47" s="5">
-        <v>0.1149897330595483</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="N47" s="4">
-        <v>7.330484090357365</v>
+        <v>6.884046782768532</v>
       </c>
       <c r="O47" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.1437371663244353</v>
       </c>
       <c r="P47" s="4">
-        <v>1.180789105207916</v>
+        <v>4.757081314083035</v>
       </c>
       <c r="Q47" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.3203285420944559</v>
       </c>
       <c r="R47" s="5">
-        <v>0.2456732179524787</v>
+        <v>0.2446465239073042</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3400,55 +3400,55 @@
         <v>64</v>
       </c>
       <c r="B48" s="2">
-        <v>102.7</v>
+        <v>103.2</v>
       </c>
       <c r="C48" s="3">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D48" s="4">
-        <v>0.05194076245100068</v>
+        <v>0.05258940407545991</v>
       </c>
       <c r="E48" s="5">
         <v>0.3429158110882957</v>
       </c>
       <c r="F48" s="4">
-        <v>7.652273341815603</v>
+        <v>7.551416146355103</v>
       </c>
       <c r="G48" s="5">
-        <v>0.8624229979466119</v>
+        <v>0.8603696098562628</v>
       </c>
       <c r="H48" s="4">
-        <v>7.74</v>
+        <v>7.76</v>
       </c>
       <c r="I48" s="5">
         <v>0.1232032854209446</v>
       </c>
       <c r="J48" s="4">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="K48" s="5">
         <v>0.1375770020533881</v>
       </c>
       <c r="L48" s="4">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="M48" s="5">
-        <v>0.1396303901437372</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="N48" s="4">
-        <v>5.09824211208215</v>
+        <v>5.065247722388594</v>
       </c>
       <c r="O48" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="P48" s="4">
-        <v>1.026181764379092</v>
+        <v>1.017815117952394</v>
       </c>
       <c r="Q48" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="R48" s="5">
-        <v>0.2466999119976533</v>
+        <v>0.2449398650630683</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3456,55 +3456,55 @@
         <v>65</v>
       </c>
       <c r="B49" s="2">
-        <v>40.03</v>
+        <v>55.86</v>
       </c>
       <c r="C49" s="3">
-        <v>2498</v>
+        <v>1790</v>
       </c>
       <c r="D49" s="4">
-        <v>0.03292041918159513</v>
+        <v>0.23493009503207</v>
       </c>
       <c r="E49" s="5">
-        <v>0.297741273100616</v>
+        <v>0.5318275154004106</v>
       </c>
       <c r="F49" s="4">
-        <v>2.112199423094278</v>
+        <v>1.820674675740698</v>
       </c>
       <c r="G49" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="H49" s="4">
-        <v>8.73</v>
+        <v>8.83</v>
       </c>
       <c r="I49" s="5">
         <v>0.1396303901437372</v>
       </c>
       <c r="J49" s="4">
-        <v>1.43</v>
+        <v>2.01</v>
       </c>
       <c r="K49" s="5">
-        <v>0.1714579055441478</v>
+        <v>0.3028747433264887</v>
       </c>
       <c r="L49" s="4">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="M49" s="5">
-        <v>0.217659137577002</v>
+        <v>0.1652977412731006</v>
       </c>
       <c r="N49" s="4">
-        <v>6.500127845840537</v>
+        <v>6.5064161916017</v>
       </c>
       <c r="O49" s="5">
-        <v>0.1293634496919918</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="P49" s="4">
-        <v>7.14509120693874</v>
+        <v>4.254139332058935</v>
       </c>
       <c r="Q49" s="5">
-        <v>0.4887063655030801</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="R49" s="5">
-        <v>0.2474332648870636</v>
+        <v>0.2455265473745966</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3512,52 +3512,52 @@
         <v>66</v>
       </c>
       <c r="B50" s="2">
-        <v>62.9</v>
+        <v>149.6</v>
       </c>
       <c r="C50" s="3">
-        <v>1589</v>
+        <v>668</v>
       </c>
       <c r="D50" s="4">
-        <v>0.003008470390235968</v>
+        <v>0.004252764989027968</v>
       </c>
       <c r="E50" s="5">
-        <v>0.217659137577002</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="F50" s="4">
-        <v>2.402823219549465</v>
+        <v>6.726692532191561</v>
       </c>
       <c r="G50" s="5">
-        <v>0.3963039014373717</v>
+        <v>0.8439425051334701</v>
       </c>
       <c r="H50" s="4">
-        <v>12.9</v>
+        <v>5.45</v>
       </c>
       <c r="I50" s="5">
-        <v>0.2361396303901437</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="J50" s="4">
-        <v>1.69</v>
+        <v>1.0109</v>
       </c>
       <c r="K50" s="5">
-        <v>0.2320328542094456</v>
+        <v>0.1047227926078029</v>
       </c>
       <c r="L50" s="4">
-        <v>1.07</v>
+        <v>2.03</v>
       </c>
       <c r="M50" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="N50" s="4">
-        <v>8.167051713878122</v>
+        <v>3.872614686591523</v>
       </c>
       <c r="O50" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="P50" s="4">
-        <v>4.571217731126196</v>
+        <v>1.878800507036501</v>
       </c>
       <c r="Q50" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.09445585215605749</v>
       </c>
       <c r="R50" s="5">
         <v>0.2490466412437665</v>
@@ -3568,55 +3568,55 @@
         <v>67</v>
       </c>
       <c r="B51" s="2">
-        <v>149.3</v>
+        <v>46.87</v>
       </c>
       <c r="C51" s="3">
-        <v>669</v>
+        <v>2133</v>
       </c>
       <c r="D51" s="4">
-        <v>0.004248126967660865</v>
+        <v>-0.116683965024671</v>
       </c>
       <c r="E51" s="5">
-        <v>0.2197125256673511</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="F51" s="4">
-        <v>6.860519609230357</v>
+        <v>13.3275748628096</v>
       </c>
       <c r="G51" s="5">
-        <v>0.8480492813141685</v>
+        <v>0.9486652977412732</v>
       </c>
       <c r="H51" s="4">
-        <v>5.53</v>
+        <v>-4.46</v>
       </c>
       <c r="I51" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.0513347022587269</v>
       </c>
       <c r="J51" s="4">
-        <v>1.0087</v>
+        <v>2.71</v>
       </c>
       <c r="K51" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.4075975359342916</v>
       </c>
       <c r="L51" s="4">
-        <v>2.02</v>
+        <v>0.7679</v>
       </c>
       <c r="M51" s="5">
-        <v>0.3439425051334702</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="N51" s="4">
-        <v>3.99808901840979</v>
+        <v>-7.464796065231121</v>
       </c>
       <c r="O51" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="P51" s="4">
-        <v>1.82982659737485</v>
+        <v>1.461808324196645</v>
       </c>
       <c r="Q51" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="R51" s="5">
-        <v>0.2494866529774127</v>
+        <v>0.2553534760926958</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3624,55 +3624,55 @@
         <v>68</v>
       </c>
       <c r="B52" s="2">
-        <v>46.24</v>
+        <v>43.5</v>
       </c>
       <c r="C52" s="3">
-        <v>2162</v>
+        <v>2298</v>
       </c>
       <c r="D52" s="4">
-        <v>-0.11625629405839</v>
+        <v>-0.1122932987516333</v>
       </c>
       <c r="E52" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="F52" s="4">
-        <v>12.76027081910845</v>
+        <v>7.031819025042055</v>
       </c>
       <c r="G52" s="5">
-        <v>0.946611909650924</v>
+        <v>0.8562628336755647</v>
       </c>
       <c r="H52" s="4">
-        <v>-4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I52" s="5">
-        <v>0.0513347022587269</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="J52" s="4">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="K52" s="5">
-        <v>0.4004106776180698</v>
+        <v>0.3860369609856263</v>
       </c>
       <c r="L52" s="4">
-        <v>0.742</v>
+        <v>0.4823</v>
       </c>
       <c r="M52" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.04928131416837783</v>
       </c>
       <c r="N52" s="4">
-        <v>-7.637991343419519</v>
+        <v>3.860452456253463</v>
       </c>
       <c r="O52" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.04517453798767967</v>
       </c>
       <c r="P52" s="4">
-        <v>1.511501689068888</v>
+        <v>3.120110035872641</v>
       </c>
       <c r="Q52" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="R52" s="5">
-        <v>0.2534467585802288</v>
+        <v>0.255793487826342</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3680,55 +3680,55 @@
         <v>69</v>
       </c>
       <c r="B53" s="2">
-        <v>44.3</v>
+        <v>62.5</v>
       </c>
       <c r="C53" s="3">
-        <v>2257</v>
+        <v>1600</v>
       </c>
       <c r="D53" s="4">
-        <v>-0.1085163556821896</v>
+        <v>0.003106874085396757</v>
       </c>
       <c r="E53" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="F53" s="4">
-        <v>6.983027863875069</v>
+        <v>2.410211213356526</v>
       </c>
       <c r="G53" s="5">
-        <v>0.8521560574948666</v>
+        <v>0.3921971252566736</v>
       </c>
       <c r="H53" s="4">
-        <v>4.27</v>
+        <v>12.9</v>
       </c>
       <c r="I53" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.242299794661191</v>
       </c>
       <c r="J53" s="4">
-        <v>2.61</v>
+        <v>1.74</v>
       </c>
       <c r="K53" s="5">
-        <v>0.3880903490759753</v>
+        <v>0.2515400410677618</v>
       </c>
       <c r="L53" s="4">
-        <v>0.4758</v>
+        <v>1.11</v>
       </c>
       <c r="M53" s="5">
-        <v>0.04928131416837783</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="N53" s="4">
-        <v>3.915662185270028</v>
+        <v>8.228492437661856</v>
       </c>
       <c r="O53" s="5">
-        <v>0.04517453798767967</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="P53" s="4">
-        <v>3.146383600479243</v>
+        <v>4.601158675366016</v>
       </c>
       <c r="Q53" s="5">
-        <v>0.1806981519507187</v>
+        <v>0.3121149897330595</v>
       </c>
       <c r="R53" s="5">
-        <v>0.255793487826342</v>
+        <v>0.2559401584042241</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3736,55 +3736,55 @@
         <v>70</v>
       </c>
       <c r="B54" s="2">
-        <v>62.21</v>
+        <v>29.32</v>
       </c>
       <c r="C54" s="3">
-        <v>1607</v>
+        <v>3410</v>
       </c>
       <c r="D54" s="4">
-        <v>0.05810177881725993</v>
+        <v>-0.2599730470718142</v>
       </c>
       <c r="E54" s="5">
-        <v>0.353182751540041</v>
+        <v>0.1868583162217659</v>
       </c>
       <c r="F54" s="4">
-        <v>12.07255984750702</v>
+        <v>4.1181144396888</v>
       </c>
       <c r="G54" s="5">
-        <v>0.9363449691991786</v>
+        <v>0.7186858316221766</v>
       </c>
       <c r="H54" s="4">
-        <v>6.05</v>
+        <v>-25.14</v>
       </c>
       <c r="I54" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.03080082135523614</v>
       </c>
       <c r="J54" s="4">
-        <v>0.6988</v>
+        <v>2.97</v>
       </c>
       <c r="K54" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.4496919917864476</v>
       </c>
       <c r="L54" s="4">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="M54" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="N54" s="4">
-        <v>3.741711962254092</v>
+        <v>5.084041019470739</v>
       </c>
       <c r="O54" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="P54" s="4">
-        <v>1.524443186675922</v>
+        <v>2.821872221770553</v>
       </c>
       <c r="Q54" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.1540041067761807</v>
       </c>
       <c r="R54" s="5">
-        <v>0.2584335582282194</v>
+        <v>0.2581402170724553</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3792,55 +3792,55 @@
         <v>71</v>
       </c>
       <c r="B55" s="2">
-        <v>115.45</v>
+        <v>116.1</v>
       </c>
       <c r="C55" s="3">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D55" s="4">
-        <v>0.1055462878319939</v>
+        <v>0.10412317942477</v>
       </c>
       <c r="E55" s="5">
         <v>0.4086242299794661</v>
       </c>
       <c r="F55" s="4">
-        <v>1.637650020568154</v>
+        <v>1.586477082877819</v>
       </c>
       <c r="G55" s="5">
-        <v>0.1232032854209446</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="H55" s="4">
-        <v>8.9</v>
+        <v>8.92</v>
       </c>
       <c r="I55" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.1416837782340862</v>
       </c>
       <c r="J55" s="4">
         <v>1.7</v>
       </c>
       <c r="K55" s="5">
-        <v>0.2361396303901437</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="L55" s="4">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M55" s="5">
-        <v>0.1919917864476386</v>
+        <v>0.1960985626283368</v>
       </c>
       <c r="N55" s="4">
-        <v>7.761152485263089</v>
+        <v>7.971757118808822</v>
       </c>
       <c r="O55" s="5">
-        <v>0.188911704312115</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="P55" s="4">
-        <v>7.545421393915247</v>
+        <v>7.558086778024365</v>
       </c>
       <c r="Q55" s="5">
-        <v>0.5195071868583162</v>
+        <v>0.5154004106776181</v>
       </c>
       <c r="R55" s="5">
-        <v>0.2588735699618656</v>
+        <v>0.2585802288061015</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3848,55 +3848,55 @@
         <v>72</v>
       </c>
       <c r="B56" s="2">
-        <v>29.43</v>
+        <v>61.35</v>
       </c>
       <c r="C56" s="3">
-        <v>3397</v>
+        <v>1629</v>
       </c>
       <c r="D56" s="4">
-        <v>-0.2588175707091733</v>
+        <v>0.05759462852645398</v>
       </c>
       <c r="E56" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="F56" s="4">
-        <v>4.213187237628508</v>
+        <v>12.31463743062792</v>
       </c>
       <c r="G56" s="5">
-        <v>0.7248459958932238</v>
+        <v>0.9404517453798767</v>
       </c>
       <c r="H56" s="4">
-        <v>-24.64</v>
+        <v>5.96</v>
       </c>
       <c r="I56" s="5">
-        <v>0.03080082135523614</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="J56" s="4">
-        <v>3</v>
+        <v>0.6928</v>
       </c>
       <c r="K56" s="5">
-        <v>0.4548254620123203</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="L56" s="4">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="M56" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.2556468172484599</v>
       </c>
       <c r="N56" s="4">
-        <v>5.084125097374921</v>
+        <v>3.802602825283095</v>
       </c>
       <c r="O56" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.0431211498973306</v>
       </c>
       <c r="P56" s="4">
-        <v>2.923592269382497</v>
+        <v>1.458471715597607</v>
       </c>
       <c r="Q56" s="5">
-        <v>0.162217659137577</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="R56" s="5">
-        <v>0.259460252273394</v>
+        <v>0.2594602522733939</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3904,55 +3904,55 @@
         <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>6.33</v>
+        <v>92.47</v>
       </c>
       <c r="C57" s="3">
-        <v>15797</v>
+        <v>1081</v>
       </c>
       <c r="D57" s="4">
-        <v>0.2146690940563682</v>
+        <v>0.01403892103876508</v>
       </c>
       <c r="E57" s="5">
-        <v>0.5154004106776181</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="F57" s="4">
-        <v>2.946439251931221</v>
+        <v>3.421703630741213</v>
       </c>
       <c r="G57" s="5">
-        <v>0.5133470225872689</v>
+        <v>0.5995893223819302</v>
       </c>
       <c r="H57" s="4">
-        <v>20.97</v>
+        <v>5.39</v>
       </c>
       <c r="I57" s="5">
-        <v>0.4229979466119096</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="J57" s="4">
-        <v>0.7788</v>
+        <v>2.65</v>
       </c>
       <c r="K57" s="5">
-        <v>0.08008213552361397</v>
+        <v>0.3963039014373717</v>
       </c>
       <c r="L57" s="4">
-        <v>0.3306</v>
+        <v>0.76</v>
       </c>
       <c r="M57" s="5">
-        <v>0.01848049281314168</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="N57" s="4">
-        <v>3.950402379133218</v>
+        <v>4.91585788612721</v>
       </c>
       <c r="O57" s="5">
-        <v>0.04722792607802875</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="P57" s="4">
-        <v>3.669860341301704</v>
+        <v>5.198690716842489</v>
       </c>
       <c r="Q57" s="5">
-        <v>0.2238193018480493</v>
+        <v>0.3552361396303901</v>
       </c>
       <c r="R57" s="5">
-        <v>0.2601936051628043</v>
+        <v>0.2622469932531534</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3960,55 +3960,55 @@
         <v>74</v>
       </c>
       <c r="B58" s="2">
-        <v>91.73999999999999</v>
+        <v>6.29</v>
       </c>
       <c r="C58" s="3">
-        <v>1090</v>
+        <v>15898</v>
       </c>
       <c r="D58" s="4">
-        <v>0.0140352168824058</v>
+        <v>0.2102779508154684</v>
       </c>
       <c r="E58" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.5112936344969199</v>
       </c>
       <c r="F58" s="4">
-        <v>3.364582454401398</v>
+        <v>3.037723841795139</v>
       </c>
       <c r="G58" s="5">
-        <v>0.5913757700205339</v>
+        <v>0.5338809034907598</v>
       </c>
       <c r="H58" s="4">
-        <v>5.36</v>
+        <v>21.34</v>
       </c>
       <c r="I58" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="J58" s="4">
-        <v>2.66</v>
+        <v>0.8047</v>
       </c>
       <c r="K58" s="5">
-        <v>0.3963039014373717</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="L58" s="4">
-        <v>0.74</v>
+        <v>0.3311</v>
       </c>
       <c r="M58" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.02053388090349076</v>
       </c>
       <c r="N58" s="4">
-        <v>4.895476228823894</v>
+        <v>4.05213200294567</v>
       </c>
       <c r="O58" s="5">
-        <v>0.07597535934291581</v>
+        <v>0.05338809034907597</v>
       </c>
       <c r="P58" s="4">
-        <v>5.176322427070418</v>
+        <v>3.793506422977796</v>
       </c>
       <c r="Q58" s="5">
-        <v>0.353182751540041</v>
+        <v>0.2340862422997947</v>
       </c>
       <c r="R58" s="5">
-        <v>0.2610736286300968</v>
+        <v>0.2666471105896157</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4016,55 +4016,55 @@
         <v>75</v>
       </c>
       <c r="B59" s="2">
-        <v>267.55</v>
+        <v>271.55</v>
       </c>
       <c r="C59" s="3">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D59" s="4">
-        <v>0.195465609691168</v>
+        <v>0.195494414282717</v>
       </c>
       <c r="E59" s="5">
-        <v>0.5030800821355236</v>
+        <v>0.4989733059548254</v>
       </c>
       <c r="F59" s="4">
-        <v>3.687327516541544</v>
+        <v>3.701531313458024</v>
       </c>
       <c r="G59" s="5">
-        <v>0.6611909650924025</v>
+        <v>0.6632443531827515</v>
       </c>
       <c r="H59" s="4">
-        <v>10.67</v>
+        <v>10.95</v>
       </c>
       <c r="I59" s="5">
-        <v>0.1919917864476386</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="J59" s="4">
         <v>1.1</v>
       </c>
       <c r="K59" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="L59" s="4">
-        <v>0.9368</v>
+        <v>0.9574</v>
       </c>
       <c r="M59" s="5">
         <v>0.1190965092402464</v>
       </c>
       <c r="N59" s="4">
-        <v>9.058218784743834</v>
+        <v>8.906465725208072</v>
       </c>
       <c r="O59" s="5">
         <v>0.2587268993839836</v>
       </c>
       <c r="P59" s="4">
-        <v>0.9249496099054907</v>
+        <v>0.9278816940839794</v>
       </c>
       <c r="Q59" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.02874743326488706</v>
       </c>
       <c r="R59" s="5">
-        <v>0.2676738046347902</v>
+        <v>0.2687004986799648</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4072,55 +4072,55 @@
         <v>76</v>
       </c>
       <c r="B60" s="2">
-        <v>49.78</v>
+        <v>90.53</v>
       </c>
       <c r="C60" s="3">
-        <v>2008</v>
+        <v>1104</v>
       </c>
       <c r="D60" s="4">
-        <v>-73.59004549831388</v>
+        <v>0.01614300520653978</v>
       </c>
       <c r="E60" s="5">
-        <v>0.004106776180698152</v>
+        <v>0.2525667351129364</v>
       </c>
       <c r="F60" s="4">
-        <v>1.8735943878607</v>
+        <v>1.778290672677396</v>
       </c>
       <c r="G60" s="5">
-        <v>0.2053388090349076</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="H60" s="4">
-        <v>14.72</v>
+        <v>17.17</v>
       </c>
       <c r="I60" s="5">
-        <v>0.2854209445585216</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="J60" s="4">
-        <v>1.89</v>
+        <v>2.35</v>
       </c>
       <c r="K60" s="5">
-        <v>0.2813141683778234</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="L60" s="4">
-        <v>1.18</v>
+        <v>3.12</v>
       </c>
       <c r="M60" s="5">
-        <v>0.1714579055441478</v>
+        <v>0.4876796714579056</v>
       </c>
       <c r="N60" s="4">
-        <v>11.21997245213012</v>
+        <v>6.24733038430638</v>
       </c>
       <c r="O60" s="5">
-        <v>0.3593429158110883</v>
+        <v>0.1170431211498973</v>
       </c>
       <c r="P60" s="4">
-        <v>8.177471585970936</v>
+        <v>2.9792658639966</v>
       </c>
       <c r="Q60" s="5">
-        <v>0.5728952772073922</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="R60" s="5">
-        <v>0.2685538281020827</v>
+        <v>0.2688471692578469</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4128,55 +4128,55 @@
         <v>77</v>
       </c>
       <c r="B61" s="2">
-        <v>17.33</v>
+        <v>46.43</v>
       </c>
       <c r="C61" s="3">
-        <v>5770</v>
+        <v>2153</v>
       </c>
       <c r="D61" s="4">
-        <v>0.09100482434755378</v>
+        <v>0.03767610574263647</v>
       </c>
       <c r="E61" s="5">
-        <v>0.3880903490759753</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="F61" s="4">
-        <v>4.795176136621413</v>
+        <v>3.162853311666239</v>
       </c>
       <c r="G61" s="5">
-        <v>0.7782340862422998</v>
+        <v>0.5544147843942505</v>
       </c>
       <c r="H61" s="4">
-        <v>13</v>
+        <v>11.09</v>
       </c>
       <c r="I61" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="J61" s="4">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="K61" s="5">
-        <v>0.3470225872689939</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="L61" s="4">
-        <v>0.3928</v>
+        <v>0.8454</v>
       </c>
       <c r="M61" s="5">
-        <v>0.03490759753593429</v>
+        <v>0.1067761806981519</v>
       </c>
       <c r="N61" s="4">
-        <v>4.83192642501691</v>
+        <v>7.617969599512199</v>
       </c>
       <c r="O61" s="5">
-        <v>0.07186858316221766</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="P61" s="4">
-        <v>0.9790411340650567</v>
+        <v>3.885924808421088</v>
       </c>
       <c r="Q61" s="5">
-        <v>0.03285420944558522</v>
+        <v>0.24435318275154</v>
       </c>
       <c r="R61" s="5">
-        <v>0.2704605456145497</v>
+        <v>0.2695805221472573</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4184,55 +4184,55 @@
         <v>78</v>
       </c>
       <c r="B62" s="2">
-        <v>72.09999999999999</v>
+        <v>49.5</v>
       </c>
       <c r="C62" s="3">
-        <v>1386</v>
+        <v>2020</v>
       </c>
       <c r="D62" s="4">
-        <v>-0.7744783893836803</v>
+        <v>-76.53654019224487</v>
       </c>
       <c r="E62" s="5">
-        <v>0.1457905544147844</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="F62" s="4">
-        <v>3.199591823208991</v>
+        <v>1.87744831837876</v>
       </c>
       <c r="G62" s="5">
-        <v>0.5585215605749486</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="H62" s="4">
-        <v>-63.63</v>
+        <v>14.78</v>
       </c>
       <c r="I62" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.2915811088295688</v>
       </c>
       <c r="J62" s="4">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="K62" s="5">
-        <v>0.2577002053388091</v>
+        <v>0.2782340862422998</v>
       </c>
       <c r="L62" s="4">
-        <v>0.3435</v>
+        <v>1.16</v>
       </c>
       <c r="M62" s="5">
-        <v>0.02669404517453798</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="N62" s="4">
-        <v>14.01004207609526</v>
+        <v>11.58508246465253</v>
       </c>
       <c r="O62" s="5">
-        <v>0.486652977412731</v>
+        <v>0.3737166324435318</v>
       </c>
       <c r="P62" s="4">
-        <v>5.969283163181752</v>
+        <v>8.18828642816524</v>
       </c>
       <c r="Q62" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.5728952772073922</v>
       </c>
       <c r="R62" s="5">
-        <v>0.2711938985039601</v>
+        <v>0.2703138750366677</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4240,55 +4240,55 @@
         <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>68.06</v>
+        <v>17.91</v>
       </c>
       <c r="C63" s="3">
-        <v>1469</v>
+        <v>5583</v>
       </c>
       <c r="D63" s="4">
-        <v>0.1288006361383673</v>
+        <v>0.0899638624639376</v>
       </c>
       <c r="E63" s="5">
-        <v>0.4476386036960986</v>
+        <v>0.3880903490759753</v>
       </c>
       <c r="F63" s="4">
-        <v>17.97261987894409</v>
+        <v>4.607377742765776</v>
       </c>
       <c r="G63" s="5">
-        <v>0.9712525667351128</v>
+        <v>0.7638603696098563</v>
       </c>
       <c r="H63" s="4">
-        <v>9.9</v>
+        <v>13.4</v>
       </c>
       <c r="I63" s="5">
-        <v>0.1673511293634497</v>
+        <v>0.2505133470225873</v>
       </c>
       <c r="J63" s="4">
-        <v>0.591</v>
+        <v>2.4</v>
       </c>
       <c r="K63" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.3521560574948666</v>
       </c>
       <c r="L63" s="4">
-        <v>0.648</v>
+        <v>0.4077</v>
       </c>
       <c r="M63" s="5">
-        <v>0.06365503080082136</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="N63" s="4">
-        <v>7.519585835502118</v>
+        <v>4.955964307267925</v>
       </c>
       <c r="O63" s="5">
-        <v>0.1745379876796715</v>
+        <v>0.07802874743326488</v>
       </c>
       <c r="P63" s="4">
-        <v>0.6349564799387929</v>
+        <v>1.044543114310079</v>
       </c>
       <c r="Q63" s="5">
-        <v>0.01437371663244353</v>
+        <v>0.03696098562628337</v>
       </c>
       <c r="R63" s="5">
-        <v>0.2717805808154884</v>
+        <v>0.2723672631270167</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4296,55 +4296,55 @@
         <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>47.92</v>
+        <v>69.59</v>
       </c>
       <c r="C64" s="3">
-        <v>2086</v>
+        <v>1436</v>
       </c>
       <c r="D64" s="4">
-        <v>0.03871048231450482</v>
+        <v>0.1297144525520542</v>
       </c>
       <c r="E64" s="5">
-        <v>0.3203285420944559</v>
+        <v>0.4455852156057494</v>
       </c>
       <c r="F64" s="4">
-        <v>3.210718216319238</v>
+        <v>18.27254016473019</v>
       </c>
       <c r="G64" s="5">
-        <v>0.5605749486652978</v>
+        <v>0.9712525667351128</v>
       </c>
       <c r="H64" s="4">
-        <v>11.04</v>
+        <v>10.01</v>
       </c>
       <c r="I64" s="5">
-        <v>0.1991786447638604</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="J64" s="4">
-        <v>1.84</v>
+        <v>0.5865</v>
       </c>
       <c r="K64" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="L64" s="4">
-        <v>0.8228</v>
+        <v>0.6401</v>
       </c>
       <c r="M64" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="N64" s="4">
-        <v>7.816614400036432</v>
+        <v>7.657406542560456</v>
       </c>
       <c r="O64" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.1848049281314168</v>
       </c>
       <c r="P64" s="4">
-        <v>3.908119654770542</v>
+        <v>0.6142061049882515</v>
       </c>
       <c r="Q64" s="5">
-        <v>0.24435318275154</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="R64" s="5">
-        <v>0.2719272513933705</v>
+        <v>0.2733939571721912</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4352,55 +4352,55 @@
         <v>81</v>
       </c>
       <c r="B65" s="2">
-        <v>88.65000000000001</v>
+        <v>44.45</v>
       </c>
       <c r="C65" s="3">
-        <v>1128</v>
+        <v>2249</v>
       </c>
       <c r="D65" s="4">
-        <v>0.01569010589099274</v>
+        <v>0.1716980934453925</v>
       </c>
       <c r="E65" s="5">
-        <v>0.2484599589322382</v>
+        <v>0.4804928131416837</v>
       </c>
       <c r="F65" s="4">
-        <v>1.750023053435432</v>
+        <v>2.569310063182668</v>
       </c>
       <c r="G65" s="5">
-        <v>0.1642710472279261</v>
+        <v>0.4353182751540041</v>
       </c>
       <c r="H65" s="4">
-        <v>17.45</v>
+        <v>14.11</v>
       </c>
       <c r="I65" s="5">
-        <v>0.3480492813141683</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="J65" s="4">
-        <v>2.37</v>
+        <v>1.61</v>
       </c>
       <c r="K65" s="5">
-        <v>0.351129363449692</v>
+        <v>0.2125256673511293</v>
       </c>
       <c r="L65" s="4">
-        <v>3.11</v>
+        <v>0.6927</v>
       </c>
       <c r="M65" s="5">
-        <v>0.4887063655030801</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="N65" s="4">
-        <v>6.396881946811863</v>
+        <v>7.410806335287591</v>
       </c>
       <c r="O65" s="5">
-        <v>0.1211498973305955</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="P65" s="4">
-        <v>3.157801991813877</v>
+        <v>4.288433523614567</v>
       </c>
       <c r="Q65" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.2731006160164271</v>
       </c>
       <c r="R65" s="5">
-        <v>0.2726606042827809</v>
+        <v>0.2735406277500733</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4408,55 +4408,55 @@
         <v>82</v>
       </c>
       <c r="B66" s="2">
-        <v>194.92</v>
+        <v>48.14</v>
       </c>
       <c r="C66" s="3">
-        <v>513</v>
+        <v>2077</v>
       </c>
       <c r="D66" s="4">
-        <v>0.03298143441167627</v>
+        <v>0.02971547396753029</v>
       </c>
       <c r="E66" s="5">
-        <v>0.2997946611909651</v>
+        <v>0.2874743326488706</v>
       </c>
       <c r="F66" s="4">
-        <v>3.511914503092519</v>
+        <v>6.752071079485809</v>
       </c>
       <c r="G66" s="5">
-        <v>0.62217659137577</v>
+        <v>0.8459958932238193</v>
       </c>
       <c r="H66" s="4">
-        <v>10</v>
+        <v>6.64</v>
       </c>
       <c r="I66" s="5">
-        <v>0.1704312114989733</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="J66" s="4">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="K66" s="5">
-        <v>0.1714579055441478</v>
+        <v>0.2895277207392197</v>
       </c>
       <c r="L66" s="4">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="M66" s="5">
-        <v>0.351129363449692</v>
+        <v>0.2515400410677618</v>
       </c>
       <c r="N66" s="4">
-        <v>7.693424393493269</v>
+        <v>4.331479478523631</v>
       </c>
       <c r="O66" s="5">
-        <v>0.1848049281314168</v>
+        <v>0.05749486652977413</v>
       </c>
       <c r="P66" s="4">
-        <v>2.065627491999479</v>
+        <v>1.651381674926384</v>
       </c>
       <c r="Q66" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="R66" s="5">
-        <v>0.272953945438545</v>
+        <v>0.2738339689058375</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4464,55 +4464,55 @@
         <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>47.16</v>
+        <v>197.4</v>
       </c>
       <c r="C67" s="3">
-        <v>2120</v>
+        <v>506</v>
       </c>
       <c r="D67" s="4">
-        <v>0.02917320363212325</v>
+        <v>0.03310970686545606</v>
       </c>
       <c r="E67" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.2997946611909651</v>
       </c>
       <c r="F67" s="4">
-        <v>6.816020086233075</v>
+        <v>3.493803561429138</v>
       </c>
       <c r="G67" s="5">
-        <v>0.8459958932238193</v>
+        <v>0.6180698151950719</v>
       </c>
       <c r="H67" s="4">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I67" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="J67" s="4">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="K67" s="5">
-        <v>0.297741273100616</v>
+        <v>0.1652977412731006</v>
       </c>
       <c r="L67" s="4">
-        <v>1.56</v>
+        <v>2.05</v>
       </c>
       <c r="M67" s="5">
-        <v>0.2556468172484599</v>
+        <v>0.3490759753593429</v>
       </c>
       <c r="N67" s="4">
-        <v>4.215060287046117</v>
+        <v>8.122131675421134</v>
       </c>
       <c r="O67" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.2073921971252567</v>
       </c>
       <c r="P67" s="4">
-        <v>1.652587393666124</v>
+        <v>2.113003551417894</v>
       </c>
       <c r="Q67" s="5">
-        <v>0.08624229979466119</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="R67" s="5">
-        <v>0.2758873569961866</v>
+        <v>0.2744206512173658</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4520,55 +4520,55 @@
         <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>45.72</v>
+        <v>63.45</v>
       </c>
       <c r="C68" s="3">
-        <v>2187</v>
+        <v>1576</v>
       </c>
       <c r="D68" s="4">
-        <v>0.1670791573715566</v>
+        <v>0.0222551700846501</v>
       </c>
       <c r="E68" s="5">
-        <v>0.4804928131416837</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="F68" s="4">
-        <v>2.54629529140782</v>
+        <v>3.19652039024508</v>
       </c>
       <c r="G68" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.5667351129363449</v>
       </c>
       <c r="H68" s="4">
-        <v>14.21</v>
+        <v>4.53</v>
       </c>
       <c r="I68" s="5">
-        <v>0.271047227926078</v>
+        <v>0.07597535934291581</v>
       </c>
       <c r="J68" s="4">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="K68" s="5">
-        <v>0.2145790554414785</v>
+        <v>0.1714579055441478</v>
       </c>
       <c r="L68" s="4">
-        <v>0.713</v>
+        <v>0.4018</v>
       </c>
       <c r="M68" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="N68" s="4">
-        <v>7.672744109932702</v>
+        <v>9.618510980927706</v>
       </c>
       <c r="O68" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.2854209445585216</v>
       </c>
       <c r="P68" s="4">
-        <v>4.431512627570195</v>
+        <v>7.680201374074497</v>
       </c>
       <c r="Q68" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.5215605749486653</v>
       </c>
       <c r="R68" s="5">
-        <v>0.2770607216192432</v>
+        <v>0.2750073335288941</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4576,55 +4576,55 @@
         <v>85</v>
       </c>
       <c r="B69" s="2">
-        <v>159.5</v>
+        <v>159.33</v>
       </c>
       <c r="C69" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D69" s="4">
-        <v>0.1723444663426762</v>
+        <v>0.1719356714771978</v>
       </c>
       <c r="E69" s="5">
         <v>0.4825462012320329</v>
       </c>
       <c r="F69" s="4">
-        <v>4.352013506983726</v>
+        <v>4.341283428820748</v>
       </c>
       <c r="G69" s="5">
-        <v>0.7412731006160165</v>
+        <v>0.7392197125256673</v>
       </c>
       <c r="H69" s="4">
-        <v>11.38</v>
+        <v>10.96</v>
       </c>
       <c r="I69" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.1991786447638604</v>
       </c>
       <c r="J69" s="4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K69" s="5">
-        <v>0.1652977412731006</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="L69" s="4">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="M69" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.162217659137577</v>
       </c>
       <c r="N69" s="4">
-        <v>7.017369265302943</v>
+        <v>7.514983771908822</v>
       </c>
       <c r="O69" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.1724845995893224</v>
       </c>
       <c r="P69" s="4">
-        <v>1.086266652177717</v>
+        <v>1.143834901174337</v>
       </c>
       <c r="Q69" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.04722792607802875</v>
       </c>
       <c r="R69" s="5">
-        <v>0.2794074508653564</v>
+        <v>0.2804341449105309</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4632,55 +4632,55 @@
         <v>86</v>
       </c>
       <c r="B70" s="2">
-        <v>64.84999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C70" s="3">
-        <v>1542</v>
+        <v>1360</v>
       </c>
       <c r="D70" s="4">
-        <v>0.0218863124368299</v>
+        <v>-0.7777305121319384</v>
       </c>
       <c r="E70" s="5">
+        <v>0.1478439425051335</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3.228899660723932</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.5770020533880903</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-63.36</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.01437371663244353</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="K70" s="5">
         <v>0.2689938398357289</v>
       </c>
-      <c r="F70" s="4">
-        <v>3.242847284903086</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0.5708418891170431</v>
-      </c>
-      <c r="H70" s="4">
-        <v>4.51</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0.07597535934291581</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="K70" s="5">
-        <v>0.1683778234086242</v>
-      </c>
       <c r="L70" s="4">
-        <v>0.4067</v>
+        <v>0.3334</v>
       </c>
       <c r="M70" s="5">
-        <v>0.03696098562628337</v>
+        <v>0.02258726899383983</v>
       </c>
       <c r="N70" s="4">
-        <v>9.990026826287561</v>
+        <v>14.58943819838256</v>
       </c>
       <c r="O70" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.5092402464065708</v>
       </c>
       <c r="P70" s="4">
-        <v>7.815431034418677</v>
+        <v>6.090889891903595</v>
       </c>
       <c r="Q70" s="5">
-        <v>0.5338809034907598</v>
+        <v>0.4229979466119096</v>
       </c>
       <c r="R70" s="5">
-        <v>0.2795541214432385</v>
+        <v>0.2804341449105309</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4688,25 +4688,25 @@
         <v>87</v>
       </c>
       <c r="B71" s="2">
-        <v>73.86</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="C71" s="3">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="D71" s="4">
-        <v>0.01702705647972622</v>
+        <v>0.01758991860002019</v>
       </c>
       <c r="E71" s="5">
         <v>0.2607802874743326</v>
       </c>
       <c r="F71" s="4">
-        <v>3.23311791029083</v>
+        <v>3.21501390954786</v>
       </c>
       <c r="G71" s="5">
-        <v>0.568788501026694</v>
+        <v>0.5708418891170431</v>
       </c>
       <c r="H71" s="4">
-        <v>-67.23</v>
+        <v>-66.97</v>
       </c>
       <c r="I71" s="5">
         <v>0.01232032854209446</v>
@@ -4715,28 +4715,28 @@
         <v>1.7</v>
       </c>
       <c r="K71" s="5">
-        <v>0.2361396303901437</v>
+        <v>0.2402464065708419</v>
       </c>
       <c r="L71" s="4">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="M71" s="5">
         <v>0.01437371663244353</v>
       </c>
       <c r="N71" s="4">
-        <v>16.35467644068499</v>
+        <v>16.39026771272763</v>
       </c>
       <c r="O71" s="5">
-        <v>0.568788501026694</v>
+        <v>0.5728952772073922</v>
       </c>
       <c r="P71" s="4">
-        <v>4.510529338638844</v>
+        <v>4.540842304020599</v>
       </c>
       <c r="Q71" s="5">
-        <v>0.297741273100616</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="R71" s="5">
-        <v>0.2798474625990026</v>
+        <v>0.2819008506893517</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4744,55 +4744,55 @@
         <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>161.53</v>
+        <v>236.23</v>
       </c>
       <c r="C72" s="3">
-        <v>619</v>
+        <v>423</v>
       </c>
       <c r="D72" s="4">
-        <v>0.005704229701843141</v>
+        <v>0.1307488380035773</v>
       </c>
       <c r="E72" s="5">
-        <v>0.2258726899383983</v>
+        <v>0.4476386036960986</v>
       </c>
       <c r="F72" s="4">
-        <v>2.05922051604372</v>
+        <v>3.284131855394953</v>
       </c>
       <c r="G72" s="5">
-        <v>0.271047227926078</v>
+        <v>0.5831622176591376</v>
       </c>
       <c r="H72" s="4">
-        <v>11.86</v>
+        <v>9.83</v>
       </c>
       <c r="I72" s="5">
-        <v>0.2217659137577002</v>
+        <v>0.1683778234086242</v>
       </c>
       <c r="J72" s="4">
-        <v>2.45</v>
+        <v>1.58</v>
       </c>
       <c r="K72" s="5">
-        <v>0.3655030800821356</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="L72" s="4">
-        <v>1.79</v>
+        <v>0.4553</v>
       </c>
       <c r="M72" s="5">
-        <v>0.2926078028747433</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="N72" s="4">
-        <v>8.06333558713702</v>
+        <v>10.74684892064361</v>
       </c>
       <c r="O72" s="5">
-        <v>0.2073921971252567</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="P72" s="4">
-        <v>5.894744730430738</v>
+        <v>3.29916064662076</v>
       </c>
       <c r="Q72" s="5">
-        <v>0.404517453798768</v>
+        <v>0.1971252566735113</v>
       </c>
       <c r="R72" s="5">
-        <v>0.2841009093575829</v>
+        <v>0.2827808741566442</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4800,55 +4800,55 @@
         <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>156.32</v>
+        <v>81.19</v>
       </c>
       <c r="C73" s="3">
-        <v>639</v>
+        <v>1231</v>
       </c>
       <c r="D73" s="4">
-        <v>0.04980677842563986</v>
+        <v>0.04923959965617906</v>
       </c>
       <c r="E73" s="5">
         <v>0.3347022587268993</v>
       </c>
       <c r="F73" s="4">
-        <v>1.673685343965514</v>
+        <v>2.455168731485495</v>
       </c>
       <c r="G73" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="H73" s="4">
-        <v>8.619999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="I73" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.3634496919917864</v>
       </c>
       <c r="J73" s="4">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="K73" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.2012320328542095</v>
       </c>
       <c r="L73" s="4">
-        <v>2.51</v>
+        <v>1.17</v>
       </c>
       <c r="M73" s="5">
-        <v>0.417864476386037</v>
+        <v>0.1704312114989733</v>
       </c>
       <c r="N73" s="4">
-        <v>8.464279240792115</v>
+        <v>8.645859472888501</v>
       </c>
       <c r="O73" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.2484599589322382</v>
       </c>
       <c r="P73" s="4">
-        <v>5.490539570331892</v>
+        <v>4.172142393878813</v>
       </c>
       <c r="Q73" s="5">
-        <v>0.37782340862423</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="R73" s="5">
-        <v>0.2846875916691112</v>
+        <v>0.2833675564681725</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4856,55 +4856,55 @@
         <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>81.42</v>
+        <v>160.65</v>
       </c>
       <c r="C74" s="3">
-        <v>1228</v>
+        <v>622</v>
       </c>
       <c r="D74" s="4">
-        <v>0.04993400437388096</v>
+        <v>0.05091869262969251</v>
       </c>
       <c r="E74" s="5">
-        <v>0.3367556468172485</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="F74" s="4">
-        <v>2.44250891724707</v>
+        <v>1.634727078500313</v>
       </c>
       <c r="G74" s="5">
-        <v>0.4024640657084189</v>
+        <v>0.1252566735112936</v>
       </c>
       <c r="H74" s="4">
-        <v>17.9</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I74" s="5">
-        <v>0.3716632443531827</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="J74" s="4">
-        <v>1.64</v>
+        <v>2.4</v>
       </c>
       <c r="K74" s="5">
-        <v>0.2207392197125257</v>
+        <v>0.3521560574948666</v>
       </c>
       <c r="L74" s="4">
-        <v>1.16</v>
+        <v>2.56</v>
       </c>
       <c r="M74" s="5">
-        <v>0.1683778234086242</v>
+        <v>0.4229979466119096</v>
       </c>
       <c r="N74" s="4">
-        <v>8.502414242638606</v>
+        <v>8.350799478360853</v>
       </c>
       <c r="O74" s="5">
-        <v>0.2340862422997947</v>
+        <v>0.2217659137577002</v>
       </c>
       <c r="P74" s="4">
-        <v>4.173527436316715</v>
+        <v>5.701397771494122</v>
       </c>
       <c r="Q74" s="5">
-        <v>0.2628336755646817</v>
+        <v>0.3860369609856263</v>
       </c>
       <c r="R74" s="5">
-        <v>0.2852742739806395</v>
+        <v>0.2835142270460546</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4912,55 +4912,55 @@
         <v>91</v>
       </c>
       <c r="B75" s="2">
-        <v>233.23</v>
+        <v>158.52</v>
       </c>
       <c r="C75" s="3">
-        <v>428</v>
+        <v>630</v>
       </c>
       <c r="D75" s="4">
-        <v>0.1298698497493478</v>
+        <v>0.005790076185961144</v>
       </c>
       <c r="E75" s="5">
-        <v>0.4496919917864476</v>
+        <v>0.2258726899383983</v>
       </c>
       <c r="F75" s="4">
-        <v>3.339221332747929</v>
+        <v>2.07168918997631</v>
       </c>
       <c r="G75" s="5">
-        <v>0.5852156057494866</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="H75" s="4">
-        <v>9.44</v>
+        <v>11.78</v>
       </c>
       <c r="I75" s="5">
-        <v>0.1540041067761807</v>
+        <v>0.217659137577002</v>
       </c>
       <c r="J75" s="4">
-        <v>1.64</v>
+        <v>2.48</v>
       </c>
       <c r="K75" s="5">
-        <v>0.2207392197125257</v>
+        <v>0.3696098562628337</v>
       </c>
       <c r="L75" s="4">
-        <v>0.4412</v>
+        <v>1.77</v>
       </c>
       <c r="M75" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.2936344969199178</v>
       </c>
       <c r="N75" s="4">
-        <v>10.96751195416906</v>
+        <v>8.33194037231331</v>
       </c>
       <c r="O75" s="5">
-        <v>0.353182751540041</v>
+        <v>0.2197125256673511</v>
       </c>
       <c r="P75" s="4">
-        <v>3.282597929127153</v>
+        <v>5.881256753122502</v>
       </c>
       <c r="Q75" s="5">
-        <v>0.1971252566735113</v>
+        <v>0.3983572895277207</v>
       </c>
       <c r="R75" s="5">
-        <v>0.2858609562921678</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4968,34 +4968,34 @@
         <v>92</v>
       </c>
       <c r="B76" s="2">
-        <v>403.32</v>
+        <v>391.64</v>
       </c>
       <c r="C76" s="3">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D76" s="4">
-        <v>0.02398137381651383</v>
+        <v>0.02435910421370324</v>
       </c>
       <c r="E76" s="5">
         <v>0.2792607802874743</v>
       </c>
       <c r="F76" s="4">
-        <v>14.02105976006815</v>
+        <v>13.75969394563262</v>
       </c>
       <c r="G76" s="5">
         <v>0.9548254620123202</v>
       </c>
       <c r="H76" s="4">
-        <v>6.67</v>
+        <v>6.38</v>
       </c>
       <c r="I76" s="5">
-        <v>0.1026694045174538</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="J76" s="4">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="K76" s="5">
-        <v>0.162217659137577</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="L76" s="4">
         <v>2</v>
@@ -5004,19 +5004,19 @@
         <v>0.3388090349075976</v>
       </c>
       <c r="N76" s="4">
-        <v>4.314733557556113</v>
+        <v>4.356274535720972</v>
       </c>
       <c r="O76" s="5">
         <v>0.0595482546201232</v>
       </c>
       <c r="P76" s="4">
-        <v>1.947810650568989</v>
+        <v>2.051058990359745</v>
       </c>
       <c r="Q76" s="5">
-        <v>0.1067761806981519</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="R76" s="5">
-        <v>0.286300968025814</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5024,55 +5024,55 @@
         <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>71.13</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C77" s="3">
-        <v>1405</v>
+        <v>1460</v>
       </c>
       <c r="D77" s="4">
-        <v>0.4310500549652754</v>
+        <v>0.4373437460461791</v>
       </c>
       <c r="E77" s="5">
-        <v>0.6160164271047228</v>
+        <v>0.6201232032854209</v>
       </c>
       <c r="F77" s="4">
-        <v>4.353606879810933</v>
+        <v>4.342475338594191</v>
       </c>
       <c r="G77" s="5">
-        <v>0.7433264887063654</v>
+        <v>0.7412731006160165</v>
       </c>
       <c r="H77" s="4">
-        <v>11.6</v>
+        <v>11.54</v>
       </c>
       <c r="I77" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="J77" s="4">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="K77" s="5">
-        <v>0.1570841889117043</v>
+        <v>0.1550308008213552</v>
       </c>
       <c r="L77" s="4">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="M77" s="5">
-        <v>0.1478439425051335</v>
+        <v>0.148870636550308</v>
       </c>
       <c r="N77" s="4">
-        <v>5.406269004191951</v>
+        <v>5.26411862254897</v>
       </c>
       <c r="O77" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.09034907597535934</v>
       </c>
       <c r="P77" s="4">
-        <v>1.094834732000873</v>
+        <v>1.071991349918427</v>
       </c>
       <c r="Q77" s="5">
-        <v>0.04106776180698152</v>
+        <v>0.03901437371663244</v>
       </c>
       <c r="R77" s="5">
-        <v>0.2870343209152244</v>
+        <v>0.2868876503373423</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5080,55 +5080,55 @@
         <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>57.59</v>
+        <v>306.86</v>
       </c>
       <c r="C78" s="3">
-        <v>1736</v>
+        <v>325</v>
       </c>
       <c r="D78" s="4">
-        <v>0.02049403905451165</v>
+        <v>0.04861576796434897</v>
       </c>
       <c r="E78" s="5">
+        <v>0.3326488706365503</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2.061313586131792</v>
+      </c>
+      <c r="G78" s="5">
         <v>0.2669404517453799</v>
       </c>
-      <c r="F78" s="4">
-        <v>3.803408854804674</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0.6776180698151951</v>
-      </c>
       <c r="H78" s="4">
-        <v>7.12</v>
+        <v>10.88</v>
       </c>
       <c r="I78" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.1930184804928131</v>
       </c>
       <c r="J78" s="4">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="K78" s="5">
-        <v>0.3850102669404517</v>
+        <v>0.4127310061601643</v>
       </c>
       <c r="L78" s="4">
-        <v>0.8085</v>
+        <v>1.81</v>
       </c>
       <c r="M78" s="5">
-        <v>0.09856262833675565</v>
+        <v>0.3008213552361396</v>
       </c>
       <c r="N78" s="4">
-        <v>6.524969556836194</v>
+        <v>7.60902915021916</v>
       </c>
       <c r="O78" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="P78" s="4">
-        <v>5.340466663461061</v>
+        <v>5.095735397419371</v>
       </c>
       <c r="Q78" s="5">
-        <v>0.3675564681724846</v>
+        <v>0.3408624229979466</v>
       </c>
       <c r="R78" s="5">
-        <v>0.2911410970959226</v>
+        <v>0.2890877090055735</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5136,55 +5136,55 @@
         <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>228.42</v>
+        <v>55.63</v>
       </c>
       <c r="C79" s="3">
-        <v>437</v>
+        <v>1797</v>
       </c>
       <c r="D79" s="4">
-        <v>0.0569393140258022</v>
+        <v>0.02059587739872536</v>
       </c>
       <c r="E79" s="5">
-        <v>0.351129363449692</v>
+        <v>0.2669404517453799</v>
       </c>
       <c r="F79" s="4">
-        <v>4.236059823249002</v>
+        <v>3.770405389823639</v>
       </c>
       <c r="G79" s="5">
-        <v>0.728952772073922</v>
+        <v>0.6735112936344969</v>
       </c>
       <c r="H79" s="4">
-        <v>7.35</v>
+        <v>7.11</v>
       </c>
       <c r="I79" s="5">
-        <v>0.1170431211498973</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="J79" s="4">
-        <v>3.01</v>
+        <v>2.56</v>
       </c>
       <c r="K79" s="5">
-        <v>0.457905544147844</v>
+        <v>0.3819301848049281</v>
       </c>
       <c r="L79" s="4">
-        <v>0.6692</v>
+        <v>0.8064</v>
       </c>
       <c r="M79" s="5">
-        <v>0.06981519507186858</v>
+        <v>0.09856262833675565</v>
       </c>
       <c r="N79" s="4">
-        <v>6.193986247064255</v>
+        <v>6.530272417138757</v>
       </c>
       <c r="O79" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.1293634496919918</v>
       </c>
       <c r="P79" s="4">
-        <v>3.444466798667173</v>
+        <v>5.397786828831656</v>
       </c>
       <c r="Q79" s="5">
-        <v>0.2114989733059548</v>
+        <v>0.3716632443531827</v>
       </c>
       <c r="R79" s="5">
-        <v>0.2927544734526254</v>
+        <v>0.290114403050748</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5192,55 +5192,55 @@
         <v>96</v>
       </c>
       <c r="B80" s="2">
-        <v>41.2</v>
+        <v>232.57</v>
       </c>
       <c r="C80" s="3">
-        <v>2427</v>
+        <v>429</v>
       </c>
       <c r="D80" s="4">
-        <v>-3.752021420117636</v>
+        <v>0.0593914912067536</v>
       </c>
       <c r="E80" s="5">
-        <v>0.03901437371663244</v>
+        <v>0.3552361396303901</v>
       </c>
       <c r="F80" s="4">
-        <v>28.61854871980354</v>
+        <v>4.198070960834966</v>
       </c>
       <c r="G80" s="5">
-        <v>0.9856262833675565</v>
+        <v>0.7207392197125257</v>
       </c>
       <c r="H80" s="4">
-        <v>-375.31</v>
+        <v>7.63</v>
       </c>
       <c r="I80" s="5">
-        <v>0.002053388090349076</v>
+        <v>0.1211498973305955</v>
       </c>
       <c r="J80" s="4">
-        <v>9.65</v>
+        <v>2.96</v>
       </c>
       <c r="K80" s="5">
-        <v>0.7946611909650925</v>
+        <v>0.446611909650924</v>
       </c>
       <c r="L80" s="4">
-        <v>1.04</v>
+        <v>0.6632</v>
       </c>
       <c r="M80" s="5">
-        <v>0.1365503080082136</v>
+        <v>0.06981519507186858</v>
       </c>
       <c r="N80" s="4">
-        <v>-14.65002765338065</v>
+        <v>6.324715758623275</v>
       </c>
       <c r="O80" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="P80" s="4">
-        <v>1.638050096907423</v>
+        <v>3.567885666003001</v>
       </c>
       <c r="Q80" s="5">
-        <v>0.08213552361396304</v>
+        <v>0.215605749486653</v>
       </c>
       <c r="R80" s="5">
-        <v>0.2929011440305075</v>
+        <v>0.2926078028747434</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5248,55 +5248,55 @@
         <v>97</v>
       </c>
       <c r="B81" s="2">
-        <v>305.56</v>
+        <v>39.5</v>
       </c>
       <c r="C81" s="3">
-        <v>327</v>
+        <v>2531</v>
       </c>
       <c r="D81" s="4">
-        <v>0.04693038950049416</v>
+        <v>-3.734886159228302</v>
       </c>
       <c r="E81" s="5">
-        <v>0.3285420944558521</v>
+        <v>0.04106776180698152</v>
       </c>
       <c r="F81" s="4">
-        <v>2.023102752866879</v>
+        <v>28.47474124265481</v>
       </c>
       <c r="G81" s="5">
-        <v>0.2566735112936345</v>
+        <v>0.9856262833675565</v>
       </c>
       <c r="H81" s="4">
-        <v>11.06</v>
+        <v>-383.78</v>
       </c>
       <c r="I81" s="5">
-        <v>0.2012320328542095</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="J81" s="4">
-        <v>2.82</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="K81" s="5">
-        <v>0.419917864476386</v>
+        <v>0.7987679671457906</v>
       </c>
       <c r="L81" s="4">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="M81" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="N81" s="4">
-        <v>7.757114014539663</v>
+        <v>-15.36976920962885</v>
       </c>
       <c r="O81" s="5">
-        <v>0.1868583162217659</v>
+        <v>0.008213552361396304</v>
       </c>
       <c r="P81" s="4">
-        <v>5.227996612442122</v>
+        <v>1.661427210217673</v>
       </c>
       <c r="Q81" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="R81" s="5">
-        <v>0.2934878263420358</v>
+        <v>0.2933411557641537</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5304,55 +5304,55 @@
         <v>98</v>
       </c>
       <c r="B82" s="2">
-        <v>51.82</v>
+        <v>120.8</v>
       </c>
       <c r="C82" s="3">
-        <v>1929</v>
+        <v>827</v>
       </c>
       <c r="D82" s="4">
-        <v>0.03842146343051172</v>
+        <v>0.1233107081174177</v>
       </c>
       <c r="E82" s="5">
-        <v>0.3162217659137577</v>
+        <v>0.4373716632443532</v>
       </c>
       <c r="F82" s="4">
-        <v>3.541607567901</v>
+        <v>1.768042418596511</v>
       </c>
       <c r="G82" s="5">
-        <v>0.6406570841889118</v>
+        <v>0.1642710472279261</v>
       </c>
       <c r="H82" s="4">
-        <v>17.84</v>
+        <v>23.09</v>
       </c>
       <c r="I82" s="5">
-        <v>0.3675564681724846</v>
+        <v>0.4681724845995893</v>
       </c>
       <c r="J82" s="4">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="K82" s="5">
-        <v>0.2956878850102669</v>
+        <v>0.2453798767967146</v>
       </c>
       <c r="L82" s="4">
-        <v>0.3399</v>
+        <v>1.7</v>
       </c>
       <c r="M82" s="5">
-        <v>0.02258726899383983</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="N82" s="4">
-        <v>10.71794508053085</v>
+        <v>7.62277169588076</v>
       </c>
       <c r="O82" s="5">
-        <v>0.3449691991786448</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="P82" s="4">
-        <v>1.877793182621413</v>
+        <v>4.31207872932304</v>
       </c>
       <c r="Q82" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="R82" s="5">
-        <v>0.297741273100616</v>
+        <v>0.2940745086535641</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5360,55 +5360,55 @@
         <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>117.8</v>
+        <v>257.37</v>
       </c>
       <c r="C83" s="3">
-        <v>848</v>
+        <v>388</v>
       </c>
       <c r="D83" s="4">
-        <v>0.1282786470579151</v>
+        <v>0.1480382473155344</v>
       </c>
       <c r="E83" s="5">
-        <v>0.4455852156057494</v>
+        <v>0.4620123203285421</v>
       </c>
       <c r="F83" s="4">
-        <v>1.810118895564451</v>
+        <v>3.460380500186476</v>
       </c>
       <c r="G83" s="5">
-        <v>0.1827515400410678</v>
+        <v>0.6057494866529773</v>
       </c>
       <c r="H83" s="4">
-        <v>23.41</v>
+        <v>14.01</v>
       </c>
       <c r="I83" s="5">
-        <v>0.4702258726899384</v>
+        <v>0.2689938398357289</v>
       </c>
       <c r="J83" s="4">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="K83" s="5">
-        <v>0.2464065708418891</v>
+        <v>0.4024640657084189</v>
       </c>
       <c r="L83" s="4">
-        <v>1.72</v>
+        <v>0.765</v>
       </c>
       <c r="M83" s="5">
-        <v>0.2833675564681725</v>
+        <v>0.08829568788501026</v>
       </c>
       <c r="N83" s="4">
-        <v>7.601640621986631</v>
+        <v>8.14382002018581</v>
       </c>
       <c r="O83" s="5">
-        <v>0.1786447638603696</v>
+        <v>0.2094455852156057</v>
       </c>
       <c r="P83" s="4">
-        <v>4.284902112487058</v>
+        <v>0.8963743861221221</v>
       </c>
       <c r="Q83" s="5">
-        <v>0.2792607802874743</v>
+        <v>0.02669404517453798</v>
       </c>
       <c r="R83" s="5">
-        <v>0.2980346142563802</v>
+        <v>0.2948078615429744</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5416,55 +5416,55 @@
         <v>100</v>
       </c>
       <c r="B84" s="2">
-        <v>71</v>
+        <v>52.17</v>
       </c>
       <c r="C84" s="3">
-        <v>1408</v>
+        <v>1916</v>
       </c>
       <c r="D84" s="4">
-        <v>-0.5555029772282151</v>
+        <v>0.03874064350971143</v>
       </c>
       <c r="E84" s="5">
-        <v>0.1663244353182751</v>
+        <v>0.3182751540041068</v>
       </c>
       <c r="F84" s="4">
-        <v>-46.47189775481826</v>
+        <v>3.574663138050089</v>
       </c>
       <c r="G84" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.6386036960985626</v>
       </c>
       <c r="H84" s="4">
-        <v>37.63</v>
+        <v>17.66</v>
       </c>
       <c r="I84" s="5">
-        <v>0.7268993839835729</v>
+        <v>0.3603696098562629</v>
       </c>
       <c r="J84" s="4">
-        <v>-134.61</v>
+        <v>1.95</v>
       </c>
       <c r="K84" s="5">
-        <v>0.01026694045174538</v>
+        <v>0.2915811088295688</v>
       </c>
       <c r="L84" s="4">
-        <v>2.07</v>
+        <v>0.3307</v>
       </c>
       <c r="M84" s="5">
-        <v>0.353182751540041</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="N84" s="4">
-        <v>11.91994346425478</v>
+        <v>10.79090732894676</v>
       </c>
       <c r="O84" s="5">
-        <v>0.3921971252566736</v>
+        <v>0.3470225872689939</v>
       </c>
       <c r="P84" s="4">
-        <v>6.29204515650489</v>
+        <v>1.879578216343064</v>
       </c>
       <c r="Q84" s="5">
-        <v>0.431211498973306</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="R84" s="5">
-        <v>0.2986212965679085</v>
+        <v>0.295834555588149</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5472,55 +5472,55 @@
         <v>101</v>
       </c>
       <c r="B85" s="2">
-        <v>35.87</v>
+        <v>68</v>
       </c>
       <c r="C85" s="3">
-        <v>2787</v>
+        <v>1470</v>
       </c>
       <c r="D85" s="4">
-        <v>0.0348414865218037</v>
+        <v>-0.5638946682104299</v>
       </c>
       <c r="E85" s="5">
-        <v>0.3080082135523614</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="F85" s="4">
-        <v>1.973426784803696</v>
+        <v>-46.22695821441637</v>
       </c>
       <c r="G85" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="H85" s="4">
-        <v>19.71</v>
+        <v>37.26</v>
       </c>
       <c r="I85" s="5">
-        <v>0.4055441478439425</v>
+        <v>0.7186858316221766</v>
       </c>
       <c r="J85" s="4">
-        <v>0.879</v>
+        <v>-134.88</v>
       </c>
       <c r="K85" s="5">
-        <v>0.09034907597535934</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="L85" s="4">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="M85" s="5">
-        <v>0.2782340862422998</v>
+        <v>0.3439425051334702</v>
       </c>
       <c r="N85" s="4">
-        <v>10.02052496037323</v>
+        <v>11.92337595823822</v>
       </c>
       <c r="O85" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.3901437371663244</v>
       </c>
       <c r="P85" s="4">
-        <v>6.978781716242873</v>
+        <v>6.260778019269405</v>
       </c>
       <c r="Q85" s="5">
-        <v>0.4784394250513347</v>
+        <v>0.4373716632443532</v>
       </c>
       <c r="R85" s="5">
-        <v>0.3003813435024934</v>
+        <v>0.2967145790554415</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5528,55 +5528,55 @@
         <v>102</v>
       </c>
       <c r="B86" s="2">
-        <v>262.34</v>
+        <v>35.84</v>
       </c>
       <c r="C86" s="3">
-        <v>381</v>
+        <v>2790</v>
       </c>
       <c r="D86" s="4">
-        <v>0.1459397714871483</v>
+        <v>0.0345757666376256</v>
       </c>
       <c r="E86" s="5">
-        <v>0.459958932238193</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="F86" s="4">
-        <v>3.462086578629822</v>
+        <v>1.936839665940896</v>
       </c>
       <c r="G86" s="5">
-        <v>0.6098562628336756</v>
+        <v>0.2217659137577002</v>
       </c>
       <c r="H86" s="4">
-        <v>14.28</v>
+        <v>19.23</v>
       </c>
       <c r="I86" s="5">
-        <v>0.2751540041067762</v>
+        <v>0.393223819301848</v>
       </c>
       <c r="J86" s="4">
-        <v>2.8</v>
+        <v>0.9028</v>
       </c>
       <c r="K86" s="5">
-        <v>0.4127310061601643</v>
+        <v>0.09240246406570841</v>
       </c>
       <c r="L86" s="4">
-        <v>0.785</v>
+        <v>1.7</v>
       </c>
       <c r="M86" s="5">
-        <v>0.09240246406570841</v>
+        <v>0.2813141683778234</v>
       </c>
       <c r="N86" s="4">
-        <v>8.502904877735977</v>
+        <v>9.978521656752029</v>
       </c>
       <c r="O86" s="5">
-        <v>0.2361396303901437</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="P86" s="4">
-        <v>0.9253679791619971</v>
+        <v>6.993492795135964</v>
       </c>
       <c r="Q86" s="5">
-        <v>0.02874743326488706</v>
+        <v>0.4763860369609856</v>
       </c>
       <c r="R86" s="5">
-        <v>0.3021413904370783</v>
+        <v>0.2967145790554415</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5584,55 +5584,55 @@
         <v>103</v>
       </c>
       <c r="B87" s="2">
-        <v>64.38</v>
+        <v>63.59</v>
       </c>
       <c r="C87" s="3">
-        <v>1553</v>
+        <v>1572</v>
       </c>
       <c r="D87" s="4">
-        <v>0.01694935288639801</v>
+        <v>0.01683102807623877</v>
       </c>
       <c r="E87" s="5">
-        <v>0.2587268993839836</v>
+        <v>0.2566735112936345</v>
       </c>
       <c r="F87" s="4">
-        <v>11.58302828705969</v>
+        <v>11.7639339071612</v>
       </c>
       <c r="G87" s="5">
         <v>0.9301848049281314</v>
       </c>
       <c r="H87" s="4">
-        <v>6.11</v>
+        <v>6.05</v>
       </c>
       <c r="I87" s="5">
         <v>0.09445585215605749</v>
       </c>
       <c r="J87" s="4">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="K87" s="5">
-        <v>0.1652977412731006</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="L87" s="4">
         <v>2.9</v>
       </c>
       <c r="M87" s="5">
-        <v>0.471252566735113</v>
+        <v>0.4640657084188912</v>
       </c>
       <c r="N87" s="4">
-        <v>4.851771303855321</v>
+        <v>4.592190083301833</v>
       </c>
       <c r="O87" s="5">
-        <v>0.07392197125256673</v>
+        <v>0.06570841889117043</v>
       </c>
       <c r="P87" s="4">
-        <v>2.636568938708246</v>
+        <v>2.555341456705042</v>
       </c>
       <c r="Q87" s="5">
-        <v>0.1375770020533881</v>
+        <v>0.1334702258726899</v>
       </c>
       <c r="R87" s="5">
-        <v>0.3044881196831916</v>
+        <v>0.2989146377236726</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5640,52 +5640,52 @@
         <v>104</v>
       </c>
       <c r="B88" s="2">
-        <v>50.12</v>
+        <v>49.74</v>
       </c>
       <c r="C88" s="3">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="D88" s="4">
-        <v>0.01172163831875989</v>
+        <v>0.01184701797089167</v>
       </c>
       <c r="E88" s="5">
         <v>0.2340862422997947</v>
       </c>
       <c r="F88" s="4">
-        <v>10.82306685904581</v>
+        <v>10.55814263561088</v>
       </c>
       <c r="G88" s="5">
-        <v>0.9096509240246407</v>
+        <v>0.9055441478439425</v>
       </c>
       <c r="H88" s="4">
-        <v>11.79</v>
+        <v>11.81</v>
       </c>
       <c r="I88" s="5">
         <v>0.2197125256673511</v>
       </c>
       <c r="J88" s="4">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="K88" s="5">
-        <v>0.1262833675564682</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="L88" s="4">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M88" s="5">
-        <v>0.4250513347022587</v>
+        <v>0.417864476386037</v>
       </c>
       <c r="N88" s="4">
-        <v>6.024466010984698</v>
+        <v>6.065316361253435</v>
       </c>
       <c r="O88" s="5">
-        <v>0.108829568788501</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="P88" s="4">
-        <v>2.305427570287126</v>
+        <v>2.391420156650919</v>
       </c>
       <c r="Q88" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.1232032854209446</v>
       </c>
       <c r="R88" s="5">
         <v>0.3061014960398944</v>
@@ -5696,55 +5696,55 @@
         <v>105</v>
       </c>
       <c r="B89" s="2">
-        <v>23.24</v>
+        <v>23.41</v>
       </c>
       <c r="C89" s="3">
-        <v>4302</v>
+        <v>4271</v>
       </c>
       <c r="D89" s="4">
-        <v>0.1894892140538796</v>
+        <v>0.1858527480088078</v>
       </c>
       <c r="E89" s="5">
-        <v>0.4928131416837783</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="F89" s="4">
-        <v>2.027873525915828</v>
+        <v>2.076149381136486</v>
       </c>
       <c r="G89" s="5">
-        <v>0.2587268993839836</v>
+        <v>0.2792607802874743</v>
       </c>
       <c r="H89" s="4">
-        <v>28.13</v>
+        <v>27.96</v>
       </c>
       <c r="I89" s="5">
-        <v>0.5913757700205339</v>
+        <v>0.5893223819301848</v>
       </c>
       <c r="J89" s="4">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="K89" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.2238193018480493</v>
       </c>
       <c r="L89" s="4">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M89" s="5">
-        <v>0.2002053388090349</v>
+        <v>0.2032854209445585</v>
       </c>
       <c r="N89" s="4">
-        <v>10.30712215799136</v>
+        <v>9.940005640810037</v>
       </c>
       <c r="O89" s="5">
-        <v>0.3141683778234086</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="P89" s="4">
-        <v>1.378281578556388</v>
+        <v>1.33633274825232</v>
       </c>
       <c r="Q89" s="5">
-        <v>0.0595482546201232</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="R89" s="5">
-        <v>0.3066881783514227</v>
+        <v>0.3068348489293048</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5752,55 +5752,55 @@
         <v>106</v>
       </c>
       <c r="B90" s="2">
-        <v>82.42</v>
+        <v>22.01</v>
       </c>
       <c r="C90" s="3">
-        <v>1213</v>
+        <v>4543</v>
       </c>
       <c r="D90" s="4">
-        <v>0.01637034050912627</v>
+        <v>0.03440986606075464</v>
       </c>
       <c r="E90" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.3039014373716633</v>
       </c>
       <c r="F90" s="4">
-        <v>1.735531687174417</v>
+        <v>8.658382023139353</v>
       </c>
       <c r="G90" s="5">
+        <v>0.8829568788501027</v>
+      </c>
+      <c r="H90" s="4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0.1293634496919918</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.1273100616016427</v>
+      </c>
+      <c r="L90" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0.4948665297741273</v>
+      </c>
+      <c r="N90" s="4">
+        <v>5.398232647793497</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0.09650924024640657</v>
+      </c>
+      <c r="P90" s="4">
+        <v>2.822272674721769</v>
+      </c>
+      <c r="Q90" s="5">
         <v>0.1560574948665298</v>
       </c>
-      <c r="H90" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="I90" s="5">
-        <v>0.1211498973305955</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="K90" s="5">
-        <v>0.2084188911704312</v>
-      </c>
-      <c r="L90" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="M90" s="5">
-        <v>0.3983572895277207</v>
-      </c>
-      <c r="N90" s="4">
-        <v>13.88092880556364</v>
-      </c>
-      <c r="O90" s="5">
-        <v>0.4784394250513347</v>
-      </c>
-      <c r="P90" s="4">
-        <v>8.062533828196758</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>0.5564681724845996</v>
-      </c>
       <c r="R90" s="5">
-        <v>0.3105016133763567</v>
+        <v>0.312995013200352</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5808,55 +5808,55 @@
         <v>107</v>
       </c>
       <c r="B91" s="2">
-        <v>115.57</v>
+        <v>115.25</v>
       </c>
       <c r="C91" s="3">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D91" s="4">
-        <v>0.0342686861605064</v>
+        <v>0.0352746780749506</v>
       </c>
       <c r="E91" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.3100616016427105</v>
       </c>
       <c r="F91" s="4">
-        <v>2.974317630780591</v>
+        <v>2.90365415659946</v>
       </c>
       <c r="G91" s="5">
-        <v>0.5195071868583162</v>
+        <v>0.5051334702258727</v>
       </c>
       <c r="H91" s="4">
-        <v>21.42</v>
+        <v>20.72</v>
       </c>
       <c r="I91" s="5">
-        <v>0.4353182751540041</v>
+        <v>0.4188911704312115</v>
       </c>
       <c r="J91" s="4">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="K91" s="5">
-        <v>0.4322381930184804</v>
+        <v>0.4548254620123203</v>
       </c>
       <c r="L91" s="4">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M91" s="5">
-        <v>0.2381930184804928</v>
+        <v>0.2351129363449692</v>
       </c>
       <c r="N91" s="4">
-        <v>7.4181071954441</v>
+        <v>7.461429654018445</v>
       </c>
       <c r="O91" s="5">
         <v>0.1663244353182751</v>
       </c>
       <c r="P91" s="4">
-        <v>1.940615689823618</v>
+        <v>1.951036094119766</v>
       </c>
       <c r="Q91" s="5">
-        <v>0.1047227926078029</v>
+        <v>0.1006160164271047</v>
       </c>
       <c r="R91" s="5">
-        <v>0.3143150484012907</v>
+        <v>0.312995013200352</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5864,55 +5864,55 @@
         <v>108</v>
       </c>
       <c r="B92" s="2">
-        <v>22.53</v>
+        <v>360.07</v>
       </c>
       <c r="C92" s="3">
-        <v>4438</v>
+        <v>277</v>
       </c>
       <c r="D92" s="4">
-        <v>0.03423452304299105</v>
+        <v>0.03812583409994479</v>
       </c>
       <c r="E92" s="5">
-        <v>0.3018480492813141</v>
+        <v>0.3162217659137577</v>
       </c>
       <c r="F92" s="4">
-        <v>8.417100401694373</v>
+        <v>4.693870064519589</v>
       </c>
       <c r="G92" s="5">
-        <v>0.8809034907597535</v>
+        <v>0.7700205338809034</v>
       </c>
       <c r="H92" s="4">
-        <v>8.09</v>
+        <v>9.24</v>
       </c>
       <c r="I92" s="5">
-        <v>0.1314168377823409</v>
+        <v>0.1498973305954825</v>
       </c>
       <c r="J92" s="4">
-        <v>1.24</v>
+        <v>2.92</v>
       </c>
       <c r="K92" s="5">
-        <v>0.1344969199178645</v>
+        <v>0.4342915811088296</v>
       </c>
       <c r="L92" s="4">
-        <v>3.22</v>
+        <v>1.26</v>
       </c>
       <c r="M92" s="5">
-        <v>0.5082135523613963</v>
+        <v>0.1786447638603696</v>
       </c>
       <c r="N92" s="4">
-        <v>5.566861586718622</v>
+        <v>6.182005281195001</v>
       </c>
       <c r="O92" s="5">
-        <v>0.09445585215605749</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="P92" s="4">
-        <v>2.877366559161463</v>
+        <v>3.802844713379335</v>
       </c>
       <c r="Q92" s="5">
-        <v>0.1581108829568788</v>
+        <v>0.2361396303901437</v>
       </c>
       <c r="R92" s="5">
-        <v>0.3156350836022294</v>
+        <v>0.3143150484012907</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5920,55 +5920,55 @@
         <v>109</v>
       </c>
       <c r="B93" s="2">
-        <v>74.31</v>
+        <v>135.58</v>
       </c>
       <c r="C93" s="3">
-        <v>1345</v>
+        <v>737</v>
       </c>
       <c r="D93" s="4">
-        <v>0.04793312454340579</v>
+        <v>-2.093736577859917</v>
       </c>
       <c r="E93" s="5">
-        <v>0.3326488706365503</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="F93" s="4">
-        <v>1.983806741215352</v>
+        <v>1.996156792903918</v>
       </c>
       <c r="G93" s="5">
-        <v>0.2402464065708419</v>
+        <v>0.2525667351129364</v>
       </c>
       <c r="H93" s="4">
-        <v>19.71</v>
+        <v>19.82</v>
       </c>
       <c r="I93" s="5">
-        <v>0.4055441478439425</v>
+        <v>0.4086242299794661</v>
       </c>
       <c r="J93" s="4">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="K93" s="5">
-        <v>0.3223819301848049</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="L93" s="4">
-        <v>2.71</v>
+        <v>1.87</v>
       </c>
       <c r="M93" s="5">
-        <v>0.4394250513347023</v>
+        <v>0.3121149897330595</v>
       </c>
       <c r="N93" s="4">
-        <v>7.392717763869758</v>
+        <v>12.80823932931037</v>
       </c>
       <c r="O93" s="5">
-        <v>0.1642710472279261</v>
+        <v>0.4435318275154004</v>
       </c>
       <c r="P93" s="4">
-        <v>4.598643878631327</v>
+        <v>6.495656322706509</v>
       </c>
       <c r="Q93" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.4517453798767967</v>
       </c>
       <c r="R93" s="5">
-        <v>0.3157817541801115</v>
+        <v>0.3156350836022294</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5976,55 +5976,55 @@
         <v>110</v>
       </c>
       <c r="B94" s="2">
-        <v>360.01</v>
+        <v>80.33</v>
       </c>
       <c r="C94" s="3">
-        <v>277</v>
+        <v>1244</v>
       </c>
       <c r="D94" s="4">
-        <v>0.0385570759950359</v>
+        <v>0.0170395781095494</v>
       </c>
       <c r="E94" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="F94" s="4">
-        <v>4.654500486257829</v>
+        <v>1.769084749405877</v>
       </c>
       <c r="G94" s="5">
-        <v>0.7659137577002053</v>
+        <v>0.1663244353182751</v>
       </c>
       <c r="H94" s="4">
-        <v>9.43</v>
+        <v>7.54</v>
       </c>
       <c r="I94" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.1190965092402464</v>
       </c>
       <c r="J94" s="4">
-        <v>2.99</v>
+        <v>1.61</v>
       </c>
       <c r="K94" s="5">
-        <v>0.4507186858316222</v>
+        <v>0.2125256673511293</v>
       </c>
       <c r="L94" s="4">
-        <v>1.25</v>
+        <v>2.43</v>
       </c>
       <c r="M94" s="5">
-        <v>0.1776180698151951</v>
+        <v>0.406570841889117</v>
       </c>
       <c r="N94" s="4">
-        <v>6.480923950099568</v>
+        <v>13.7314339647638</v>
       </c>
       <c r="O94" s="5">
-        <v>0.1252566735112936</v>
+        <v>0.4681724845995893</v>
       </c>
       <c r="P94" s="4">
-        <v>3.717436102022454</v>
+        <v>8.279571512986443</v>
       </c>
       <c r="Q94" s="5">
-        <v>0.2299794661190965</v>
+        <v>0.5790554414784395</v>
       </c>
       <c r="R94" s="5">
-        <v>0.3171017893810502</v>
+        <v>0.3157817541801115</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6032,55 +6032,55 @@
         <v>111</v>
       </c>
       <c r="B95" s="2">
-        <v>134.07</v>
+        <v>71.64</v>
       </c>
       <c r="C95" s="3">
-        <v>745</v>
+        <v>1395</v>
       </c>
       <c r="D95" s="4">
-        <v>-2.103269769724519</v>
+        <v>0.04757462461691587</v>
       </c>
       <c r="E95" s="5">
-        <v>0.08418891170431211</v>
+        <v>0.3305954825462012</v>
       </c>
       <c r="F95" s="4">
-        <v>2.036145226463028</v>
+        <v>2.012088075694314</v>
       </c>
       <c r="G95" s="5">
-        <v>0.2607802874743326</v>
+        <v>0.2546201232032854</v>
       </c>
       <c r="H95" s="4">
-        <v>19.76</v>
+        <v>19.39</v>
       </c>
       <c r="I95" s="5">
-        <v>0.4086242299794661</v>
+        <v>0.3963039014373717</v>
       </c>
       <c r="J95" s="4">
-        <v>1.74</v>
+        <v>2.22</v>
       </c>
       <c r="K95" s="5">
-        <v>0.2505133470225873</v>
+        <v>0.3254620123203286</v>
       </c>
       <c r="L95" s="4">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="M95" s="5">
-        <v>0.3090349075975359</v>
+        <v>0.4250513347022587</v>
       </c>
       <c r="N95" s="4">
-        <v>13.06569624111522</v>
+        <v>7.565308840613937</v>
       </c>
       <c r="O95" s="5">
-        <v>0.4496919917864476</v>
+        <v>0.1745379876796715</v>
       </c>
       <c r="P95" s="4">
-        <v>6.689088900998698</v>
+        <v>4.564853910888546</v>
       </c>
       <c r="Q95" s="5">
-        <v>0.457905544147844</v>
+        <v>0.3080082135523614</v>
       </c>
       <c r="R95" s="5">
-        <v>0.3172484599589322</v>
+        <v>0.3163684364916398</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6088,55 +6088,55 @@
         <v>112</v>
       </c>
       <c r="B96" s="2">
-        <v>104.85</v>
+        <v>48.44</v>
       </c>
       <c r="C96" s="3">
-        <v>953</v>
+        <v>2064</v>
       </c>
       <c r="D96" s="4">
-        <v>-0.7411955839143264</v>
+        <v>0.07763053762572962</v>
       </c>
       <c r="E96" s="5">
-        <v>0.1519507186858316</v>
+        <v>0.37782340862423</v>
       </c>
       <c r="F96" s="4">
-        <v>4.033310467659462</v>
+        <v>8.220332822559778</v>
       </c>
       <c r="G96" s="5">
-        <v>0.7063655030800821</v>
+        <v>0.8747433264887065</v>
       </c>
       <c r="H96" s="4">
-        <v>14.68</v>
+        <v>9.67</v>
       </c>
       <c r="I96" s="5">
-        <v>0.2833675564681725</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="J96" s="4">
-        <v>3.31</v>
+        <v>0.9539</v>
       </c>
       <c r="K96" s="5">
-        <v>0.4907597535934291</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="L96" s="4">
-        <v>1.33</v>
+        <v>2.93</v>
       </c>
       <c r="M96" s="5">
-        <v>0.188911704312115</v>
+        <v>0.4702258726899384</v>
       </c>
       <c r="N96" s="4">
-        <v>10.71408692669334</v>
+        <v>5.722009696939155</v>
       </c>
       <c r="O96" s="5">
-        <v>0.3429158110882957</v>
+        <v>0.1026694045174538</v>
       </c>
       <c r="P96" s="4">
-        <v>1.272164313877107</v>
+        <v>2.683835985139125</v>
       </c>
       <c r="Q96" s="5">
-        <v>0.05749486652977413</v>
+        <v>0.1375770020533881</v>
       </c>
       <c r="R96" s="5">
-        <v>0.3173951305368143</v>
+        <v>0.3171017893810502</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6144,55 +6144,55 @@
         <v>113</v>
       </c>
       <c r="B97" s="2">
-        <v>47.51</v>
+        <v>71.37</v>
       </c>
       <c r="C97" s="3">
-        <v>2104</v>
+        <v>1401</v>
       </c>
       <c r="D97" s="4">
-        <v>0.07777035081020393</v>
+        <v>-1.371082153470109</v>
       </c>
       <c r="E97" s="5">
-        <v>0.37782340862423</v>
+        <v>0.108829568788501</v>
       </c>
       <c r="F97" s="4">
-        <v>8.013639306979035</v>
+        <v>3.633419906465538</v>
       </c>
       <c r="G97" s="5">
-        <v>0.8706365503080081</v>
+        <v>0.6529774127310062</v>
       </c>
       <c r="H97" s="4">
-        <v>9.640000000000001</v>
+        <v>13.86</v>
       </c>
       <c r="I97" s="5">
-        <v>0.1601642710472279</v>
+        <v>0.2648870636550308</v>
       </c>
       <c r="J97" s="4">
-        <v>0.9506</v>
+        <v>1.33</v>
       </c>
       <c r="K97" s="5">
-        <v>0.09650924024640657</v>
+        <v>0.1478439425051335</v>
       </c>
       <c r="L97" s="4">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="M97" s="5">
-        <v>0.4784394250513347</v>
+        <v>0.351129363449692</v>
       </c>
       <c r="N97" s="4">
-        <v>5.805352489640859</v>
+        <v>10.14169581606843</v>
       </c>
       <c r="O97" s="5">
-        <v>0.1006160164271047</v>
+        <v>0.3141683778234086</v>
       </c>
       <c r="P97" s="4">
-        <v>2.726044923285928</v>
+        <v>5.622463653302106</v>
       </c>
       <c r="Q97" s="5">
-        <v>0.1437371663244353</v>
+        <v>0.3839835728952772</v>
       </c>
       <c r="R97" s="5">
-        <v>0.3182751540041068</v>
+        <v>0.3176884716925785</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6200,55 +6200,55 @@
         <v>114</v>
       </c>
       <c r="B98" s="2">
-        <v>413.43</v>
+        <v>105.11</v>
       </c>
       <c r="C98" s="3">
-        <v>241</v>
+        <v>951</v>
       </c>
       <c r="D98" s="4">
-        <v>0.001684187803935791</v>
+        <v>-0.7697003002100747</v>
       </c>
       <c r="E98" s="5">
-        <v>0.2135523613963039</v>
+        <v>0.1519507186858316</v>
       </c>
       <c r="F98" s="4">
-        <v>1.429528966188033</v>
+        <v>4.026726371251764</v>
       </c>
       <c r="G98" s="5">
-        <v>0.08829568788501026</v>
+        <v>0.7125256673511293</v>
       </c>
       <c r="H98" s="4">
-        <v>3.49</v>
+        <v>15.2</v>
       </c>
       <c r="I98" s="5">
-        <v>0.06776180698151951</v>
+        <v>0.2967145790554415</v>
       </c>
       <c r="J98" s="4">
-        <v>1.6</v>
+        <v>3.32</v>
       </c>
       <c r="K98" s="5">
-        <v>0.2084188911704312</v>
+        <v>0.4887063655030801</v>
       </c>
       <c r="L98" s="4">
-        <v>3.75</v>
+        <v>1.27</v>
       </c>
       <c r="M98" s="5">
-        <v>0.5698151950718686</v>
+        <v>0.1806981519507187</v>
       </c>
       <c r="N98" s="4">
-        <v>18.84929336292458</v>
+        <v>10.77771066045503</v>
       </c>
       <c r="O98" s="5">
-        <v>0.648870636550308</v>
+        <v>0.3449691991786448</v>
       </c>
       <c r="P98" s="4">
-        <v>6.410711767407661</v>
+        <v>1.24408472308733</v>
       </c>
       <c r="Q98" s="5">
-        <v>0.4394250513347023</v>
+        <v>0.05544147843942505</v>
       </c>
       <c r="R98" s="5">
-        <v>0.3194485186271634</v>
+        <v>0.318715165737753</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6256,55 +6256,55 @@
         <v>115</v>
       </c>
       <c r="B99" s="2">
-        <v>252.41</v>
+        <v>413.64</v>
       </c>
       <c r="C99" s="3">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="D99" s="4">
-        <v>0.06117456098495229</v>
+        <v>0.001724016393449271</v>
       </c>
       <c r="E99" s="5">
-        <v>0.3572895277207392</v>
+        <v>0.2135523613963039</v>
       </c>
       <c r="F99" s="4">
-        <v>2.296411350404695</v>
+        <v>1.388795255015975</v>
       </c>
       <c r="G99" s="5">
-        <v>0.3634496919917864</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="H99" s="4">
-        <v>18.96</v>
+        <v>3.56</v>
       </c>
       <c r="I99" s="5">
-        <v>0.3921971252566736</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="J99" s="4">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="K99" s="5">
-        <v>0.1837782340862423</v>
+        <v>0.2125256673511293</v>
       </c>
       <c r="L99" s="4">
-        <v>1.76</v>
+        <v>3.82</v>
       </c>
       <c r="M99" s="5">
-        <v>0.2895277207392197</v>
+        <v>0.5790554414784395</v>
       </c>
       <c r="N99" s="4">
-        <v>9.697105435990398</v>
+        <v>19.16841789412393</v>
       </c>
       <c r="O99" s="5">
-        <v>0.2874743326488706</v>
+        <v>0.6611909650924025</v>
       </c>
       <c r="P99" s="4">
-        <v>5.404945211716093</v>
+        <v>6.221716841697548</v>
       </c>
       <c r="Q99" s="5">
-        <v>0.3716632443531827</v>
+        <v>0.431211498973306</v>
       </c>
       <c r="R99" s="5">
-        <v>0.3207685538281021</v>
+        <v>0.3210618949838662</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6312,55 +6312,55 @@
         <v>116</v>
       </c>
       <c r="B100" s="2">
-        <v>22.42</v>
+        <v>258.34</v>
       </c>
       <c r="C100" s="3">
-        <v>4460</v>
+        <v>387</v>
       </c>
       <c r="D100" s="4">
-        <v>0.02272225818885599</v>
+        <v>0.3361819334792162</v>
       </c>
       <c r="E100" s="5">
-        <v>0.2731006160164271</v>
+        <v>0.5708418891170431</v>
       </c>
       <c r="F100" s="4">
-        <v>3.688071688648573</v>
+        <v>-32.16392154883139</v>
       </c>
       <c r="G100" s="5">
-        <v>0.6632443531827515</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="H100" s="4">
-        <v>15.67</v>
+        <v>22.13</v>
       </c>
       <c r="I100" s="5">
-        <v>0.3039014373716633</v>
+        <v>0.4455852156057494</v>
       </c>
       <c r="J100" s="4">
-        <v>2.29</v>
+        <v>-110.21</v>
       </c>
       <c r="K100" s="5">
-        <v>0.3347022587268993</v>
+        <v>0.01437371663244353</v>
       </c>
       <c r="L100" s="4">
-        <v>0.8799</v>
+        <v>1.78</v>
       </c>
       <c r="M100" s="5">
-        <v>0.1108829568788501</v>
+        <v>0.2956878850102669</v>
       </c>
       <c r="N100" s="4">
-        <v>10.05269616414555</v>
+        <v>14.29186162010898</v>
       </c>
       <c r="O100" s="5">
-        <v>0.3059548254620123</v>
+        <v>0.4969199178644764</v>
       </c>
       <c r="P100" s="4">
-        <v>4.054799744925088</v>
+        <v>5.999077763078829</v>
       </c>
       <c r="Q100" s="5">
-        <v>0.2546201232032854</v>
+        <v>0.4106776180698152</v>
       </c>
       <c r="R100" s="5">
-        <v>0.3209152244059841</v>
+        <v>0.3215019067175124</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6368,55 +6368,55 @@
         <v>117</v>
       </c>
       <c r="B101" s="2">
-        <v>26.11</v>
+        <v>22.24</v>
       </c>
       <c r="C101" s="3">
-        <v>3829</v>
+        <v>4496</v>
       </c>
       <c r="D101" s="4">
-        <v>-2.161812905767581</v>
+        <v>0.0229388907693231</v>
       </c>
       <c r="E101" s="5">
-        <v>0.07802874743326488</v>
+        <v>0.2751540041067762</v>
       </c>
       <c r="F101" s="4">
-        <v>3.34634120547567</v>
+        <v>3.69724641790245</v>
       </c>
       <c r="G101" s="5">
-        <v>0.5893223819301848</v>
+        <v>0.6611909650924025</v>
       </c>
       <c r="H101" s="4">
-        <v>194.95</v>
+        <v>15.83</v>
       </c>
       <c r="I101" s="5">
-        <v>0.9835728952772074</v>
+        <v>0.3059548254620123</v>
       </c>
       <c r="J101" s="4">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="K101" s="5">
-        <v>0.1129363449691992</v>
+        <v>0.3429158110882957</v>
       </c>
       <c r="L101" s="4">
-        <v>1.04</v>
+        <v>0.9092</v>
       </c>
       <c r="M101" s="5">
-        <v>0.1365503080082136</v>
+        <v>0.1149897330595483</v>
       </c>
       <c r="N101" s="4">
-        <v>6.299103114941387</v>
+        <v>9.705773673628961</v>
       </c>
       <c r="O101" s="5">
-        <v>0.1190965092402464</v>
+        <v>0.2915811088295688</v>
       </c>
       <c r="P101" s="4">
-        <v>3.67537847804907</v>
+        <v>4.17327496382724</v>
       </c>
       <c r="Q101" s="5">
-        <v>0.2279260780287475</v>
+        <v>0.2587268993839836</v>
       </c>
       <c r="R101" s="5">
-        <v>0.3210618949838662</v>
+        <v>0.3215019067175124</v>
       </c>
     </row>
   </sheetData>
